--- a/dist/DIP_Excel_Template.xlsx
+++ b/dist/DIP_Excel_Template.xlsx
@@ -437,11 +437,18 @@
     <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <t>contactPoint:
-The contact information  (name and email preferred) of the main individual to contact with questions about the dataset.
+The contact information  (name and email preferred) of the individual to contact with questions about the dataset (for internal use only).
 &lt;dcat:contactPoint&gt;</t>
       </text>
     </comment>
     <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <t>contactPointPublic:
+The contact information that is shared to the public via data.gov (name and email preferred) of the main individual or group for the public to contact with questions about the dataset.
+&lt;dhs:contactPointPublic&gt;</t>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <t>collectionAuthority:
 The legislation or executive order under which the data was collected.
@@ -451,7 +458,7 @@
 &lt;dhs:collectionAuthority&gt;</t>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <t>releaseAuthority:
 The document, legislation or executive order under which he data can be released.
@@ -461,7 +468,7 @@
 &lt;dhs:releaseAuthority&gt;</t>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <t>recordsSchedule:
 The policy indicating the time period in which the records are retained.
@@ -470,21 +477,21 @@
 &lt;dhs:recordsSchedule&gt;</t>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <t>systemOfRecords:
 If the system is designated as a system of records under the Privacy Act of 1974, provide the URL to the System of Records Notice that relates to the dataset. The URL should be from FederalRegister.gov  or point to an entry from the Federal Register.
 &lt;usg:systemOfRecords&gt;</t>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <t>ptaAdjudicatedDate:
 The date on which the Privacy Threshold Assessment (PTA) was adjudicated
 &lt;dhs:ptaAdjudicatedDate&gt;</t>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <t>conformsTo:
 A technical standard that the dataset conforms to.
@@ -493,7 +500,7 @@
 &lt;dcterms:conformsTo&gt;</t>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <t>conformsFIPS:
 The Federal Inventory Processing Standard that the dataset conforms to, if any.
@@ -503,14 +510,14 @@
 &lt;dhs:conformsFIPS&gt;</t>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <t>conformsNIEMPercent:
 The numerical percentage (0-100) of the dataset that is NIEM compliant.
 &lt;dhs:conformsNIEMPercent&gt;</t>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <t>conformsUnicode:
 True or False
@@ -519,7 +526,7 @@
 &lt;dhs:conformsUnicode&gt;</t>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <t>identitiesNativeScript:
 True or False
@@ -527,7 +534,7 @@
 &lt;dhs:identitiesNativeScript&gt;</t>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <t>transliterationStandard:
 The standard of converting  text  from one language to Roman characters.
@@ -536,7 +543,7 @@
 &lt;dhs:transliterationStandard&gt;</t>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <t>sourceDatasets:
 An identifier for the originating dataset (the DHS Unique Identifier if possible or DOI or URL for externally developed datasets).
@@ -545,7 +552,7 @@
 &lt;dhs:sourceDatasets&gt;</t>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <t>destinationDatasets:
 The unique identifier of downstream datasets fed by this dataset.
@@ -554,14 +561,14 @@
 &lt;dhs:destinationDatasets&gt;</t>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <t>describedBy:
 A URL link to the  dictionary that defines the fields or column heading of the information.
 &lt;usg:describedBy&gt;</t>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <t>describedByType:
 The file format of the describedBy URL link. Should be a standard mime (IANA media)type.
@@ -570,7 +577,7 @@
 &lt;usg:describedByType&gt;</t>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <t>isPartOf:
 The source in which a grouping of related resources are included in. This is typically the name of the system in which the dataset resides.
@@ -579,7 +586,7 @@
 &lt;dcterms:isPartOf&gt;</t>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <t>isOpenSource:
 True or False
@@ -587,7 +594,7 @@
 &lt;dhs:isOpenSource&gt;</t>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <t>isCommercial:
 True or False
@@ -595,7 +602,7 @@
 &lt;dhs:isCommercial&gt;</t>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <t>hasDataDictionary:
 True or False
@@ -603,14 +610,14 @@
 &lt;dhs:hasDataDictionary&gt;</t>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <t>accrualPeriodicity:
 The frequency with which resources or sets of information are added to the dataset. Recommend timeframes (or frequency) can be found in the Collection Description Accrual Policy Vocabulary. 
 &lt;dcterms:accrualPeriodicity&gt;</t>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <t>spatial:
 A named local or geographic area.
@@ -619,7 +626,7 @@
 &lt;dcterms:spatial&gt;</t>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <t>spatialResolutionInMeters:
 How small of an area, in meters, you can make (or zoom into) an image that will still provide a quality resolution in order to identify the content in the image.
@@ -628,7 +635,7 @@
 &lt;dcat:spatialResolutionInMeters&gt;</t>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <t>temporal:
 The period of time that the dataset covers.
@@ -638,7 +645,7 @@
 &lt;dcterms:temporal&gt;</t>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <t>temporalResolution:
 The smallest amount of time between records in dataset.
@@ -649,7 +656,7 @@
 &lt;dcat:temporalResolution&gt;</t>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityKnown:
 True or False
@@ -657,14 +664,14 @@
 &lt;dhs:dataQualityKnown&gt;</t>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityPercent:
 A simple measure of the data quality, on a scale of 0-100.
 &lt;dhs:dataQualityPercent&gt;</t>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <t>dataQualityAssessment:
 A written account evaluating the quality of the information contained within the resource.
@@ -675,7 +682,7 @@
 &lt;dhs:dataQualityAssessment&gt;</t>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <t>dataQuality:
 True or False
@@ -683,7 +690,7 @@
 &lt;usg:dataQuality&gt;</t>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <t>format:
 The file format, physical medium, or dimension of the resource.
@@ -694,7 +701,7 @@
 &lt;dcterms:format&gt;</t>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0">
       <text>
         <t>accessURL:
 The landing page (URL) that gives access to the resource.
@@ -705,7 +712,7 @@
 &lt;dcat:accessURL&gt;</t>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0">
       <text>
         <t>accessURLNIEM:
 The landing page (URL) that provides you access to the NIEM interface.
@@ -713,14 +720,14 @@
 &lt;dhs:accessURLNIEM&gt;</t>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0">
       <text>
         <t>modified:
 The most recent date on  which the information contained in the resource was changed, updated, or modified.
 &lt;usg:modified&gt;</t>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <t>vendor:
 The vendor, supplier, or set of suppliers who supplied the information contained in the resource.
@@ -730,7 +737,7 @@
 &lt;dhs:vendor&gt;</t>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0">
       <text>
         <t>license:
 The legal structure that gives official permission to utilize or  distribute information contained in the resource.
@@ -739,7 +746,7 @@
 &lt;dcterms:license&gt;</t>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <t>accessRights:
 Provides information regarding access or restrictions to data based on privacy, security, or other policies
@@ -748,7 +755,7 @@
 &lt;dcterms:accessRights&gt;</t>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0" shapeId="0">
       <text>
         <t>theme:
 The main category of the information contained in the resource. A resource can have multiple themes.
@@ -761,7 +768,7 @@
 &lt;dcat:theme&gt;</t>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0" shapeId="0">
       <text>
         <t>functionalDataDomain:
 The functional subject area of the resource.
@@ -781,7 +788,7 @@
 &lt;dhs:functionalDataDomain&gt;</t>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0" shapeId="0">
       <text>
         <t>mediaType:
 The media type of the distribution as defined by IANA.
@@ -796,7 +803,7 @@
 &lt;dcat:mediaType&gt;</t>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <t>isStream:
 True or False
@@ -804,7 +811,7 @@
 &lt;dhs:isStream&gt;</t>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <t>accessInstructions:
 The steps or actions an individual must take to gain access to the dataset. Can work in conjunction with accessRights (max length 5,000 characters).
@@ -812,21 +819,21 @@
 &lt;dhs:accessInstructions&gt;</t>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <t>tableCount:
 The number of 2-dimensional tables in the data.
 &lt;dhs:tableCount&gt;</t>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <t>recordCount:
 The total number of records in the data.
 &lt;dhs:recordCount&gt;</t>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <t>byteSize:
 The size of the distribution in bytes.
@@ -834,7 +841,7 @@
 &lt;dcat:byteSize&gt;</t>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <t>datasetClassification:
 The security classification of the data.
@@ -846,7 +853,7 @@
 &lt;dhs:datasetClassification&gt;</t>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <t>ch-person-level:
 True or False
@@ -854,7 +861,7 @@
 &lt;dhs:ch-person-level&gt;</t>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <t>ch-financial:
 True or False
@@ -868,7 +875,7 @@
 &lt;dhs:ch-financial&gt;</t>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <t>ch-event-records:
 True or False
@@ -876,7 +883,7 @@
 &lt;dhs:ch-event-records&gt;</t>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <t>ch-faces:
 True or False
@@ -886,7 +893,7 @@
 &lt;dhs:ch-faces&gt;</t>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <t>ch-fingerprints:
 True or False
@@ -896,7 +903,7 @@
 &lt;dhs:ch-fingerprints&gt;</t>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <t>ch-cui:
 True or False
@@ -904,7 +911,7 @@
 &lt;dhs:ch-cui&gt;</t>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <t>ch-phi:
 True or False
@@ -916,7 +923,7 @@
 &lt;dhs:ch-phi&gt;</t>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <t>ch-pii:
 True or False
@@ -925,7 +932,7 @@
 &lt;dhs:ch-pii&gt;</t>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0" shapeId="0">
       <text>
         <t>ch-geospatial:
 True or False
@@ -936,7 +943,7 @@
 &lt;dhs:ch-geospatial&gt;</t>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0">
       <text>
         <t>ch-environmental:
 True or False
@@ -946,7 +953,7 @@
 &lt;dhs:ch-environmental&gt;</t>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <t>ch-fisa:
 True or False
@@ -954,7 +961,7 @@
 &lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <t>ch-8usc1367:
 True or False
@@ -963,7 +970,7 @@
 &lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <t>ch-propin:
 True or False
@@ -973,7 +980,7 @@
 &lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <t>ch-immigration:
 True or False
@@ -987,7 +994,7 @@
 &lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <t>ch-criticalInfrastructure:
 True or False
@@ -998,7 +1005,7 @@
 &lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <t>ch-pcii:
 True or False
@@ -1006,7 +1013,7 @@
 &lt;dhs:ch-pcii&gt;</t>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <t>ch-biometrics:
 True or False
@@ -1017,7 +1024,7 @@
 &lt;dhs:ch-biometrics&gt;</t>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <t>ch-disseminationRestrictions:
 True or False
@@ -1025,7 +1032,7 @@
 &lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0">
       <text>
         <t>ch-les:
 True or False
@@ -1033,7 +1040,7 @@
 &lt;dhs:ch-les&gt;</t>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0" shapeId="0">
       <text>
         <t>ch-synthetic:
 True or False
@@ -1041,7 +1048,7 @@
 &lt;dhs:ch-synthetic&gt;</t>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CH1" authorId="0" shapeId="0">
       <text>
         <t>ch-anonymized:
 True or False
@@ -1049,7 +1056,7 @@
 &lt;dhs:ch-anonymized&gt;</t>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0" shapeId="0">
       <text>
         <t>hostingLocation:
 Where the data is located?
@@ -1059,7 +1066,7 @@
 &lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CJ1" authorId="0" shapeId="0">
       <text>
         <t>hostedInCloud:
 True or False
@@ -1067,7 +1074,7 @@
 &lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0">
+    <comment ref="CK1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByCreatingComponent:
 True or False
@@ -1075,7 +1082,7 @@
 &lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0">
+    <comment ref="CL1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByAllComponents:
 True or False
@@ -1083,7 +1090,7 @@
 &lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0">
+    <comment ref="CM1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByGeneralPublic:
 True or False
@@ -1091,7 +1098,7 @@
 &lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
       </text>
     </comment>
-    <comment ref="CM1" authorId="0" shapeId="0">
+    <comment ref="CN1" authorId="0" shapeId="0">
       <text>
         <t>encryptionAlgorithm:
 The specific encryption algorithm used to protect data at rest.
@@ -1103,14 +1110,14 @@
 &lt;usg:encryptionAlgorithm&gt;</t>
       </text>
     </comment>
-    <comment ref="CN1" authorId="0" shapeId="0">
+    <comment ref="CO1" authorId="0" shapeId="0">
       <text>
         <t>recordTransmission:
 The date of when the information was submitted into the system.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
-    <comment ref="CO1" authorId="0" shapeId="0">
+    <comment ref="CP1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
 The period of time the metadata record is valid for.
@@ -1428,7 +1435,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FY22 Data Inventory Collection Instrument - Version 2.0</t>
+          <t>FY22 Data Inventory Collection Instrument - Version 2.1</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO99"/>
+  <dimension ref="A1:CP99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,6 +1575,7 @@
     <col width="15" customWidth="1" min="91" max="91"/>
     <col width="15" customWidth="1" min="92" max="92"/>
     <col width="15" customWidth="1" min="93" max="93"/>
+    <col width="15" customWidth="1" min="94" max="94"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1673,365 +1681,370 @@
       </c>
       <c r="U1" s="5" t="inlineStr">
         <is>
-          <t>collectionAuthority</t>
+          <t>contactPointPublic</t>
         </is>
       </c>
       <c r="V1" s="5" t="inlineStr">
         <is>
-          <t>releaseAuthority</t>
+          <t>collectionAuthority</t>
         </is>
       </c>
       <c r="W1" s="5" t="inlineStr">
         <is>
-          <t>recordsSchedule</t>
+          <t>releaseAuthority</t>
         </is>
       </c>
       <c r="X1" s="5" t="inlineStr">
         <is>
-          <t>systemOfRecords</t>
+          <t>recordsSchedule</t>
         </is>
       </c>
       <c r="Y1" s="5" t="inlineStr">
         <is>
+          <t>systemOfRecords</t>
+        </is>
+      </c>
+      <c r="Z1" s="5" t="inlineStr">
+        <is>
           <t>ptaAdjudicatedDate</t>
         </is>
       </c>
-      <c r="Z1" s="6" t="inlineStr">
+      <c r="AA1" s="6" t="inlineStr">
         <is>
           <t>conformsTo</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="inlineStr">
+      <c r="AB1" s="7" t="inlineStr">
         <is>
           <t>conformsFIPS</t>
         </is>
       </c>
-      <c r="AB1" s="7" t="inlineStr">
+      <c r="AC1" s="7" t="inlineStr">
         <is>
           <t>conformsNIEMPercent</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="inlineStr">
+      <c r="AD1" s="7" t="inlineStr">
         <is>
           <t>conformsUnicode</t>
         </is>
       </c>
-      <c r="AD1" s="7" t="inlineStr">
+      <c r="AE1" s="7" t="inlineStr">
         <is>
           <t>identitiesNativeScript</t>
         </is>
       </c>
-      <c r="AE1" s="7" t="inlineStr">
+      <c r="AF1" s="7" t="inlineStr">
         <is>
           <t>transliterationStandard</t>
         </is>
       </c>
-      <c r="AF1" s="8" t="inlineStr">
+      <c r="AG1" s="8" t="inlineStr">
         <is>
           <t>sourceDatasets</t>
         </is>
       </c>
-      <c r="AG1" s="9" t="inlineStr">
+      <c r="AH1" s="9" t="inlineStr">
         <is>
           <t>destinationDatasets</t>
         </is>
       </c>
-      <c r="AH1" s="9" t="inlineStr">
+      <c r="AI1" s="9" t="inlineStr">
         <is>
           <t>describedBy</t>
         </is>
       </c>
-      <c r="AI1" s="9" t="inlineStr">
+      <c r="AJ1" s="9" t="inlineStr">
         <is>
           <t>describedByType</t>
         </is>
       </c>
-      <c r="AJ1" s="9" t="inlineStr">
+      <c r="AK1" s="9" t="inlineStr">
         <is>
           <t>isPartOf</t>
         </is>
       </c>
-      <c r="AK1" s="9" t="inlineStr">
+      <c r="AL1" s="9" t="inlineStr">
         <is>
           <t>isOpenSource</t>
         </is>
       </c>
-      <c r="AL1" s="9" t="inlineStr">
+      <c r="AM1" s="9" t="inlineStr">
         <is>
           <t>isCommercial</t>
         </is>
       </c>
-      <c r="AM1" s="9" t="inlineStr">
+      <c r="AN1" s="9" t="inlineStr">
         <is>
           <t>hasDataDictionary</t>
         </is>
       </c>
-      <c r="AN1" s="10" t="inlineStr">
+      <c r="AO1" s="10" t="inlineStr">
         <is>
           <t>accrualPeriodicity</t>
         </is>
       </c>
-      <c r="AO1" s="11" t="inlineStr">
+      <c r="AP1" s="11" t="inlineStr">
         <is>
           <t>spatial</t>
         </is>
       </c>
-      <c r="AP1" s="12" t="inlineStr">
+      <c r="AQ1" s="12" t="inlineStr">
         <is>
           <t>spatialResolutionInMeters</t>
         </is>
       </c>
-      <c r="AQ1" s="13" t="inlineStr">
+      <c r="AR1" s="13" t="inlineStr">
         <is>
           <t>temporal</t>
         </is>
       </c>
-      <c r="AR1" s="14" t="inlineStr">
+      <c r="AS1" s="14" t="inlineStr">
         <is>
           <t>temporalResolution</t>
         </is>
       </c>
-      <c r="AS1" s="2" t="inlineStr">
+      <c r="AT1" s="2" t="inlineStr">
         <is>
           <t>dataQualityKnown</t>
         </is>
       </c>
-      <c r="AT1" s="3" t="inlineStr">
+      <c r="AU1" s="3" t="inlineStr">
         <is>
           <t>dataQualityPercent</t>
         </is>
       </c>
-      <c r="AU1" s="3" t="inlineStr">
+      <c r="AV1" s="3" t="inlineStr">
         <is>
           <t>dataQualityAssessment</t>
         </is>
       </c>
-      <c r="AV1" s="3" t="inlineStr">
+      <c r="AW1" s="3" t="inlineStr">
         <is>
           <t>dataQuality</t>
         </is>
       </c>
-      <c r="AW1" s="4" t="inlineStr">
+      <c r="AX1" s="4" t="inlineStr">
         <is>
           <t>format</t>
         </is>
       </c>
-      <c r="AX1" s="5" t="inlineStr">
+      <c r="AY1" s="5" t="inlineStr">
         <is>
           <t>accessURL</t>
         </is>
       </c>
-      <c r="AY1" s="5" t="inlineStr">
+      <c r="AZ1" s="5" t="inlineStr">
         <is>
           <t>accessURLNIEM</t>
         </is>
       </c>
-      <c r="AZ1" s="5" t="inlineStr">
+      <c r="BA1" s="5" t="inlineStr">
         <is>
           <t>modified</t>
         </is>
       </c>
-      <c r="BA1" s="5" t="inlineStr">
+      <c r="BB1" s="5" t="inlineStr">
         <is>
           <t>vendor</t>
         </is>
       </c>
-      <c r="BB1" s="5" t="inlineStr">
+      <c r="BC1" s="5" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="BC1" s="5" t="inlineStr">
+      <c r="BD1" s="5" t="inlineStr">
         <is>
           <t>accessRights</t>
         </is>
       </c>
-      <c r="BD1" s="5" t="inlineStr">
+      <c r="BE1" s="5" t="inlineStr">
         <is>
           <t>theme</t>
         </is>
       </c>
-      <c r="BE1" s="5" t="inlineStr">
+      <c r="BF1" s="5" t="inlineStr">
         <is>
           <t>functionalDataDomain</t>
         </is>
       </c>
-      <c r="BF1" s="5" t="inlineStr">
+      <c r="BG1" s="5" t="inlineStr">
         <is>
           <t>mediaType</t>
         </is>
       </c>
-      <c r="BG1" s="5" t="inlineStr">
+      <c r="BH1" s="5" t="inlineStr">
         <is>
           <t>isStream</t>
         </is>
       </c>
-      <c r="BH1" s="5" t="inlineStr">
+      <c r="BI1" s="5" t="inlineStr">
         <is>
           <t>accessInstructions</t>
         </is>
       </c>
-      <c r="BI1" s="6" t="inlineStr">
+      <c r="BJ1" s="6" t="inlineStr">
         <is>
           <t>tableCount</t>
         </is>
       </c>
-      <c r="BJ1" s="7" t="inlineStr">
+      <c r="BK1" s="7" t="inlineStr">
         <is>
           <t>recordCount</t>
         </is>
       </c>
-      <c r="BK1" s="7" t="inlineStr">
+      <c r="BL1" s="7" t="inlineStr">
         <is>
           <t>byteSize</t>
         </is>
       </c>
-      <c r="BL1" s="8" t="inlineStr">
+      <c r="BM1" s="8" t="inlineStr">
         <is>
           <t>datasetClassification</t>
         </is>
       </c>
-      <c r="BM1" s="9" t="inlineStr">
+      <c r="BN1" s="9" t="inlineStr">
         <is>
           <t>ch-person-level</t>
         </is>
       </c>
-      <c r="BN1" s="9" t="inlineStr">
+      <c r="BO1" s="9" t="inlineStr">
         <is>
           <t>ch-financial</t>
         </is>
       </c>
-      <c r="BO1" s="9" t="inlineStr">
+      <c r="BP1" s="9" t="inlineStr">
         <is>
           <t>ch-event-records</t>
         </is>
       </c>
-      <c r="BP1" s="9" t="inlineStr">
+      <c r="BQ1" s="9" t="inlineStr">
         <is>
           <t>ch-faces</t>
         </is>
       </c>
-      <c r="BQ1" s="9" t="inlineStr">
+      <c r="BR1" s="9" t="inlineStr">
         <is>
           <t>ch-fingerprints</t>
         </is>
       </c>
-      <c r="BR1" s="9" t="inlineStr">
+      <c r="BS1" s="9" t="inlineStr">
         <is>
           <t>ch-cui</t>
         </is>
       </c>
-      <c r="BS1" s="9" t="inlineStr">
+      <c r="BT1" s="9" t="inlineStr">
         <is>
           <t>ch-phi</t>
         </is>
       </c>
-      <c r="BT1" s="9" t="inlineStr">
+      <c r="BU1" s="9" t="inlineStr">
         <is>
           <t>ch-pii</t>
         </is>
       </c>
-      <c r="BU1" s="9" t="inlineStr">
+      <c r="BV1" s="9" t="inlineStr">
         <is>
           <t>ch-geospatial</t>
         </is>
       </c>
-      <c r="BV1" s="9" t="inlineStr">
+      <c r="BW1" s="9" t="inlineStr">
         <is>
           <t>ch-environmental</t>
         </is>
       </c>
-      <c r="BW1" s="9" t="inlineStr">
+      <c r="BX1" s="9" t="inlineStr">
         <is>
           <t>ch-fisa</t>
         </is>
       </c>
-      <c r="BX1" s="9" t="inlineStr">
+      <c r="BY1" s="9" t="inlineStr">
         <is>
           <t>ch-8usc1367</t>
         </is>
       </c>
-      <c r="BY1" s="9" t="inlineStr">
+      <c r="BZ1" s="9" t="inlineStr">
         <is>
           <t>ch-propin</t>
         </is>
       </c>
-      <c r="BZ1" s="9" t="inlineStr">
+      <c r="CA1" s="9" t="inlineStr">
         <is>
           <t>ch-immigration</t>
         </is>
       </c>
-      <c r="CA1" s="9" t="inlineStr">
+      <c r="CB1" s="9" t="inlineStr">
         <is>
           <t>ch-criticalInfrastructure</t>
         </is>
       </c>
-      <c r="CB1" s="9" t="inlineStr">
+      <c r="CC1" s="9" t="inlineStr">
         <is>
           <t>ch-pcii</t>
         </is>
       </c>
-      <c r="CC1" s="9" t="inlineStr">
+      <c r="CD1" s="9" t="inlineStr">
         <is>
           <t>ch-biometrics</t>
         </is>
       </c>
-      <c r="CD1" s="9" t="inlineStr">
+      <c r="CE1" s="9" t="inlineStr">
         <is>
           <t>ch-disseminationRestrictions</t>
         </is>
       </c>
-      <c r="CE1" s="9" t="inlineStr">
+      <c r="CF1" s="9" t="inlineStr">
         <is>
           <t>ch-les</t>
         </is>
       </c>
-      <c r="CF1" s="9" t="inlineStr">
+      <c r="CG1" s="9" t="inlineStr">
         <is>
           <t>ch-synthetic</t>
         </is>
       </c>
-      <c r="CG1" s="9" t="inlineStr">
+      <c r="CH1" s="9" t="inlineStr">
         <is>
           <t>ch-anonymized</t>
         </is>
       </c>
-      <c r="CH1" s="10" t="inlineStr">
+      <c r="CI1" s="10" t="inlineStr">
         <is>
           <t>hostingLocation</t>
         </is>
       </c>
-      <c r="CI1" s="15" t="inlineStr">
+      <c r="CJ1" s="15" t="inlineStr">
         <is>
           <t>hostedInCloud</t>
         </is>
       </c>
-      <c r="CJ1" s="15" t="inlineStr">
+      <c r="CK1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByCreatingComponent</t>
         </is>
       </c>
-      <c r="CK1" s="15" t="inlineStr">
+      <c r="CL1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByAllComponents</t>
         </is>
       </c>
-      <c r="CL1" s="15" t="inlineStr">
+      <c r="CM1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByGeneralPublic</t>
         </is>
       </c>
-      <c r="CM1" s="11" t="inlineStr">
+      <c r="CN1" s="11" t="inlineStr">
         <is>
           <t>encryptionAlgorithm</t>
         </is>
       </c>
-      <c r="CN1" s="12" t="inlineStr">
+      <c r="CO1" s="12" t="inlineStr">
         <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="CO1" s="12" t="inlineStr">
+      <c r="CP1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
         </is>
@@ -2063,31 +2076,31 @@
       <c r="W2" s="19" t="inlineStr"/>
       <c r="X2" s="19" t="inlineStr"/>
       <c r="Y2" s="19" t="inlineStr"/>
-      <c r="Z2" s="20" t="inlineStr"/>
-      <c r="AA2" s="21" t="inlineStr"/>
+      <c r="Z2" s="19" t="inlineStr"/>
+      <c r="AA2" s="20" t="inlineStr"/>
       <c r="AB2" s="21" t="inlineStr"/>
-      <c r="AC2" s="22" t="inlineStr"/>
+      <c r="AC2" s="21" t="inlineStr"/>
       <c r="AD2" s="22" t="inlineStr"/>
-      <c r="AE2" s="21" t="inlineStr"/>
-      <c r="AF2" s="23" t="inlineStr"/>
-      <c r="AG2" s="24" t="inlineStr"/>
+      <c r="AE2" s="22" t="inlineStr"/>
+      <c r="AF2" s="21" t="inlineStr"/>
+      <c r="AG2" s="23" t="inlineStr"/>
       <c r="AH2" s="24" t="inlineStr"/>
       <c r="AI2" s="24" t="inlineStr"/>
       <c r="AJ2" s="24" t="inlineStr"/>
-      <c r="AK2" s="25" t="inlineStr"/>
+      <c r="AK2" s="24" t="inlineStr"/>
       <c r="AL2" s="25" t="inlineStr"/>
       <c r="AM2" s="25" t="inlineStr"/>
-      <c r="AN2" s="26" t="inlineStr"/>
-      <c r="AO2" s="27" t="inlineStr"/>
-      <c r="AP2" s="28" t="inlineStr"/>
-      <c r="AQ2" s="29" t="inlineStr"/>
-      <c r="AR2" s="30" t="inlineStr"/>
-      <c r="AS2" s="31" t="inlineStr"/>
-      <c r="AT2" s="17" t="inlineStr"/>
+      <c r="AN2" s="25" t="inlineStr"/>
+      <c r="AO2" s="26" t="inlineStr"/>
+      <c r="AP2" s="27" t="inlineStr"/>
+      <c r="AQ2" s="28" t="inlineStr"/>
+      <c r="AR2" s="29" t="inlineStr"/>
+      <c r="AS2" s="30" t="inlineStr"/>
+      <c r="AT2" s="31" t="inlineStr"/>
       <c r="AU2" s="17" t="inlineStr"/>
-      <c r="AV2" s="32" t="inlineStr"/>
-      <c r="AW2" s="18" t="inlineStr"/>
-      <c r="AX2" s="19" t="inlineStr"/>
+      <c r="AV2" s="17" t="inlineStr"/>
+      <c r="AW2" s="32" t="inlineStr"/>
+      <c r="AX2" s="18" t="inlineStr"/>
       <c r="AY2" s="19" t="inlineStr"/>
       <c r="AZ2" s="19" t="inlineStr"/>
       <c r="BA2" s="19" t="inlineStr"/>
@@ -2096,13 +2109,13 @@
       <c r="BD2" s="19" t="inlineStr"/>
       <c r="BE2" s="19" t="inlineStr"/>
       <c r="BF2" s="19" t="inlineStr"/>
-      <c r="BG2" s="33" t="inlineStr"/>
-      <c r="BH2" s="19" t="inlineStr"/>
-      <c r="BI2" s="20" t="inlineStr"/>
-      <c r="BJ2" s="21" t="inlineStr"/>
+      <c r="BG2" s="19" t="inlineStr"/>
+      <c r="BH2" s="33" t="inlineStr"/>
+      <c r="BI2" s="19" t="inlineStr"/>
+      <c r="BJ2" s="20" t="inlineStr"/>
       <c r="BK2" s="21" t="inlineStr"/>
-      <c r="BL2" s="23" t="inlineStr"/>
-      <c r="BM2" s="25" t="inlineStr"/>
+      <c r="BL2" s="21" t="inlineStr"/>
+      <c r="BM2" s="23" t="inlineStr"/>
       <c r="BN2" s="25" t="inlineStr"/>
       <c r="BO2" s="25" t="inlineStr"/>
       <c r="BP2" s="25" t="inlineStr"/>
@@ -2123,14 +2136,15 @@
       <c r="CE2" s="25" t="inlineStr"/>
       <c r="CF2" s="25" t="inlineStr"/>
       <c r="CG2" s="25" t="inlineStr"/>
-      <c r="CH2" s="26" t="inlineStr"/>
-      <c r="CI2" s="34" t="inlineStr"/>
+      <c r="CH2" s="25" t="inlineStr"/>
+      <c r="CI2" s="26" t="inlineStr"/>
       <c r="CJ2" s="34" t="inlineStr"/>
       <c r="CK2" s="34" t="inlineStr"/>
       <c r="CL2" s="34" t="inlineStr"/>
-      <c r="CM2" s="27" t="inlineStr"/>
-      <c r="CN2" s="28" t="inlineStr"/>
+      <c r="CM2" s="34" t="inlineStr"/>
+      <c r="CN2" s="27" t="inlineStr"/>
       <c r="CO2" s="28" t="inlineStr"/>
+      <c r="CP2" s="28" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -2158,31 +2172,31 @@
       <c r="W3" s="19" t="inlineStr"/>
       <c r="X3" s="19" t="inlineStr"/>
       <c r="Y3" s="19" t="inlineStr"/>
-      <c r="Z3" s="20" t="inlineStr"/>
-      <c r="AA3" s="21" t="inlineStr"/>
+      <c r="Z3" s="19" t="inlineStr"/>
+      <c r="AA3" s="20" t="inlineStr"/>
       <c r="AB3" s="21" t="inlineStr"/>
-      <c r="AC3" s="22" t="inlineStr"/>
+      <c r="AC3" s="21" t="inlineStr"/>
       <c r="AD3" s="22" t="inlineStr"/>
-      <c r="AE3" s="21" t="inlineStr"/>
-      <c r="AF3" s="23" t="inlineStr"/>
-      <c r="AG3" s="24" t="inlineStr"/>
+      <c r="AE3" s="22" t="inlineStr"/>
+      <c r="AF3" s="21" t="inlineStr"/>
+      <c r="AG3" s="23" t="inlineStr"/>
       <c r="AH3" s="24" t="inlineStr"/>
       <c r="AI3" s="24" t="inlineStr"/>
       <c r="AJ3" s="24" t="inlineStr"/>
-      <c r="AK3" s="25" t="inlineStr"/>
+      <c r="AK3" s="24" t="inlineStr"/>
       <c r="AL3" s="25" t="inlineStr"/>
       <c r="AM3" s="25" t="inlineStr"/>
-      <c r="AN3" s="26" t="inlineStr"/>
-      <c r="AO3" s="27" t="inlineStr"/>
-      <c r="AP3" s="28" t="inlineStr"/>
-      <c r="AQ3" s="29" t="inlineStr"/>
-      <c r="AR3" s="30" t="inlineStr"/>
-      <c r="AS3" s="31" t="inlineStr"/>
-      <c r="AT3" s="17" t="inlineStr"/>
+      <c r="AN3" s="25" t="inlineStr"/>
+      <c r="AO3" s="26" t="inlineStr"/>
+      <c r="AP3" s="27" t="inlineStr"/>
+      <c r="AQ3" s="28" t="inlineStr"/>
+      <c r="AR3" s="29" t="inlineStr"/>
+      <c r="AS3" s="30" t="inlineStr"/>
+      <c r="AT3" s="31" t="inlineStr"/>
       <c r="AU3" s="17" t="inlineStr"/>
-      <c r="AV3" s="32" t="inlineStr"/>
-      <c r="AW3" s="18" t="inlineStr"/>
-      <c r="AX3" s="19" t="inlineStr"/>
+      <c r="AV3" s="17" t="inlineStr"/>
+      <c r="AW3" s="32" t="inlineStr"/>
+      <c r="AX3" s="18" t="inlineStr"/>
       <c r="AY3" s="19" t="inlineStr"/>
       <c r="AZ3" s="19" t="inlineStr"/>
       <c r="BA3" s="19" t="inlineStr"/>
@@ -2191,13 +2205,13 @@
       <c r="BD3" s="19" t="inlineStr"/>
       <c r="BE3" s="19" t="inlineStr"/>
       <c r="BF3" s="19" t="inlineStr"/>
-      <c r="BG3" s="33" t="inlineStr"/>
-      <c r="BH3" s="19" t="inlineStr"/>
-      <c r="BI3" s="20" t="inlineStr"/>
-      <c r="BJ3" s="21" t="inlineStr"/>
+      <c r="BG3" s="19" t="inlineStr"/>
+      <c r="BH3" s="33" t="inlineStr"/>
+      <c r="BI3" s="19" t="inlineStr"/>
+      <c r="BJ3" s="20" t="inlineStr"/>
       <c r="BK3" s="21" t="inlineStr"/>
-      <c r="BL3" s="23" t="inlineStr"/>
-      <c r="BM3" s="25" t="inlineStr"/>
+      <c r="BL3" s="21" t="inlineStr"/>
+      <c r="BM3" s="23" t="inlineStr"/>
       <c r="BN3" s="25" t="inlineStr"/>
       <c r="BO3" s="25" t="inlineStr"/>
       <c r="BP3" s="25" t="inlineStr"/>
@@ -2218,14 +2232,15 @@
       <c r="CE3" s="25" t="inlineStr"/>
       <c r="CF3" s="25" t="inlineStr"/>
       <c r="CG3" s="25" t="inlineStr"/>
-      <c r="CH3" s="26" t="inlineStr"/>
-      <c r="CI3" s="34" t="inlineStr"/>
+      <c r="CH3" s="25" t="inlineStr"/>
+      <c r="CI3" s="26" t="inlineStr"/>
       <c r="CJ3" s="34" t="inlineStr"/>
       <c r="CK3" s="34" t="inlineStr"/>
       <c r="CL3" s="34" t="inlineStr"/>
-      <c r="CM3" s="27" t="inlineStr"/>
-      <c r="CN3" s="28" t="inlineStr"/>
+      <c r="CM3" s="34" t="inlineStr"/>
+      <c r="CN3" s="27" t="inlineStr"/>
       <c r="CO3" s="28" t="inlineStr"/>
+      <c r="CP3" s="28" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -2253,31 +2268,31 @@
       <c r="W4" s="19" t="inlineStr"/>
       <c r="X4" s="19" t="inlineStr"/>
       <c r="Y4" s="19" t="inlineStr"/>
-      <c r="Z4" s="20" t="inlineStr"/>
-      <c r="AA4" s="21" t="inlineStr"/>
+      <c r="Z4" s="19" t="inlineStr"/>
+      <c r="AA4" s="20" t="inlineStr"/>
       <c r="AB4" s="21" t="inlineStr"/>
-      <c r="AC4" s="22" t="inlineStr"/>
+      <c r="AC4" s="21" t="inlineStr"/>
       <c r="AD4" s="22" t="inlineStr"/>
-      <c r="AE4" s="21" t="inlineStr"/>
-      <c r="AF4" s="23" t="inlineStr"/>
-      <c r="AG4" s="24" t="inlineStr"/>
+      <c r="AE4" s="22" t="inlineStr"/>
+      <c r="AF4" s="21" t="inlineStr"/>
+      <c r="AG4" s="23" t="inlineStr"/>
       <c r="AH4" s="24" t="inlineStr"/>
       <c r="AI4" s="24" t="inlineStr"/>
       <c r="AJ4" s="24" t="inlineStr"/>
-      <c r="AK4" s="25" t="inlineStr"/>
+      <c r="AK4" s="24" t="inlineStr"/>
       <c r="AL4" s="25" t="inlineStr"/>
       <c r="AM4" s="25" t="inlineStr"/>
-      <c r="AN4" s="26" t="inlineStr"/>
-      <c r="AO4" s="27" t="inlineStr"/>
-      <c r="AP4" s="28" t="inlineStr"/>
-      <c r="AQ4" s="29" t="inlineStr"/>
-      <c r="AR4" s="30" t="inlineStr"/>
-      <c r="AS4" s="31" t="inlineStr"/>
-      <c r="AT4" s="17" t="inlineStr"/>
+      <c r="AN4" s="25" t="inlineStr"/>
+      <c r="AO4" s="26" t="inlineStr"/>
+      <c r="AP4" s="27" t="inlineStr"/>
+      <c r="AQ4" s="28" t="inlineStr"/>
+      <c r="AR4" s="29" t="inlineStr"/>
+      <c r="AS4" s="30" t="inlineStr"/>
+      <c r="AT4" s="31" t="inlineStr"/>
       <c r="AU4" s="17" t="inlineStr"/>
-      <c r="AV4" s="32" t="inlineStr"/>
-      <c r="AW4" s="18" t="inlineStr"/>
-      <c r="AX4" s="19" t="inlineStr"/>
+      <c r="AV4" s="17" t="inlineStr"/>
+      <c r="AW4" s="32" t="inlineStr"/>
+      <c r="AX4" s="18" t="inlineStr"/>
       <c r="AY4" s="19" t="inlineStr"/>
       <c r="AZ4" s="19" t="inlineStr"/>
       <c r="BA4" s="19" t="inlineStr"/>
@@ -2286,13 +2301,13 @@
       <c r="BD4" s="19" t="inlineStr"/>
       <c r="BE4" s="19" t="inlineStr"/>
       <c r="BF4" s="19" t="inlineStr"/>
-      <c r="BG4" s="33" t="inlineStr"/>
-      <c r="BH4" s="19" t="inlineStr"/>
-      <c r="BI4" s="20" t="inlineStr"/>
-      <c r="BJ4" s="21" t="inlineStr"/>
+      <c r="BG4" s="19" t="inlineStr"/>
+      <c r="BH4" s="33" t="inlineStr"/>
+      <c r="BI4" s="19" t="inlineStr"/>
+      <c r="BJ4" s="20" t="inlineStr"/>
       <c r="BK4" s="21" t="inlineStr"/>
-      <c r="BL4" s="23" t="inlineStr"/>
-      <c r="BM4" s="25" t="inlineStr"/>
+      <c r="BL4" s="21" t="inlineStr"/>
+      <c r="BM4" s="23" t="inlineStr"/>
       <c r="BN4" s="25" t="inlineStr"/>
       <c r="BO4" s="25" t="inlineStr"/>
       <c r="BP4" s="25" t="inlineStr"/>
@@ -2313,14 +2328,15 @@
       <c r="CE4" s="25" t="inlineStr"/>
       <c r="CF4" s="25" t="inlineStr"/>
       <c r="CG4" s="25" t="inlineStr"/>
-      <c r="CH4" s="26" t="inlineStr"/>
-      <c r="CI4" s="34" t="inlineStr"/>
+      <c r="CH4" s="25" t="inlineStr"/>
+      <c r="CI4" s="26" t="inlineStr"/>
       <c r="CJ4" s="34" t="inlineStr"/>
       <c r="CK4" s="34" t="inlineStr"/>
       <c r="CL4" s="34" t="inlineStr"/>
-      <c r="CM4" s="27" t="inlineStr"/>
-      <c r="CN4" s="28" t="inlineStr"/>
+      <c r="CM4" s="34" t="inlineStr"/>
+      <c r="CN4" s="27" t="inlineStr"/>
       <c r="CO4" s="28" t="inlineStr"/>
+      <c r="CP4" s="28" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -2348,31 +2364,31 @@
       <c r="W5" s="19" t="inlineStr"/>
       <c r="X5" s="19" t="inlineStr"/>
       <c r="Y5" s="19" t="inlineStr"/>
-      <c r="Z5" s="20" t="inlineStr"/>
-      <c r="AA5" s="21" t="inlineStr"/>
+      <c r="Z5" s="19" t="inlineStr"/>
+      <c r="AA5" s="20" t="inlineStr"/>
       <c r="AB5" s="21" t="inlineStr"/>
-      <c r="AC5" s="22" t="inlineStr"/>
+      <c r="AC5" s="21" t="inlineStr"/>
       <c r="AD5" s="22" t="inlineStr"/>
-      <c r="AE5" s="21" t="inlineStr"/>
-      <c r="AF5" s="23" t="inlineStr"/>
-      <c r="AG5" s="24" t="inlineStr"/>
+      <c r="AE5" s="22" t="inlineStr"/>
+      <c r="AF5" s="21" t="inlineStr"/>
+      <c r="AG5" s="23" t="inlineStr"/>
       <c r="AH5" s="24" t="inlineStr"/>
       <c r="AI5" s="24" t="inlineStr"/>
       <c r="AJ5" s="24" t="inlineStr"/>
-      <c r="AK5" s="25" t="inlineStr"/>
+      <c r="AK5" s="24" t="inlineStr"/>
       <c r="AL5" s="25" t="inlineStr"/>
       <c r="AM5" s="25" t="inlineStr"/>
-      <c r="AN5" s="26" t="inlineStr"/>
-      <c r="AO5" s="27" t="inlineStr"/>
-      <c r="AP5" s="28" t="inlineStr"/>
-      <c r="AQ5" s="29" t="inlineStr"/>
-      <c r="AR5" s="30" t="inlineStr"/>
-      <c r="AS5" s="31" t="inlineStr"/>
-      <c r="AT5" s="17" t="inlineStr"/>
+      <c r="AN5" s="25" t="inlineStr"/>
+      <c r="AO5" s="26" t="inlineStr"/>
+      <c r="AP5" s="27" t="inlineStr"/>
+      <c r="AQ5" s="28" t="inlineStr"/>
+      <c r="AR5" s="29" t="inlineStr"/>
+      <c r="AS5" s="30" t="inlineStr"/>
+      <c r="AT5" s="31" t="inlineStr"/>
       <c r="AU5" s="17" t="inlineStr"/>
-      <c r="AV5" s="32" t="inlineStr"/>
-      <c r="AW5" s="18" t="inlineStr"/>
-      <c r="AX5" s="19" t="inlineStr"/>
+      <c r="AV5" s="17" t="inlineStr"/>
+      <c r="AW5" s="32" t="inlineStr"/>
+      <c r="AX5" s="18" t="inlineStr"/>
       <c r="AY5" s="19" t="inlineStr"/>
       <c r="AZ5" s="19" t="inlineStr"/>
       <c r="BA5" s="19" t="inlineStr"/>
@@ -2381,13 +2397,13 @@
       <c r="BD5" s="19" t="inlineStr"/>
       <c r="BE5" s="19" t="inlineStr"/>
       <c r="BF5" s="19" t="inlineStr"/>
-      <c r="BG5" s="33" t="inlineStr"/>
-      <c r="BH5" s="19" t="inlineStr"/>
-      <c r="BI5" s="20" t="inlineStr"/>
-      <c r="BJ5" s="21" t="inlineStr"/>
+      <c r="BG5" s="19" t="inlineStr"/>
+      <c r="BH5" s="33" t="inlineStr"/>
+      <c r="BI5" s="19" t="inlineStr"/>
+      <c r="BJ5" s="20" t="inlineStr"/>
       <c r="BK5" s="21" t="inlineStr"/>
-      <c r="BL5" s="23" t="inlineStr"/>
-      <c r="BM5" s="25" t="inlineStr"/>
+      <c r="BL5" s="21" t="inlineStr"/>
+      <c r="BM5" s="23" t="inlineStr"/>
       <c r="BN5" s="25" t="inlineStr"/>
       <c r="BO5" s="25" t="inlineStr"/>
       <c r="BP5" s="25" t="inlineStr"/>
@@ -2408,14 +2424,15 @@
       <c r="CE5" s="25" t="inlineStr"/>
       <c r="CF5" s="25" t="inlineStr"/>
       <c r="CG5" s="25" t="inlineStr"/>
-      <c r="CH5" s="26" t="inlineStr"/>
-      <c r="CI5" s="34" t="inlineStr"/>
+      <c r="CH5" s="25" t="inlineStr"/>
+      <c r="CI5" s="26" t="inlineStr"/>
       <c r="CJ5" s="34" t="inlineStr"/>
       <c r="CK5" s="34" t="inlineStr"/>
       <c r="CL5" s="34" t="inlineStr"/>
-      <c r="CM5" s="27" t="inlineStr"/>
-      <c r="CN5" s="28" t="inlineStr"/>
+      <c r="CM5" s="34" t="inlineStr"/>
+      <c r="CN5" s="27" t="inlineStr"/>
       <c r="CO5" s="28" t="inlineStr"/>
+      <c r="CP5" s="28" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2443,31 +2460,31 @@
       <c r="W6" s="19" t="inlineStr"/>
       <c r="X6" s="19" t="inlineStr"/>
       <c r="Y6" s="19" t="inlineStr"/>
-      <c r="Z6" s="20" t="inlineStr"/>
-      <c r="AA6" s="21" t="inlineStr"/>
+      <c r="Z6" s="19" t="inlineStr"/>
+      <c r="AA6" s="20" t="inlineStr"/>
       <c r="AB6" s="21" t="inlineStr"/>
-      <c r="AC6" s="22" t="inlineStr"/>
+      <c r="AC6" s="21" t="inlineStr"/>
       <c r="AD6" s="22" t="inlineStr"/>
-      <c r="AE6" s="21" t="inlineStr"/>
-      <c r="AF6" s="23" t="inlineStr"/>
-      <c r="AG6" s="24" t="inlineStr"/>
+      <c r="AE6" s="22" t="inlineStr"/>
+      <c r="AF6" s="21" t="inlineStr"/>
+      <c r="AG6" s="23" t="inlineStr"/>
       <c r="AH6" s="24" t="inlineStr"/>
       <c r="AI6" s="24" t="inlineStr"/>
       <c r="AJ6" s="24" t="inlineStr"/>
-      <c r="AK6" s="25" t="inlineStr"/>
+      <c r="AK6" s="24" t="inlineStr"/>
       <c r="AL6" s="25" t="inlineStr"/>
       <c r="AM6" s="25" t="inlineStr"/>
-      <c r="AN6" s="26" t="inlineStr"/>
-      <c r="AO6" s="27" t="inlineStr"/>
-      <c r="AP6" s="28" t="inlineStr"/>
-      <c r="AQ6" s="29" t="inlineStr"/>
-      <c r="AR6" s="30" t="inlineStr"/>
-      <c r="AS6" s="31" t="inlineStr"/>
-      <c r="AT6" s="17" t="inlineStr"/>
+      <c r="AN6" s="25" t="inlineStr"/>
+      <c r="AO6" s="26" t="inlineStr"/>
+      <c r="AP6" s="27" t="inlineStr"/>
+      <c r="AQ6" s="28" t="inlineStr"/>
+      <c r="AR6" s="29" t="inlineStr"/>
+      <c r="AS6" s="30" t="inlineStr"/>
+      <c r="AT6" s="31" t="inlineStr"/>
       <c r="AU6" s="17" t="inlineStr"/>
-      <c r="AV6" s="32" t="inlineStr"/>
-      <c r="AW6" s="18" t="inlineStr"/>
-      <c r="AX6" s="19" t="inlineStr"/>
+      <c r="AV6" s="17" t="inlineStr"/>
+      <c r="AW6" s="32" t="inlineStr"/>
+      <c r="AX6" s="18" t="inlineStr"/>
       <c r="AY6" s="19" t="inlineStr"/>
       <c r="AZ6" s="19" t="inlineStr"/>
       <c r="BA6" s="19" t="inlineStr"/>
@@ -2476,13 +2493,13 @@
       <c r="BD6" s="19" t="inlineStr"/>
       <c r="BE6" s="19" t="inlineStr"/>
       <c r="BF6" s="19" t="inlineStr"/>
-      <c r="BG6" s="33" t="inlineStr"/>
-      <c r="BH6" s="19" t="inlineStr"/>
-      <c r="BI6" s="20" t="inlineStr"/>
-      <c r="BJ6" s="21" t="inlineStr"/>
+      <c r="BG6" s="19" t="inlineStr"/>
+      <c r="BH6" s="33" t="inlineStr"/>
+      <c r="BI6" s="19" t="inlineStr"/>
+      <c r="BJ6" s="20" t="inlineStr"/>
       <c r="BK6" s="21" t="inlineStr"/>
-      <c r="BL6" s="23" t="inlineStr"/>
-      <c r="BM6" s="25" t="inlineStr"/>
+      <c r="BL6" s="21" t="inlineStr"/>
+      <c r="BM6" s="23" t="inlineStr"/>
       <c r="BN6" s="25" t="inlineStr"/>
       <c r="BO6" s="25" t="inlineStr"/>
       <c r="BP6" s="25" t="inlineStr"/>
@@ -2503,14 +2520,15 @@
       <c r="CE6" s="25" t="inlineStr"/>
       <c r="CF6" s="25" t="inlineStr"/>
       <c r="CG6" s="25" t="inlineStr"/>
-      <c r="CH6" s="26" t="inlineStr"/>
-      <c r="CI6" s="34" t="inlineStr"/>
+      <c r="CH6" s="25" t="inlineStr"/>
+      <c r="CI6" s="26" t="inlineStr"/>
       <c r="CJ6" s="34" t="inlineStr"/>
       <c r="CK6" s="34" t="inlineStr"/>
       <c r="CL6" s="34" t="inlineStr"/>
-      <c r="CM6" s="27" t="inlineStr"/>
-      <c r="CN6" s="28" t="inlineStr"/>
+      <c r="CM6" s="34" t="inlineStr"/>
+      <c r="CN6" s="27" t="inlineStr"/>
       <c r="CO6" s="28" t="inlineStr"/>
+      <c r="CP6" s="28" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2538,31 +2556,31 @@
       <c r="W7" s="19" t="inlineStr"/>
       <c r="X7" s="19" t="inlineStr"/>
       <c r="Y7" s="19" t="inlineStr"/>
-      <c r="Z7" s="20" t="inlineStr"/>
-      <c r="AA7" s="21" t="inlineStr"/>
+      <c r="Z7" s="19" t="inlineStr"/>
+      <c r="AA7" s="20" t="inlineStr"/>
       <c r="AB7" s="21" t="inlineStr"/>
-      <c r="AC7" s="22" t="inlineStr"/>
+      <c r="AC7" s="21" t="inlineStr"/>
       <c r="AD7" s="22" t="inlineStr"/>
-      <c r="AE7" s="21" t="inlineStr"/>
-      <c r="AF7" s="23" t="inlineStr"/>
-      <c r="AG7" s="24" t="inlineStr"/>
+      <c r="AE7" s="22" t="inlineStr"/>
+      <c r="AF7" s="21" t="inlineStr"/>
+      <c r="AG7" s="23" t="inlineStr"/>
       <c r="AH7" s="24" t="inlineStr"/>
       <c r="AI7" s="24" t="inlineStr"/>
       <c r="AJ7" s="24" t="inlineStr"/>
-      <c r="AK7" s="25" t="inlineStr"/>
+      <c r="AK7" s="24" t="inlineStr"/>
       <c r="AL7" s="25" t="inlineStr"/>
       <c r="AM7" s="25" t="inlineStr"/>
-      <c r="AN7" s="26" t="inlineStr"/>
-      <c r="AO7" s="27" t="inlineStr"/>
-      <c r="AP7" s="28" t="inlineStr"/>
-      <c r="AQ7" s="29" t="inlineStr"/>
-      <c r="AR7" s="30" t="inlineStr"/>
-      <c r="AS7" s="31" t="inlineStr"/>
-      <c r="AT7" s="17" t="inlineStr"/>
+      <c r="AN7" s="25" t="inlineStr"/>
+      <c r="AO7" s="26" t="inlineStr"/>
+      <c r="AP7" s="27" t="inlineStr"/>
+      <c r="AQ7" s="28" t="inlineStr"/>
+      <c r="AR7" s="29" t="inlineStr"/>
+      <c r="AS7" s="30" t="inlineStr"/>
+      <c r="AT7" s="31" t="inlineStr"/>
       <c r="AU7" s="17" t="inlineStr"/>
-      <c r="AV7" s="32" t="inlineStr"/>
-      <c r="AW7" s="18" t="inlineStr"/>
-      <c r="AX7" s="19" t="inlineStr"/>
+      <c r="AV7" s="17" t="inlineStr"/>
+      <c r="AW7" s="32" t="inlineStr"/>
+      <c r="AX7" s="18" t="inlineStr"/>
       <c r="AY7" s="19" t="inlineStr"/>
       <c r="AZ7" s="19" t="inlineStr"/>
       <c r="BA7" s="19" t="inlineStr"/>
@@ -2571,13 +2589,13 @@
       <c r="BD7" s="19" t="inlineStr"/>
       <c r="BE7" s="19" t="inlineStr"/>
       <c r="BF7" s="19" t="inlineStr"/>
-      <c r="BG7" s="33" t="inlineStr"/>
-      <c r="BH7" s="19" t="inlineStr"/>
-      <c r="BI7" s="20" t="inlineStr"/>
-      <c r="BJ7" s="21" t="inlineStr"/>
+      <c r="BG7" s="19" t="inlineStr"/>
+      <c r="BH7" s="33" t="inlineStr"/>
+      <c r="BI7" s="19" t="inlineStr"/>
+      <c r="BJ7" s="20" t="inlineStr"/>
       <c r="BK7" s="21" t="inlineStr"/>
-      <c r="BL7" s="23" t="inlineStr"/>
-      <c r="BM7" s="25" t="inlineStr"/>
+      <c r="BL7" s="21" t="inlineStr"/>
+      <c r="BM7" s="23" t="inlineStr"/>
       <c r="BN7" s="25" t="inlineStr"/>
       <c r="BO7" s="25" t="inlineStr"/>
       <c r="BP7" s="25" t="inlineStr"/>
@@ -2598,14 +2616,15 @@
       <c r="CE7" s="25" t="inlineStr"/>
       <c r="CF7" s="25" t="inlineStr"/>
       <c r="CG7" s="25" t="inlineStr"/>
-      <c r="CH7" s="26" t="inlineStr"/>
-      <c r="CI7" s="34" t="inlineStr"/>
+      <c r="CH7" s="25" t="inlineStr"/>
+      <c r="CI7" s="26" t="inlineStr"/>
       <c r="CJ7" s="34" t="inlineStr"/>
       <c r="CK7" s="34" t="inlineStr"/>
       <c r="CL7" s="34" t="inlineStr"/>
-      <c r="CM7" s="27" t="inlineStr"/>
-      <c r="CN7" s="28" t="inlineStr"/>
+      <c r="CM7" s="34" t="inlineStr"/>
+      <c r="CN7" s="27" t="inlineStr"/>
       <c r="CO7" s="28" t="inlineStr"/>
+      <c r="CP7" s="28" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2633,31 +2652,31 @@
       <c r="W8" s="19" t="inlineStr"/>
       <c r="X8" s="19" t="inlineStr"/>
       <c r="Y8" s="19" t="inlineStr"/>
-      <c r="Z8" s="20" t="inlineStr"/>
-      <c r="AA8" s="21" t="inlineStr"/>
+      <c r="Z8" s="19" t="inlineStr"/>
+      <c r="AA8" s="20" t="inlineStr"/>
       <c r="AB8" s="21" t="inlineStr"/>
-      <c r="AC8" s="22" t="inlineStr"/>
+      <c r="AC8" s="21" t="inlineStr"/>
       <c r="AD8" s="22" t="inlineStr"/>
-      <c r="AE8" s="21" t="inlineStr"/>
-      <c r="AF8" s="23" t="inlineStr"/>
-      <c r="AG8" s="24" t="inlineStr"/>
+      <c r="AE8" s="22" t="inlineStr"/>
+      <c r="AF8" s="21" t="inlineStr"/>
+      <c r="AG8" s="23" t="inlineStr"/>
       <c r="AH8" s="24" t="inlineStr"/>
       <c r="AI8" s="24" t="inlineStr"/>
       <c r="AJ8" s="24" t="inlineStr"/>
-      <c r="AK8" s="25" t="inlineStr"/>
+      <c r="AK8" s="24" t="inlineStr"/>
       <c r="AL8" s="25" t="inlineStr"/>
       <c r="AM8" s="25" t="inlineStr"/>
-      <c r="AN8" s="26" t="inlineStr"/>
-      <c r="AO8" s="27" t="inlineStr"/>
-      <c r="AP8" s="28" t="inlineStr"/>
-      <c r="AQ8" s="29" t="inlineStr"/>
-      <c r="AR8" s="30" t="inlineStr"/>
-      <c r="AS8" s="31" t="inlineStr"/>
-      <c r="AT8" s="17" t="inlineStr"/>
+      <c r="AN8" s="25" t="inlineStr"/>
+      <c r="AO8" s="26" t="inlineStr"/>
+      <c r="AP8" s="27" t="inlineStr"/>
+      <c r="AQ8" s="28" t="inlineStr"/>
+      <c r="AR8" s="29" t="inlineStr"/>
+      <c r="AS8" s="30" t="inlineStr"/>
+      <c r="AT8" s="31" t="inlineStr"/>
       <c r="AU8" s="17" t="inlineStr"/>
-      <c r="AV8" s="32" t="inlineStr"/>
-      <c r="AW8" s="18" t="inlineStr"/>
-      <c r="AX8" s="19" t="inlineStr"/>
+      <c r="AV8" s="17" t="inlineStr"/>
+      <c r="AW8" s="32" t="inlineStr"/>
+      <c r="AX8" s="18" t="inlineStr"/>
       <c r="AY8" s="19" t="inlineStr"/>
       <c r="AZ8" s="19" t="inlineStr"/>
       <c r="BA8" s="19" t="inlineStr"/>
@@ -2666,13 +2685,13 @@
       <c r="BD8" s="19" t="inlineStr"/>
       <c r="BE8" s="19" t="inlineStr"/>
       <c r="BF8" s="19" t="inlineStr"/>
-      <c r="BG8" s="33" t="inlineStr"/>
-      <c r="BH8" s="19" t="inlineStr"/>
-      <c r="BI8" s="20" t="inlineStr"/>
-      <c r="BJ8" s="21" t="inlineStr"/>
+      <c r="BG8" s="19" t="inlineStr"/>
+      <c r="BH8" s="33" t="inlineStr"/>
+      <c r="BI8" s="19" t="inlineStr"/>
+      <c r="BJ8" s="20" t="inlineStr"/>
       <c r="BK8" s="21" t="inlineStr"/>
-      <c r="BL8" s="23" t="inlineStr"/>
-      <c r="BM8" s="25" t="inlineStr"/>
+      <c r="BL8" s="21" t="inlineStr"/>
+      <c r="BM8" s="23" t="inlineStr"/>
       <c r="BN8" s="25" t="inlineStr"/>
       <c r="BO8" s="25" t="inlineStr"/>
       <c r="BP8" s="25" t="inlineStr"/>
@@ -2693,14 +2712,15 @@
       <c r="CE8" s="25" t="inlineStr"/>
       <c r="CF8" s="25" t="inlineStr"/>
       <c r="CG8" s="25" t="inlineStr"/>
-      <c r="CH8" s="26" t="inlineStr"/>
-      <c r="CI8" s="34" t="inlineStr"/>
+      <c r="CH8" s="25" t="inlineStr"/>
+      <c r="CI8" s="26" t="inlineStr"/>
       <c r="CJ8" s="34" t="inlineStr"/>
       <c r="CK8" s="34" t="inlineStr"/>
       <c r="CL8" s="34" t="inlineStr"/>
-      <c r="CM8" s="27" t="inlineStr"/>
-      <c r="CN8" s="28" t="inlineStr"/>
+      <c r="CM8" s="34" t="inlineStr"/>
+      <c r="CN8" s="27" t="inlineStr"/>
       <c r="CO8" s="28" t="inlineStr"/>
+      <c r="CP8" s="28" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2728,31 +2748,31 @@
       <c r="W9" s="19" t="inlineStr"/>
       <c r="X9" s="19" t="inlineStr"/>
       <c r="Y9" s="19" t="inlineStr"/>
-      <c r="Z9" s="20" t="inlineStr"/>
-      <c r="AA9" s="21" t="inlineStr"/>
+      <c r="Z9" s="19" t="inlineStr"/>
+      <c r="AA9" s="20" t="inlineStr"/>
       <c r="AB9" s="21" t="inlineStr"/>
-      <c r="AC9" s="22" t="inlineStr"/>
+      <c r="AC9" s="21" t="inlineStr"/>
       <c r="AD9" s="22" t="inlineStr"/>
-      <c r="AE9" s="21" t="inlineStr"/>
-      <c r="AF9" s="23" t="inlineStr"/>
-      <c r="AG9" s="24" t="inlineStr"/>
+      <c r="AE9" s="22" t="inlineStr"/>
+      <c r="AF9" s="21" t="inlineStr"/>
+      <c r="AG9" s="23" t="inlineStr"/>
       <c r="AH9" s="24" t="inlineStr"/>
       <c r="AI9" s="24" t="inlineStr"/>
       <c r="AJ9" s="24" t="inlineStr"/>
-      <c r="AK9" s="25" t="inlineStr"/>
+      <c r="AK9" s="24" t="inlineStr"/>
       <c r="AL9" s="25" t="inlineStr"/>
       <c r="AM9" s="25" t="inlineStr"/>
-      <c r="AN9" s="26" t="inlineStr"/>
-      <c r="AO9" s="27" t="inlineStr"/>
-      <c r="AP9" s="28" t="inlineStr"/>
-      <c r="AQ9" s="29" t="inlineStr"/>
-      <c r="AR9" s="30" t="inlineStr"/>
-      <c r="AS9" s="31" t="inlineStr"/>
-      <c r="AT9" s="17" t="inlineStr"/>
+      <c r="AN9" s="25" t="inlineStr"/>
+      <c r="AO9" s="26" t="inlineStr"/>
+      <c r="AP9" s="27" t="inlineStr"/>
+      <c r="AQ9" s="28" t="inlineStr"/>
+      <c r="AR9" s="29" t="inlineStr"/>
+      <c r="AS9" s="30" t="inlineStr"/>
+      <c r="AT9" s="31" t="inlineStr"/>
       <c r="AU9" s="17" t="inlineStr"/>
-      <c r="AV9" s="32" t="inlineStr"/>
-      <c r="AW9" s="18" t="inlineStr"/>
-      <c r="AX9" s="19" t="inlineStr"/>
+      <c r="AV9" s="17" t="inlineStr"/>
+      <c r="AW9" s="32" t="inlineStr"/>
+      <c r="AX9" s="18" t="inlineStr"/>
       <c r="AY9" s="19" t="inlineStr"/>
       <c r="AZ9" s="19" t="inlineStr"/>
       <c r="BA9" s="19" t="inlineStr"/>
@@ -2761,13 +2781,13 @@
       <c r="BD9" s="19" t="inlineStr"/>
       <c r="BE9" s="19" t="inlineStr"/>
       <c r="BF9" s="19" t="inlineStr"/>
-      <c r="BG9" s="33" t="inlineStr"/>
-      <c r="BH9" s="19" t="inlineStr"/>
-      <c r="BI9" s="20" t="inlineStr"/>
-      <c r="BJ9" s="21" t="inlineStr"/>
+      <c r="BG9" s="19" t="inlineStr"/>
+      <c r="BH9" s="33" t="inlineStr"/>
+      <c r="BI9" s="19" t="inlineStr"/>
+      <c r="BJ9" s="20" t="inlineStr"/>
       <c r="BK9" s="21" t="inlineStr"/>
-      <c r="BL9" s="23" t="inlineStr"/>
-      <c r="BM9" s="25" t="inlineStr"/>
+      <c r="BL9" s="21" t="inlineStr"/>
+      <c r="BM9" s="23" t="inlineStr"/>
       <c r="BN9" s="25" t="inlineStr"/>
       <c r="BO9" s="25" t="inlineStr"/>
       <c r="BP9" s="25" t="inlineStr"/>
@@ -2788,14 +2808,15 @@
       <c r="CE9" s="25" t="inlineStr"/>
       <c r="CF9" s="25" t="inlineStr"/>
       <c r="CG9" s="25" t="inlineStr"/>
-      <c r="CH9" s="26" t="inlineStr"/>
-      <c r="CI9" s="34" t="inlineStr"/>
+      <c r="CH9" s="25" t="inlineStr"/>
+      <c r="CI9" s="26" t="inlineStr"/>
       <c r="CJ9" s="34" t="inlineStr"/>
       <c r="CK9" s="34" t="inlineStr"/>
       <c r="CL9" s="34" t="inlineStr"/>
-      <c r="CM9" s="27" t="inlineStr"/>
-      <c r="CN9" s="28" t="inlineStr"/>
+      <c r="CM9" s="34" t="inlineStr"/>
+      <c r="CN9" s="27" t="inlineStr"/>
       <c r="CO9" s="28" t="inlineStr"/>
+      <c r="CP9" s="28" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2823,31 +2844,31 @@
       <c r="W10" s="19" t="inlineStr"/>
       <c r="X10" s="19" t="inlineStr"/>
       <c r="Y10" s="19" t="inlineStr"/>
-      <c r="Z10" s="20" t="inlineStr"/>
-      <c r="AA10" s="21" t="inlineStr"/>
+      <c r="Z10" s="19" t="inlineStr"/>
+      <c r="AA10" s="20" t="inlineStr"/>
       <c r="AB10" s="21" t="inlineStr"/>
-      <c r="AC10" s="22" t="inlineStr"/>
+      <c r="AC10" s="21" t="inlineStr"/>
       <c r="AD10" s="22" t="inlineStr"/>
-      <c r="AE10" s="21" t="inlineStr"/>
-      <c r="AF10" s="23" t="inlineStr"/>
-      <c r="AG10" s="24" t="inlineStr"/>
+      <c r="AE10" s="22" t="inlineStr"/>
+      <c r="AF10" s="21" t="inlineStr"/>
+      <c r="AG10" s="23" t="inlineStr"/>
       <c r="AH10" s="24" t="inlineStr"/>
       <c r="AI10" s="24" t="inlineStr"/>
       <c r="AJ10" s="24" t="inlineStr"/>
-      <c r="AK10" s="25" t="inlineStr"/>
+      <c r="AK10" s="24" t="inlineStr"/>
       <c r="AL10" s="25" t="inlineStr"/>
       <c r="AM10" s="25" t="inlineStr"/>
-      <c r="AN10" s="26" t="inlineStr"/>
-      <c r="AO10" s="27" t="inlineStr"/>
-      <c r="AP10" s="28" t="inlineStr"/>
-      <c r="AQ10" s="29" t="inlineStr"/>
-      <c r="AR10" s="30" t="inlineStr"/>
-      <c r="AS10" s="31" t="inlineStr"/>
-      <c r="AT10" s="17" t="inlineStr"/>
+      <c r="AN10" s="25" t="inlineStr"/>
+      <c r="AO10" s="26" t="inlineStr"/>
+      <c r="AP10" s="27" t="inlineStr"/>
+      <c r="AQ10" s="28" t="inlineStr"/>
+      <c r="AR10" s="29" t="inlineStr"/>
+      <c r="AS10" s="30" t="inlineStr"/>
+      <c r="AT10" s="31" t="inlineStr"/>
       <c r="AU10" s="17" t="inlineStr"/>
-      <c r="AV10" s="32" t="inlineStr"/>
-      <c r="AW10" s="18" t="inlineStr"/>
-      <c r="AX10" s="19" t="inlineStr"/>
+      <c r="AV10" s="17" t="inlineStr"/>
+      <c r="AW10" s="32" t="inlineStr"/>
+      <c r="AX10" s="18" t="inlineStr"/>
       <c r="AY10" s="19" t="inlineStr"/>
       <c r="AZ10" s="19" t="inlineStr"/>
       <c r="BA10" s="19" t="inlineStr"/>
@@ -2856,13 +2877,13 @@
       <c r="BD10" s="19" t="inlineStr"/>
       <c r="BE10" s="19" t="inlineStr"/>
       <c r="BF10" s="19" t="inlineStr"/>
-      <c r="BG10" s="33" t="inlineStr"/>
-      <c r="BH10" s="19" t="inlineStr"/>
-      <c r="BI10" s="20" t="inlineStr"/>
-      <c r="BJ10" s="21" t="inlineStr"/>
+      <c r="BG10" s="19" t="inlineStr"/>
+      <c r="BH10" s="33" t="inlineStr"/>
+      <c r="BI10" s="19" t="inlineStr"/>
+      <c r="BJ10" s="20" t="inlineStr"/>
       <c r="BK10" s="21" t="inlineStr"/>
-      <c r="BL10" s="23" t="inlineStr"/>
-      <c r="BM10" s="25" t="inlineStr"/>
+      <c r="BL10" s="21" t="inlineStr"/>
+      <c r="BM10" s="23" t="inlineStr"/>
       <c r="BN10" s="25" t="inlineStr"/>
       <c r="BO10" s="25" t="inlineStr"/>
       <c r="BP10" s="25" t="inlineStr"/>
@@ -2883,14 +2904,15 @@
       <c r="CE10" s="25" t="inlineStr"/>
       <c r="CF10" s="25" t="inlineStr"/>
       <c r="CG10" s="25" t="inlineStr"/>
-      <c r="CH10" s="26" t="inlineStr"/>
-      <c r="CI10" s="34" t="inlineStr"/>
+      <c r="CH10" s="25" t="inlineStr"/>
+      <c r="CI10" s="26" t="inlineStr"/>
       <c r="CJ10" s="34" t="inlineStr"/>
       <c r="CK10" s="34" t="inlineStr"/>
       <c r="CL10" s="34" t="inlineStr"/>
-      <c r="CM10" s="27" t="inlineStr"/>
-      <c r="CN10" s="28" t="inlineStr"/>
+      <c r="CM10" s="34" t="inlineStr"/>
+      <c r="CN10" s="27" t="inlineStr"/>
       <c r="CO10" s="28" t="inlineStr"/>
+      <c r="CP10" s="28" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2918,31 +2940,31 @@
       <c r="W11" s="19" t="inlineStr"/>
       <c r="X11" s="19" t="inlineStr"/>
       <c r="Y11" s="19" t="inlineStr"/>
-      <c r="Z11" s="20" t="inlineStr"/>
-      <c r="AA11" s="21" t="inlineStr"/>
+      <c r="Z11" s="19" t="inlineStr"/>
+      <c r="AA11" s="20" t="inlineStr"/>
       <c r="AB11" s="21" t="inlineStr"/>
-      <c r="AC11" s="22" t="inlineStr"/>
+      <c r="AC11" s="21" t="inlineStr"/>
       <c r="AD11" s="22" t="inlineStr"/>
-      <c r="AE11" s="21" t="inlineStr"/>
-      <c r="AF11" s="23" t="inlineStr"/>
-      <c r="AG11" s="24" t="inlineStr"/>
+      <c r="AE11" s="22" t="inlineStr"/>
+      <c r="AF11" s="21" t="inlineStr"/>
+      <c r="AG11" s="23" t="inlineStr"/>
       <c r="AH11" s="24" t="inlineStr"/>
       <c r="AI11" s="24" t="inlineStr"/>
       <c r="AJ11" s="24" t="inlineStr"/>
-      <c r="AK11" s="25" t="inlineStr"/>
+      <c r="AK11" s="24" t="inlineStr"/>
       <c r="AL11" s="25" t="inlineStr"/>
       <c r="AM11" s="25" t="inlineStr"/>
-      <c r="AN11" s="26" t="inlineStr"/>
-      <c r="AO11" s="27" t="inlineStr"/>
-      <c r="AP11" s="28" t="inlineStr"/>
-      <c r="AQ11" s="29" t="inlineStr"/>
-      <c r="AR11" s="30" t="inlineStr"/>
-      <c r="AS11" s="31" t="inlineStr"/>
-      <c r="AT11" s="17" t="inlineStr"/>
+      <c r="AN11" s="25" t="inlineStr"/>
+      <c r="AO11" s="26" t="inlineStr"/>
+      <c r="AP11" s="27" t="inlineStr"/>
+      <c r="AQ11" s="28" t="inlineStr"/>
+      <c r="AR11" s="29" t="inlineStr"/>
+      <c r="AS11" s="30" t="inlineStr"/>
+      <c r="AT11" s="31" t="inlineStr"/>
       <c r="AU11" s="17" t="inlineStr"/>
-      <c r="AV11" s="32" t="inlineStr"/>
-      <c r="AW11" s="18" t="inlineStr"/>
-      <c r="AX11" s="19" t="inlineStr"/>
+      <c r="AV11" s="17" t="inlineStr"/>
+      <c r="AW11" s="32" t="inlineStr"/>
+      <c r="AX11" s="18" t="inlineStr"/>
       <c r="AY11" s="19" t="inlineStr"/>
       <c r="AZ11" s="19" t="inlineStr"/>
       <c r="BA11" s="19" t="inlineStr"/>
@@ -2951,13 +2973,13 @@
       <c r="BD11" s="19" t="inlineStr"/>
       <c r="BE11" s="19" t="inlineStr"/>
       <c r="BF11" s="19" t="inlineStr"/>
-      <c r="BG11" s="33" t="inlineStr"/>
-      <c r="BH11" s="19" t="inlineStr"/>
-      <c r="BI11" s="20" t="inlineStr"/>
-      <c r="BJ11" s="21" t="inlineStr"/>
+      <c r="BG11" s="19" t="inlineStr"/>
+      <c r="BH11" s="33" t="inlineStr"/>
+      <c r="BI11" s="19" t="inlineStr"/>
+      <c r="BJ11" s="20" t="inlineStr"/>
       <c r="BK11" s="21" t="inlineStr"/>
-      <c r="BL11" s="23" t="inlineStr"/>
-      <c r="BM11" s="25" t="inlineStr"/>
+      <c r="BL11" s="21" t="inlineStr"/>
+      <c r="BM11" s="23" t="inlineStr"/>
       <c r="BN11" s="25" t="inlineStr"/>
       <c r="BO11" s="25" t="inlineStr"/>
       <c r="BP11" s="25" t="inlineStr"/>
@@ -2978,14 +3000,15 @@
       <c r="CE11" s="25" t="inlineStr"/>
       <c r="CF11" s="25" t="inlineStr"/>
       <c r="CG11" s="25" t="inlineStr"/>
-      <c r="CH11" s="26" t="inlineStr"/>
-      <c r="CI11" s="34" t="inlineStr"/>
+      <c r="CH11" s="25" t="inlineStr"/>
+      <c r="CI11" s="26" t="inlineStr"/>
       <c r="CJ11" s="34" t="inlineStr"/>
       <c r="CK11" s="34" t="inlineStr"/>
       <c r="CL11" s="34" t="inlineStr"/>
-      <c r="CM11" s="27" t="inlineStr"/>
-      <c r="CN11" s="28" t="inlineStr"/>
+      <c r="CM11" s="34" t="inlineStr"/>
+      <c r="CN11" s="27" t="inlineStr"/>
       <c r="CO11" s="28" t="inlineStr"/>
+      <c r="CP11" s="28" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -3013,31 +3036,31 @@
       <c r="W12" s="19" t="inlineStr"/>
       <c r="X12" s="19" t="inlineStr"/>
       <c r="Y12" s="19" t="inlineStr"/>
-      <c r="Z12" s="20" t="inlineStr"/>
-      <c r="AA12" s="21" t="inlineStr"/>
+      <c r="Z12" s="19" t="inlineStr"/>
+      <c r="AA12" s="20" t="inlineStr"/>
       <c r="AB12" s="21" t="inlineStr"/>
-      <c r="AC12" s="22" t="inlineStr"/>
+      <c r="AC12" s="21" t="inlineStr"/>
       <c r="AD12" s="22" t="inlineStr"/>
-      <c r="AE12" s="21" t="inlineStr"/>
-      <c r="AF12" s="23" t="inlineStr"/>
-      <c r="AG12" s="24" t="inlineStr"/>
+      <c r="AE12" s="22" t="inlineStr"/>
+      <c r="AF12" s="21" t="inlineStr"/>
+      <c r="AG12" s="23" t="inlineStr"/>
       <c r="AH12" s="24" t="inlineStr"/>
       <c r="AI12" s="24" t="inlineStr"/>
       <c r="AJ12" s="24" t="inlineStr"/>
-      <c r="AK12" s="25" t="inlineStr"/>
+      <c r="AK12" s="24" t="inlineStr"/>
       <c r="AL12" s="25" t="inlineStr"/>
       <c r="AM12" s="25" t="inlineStr"/>
-      <c r="AN12" s="26" t="inlineStr"/>
-      <c r="AO12" s="27" t="inlineStr"/>
-      <c r="AP12" s="28" t="inlineStr"/>
-      <c r="AQ12" s="29" t="inlineStr"/>
-      <c r="AR12" s="30" t="inlineStr"/>
-      <c r="AS12" s="31" t="inlineStr"/>
-      <c r="AT12" s="17" t="inlineStr"/>
+      <c r="AN12" s="25" t="inlineStr"/>
+      <c r="AO12" s="26" t="inlineStr"/>
+      <c r="AP12" s="27" t="inlineStr"/>
+      <c r="AQ12" s="28" t="inlineStr"/>
+      <c r="AR12" s="29" t="inlineStr"/>
+      <c r="AS12" s="30" t="inlineStr"/>
+      <c r="AT12" s="31" t="inlineStr"/>
       <c r="AU12" s="17" t="inlineStr"/>
-      <c r="AV12" s="32" t="inlineStr"/>
-      <c r="AW12" s="18" t="inlineStr"/>
-      <c r="AX12" s="19" t="inlineStr"/>
+      <c r="AV12" s="17" t="inlineStr"/>
+      <c r="AW12" s="32" t="inlineStr"/>
+      <c r="AX12" s="18" t="inlineStr"/>
       <c r="AY12" s="19" t="inlineStr"/>
       <c r="AZ12" s="19" t="inlineStr"/>
       <c r="BA12" s="19" t="inlineStr"/>
@@ -3046,13 +3069,13 @@
       <c r="BD12" s="19" t="inlineStr"/>
       <c r="BE12" s="19" t="inlineStr"/>
       <c r="BF12" s="19" t="inlineStr"/>
-      <c r="BG12" s="33" t="inlineStr"/>
-      <c r="BH12" s="19" t="inlineStr"/>
-      <c r="BI12" s="20" t="inlineStr"/>
-      <c r="BJ12" s="21" t="inlineStr"/>
+      <c r="BG12" s="19" t="inlineStr"/>
+      <c r="BH12" s="33" t="inlineStr"/>
+      <c r="BI12" s="19" t="inlineStr"/>
+      <c r="BJ12" s="20" t="inlineStr"/>
       <c r="BK12" s="21" t="inlineStr"/>
-      <c r="BL12" s="23" t="inlineStr"/>
-      <c r="BM12" s="25" t="inlineStr"/>
+      <c r="BL12" s="21" t="inlineStr"/>
+      <c r="BM12" s="23" t="inlineStr"/>
       <c r="BN12" s="25" t="inlineStr"/>
       <c r="BO12" s="25" t="inlineStr"/>
       <c r="BP12" s="25" t="inlineStr"/>
@@ -3073,14 +3096,15 @@
       <c r="CE12" s="25" t="inlineStr"/>
       <c r="CF12" s="25" t="inlineStr"/>
       <c r="CG12" s="25" t="inlineStr"/>
-      <c r="CH12" s="26" t="inlineStr"/>
-      <c r="CI12" s="34" t="inlineStr"/>
+      <c r="CH12" s="25" t="inlineStr"/>
+      <c r="CI12" s="26" t="inlineStr"/>
       <c r="CJ12" s="34" t="inlineStr"/>
       <c r="CK12" s="34" t="inlineStr"/>
       <c r="CL12" s="34" t="inlineStr"/>
-      <c r="CM12" s="27" t="inlineStr"/>
-      <c r="CN12" s="28" t="inlineStr"/>
+      <c r="CM12" s="34" t="inlineStr"/>
+      <c r="CN12" s="27" t="inlineStr"/>
       <c r="CO12" s="28" t="inlineStr"/>
+      <c r="CP12" s="28" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -3108,31 +3132,31 @@
       <c r="W13" s="19" t="inlineStr"/>
       <c r="X13" s="19" t="inlineStr"/>
       <c r="Y13" s="19" t="inlineStr"/>
-      <c r="Z13" s="20" t="inlineStr"/>
-      <c r="AA13" s="21" t="inlineStr"/>
+      <c r="Z13" s="19" t="inlineStr"/>
+      <c r="AA13" s="20" t="inlineStr"/>
       <c r="AB13" s="21" t="inlineStr"/>
-      <c r="AC13" s="22" t="inlineStr"/>
+      <c r="AC13" s="21" t="inlineStr"/>
       <c r="AD13" s="22" t="inlineStr"/>
-      <c r="AE13" s="21" t="inlineStr"/>
-      <c r="AF13" s="23" t="inlineStr"/>
-      <c r="AG13" s="24" t="inlineStr"/>
+      <c r="AE13" s="22" t="inlineStr"/>
+      <c r="AF13" s="21" t="inlineStr"/>
+      <c r="AG13" s="23" t="inlineStr"/>
       <c r="AH13" s="24" t="inlineStr"/>
       <c r="AI13" s="24" t="inlineStr"/>
       <c r="AJ13" s="24" t="inlineStr"/>
-      <c r="AK13" s="25" t="inlineStr"/>
+      <c r="AK13" s="24" t="inlineStr"/>
       <c r="AL13" s="25" t="inlineStr"/>
       <c r="AM13" s="25" t="inlineStr"/>
-      <c r="AN13" s="26" t="inlineStr"/>
-      <c r="AO13" s="27" t="inlineStr"/>
-      <c r="AP13" s="28" t="inlineStr"/>
-      <c r="AQ13" s="29" t="inlineStr"/>
-      <c r="AR13" s="30" t="inlineStr"/>
-      <c r="AS13" s="31" t="inlineStr"/>
-      <c r="AT13" s="17" t="inlineStr"/>
+      <c r="AN13" s="25" t="inlineStr"/>
+      <c r="AO13" s="26" t="inlineStr"/>
+      <c r="AP13" s="27" t="inlineStr"/>
+      <c r="AQ13" s="28" t="inlineStr"/>
+      <c r="AR13" s="29" t="inlineStr"/>
+      <c r="AS13" s="30" t="inlineStr"/>
+      <c r="AT13" s="31" t="inlineStr"/>
       <c r="AU13" s="17" t="inlineStr"/>
-      <c r="AV13" s="32" t="inlineStr"/>
-      <c r="AW13" s="18" t="inlineStr"/>
-      <c r="AX13" s="19" t="inlineStr"/>
+      <c r="AV13" s="17" t="inlineStr"/>
+      <c r="AW13" s="32" t="inlineStr"/>
+      <c r="AX13" s="18" t="inlineStr"/>
       <c r="AY13" s="19" t="inlineStr"/>
       <c r="AZ13" s="19" t="inlineStr"/>
       <c r="BA13" s="19" t="inlineStr"/>
@@ -3141,13 +3165,13 @@
       <c r="BD13" s="19" t="inlineStr"/>
       <c r="BE13" s="19" t="inlineStr"/>
       <c r="BF13" s="19" t="inlineStr"/>
-      <c r="BG13" s="33" t="inlineStr"/>
-      <c r="BH13" s="19" t="inlineStr"/>
-      <c r="BI13" s="20" t="inlineStr"/>
-      <c r="BJ13" s="21" t="inlineStr"/>
+      <c r="BG13" s="19" t="inlineStr"/>
+      <c r="BH13" s="33" t="inlineStr"/>
+      <c r="BI13" s="19" t="inlineStr"/>
+      <c r="BJ13" s="20" t="inlineStr"/>
       <c r="BK13" s="21" t="inlineStr"/>
-      <c r="BL13" s="23" t="inlineStr"/>
-      <c r="BM13" s="25" t="inlineStr"/>
+      <c r="BL13" s="21" t="inlineStr"/>
+      <c r="BM13" s="23" t="inlineStr"/>
       <c r="BN13" s="25" t="inlineStr"/>
       <c r="BO13" s="25" t="inlineStr"/>
       <c r="BP13" s="25" t="inlineStr"/>
@@ -3168,14 +3192,15 @@
       <c r="CE13" s="25" t="inlineStr"/>
       <c r="CF13" s="25" t="inlineStr"/>
       <c r="CG13" s="25" t="inlineStr"/>
-      <c r="CH13" s="26" t="inlineStr"/>
-      <c r="CI13" s="34" t="inlineStr"/>
+      <c r="CH13" s="25" t="inlineStr"/>
+      <c r="CI13" s="26" t="inlineStr"/>
       <c r="CJ13" s="34" t="inlineStr"/>
       <c r="CK13" s="34" t="inlineStr"/>
       <c r="CL13" s="34" t="inlineStr"/>
-      <c r="CM13" s="27" t="inlineStr"/>
-      <c r="CN13" s="28" t="inlineStr"/>
+      <c r="CM13" s="34" t="inlineStr"/>
+      <c r="CN13" s="27" t="inlineStr"/>
       <c r="CO13" s="28" t="inlineStr"/>
+      <c r="CP13" s="28" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -3203,31 +3228,31 @@
       <c r="W14" s="19" t="inlineStr"/>
       <c r="X14" s="19" t="inlineStr"/>
       <c r="Y14" s="19" t="inlineStr"/>
-      <c r="Z14" s="20" t="inlineStr"/>
-      <c r="AA14" s="21" t="inlineStr"/>
+      <c r="Z14" s="19" t="inlineStr"/>
+      <c r="AA14" s="20" t="inlineStr"/>
       <c r="AB14" s="21" t="inlineStr"/>
-      <c r="AC14" s="22" t="inlineStr"/>
+      <c r="AC14" s="21" t="inlineStr"/>
       <c r="AD14" s="22" t="inlineStr"/>
-      <c r="AE14" s="21" t="inlineStr"/>
-      <c r="AF14" s="23" t="inlineStr"/>
-      <c r="AG14" s="24" t="inlineStr"/>
+      <c r="AE14" s="22" t="inlineStr"/>
+      <c r="AF14" s="21" t="inlineStr"/>
+      <c r="AG14" s="23" t="inlineStr"/>
       <c r="AH14" s="24" t="inlineStr"/>
       <c r="AI14" s="24" t="inlineStr"/>
       <c r="AJ14" s="24" t="inlineStr"/>
-      <c r="AK14" s="25" t="inlineStr"/>
+      <c r="AK14" s="24" t="inlineStr"/>
       <c r="AL14" s="25" t="inlineStr"/>
       <c r="AM14" s="25" t="inlineStr"/>
-      <c r="AN14" s="26" t="inlineStr"/>
-      <c r="AO14" s="27" t="inlineStr"/>
-      <c r="AP14" s="28" t="inlineStr"/>
-      <c r="AQ14" s="29" t="inlineStr"/>
-      <c r="AR14" s="30" t="inlineStr"/>
-      <c r="AS14" s="31" t="inlineStr"/>
-      <c r="AT14" s="17" t="inlineStr"/>
+      <c r="AN14" s="25" t="inlineStr"/>
+      <c r="AO14" s="26" t="inlineStr"/>
+      <c r="AP14" s="27" t="inlineStr"/>
+      <c r="AQ14" s="28" t="inlineStr"/>
+      <c r="AR14" s="29" t="inlineStr"/>
+      <c r="AS14" s="30" t="inlineStr"/>
+      <c r="AT14" s="31" t="inlineStr"/>
       <c r="AU14" s="17" t="inlineStr"/>
-      <c r="AV14" s="32" t="inlineStr"/>
-      <c r="AW14" s="18" t="inlineStr"/>
-      <c r="AX14" s="19" t="inlineStr"/>
+      <c r="AV14" s="17" t="inlineStr"/>
+      <c r="AW14" s="32" t="inlineStr"/>
+      <c r="AX14" s="18" t="inlineStr"/>
       <c r="AY14" s="19" t="inlineStr"/>
       <c r="AZ14" s="19" t="inlineStr"/>
       <c r="BA14" s="19" t="inlineStr"/>
@@ -3236,13 +3261,13 @@
       <c r="BD14" s="19" t="inlineStr"/>
       <c r="BE14" s="19" t="inlineStr"/>
       <c r="BF14" s="19" t="inlineStr"/>
-      <c r="BG14" s="33" t="inlineStr"/>
-      <c r="BH14" s="19" t="inlineStr"/>
-      <c r="BI14" s="20" t="inlineStr"/>
-      <c r="BJ14" s="21" t="inlineStr"/>
+      <c r="BG14" s="19" t="inlineStr"/>
+      <c r="BH14" s="33" t="inlineStr"/>
+      <c r="BI14" s="19" t="inlineStr"/>
+      <c r="BJ14" s="20" t="inlineStr"/>
       <c r="BK14" s="21" t="inlineStr"/>
-      <c r="BL14" s="23" t="inlineStr"/>
-      <c r="BM14" s="25" t="inlineStr"/>
+      <c r="BL14" s="21" t="inlineStr"/>
+      <c r="BM14" s="23" t="inlineStr"/>
       <c r="BN14" s="25" t="inlineStr"/>
       <c r="BO14" s="25" t="inlineStr"/>
       <c r="BP14" s="25" t="inlineStr"/>
@@ -3263,14 +3288,15 @@
       <c r="CE14" s="25" t="inlineStr"/>
       <c r="CF14" s="25" t="inlineStr"/>
       <c r="CG14" s="25" t="inlineStr"/>
-      <c r="CH14" s="26" t="inlineStr"/>
-      <c r="CI14" s="34" t="inlineStr"/>
+      <c r="CH14" s="25" t="inlineStr"/>
+      <c r="CI14" s="26" t="inlineStr"/>
       <c r="CJ14" s="34" t="inlineStr"/>
       <c r="CK14" s="34" t="inlineStr"/>
       <c r="CL14" s="34" t="inlineStr"/>
-      <c r="CM14" s="27" t="inlineStr"/>
-      <c r="CN14" s="28" t="inlineStr"/>
+      <c r="CM14" s="34" t="inlineStr"/>
+      <c r="CN14" s="27" t="inlineStr"/>
       <c r="CO14" s="28" t="inlineStr"/>
+      <c r="CP14" s="28" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -3298,31 +3324,31 @@
       <c r="W15" s="19" t="inlineStr"/>
       <c r="X15" s="19" t="inlineStr"/>
       <c r="Y15" s="19" t="inlineStr"/>
-      <c r="Z15" s="20" t="inlineStr"/>
-      <c r="AA15" s="21" t="inlineStr"/>
+      <c r="Z15" s="19" t="inlineStr"/>
+      <c r="AA15" s="20" t="inlineStr"/>
       <c r="AB15" s="21" t="inlineStr"/>
-      <c r="AC15" s="22" t="inlineStr"/>
+      <c r="AC15" s="21" t="inlineStr"/>
       <c r="AD15" s="22" t="inlineStr"/>
-      <c r="AE15" s="21" t="inlineStr"/>
-      <c r="AF15" s="23" t="inlineStr"/>
-      <c r="AG15" s="24" t="inlineStr"/>
+      <c r="AE15" s="22" t="inlineStr"/>
+      <c r="AF15" s="21" t="inlineStr"/>
+      <c r="AG15" s="23" t="inlineStr"/>
       <c r="AH15" s="24" t="inlineStr"/>
       <c r="AI15" s="24" t="inlineStr"/>
       <c r="AJ15" s="24" t="inlineStr"/>
-      <c r="AK15" s="25" t="inlineStr"/>
+      <c r="AK15" s="24" t="inlineStr"/>
       <c r="AL15" s="25" t="inlineStr"/>
       <c r="AM15" s="25" t="inlineStr"/>
-      <c r="AN15" s="26" t="inlineStr"/>
-      <c r="AO15" s="27" t="inlineStr"/>
-      <c r="AP15" s="28" t="inlineStr"/>
-      <c r="AQ15" s="29" t="inlineStr"/>
-      <c r="AR15" s="30" t="inlineStr"/>
-      <c r="AS15" s="31" t="inlineStr"/>
-      <c r="AT15" s="17" t="inlineStr"/>
+      <c r="AN15" s="25" t="inlineStr"/>
+      <c r="AO15" s="26" t="inlineStr"/>
+      <c r="AP15" s="27" t="inlineStr"/>
+      <c r="AQ15" s="28" t="inlineStr"/>
+      <c r="AR15" s="29" t="inlineStr"/>
+      <c r="AS15" s="30" t="inlineStr"/>
+      <c r="AT15" s="31" t="inlineStr"/>
       <c r="AU15" s="17" t="inlineStr"/>
-      <c r="AV15" s="32" t="inlineStr"/>
-      <c r="AW15" s="18" t="inlineStr"/>
-      <c r="AX15" s="19" t="inlineStr"/>
+      <c r="AV15" s="17" t="inlineStr"/>
+      <c r="AW15" s="32" t="inlineStr"/>
+      <c r="AX15" s="18" t="inlineStr"/>
       <c r="AY15" s="19" t="inlineStr"/>
       <c r="AZ15" s="19" t="inlineStr"/>
       <c r="BA15" s="19" t="inlineStr"/>
@@ -3331,13 +3357,13 @@
       <c r="BD15" s="19" t="inlineStr"/>
       <c r="BE15" s="19" t="inlineStr"/>
       <c r="BF15" s="19" t="inlineStr"/>
-      <c r="BG15" s="33" t="inlineStr"/>
-      <c r="BH15" s="19" t="inlineStr"/>
-      <c r="BI15" s="20" t="inlineStr"/>
-      <c r="BJ15" s="21" t="inlineStr"/>
+      <c r="BG15" s="19" t="inlineStr"/>
+      <c r="BH15" s="33" t="inlineStr"/>
+      <c r="BI15" s="19" t="inlineStr"/>
+      <c r="BJ15" s="20" t="inlineStr"/>
       <c r="BK15" s="21" t="inlineStr"/>
-      <c r="BL15" s="23" t="inlineStr"/>
-      <c r="BM15" s="25" t="inlineStr"/>
+      <c r="BL15" s="21" t="inlineStr"/>
+      <c r="BM15" s="23" t="inlineStr"/>
       <c r="BN15" s="25" t="inlineStr"/>
       <c r="BO15" s="25" t="inlineStr"/>
       <c r="BP15" s="25" t="inlineStr"/>
@@ -3358,14 +3384,15 @@
       <c r="CE15" s="25" t="inlineStr"/>
       <c r="CF15" s="25" t="inlineStr"/>
       <c r="CG15" s="25" t="inlineStr"/>
-      <c r="CH15" s="26" t="inlineStr"/>
-      <c r="CI15" s="34" t="inlineStr"/>
+      <c r="CH15" s="25" t="inlineStr"/>
+      <c r="CI15" s="26" t="inlineStr"/>
       <c r="CJ15" s="34" t="inlineStr"/>
       <c r="CK15" s="34" t="inlineStr"/>
       <c r="CL15" s="34" t="inlineStr"/>
-      <c r="CM15" s="27" t="inlineStr"/>
-      <c r="CN15" s="28" t="inlineStr"/>
+      <c r="CM15" s="34" t="inlineStr"/>
+      <c r="CN15" s="27" t="inlineStr"/>
       <c r="CO15" s="28" t="inlineStr"/>
+      <c r="CP15" s="28" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -3393,31 +3420,31 @@
       <c r="W16" s="19" t="inlineStr"/>
       <c r="X16" s="19" t="inlineStr"/>
       <c r="Y16" s="19" t="inlineStr"/>
-      <c r="Z16" s="20" t="inlineStr"/>
-      <c r="AA16" s="21" t="inlineStr"/>
+      <c r="Z16" s="19" t="inlineStr"/>
+      <c r="AA16" s="20" t="inlineStr"/>
       <c r="AB16" s="21" t="inlineStr"/>
-      <c r="AC16" s="22" t="inlineStr"/>
+      <c r="AC16" s="21" t="inlineStr"/>
       <c r="AD16" s="22" t="inlineStr"/>
-      <c r="AE16" s="21" t="inlineStr"/>
-      <c r="AF16" s="23" t="inlineStr"/>
-      <c r="AG16" s="24" t="inlineStr"/>
+      <c r="AE16" s="22" t="inlineStr"/>
+      <c r="AF16" s="21" t="inlineStr"/>
+      <c r="AG16" s="23" t="inlineStr"/>
       <c r="AH16" s="24" t="inlineStr"/>
       <c r="AI16" s="24" t="inlineStr"/>
       <c r="AJ16" s="24" t="inlineStr"/>
-      <c r="AK16" s="25" t="inlineStr"/>
+      <c r="AK16" s="24" t="inlineStr"/>
       <c r="AL16" s="25" t="inlineStr"/>
       <c r="AM16" s="25" t="inlineStr"/>
-      <c r="AN16" s="26" t="inlineStr"/>
-      <c r="AO16" s="27" t="inlineStr"/>
-      <c r="AP16" s="28" t="inlineStr"/>
-      <c r="AQ16" s="29" t="inlineStr"/>
-      <c r="AR16" s="30" t="inlineStr"/>
-      <c r="AS16" s="31" t="inlineStr"/>
-      <c r="AT16" s="17" t="inlineStr"/>
+      <c r="AN16" s="25" t="inlineStr"/>
+      <c r="AO16" s="26" t="inlineStr"/>
+      <c r="AP16" s="27" t="inlineStr"/>
+      <c r="AQ16" s="28" t="inlineStr"/>
+      <c r="AR16" s="29" t="inlineStr"/>
+      <c r="AS16" s="30" t="inlineStr"/>
+      <c r="AT16" s="31" t="inlineStr"/>
       <c r="AU16" s="17" t="inlineStr"/>
-      <c r="AV16" s="32" t="inlineStr"/>
-      <c r="AW16" s="18" t="inlineStr"/>
-      <c r="AX16" s="19" t="inlineStr"/>
+      <c r="AV16" s="17" t="inlineStr"/>
+      <c r="AW16" s="32" t="inlineStr"/>
+      <c r="AX16" s="18" t="inlineStr"/>
       <c r="AY16" s="19" t="inlineStr"/>
       <c r="AZ16" s="19" t="inlineStr"/>
       <c r="BA16" s="19" t="inlineStr"/>
@@ -3426,13 +3453,13 @@
       <c r="BD16" s="19" t="inlineStr"/>
       <c r="BE16" s="19" t="inlineStr"/>
       <c r="BF16" s="19" t="inlineStr"/>
-      <c r="BG16" s="33" t="inlineStr"/>
-      <c r="BH16" s="19" t="inlineStr"/>
-      <c r="BI16" s="20" t="inlineStr"/>
-      <c r="BJ16" s="21" t="inlineStr"/>
+      <c r="BG16" s="19" t="inlineStr"/>
+      <c r="BH16" s="33" t="inlineStr"/>
+      <c r="BI16" s="19" t="inlineStr"/>
+      <c r="BJ16" s="20" t="inlineStr"/>
       <c r="BK16" s="21" t="inlineStr"/>
-      <c r="BL16" s="23" t="inlineStr"/>
-      <c r="BM16" s="25" t="inlineStr"/>
+      <c r="BL16" s="21" t="inlineStr"/>
+      <c r="BM16" s="23" t="inlineStr"/>
       <c r="BN16" s="25" t="inlineStr"/>
       <c r="BO16" s="25" t="inlineStr"/>
       <c r="BP16" s="25" t="inlineStr"/>
@@ -3453,14 +3480,15 @@
       <c r="CE16" s="25" t="inlineStr"/>
       <c r="CF16" s="25" t="inlineStr"/>
       <c r="CG16" s="25" t="inlineStr"/>
-      <c r="CH16" s="26" t="inlineStr"/>
-      <c r="CI16" s="34" t="inlineStr"/>
+      <c r="CH16" s="25" t="inlineStr"/>
+      <c r="CI16" s="26" t="inlineStr"/>
       <c r="CJ16" s="34" t="inlineStr"/>
       <c r="CK16" s="34" t="inlineStr"/>
       <c r="CL16" s="34" t="inlineStr"/>
-      <c r="CM16" s="27" t="inlineStr"/>
-      <c r="CN16" s="28" t="inlineStr"/>
+      <c r="CM16" s="34" t="inlineStr"/>
+      <c r="CN16" s="27" t="inlineStr"/>
       <c r="CO16" s="28" t="inlineStr"/>
+      <c r="CP16" s="28" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -3488,31 +3516,31 @@
       <c r="W17" s="19" t="inlineStr"/>
       <c r="X17" s="19" t="inlineStr"/>
       <c r="Y17" s="19" t="inlineStr"/>
-      <c r="Z17" s="20" t="inlineStr"/>
-      <c r="AA17" s="21" t="inlineStr"/>
+      <c r="Z17" s="19" t="inlineStr"/>
+      <c r="AA17" s="20" t="inlineStr"/>
       <c r="AB17" s="21" t="inlineStr"/>
-      <c r="AC17" s="22" t="inlineStr"/>
+      <c r="AC17" s="21" t="inlineStr"/>
       <c r="AD17" s="22" t="inlineStr"/>
-      <c r="AE17" s="21" t="inlineStr"/>
-      <c r="AF17" s="23" t="inlineStr"/>
-      <c r="AG17" s="24" t="inlineStr"/>
+      <c r="AE17" s="22" t="inlineStr"/>
+      <c r="AF17" s="21" t="inlineStr"/>
+      <c r="AG17" s="23" t="inlineStr"/>
       <c r="AH17" s="24" t="inlineStr"/>
       <c r="AI17" s="24" t="inlineStr"/>
       <c r="AJ17" s="24" t="inlineStr"/>
-      <c r="AK17" s="25" t="inlineStr"/>
+      <c r="AK17" s="24" t="inlineStr"/>
       <c r="AL17" s="25" t="inlineStr"/>
       <c r="AM17" s="25" t="inlineStr"/>
-      <c r="AN17" s="26" t="inlineStr"/>
-      <c r="AO17" s="27" t="inlineStr"/>
-      <c r="AP17" s="28" t="inlineStr"/>
-      <c r="AQ17" s="29" t="inlineStr"/>
-      <c r="AR17" s="30" t="inlineStr"/>
-      <c r="AS17" s="31" t="inlineStr"/>
-      <c r="AT17" s="17" t="inlineStr"/>
+      <c r="AN17" s="25" t="inlineStr"/>
+      <c r="AO17" s="26" t="inlineStr"/>
+      <c r="AP17" s="27" t="inlineStr"/>
+      <c r="AQ17" s="28" t="inlineStr"/>
+      <c r="AR17" s="29" t="inlineStr"/>
+      <c r="AS17" s="30" t="inlineStr"/>
+      <c r="AT17" s="31" t="inlineStr"/>
       <c r="AU17" s="17" t="inlineStr"/>
-      <c r="AV17" s="32" t="inlineStr"/>
-      <c r="AW17" s="18" t="inlineStr"/>
-      <c r="AX17" s="19" t="inlineStr"/>
+      <c r="AV17" s="17" t="inlineStr"/>
+      <c r="AW17" s="32" t="inlineStr"/>
+      <c r="AX17" s="18" t="inlineStr"/>
       <c r="AY17" s="19" t="inlineStr"/>
       <c r="AZ17" s="19" t="inlineStr"/>
       <c r="BA17" s="19" t="inlineStr"/>
@@ -3521,13 +3549,13 @@
       <c r="BD17" s="19" t="inlineStr"/>
       <c r="BE17" s="19" t="inlineStr"/>
       <c r="BF17" s="19" t="inlineStr"/>
-      <c r="BG17" s="33" t="inlineStr"/>
-      <c r="BH17" s="19" t="inlineStr"/>
-      <c r="BI17" s="20" t="inlineStr"/>
-      <c r="BJ17" s="21" t="inlineStr"/>
+      <c r="BG17" s="19" t="inlineStr"/>
+      <c r="BH17" s="33" t="inlineStr"/>
+      <c r="BI17" s="19" t="inlineStr"/>
+      <c r="BJ17" s="20" t="inlineStr"/>
       <c r="BK17" s="21" t="inlineStr"/>
-      <c r="BL17" s="23" t="inlineStr"/>
-      <c r="BM17" s="25" t="inlineStr"/>
+      <c r="BL17" s="21" t="inlineStr"/>
+      <c r="BM17" s="23" t="inlineStr"/>
       <c r="BN17" s="25" t="inlineStr"/>
       <c r="BO17" s="25" t="inlineStr"/>
       <c r="BP17" s="25" t="inlineStr"/>
@@ -3548,14 +3576,15 @@
       <c r="CE17" s="25" t="inlineStr"/>
       <c r="CF17" s="25" t="inlineStr"/>
       <c r="CG17" s="25" t="inlineStr"/>
-      <c r="CH17" s="26" t="inlineStr"/>
-      <c r="CI17" s="34" t="inlineStr"/>
+      <c r="CH17" s="25" t="inlineStr"/>
+      <c r="CI17" s="26" t="inlineStr"/>
       <c r="CJ17" s="34" t="inlineStr"/>
       <c r="CK17" s="34" t="inlineStr"/>
       <c r="CL17" s="34" t="inlineStr"/>
-      <c r="CM17" s="27" t="inlineStr"/>
-      <c r="CN17" s="28" t="inlineStr"/>
+      <c r="CM17" s="34" t="inlineStr"/>
+      <c r="CN17" s="27" t="inlineStr"/>
       <c r="CO17" s="28" t="inlineStr"/>
+      <c r="CP17" s="28" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3583,31 +3612,31 @@
       <c r="W18" s="19" t="inlineStr"/>
       <c r="X18" s="19" t="inlineStr"/>
       <c r="Y18" s="19" t="inlineStr"/>
-      <c r="Z18" s="20" t="inlineStr"/>
-      <c r="AA18" s="21" t="inlineStr"/>
+      <c r="Z18" s="19" t="inlineStr"/>
+      <c r="AA18" s="20" t="inlineStr"/>
       <c r="AB18" s="21" t="inlineStr"/>
-      <c r="AC18" s="22" t="inlineStr"/>
+      <c r="AC18" s="21" t="inlineStr"/>
       <c r="AD18" s="22" t="inlineStr"/>
-      <c r="AE18" s="21" t="inlineStr"/>
-      <c r="AF18" s="23" t="inlineStr"/>
-      <c r="AG18" s="24" t="inlineStr"/>
+      <c r="AE18" s="22" t="inlineStr"/>
+      <c r="AF18" s="21" t="inlineStr"/>
+      <c r="AG18" s="23" t="inlineStr"/>
       <c r="AH18" s="24" t="inlineStr"/>
       <c r="AI18" s="24" t="inlineStr"/>
       <c r="AJ18" s="24" t="inlineStr"/>
-      <c r="AK18" s="25" t="inlineStr"/>
+      <c r="AK18" s="24" t="inlineStr"/>
       <c r="AL18" s="25" t="inlineStr"/>
       <c r="AM18" s="25" t="inlineStr"/>
-      <c r="AN18" s="26" t="inlineStr"/>
-      <c r="AO18" s="27" t="inlineStr"/>
-      <c r="AP18" s="28" t="inlineStr"/>
-      <c r="AQ18" s="29" t="inlineStr"/>
-      <c r="AR18" s="30" t="inlineStr"/>
-      <c r="AS18" s="31" t="inlineStr"/>
-      <c r="AT18" s="17" t="inlineStr"/>
+      <c r="AN18" s="25" t="inlineStr"/>
+      <c r="AO18" s="26" t="inlineStr"/>
+      <c r="AP18" s="27" t="inlineStr"/>
+      <c r="AQ18" s="28" t="inlineStr"/>
+      <c r="AR18" s="29" t="inlineStr"/>
+      <c r="AS18" s="30" t="inlineStr"/>
+      <c r="AT18" s="31" t="inlineStr"/>
       <c r="AU18" s="17" t="inlineStr"/>
-      <c r="AV18" s="32" t="inlineStr"/>
-      <c r="AW18" s="18" t="inlineStr"/>
-      <c r="AX18" s="19" t="inlineStr"/>
+      <c r="AV18" s="17" t="inlineStr"/>
+      <c r="AW18" s="32" t="inlineStr"/>
+      <c r="AX18" s="18" t="inlineStr"/>
       <c r="AY18" s="19" t="inlineStr"/>
       <c r="AZ18" s="19" t="inlineStr"/>
       <c r="BA18" s="19" t="inlineStr"/>
@@ -3616,13 +3645,13 @@
       <c r="BD18" s="19" t="inlineStr"/>
       <c r="BE18" s="19" t="inlineStr"/>
       <c r="BF18" s="19" t="inlineStr"/>
-      <c r="BG18" s="33" t="inlineStr"/>
-      <c r="BH18" s="19" t="inlineStr"/>
-      <c r="BI18" s="20" t="inlineStr"/>
-      <c r="BJ18" s="21" t="inlineStr"/>
+      <c r="BG18" s="19" t="inlineStr"/>
+      <c r="BH18" s="33" t="inlineStr"/>
+      <c r="BI18" s="19" t="inlineStr"/>
+      <c r="BJ18" s="20" t="inlineStr"/>
       <c r="BK18" s="21" t="inlineStr"/>
-      <c r="BL18" s="23" t="inlineStr"/>
-      <c r="BM18" s="25" t="inlineStr"/>
+      <c r="BL18" s="21" t="inlineStr"/>
+      <c r="BM18" s="23" t="inlineStr"/>
       <c r="BN18" s="25" t="inlineStr"/>
       <c r="BO18" s="25" t="inlineStr"/>
       <c r="BP18" s="25" t="inlineStr"/>
@@ -3643,14 +3672,15 @@
       <c r="CE18" s="25" t="inlineStr"/>
       <c r="CF18" s="25" t="inlineStr"/>
       <c r="CG18" s="25" t="inlineStr"/>
-      <c r="CH18" s="26" t="inlineStr"/>
-      <c r="CI18" s="34" t="inlineStr"/>
+      <c r="CH18" s="25" t="inlineStr"/>
+      <c r="CI18" s="26" t="inlineStr"/>
       <c r="CJ18" s="34" t="inlineStr"/>
       <c r="CK18" s="34" t="inlineStr"/>
       <c r="CL18" s="34" t="inlineStr"/>
-      <c r="CM18" s="27" t="inlineStr"/>
-      <c r="CN18" s="28" t="inlineStr"/>
+      <c r="CM18" s="34" t="inlineStr"/>
+      <c r="CN18" s="27" t="inlineStr"/>
       <c r="CO18" s="28" t="inlineStr"/>
+      <c r="CP18" s="28" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3678,31 +3708,31 @@
       <c r="W19" s="19" t="inlineStr"/>
       <c r="X19" s="19" t="inlineStr"/>
       <c r="Y19" s="19" t="inlineStr"/>
-      <c r="Z19" s="20" t="inlineStr"/>
-      <c r="AA19" s="21" t="inlineStr"/>
+      <c r="Z19" s="19" t="inlineStr"/>
+      <c r="AA19" s="20" t="inlineStr"/>
       <c r="AB19" s="21" t="inlineStr"/>
-      <c r="AC19" s="22" t="inlineStr"/>
+      <c r="AC19" s="21" t="inlineStr"/>
       <c r="AD19" s="22" t="inlineStr"/>
-      <c r="AE19" s="21" t="inlineStr"/>
-      <c r="AF19" s="23" t="inlineStr"/>
-      <c r="AG19" s="24" t="inlineStr"/>
+      <c r="AE19" s="22" t="inlineStr"/>
+      <c r="AF19" s="21" t="inlineStr"/>
+      <c r="AG19" s="23" t="inlineStr"/>
       <c r="AH19" s="24" t="inlineStr"/>
       <c r="AI19" s="24" t="inlineStr"/>
       <c r="AJ19" s="24" t="inlineStr"/>
-      <c r="AK19" s="25" t="inlineStr"/>
+      <c r="AK19" s="24" t="inlineStr"/>
       <c r="AL19" s="25" t="inlineStr"/>
       <c r="AM19" s="25" t="inlineStr"/>
-      <c r="AN19" s="26" t="inlineStr"/>
-      <c r="AO19" s="27" t="inlineStr"/>
-      <c r="AP19" s="28" t="inlineStr"/>
-      <c r="AQ19" s="29" t="inlineStr"/>
-      <c r="AR19" s="30" t="inlineStr"/>
-      <c r="AS19" s="31" t="inlineStr"/>
-      <c r="AT19" s="17" t="inlineStr"/>
+      <c r="AN19" s="25" t="inlineStr"/>
+      <c r="AO19" s="26" t="inlineStr"/>
+      <c r="AP19" s="27" t="inlineStr"/>
+      <c r="AQ19" s="28" t="inlineStr"/>
+      <c r="AR19" s="29" t="inlineStr"/>
+      <c r="AS19" s="30" t="inlineStr"/>
+      <c r="AT19" s="31" t="inlineStr"/>
       <c r="AU19" s="17" t="inlineStr"/>
-      <c r="AV19" s="32" t="inlineStr"/>
-      <c r="AW19" s="18" t="inlineStr"/>
-      <c r="AX19" s="19" t="inlineStr"/>
+      <c r="AV19" s="17" t="inlineStr"/>
+      <c r="AW19" s="32" t="inlineStr"/>
+      <c r="AX19" s="18" t="inlineStr"/>
       <c r="AY19" s="19" t="inlineStr"/>
       <c r="AZ19" s="19" t="inlineStr"/>
       <c r="BA19" s="19" t="inlineStr"/>
@@ -3711,13 +3741,13 @@
       <c r="BD19" s="19" t="inlineStr"/>
       <c r="BE19" s="19" t="inlineStr"/>
       <c r="BF19" s="19" t="inlineStr"/>
-      <c r="BG19" s="33" t="inlineStr"/>
-      <c r="BH19" s="19" t="inlineStr"/>
-      <c r="BI19" s="20" t="inlineStr"/>
-      <c r="BJ19" s="21" t="inlineStr"/>
+      <c r="BG19" s="19" t="inlineStr"/>
+      <c r="BH19" s="33" t="inlineStr"/>
+      <c r="BI19" s="19" t="inlineStr"/>
+      <c r="BJ19" s="20" t="inlineStr"/>
       <c r="BK19" s="21" t="inlineStr"/>
-      <c r="BL19" s="23" t="inlineStr"/>
-      <c r="BM19" s="25" t="inlineStr"/>
+      <c r="BL19" s="21" t="inlineStr"/>
+      <c r="BM19" s="23" t="inlineStr"/>
       <c r="BN19" s="25" t="inlineStr"/>
       <c r="BO19" s="25" t="inlineStr"/>
       <c r="BP19" s="25" t="inlineStr"/>
@@ -3738,14 +3768,15 @@
       <c r="CE19" s="25" t="inlineStr"/>
       <c r="CF19" s="25" t="inlineStr"/>
       <c r="CG19" s="25" t="inlineStr"/>
-      <c r="CH19" s="26" t="inlineStr"/>
-      <c r="CI19" s="34" t="inlineStr"/>
+      <c r="CH19" s="25" t="inlineStr"/>
+      <c r="CI19" s="26" t="inlineStr"/>
       <c r="CJ19" s="34" t="inlineStr"/>
       <c r="CK19" s="34" t="inlineStr"/>
       <c r="CL19" s="34" t="inlineStr"/>
-      <c r="CM19" s="27" t="inlineStr"/>
-      <c r="CN19" s="28" t="inlineStr"/>
+      <c r="CM19" s="34" t="inlineStr"/>
+      <c r="CN19" s="27" t="inlineStr"/>
       <c r="CO19" s="28" t="inlineStr"/>
+      <c r="CP19" s="28" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3773,31 +3804,31 @@
       <c r="W20" s="19" t="inlineStr"/>
       <c r="X20" s="19" t="inlineStr"/>
       <c r="Y20" s="19" t="inlineStr"/>
-      <c r="Z20" s="20" t="inlineStr"/>
-      <c r="AA20" s="21" t="inlineStr"/>
+      <c r="Z20" s="19" t="inlineStr"/>
+      <c r="AA20" s="20" t="inlineStr"/>
       <c r="AB20" s="21" t="inlineStr"/>
-      <c r="AC20" s="22" t="inlineStr"/>
+      <c r="AC20" s="21" t="inlineStr"/>
       <c r="AD20" s="22" t="inlineStr"/>
-      <c r="AE20" s="21" t="inlineStr"/>
-      <c r="AF20" s="23" t="inlineStr"/>
-      <c r="AG20" s="24" t="inlineStr"/>
+      <c r="AE20" s="22" t="inlineStr"/>
+      <c r="AF20" s="21" t="inlineStr"/>
+      <c r="AG20" s="23" t="inlineStr"/>
       <c r="AH20" s="24" t="inlineStr"/>
       <c r="AI20" s="24" t="inlineStr"/>
       <c r="AJ20" s="24" t="inlineStr"/>
-      <c r="AK20" s="25" t="inlineStr"/>
+      <c r="AK20" s="24" t="inlineStr"/>
       <c r="AL20" s="25" t="inlineStr"/>
       <c r="AM20" s="25" t="inlineStr"/>
-      <c r="AN20" s="26" t="inlineStr"/>
-      <c r="AO20" s="27" t="inlineStr"/>
-      <c r="AP20" s="28" t="inlineStr"/>
-      <c r="AQ20" s="29" t="inlineStr"/>
-      <c r="AR20" s="30" t="inlineStr"/>
-      <c r="AS20" s="31" t="inlineStr"/>
-      <c r="AT20" s="17" t="inlineStr"/>
+      <c r="AN20" s="25" t="inlineStr"/>
+      <c r="AO20" s="26" t="inlineStr"/>
+      <c r="AP20" s="27" t="inlineStr"/>
+      <c r="AQ20" s="28" t="inlineStr"/>
+      <c r="AR20" s="29" t="inlineStr"/>
+      <c r="AS20" s="30" t="inlineStr"/>
+      <c r="AT20" s="31" t="inlineStr"/>
       <c r="AU20" s="17" t="inlineStr"/>
-      <c r="AV20" s="32" t="inlineStr"/>
-      <c r="AW20" s="18" t="inlineStr"/>
-      <c r="AX20" s="19" t="inlineStr"/>
+      <c r="AV20" s="17" t="inlineStr"/>
+      <c r="AW20" s="32" t="inlineStr"/>
+      <c r="AX20" s="18" t="inlineStr"/>
       <c r="AY20" s="19" t="inlineStr"/>
       <c r="AZ20" s="19" t="inlineStr"/>
       <c r="BA20" s="19" t="inlineStr"/>
@@ -3806,13 +3837,13 @@
       <c r="BD20" s="19" t="inlineStr"/>
       <c r="BE20" s="19" t="inlineStr"/>
       <c r="BF20" s="19" t="inlineStr"/>
-      <c r="BG20" s="33" t="inlineStr"/>
-      <c r="BH20" s="19" t="inlineStr"/>
-      <c r="BI20" s="20" t="inlineStr"/>
-      <c r="BJ20" s="21" t="inlineStr"/>
+      <c r="BG20" s="19" t="inlineStr"/>
+      <c r="BH20" s="33" t="inlineStr"/>
+      <c r="BI20" s="19" t="inlineStr"/>
+      <c r="BJ20" s="20" t="inlineStr"/>
       <c r="BK20" s="21" t="inlineStr"/>
-      <c r="BL20" s="23" t="inlineStr"/>
-      <c r="BM20" s="25" t="inlineStr"/>
+      <c r="BL20" s="21" t="inlineStr"/>
+      <c r="BM20" s="23" t="inlineStr"/>
       <c r="BN20" s="25" t="inlineStr"/>
       <c r="BO20" s="25" t="inlineStr"/>
       <c r="BP20" s="25" t="inlineStr"/>
@@ -3833,14 +3864,15 @@
       <c r="CE20" s="25" t="inlineStr"/>
       <c r="CF20" s="25" t="inlineStr"/>
       <c r="CG20" s="25" t="inlineStr"/>
-      <c r="CH20" s="26" t="inlineStr"/>
-      <c r="CI20" s="34" t="inlineStr"/>
+      <c r="CH20" s="25" t="inlineStr"/>
+      <c r="CI20" s="26" t="inlineStr"/>
       <c r="CJ20" s="34" t="inlineStr"/>
       <c r="CK20" s="34" t="inlineStr"/>
       <c r="CL20" s="34" t="inlineStr"/>
-      <c r="CM20" s="27" t="inlineStr"/>
-      <c r="CN20" s="28" t="inlineStr"/>
+      <c r="CM20" s="34" t="inlineStr"/>
+      <c r="CN20" s="27" t="inlineStr"/>
       <c r="CO20" s="28" t="inlineStr"/>
+      <c r="CP20" s="28" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3868,31 +3900,31 @@
       <c r="W21" s="19" t="inlineStr"/>
       <c r="X21" s="19" t="inlineStr"/>
       <c r="Y21" s="19" t="inlineStr"/>
-      <c r="Z21" s="20" t="inlineStr"/>
-      <c r="AA21" s="21" t="inlineStr"/>
+      <c r="Z21" s="19" t="inlineStr"/>
+      <c r="AA21" s="20" t="inlineStr"/>
       <c r="AB21" s="21" t="inlineStr"/>
-      <c r="AC21" s="22" t="inlineStr"/>
+      <c r="AC21" s="21" t="inlineStr"/>
       <c r="AD21" s="22" t="inlineStr"/>
-      <c r="AE21" s="21" t="inlineStr"/>
-      <c r="AF21" s="23" t="inlineStr"/>
-      <c r="AG21" s="24" t="inlineStr"/>
+      <c r="AE21" s="22" t="inlineStr"/>
+      <c r="AF21" s="21" t="inlineStr"/>
+      <c r="AG21" s="23" t="inlineStr"/>
       <c r="AH21" s="24" t="inlineStr"/>
       <c r="AI21" s="24" t="inlineStr"/>
       <c r="AJ21" s="24" t="inlineStr"/>
-      <c r="AK21" s="25" t="inlineStr"/>
+      <c r="AK21" s="24" t="inlineStr"/>
       <c r="AL21" s="25" t="inlineStr"/>
       <c r="AM21" s="25" t="inlineStr"/>
-      <c r="AN21" s="26" t="inlineStr"/>
-      <c r="AO21" s="27" t="inlineStr"/>
-      <c r="AP21" s="28" t="inlineStr"/>
-      <c r="AQ21" s="29" t="inlineStr"/>
-      <c r="AR21" s="30" t="inlineStr"/>
-      <c r="AS21" s="31" t="inlineStr"/>
-      <c r="AT21" s="17" t="inlineStr"/>
+      <c r="AN21" s="25" t="inlineStr"/>
+      <c r="AO21" s="26" t="inlineStr"/>
+      <c r="AP21" s="27" t="inlineStr"/>
+      <c r="AQ21" s="28" t="inlineStr"/>
+      <c r="AR21" s="29" t="inlineStr"/>
+      <c r="AS21" s="30" t="inlineStr"/>
+      <c r="AT21" s="31" t="inlineStr"/>
       <c r="AU21" s="17" t="inlineStr"/>
-      <c r="AV21" s="32" t="inlineStr"/>
-      <c r="AW21" s="18" t="inlineStr"/>
-      <c r="AX21" s="19" t="inlineStr"/>
+      <c r="AV21" s="17" t="inlineStr"/>
+      <c r="AW21" s="32" t="inlineStr"/>
+      <c r="AX21" s="18" t="inlineStr"/>
       <c r="AY21" s="19" t="inlineStr"/>
       <c r="AZ21" s="19" t="inlineStr"/>
       <c r="BA21" s="19" t="inlineStr"/>
@@ -3901,13 +3933,13 @@
       <c r="BD21" s="19" t="inlineStr"/>
       <c r="BE21" s="19" t="inlineStr"/>
       <c r="BF21" s="19" t="inlineStr"/>
-      <c r="BG21" s="33" t="inlineStr"/>
-      <c r="BH21" s="19" t="inlineStr"/>
-      <c r="BI21" s="20" t="inlineStr"/>
-      <c r="BJ21" s="21" t="inlineStr"/>
+      <c r="BG21" s="19" t="inlineStr"/>
+      <c r="BH21" s="33" t="inlineStr"/>
+      <c r="BI21" s="19" t="inlineStr"/>
+      <c r="BJ21" s="20" t="inlineStr"/>
       <c r="BK21" s="21" t="inlineStr"/>
-      <c r="BL21" s="23" t="inlineStr"/>
-      <c r="BM21" s="25" t="inlineStr"/>
+      <c r="BL21" s="21" t="inlineStr"/>
+      <c r="BM21" s="23" t="inlineStr"/>
       <c r="BN21" s="25" t="inlineStr"/>
       <c r="BO21" s="25" t="inlineStr"/>
       <c r="BP21" s="25" t="inlineStr"/>
@@ -3928,14 +3960,15 @@
       <c r="CE21" s="25" t="inlineStr"/>
       <c r="CF21" s="25" t="inlineStr"/>
       <c r="CG21" s="25" t="inlineStr"/>
-      <c r="CH21" s="26" t="inlineStr"/>
-      <c r="CI21" s="34" t="inlineStr"/>
+      <c r="CH21" s="25" t="inlineStr"/>
+      <c r="CI21" s="26" t="inlineStr"/>
       <c r="CJ21" s="34" t="inlineStr"/>
       <c r="CK21" s="34" t="inlineStr"/>
       <c r="CL21" s="34" t="inlineStr"/>
-      <c r="CM21" s="27" t="inlineStr"/>
-      <c r="CN21" s="28" t="inlineStr"/>
+      <c r="CM21" s="34" t="inlineStr"/>
+      <c r="CN21" s="27" t="inlineStr"/>
       <c r="CO21" s="28" t="inlineStr"/>
+      <c r="CP21" s="28" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3963,31 +3996,31 @@
       <c r="W22" s="19" t="inlineStr"/>
       <c r="X22" s="19" t="inlineStr"/>
       <c r="Y22" s="19" t="inlineStr"/>
-      <c r="Z22" s="20" t="inlineStr"/>
-      <c r="AA22" s="21" t="inlineStr"/>
+      <c r="Z22" s="19" t="inlineStr"/>
+      <c r="AA22" s="20" t="inlineStr"/>
       <c r="AB22" s="21" t="inlineStr"/>
-      <c r="AC22" s="22" t="inlineStr"/>
+      <c r="AC22" s="21" t="inlineStr"/>
       <c r="AD22" s="22" t="inlineStr"/>
-      <c r="AE22" s="21" t="inlineStr"/>
-      <c r="AF22" s="23" t="inlineStr"/>
-      <c r="AG22" s="24" t="inlineStr"/>
+      <c r="AE22" s="22" t="inlineStr"/>
+      <c r="AF22" s="21" t="inlineStr"/>
+      <c r="AG22" s="23" t="inlineStr"/>
       <c r="AH22" s="24" t="inlineStr"/>
       <c r="AI22" s="24" t="inlineStr"/>
       <c r="AJ22" s="24" t="inlineStr"/>
-      <c r="AK22" s="25" t="inlineStr"/>
+      <c r="AK22" s="24" t="inlineStr"/>
       <c r="AL22" s="25" t="inlineStr"/>
       <c r="AM22" s="25" t="inlineStr"/>
-      <c r="AN22" s="26" t="inlineStr"/>
-      <c r="AO22" s="27" t="inlineStr"/>
-      <c r="AP22" s="28" t="inlineStr"/>
-      <c r="AQ22" s="29" t="inlineStr"/>
-      <c r="AR22" s="30" t="inlineStr"/>
-      <c r="AS22" s="31" t="inlineStr"/>
-      <c r="AT22" s="17" t="inlineStr"/>
+      <c r="AN22" s="25" t="inlineStr"/>
+      <c r="AO22" s="26" t="inlineStr"/>
+      <c r="AP22" s="27" t="inlineStr"/>
+      <c r="AQ22" s="28" t="inlineStr"/>
+      <c r="AR22" s="29" t="inlineStr"/>
+      <c r="AS22" s="30" t="inlineStr"/>
+      <c r="AT22" s="31" t="inlineStr"/>
       <c r="AU22" s="17" t="inlineStr"/>
-      <c r="AV22" s="32" t="inlineStr"/>
-      <c r="AW22" s="18" t="inlineStr"/>
-      <c r="AX22" s="19" t="inlineStr"/>
+      <c r="AV22" s="17" t="inlineStr"/>
+      <c r="AW22" s="32" t="inlineStr"/>
+      <c r="AX22" s="18" t="inlineStr"/>
       <c r="AY22" s="19" t="inlineStr"/>
       <c r="AZ22" s="19" t="inlineStr"/>
       <c r="BA22" s="19" t="inlineStr"/>
@@ -3996,13 +4029,13 @@
       <c r="BD22" s="19" t="inlineStr"/>
       <c r="BE22" s="19" t="inlineStr"/>
       <c r="BF22" s="19" t="inlineStr"/>
-      <c r="BG22" s="33" t="inlineStr"/>
-      <c r="BH22" s="19" t="inlineStr"/>
-      <c r="BI22" s="20" t="inlineStr"/>
-      <c r="BJ22" s="21" t="inlineStr"/>
+      <c r="BG22" s="19" t="inlineStr"/>
+      <c r="BH22" s="33" t="inlineStr"/>
+      <c r="BI22" s="19" t="inlineStr"/>
+      <c r="BJ22" s="20" t="inlineStr"/>
       <c r="BK22" s="21" t="inlineStr"/>
-      <c r="BL22" s="23" t="inlineStr"/>
-      <c r="BM22" s="25" t="inlineStr"/>
+      <c r="BL22" s="21" t="inlineStr"/>
+      <c r="BM22" s="23" t="inlineStr"/>
       <c r="BN22" s="25" t="inlineStr"/>
       <c r="BO22" s="25" t="inlineStr"/>
       <c r="BP22" s="25" t="inlineStr"/>
@@ -4023,14 +4056,15 @@
       <c r="CE22" s="25" t="inlineStr"/>
       <c r="CF22" s="25" t="inlineStr"/>
       <c r="CG22" s="25" t="inlineStr"/>
-      <c r="CH22" s="26" t="inlineStr"/>
-      <c r="CI22" s="34" t="inlineStr"/>
+      <c r="CH22" s="25" t="inlineStr"/>
+      <c r="CI22" s="26" t="inlineStr"/>
       <c r="CJ22" s="34" t="inlineStr"/>
       <c r="CK22" s="34" t="inlineStr"/>
       <c r="CL22" s="34" t="inlineStr"/>
-      <c r="CM22" s="27" t="inlineStr"/>
-      <c r="CN22" s="28" t="inlineStr"/>
+      <c r="CM22" s="34" t="inlineStr"/>
+      <c r="CN22" s="27" t="inlineStr"/>
       <c r="CO22" s="28" t="inlineStr"/>
+      <c r="CP22" s="28" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -4058,31 +4092,31 @@
       <c r="W23" s="19" t="inlineStr"/>
       <c r="X23" s="19" t="inlineStr"/>
       <c r="Y23" s="19" t="inlineStr"/>
-      <c r="Z23" s="20" t="inlineStr"/>
-      <c r="AA23" s="21" t="inlineStr"/>
+      <c r="Z23" s="19" t="inlineStr"/>
+      <c r="AA23" s="20" t="inlineStr"/>
       <c r="AB23" s="21" t="inlineStr"/>
-      <c r="AC23" s="22" t="inlineStr"/>
+      <c r="AC23" s="21" t="inlineStr"/>
       <c r="AD23" s="22" t="inlineStr"/>
-      <c r="AE23" s="21" t="inlineStr"/>
-      <c r="AF23" s="23" t="inlineStr"/>
-      <c r="AG23" s="24" t="inlineStr"/>
+      <c r="AE23" s="22" t="inlineStr"/>
+      <c r="AF23" s="21" t="inlineStr"/>
+      <c r="AG23" s="23" t="inlineStr"/>
       <c r="AH23" s="24" t="inlineStr"/>
       <c r="AI23" s="24" t="inlineStr"/>
       <c r="AJ23" s="24" t="inlineStr"/>
-      <c r="AK23" s="25" t="inlineStr"/>
+      <c r="AK23" s="24" t="inlineStr"/>
       <c r="AL23" s="25" t="inlineStr"/>
       <c r="AM23" s="25" t="inlineStr"/>
-      <c r="AN23" s="26" t="inlineStr"/>
-      <c r="AO23" s="27" t="inlineStr"/>
-      <c r="AP23" s="28" t="inlineStr"/>
-      <c r="AQ23" s="29" t="inlineStr"/>
-      <c r="AR23" s="30" t="inlineStr"/>
-      <c r="AS23" s="31" t="inlineStr"/>
-      <c r="AT23" s="17" t="inlineStr"/>
+      <c r="AN23" s="25" t="inlineStr"/>
+      <c r="AO23" s="26" t="inlineStr"/>
+      <c r="AP23" s="27" t="inlineStr"/>
+      <c r="AQ23" s="28" t="inlineStr"/>
+      <c r="AR23" s="29" t="inlineStr"/>
+      <c r="AS23" s="30" t="inlineStr"/>
+      <c r="AT23" s="31" t="inlineStr"/>
       <c r="AU23" s="17" t="inlineStr"/>
-      <c r="AV23" s="32" t="inlineStr"/>
-      <c r="AW23" s="18" t="inlineStr"/>
-      <c r="AX23" s="19" t="inlineStr"/>
+      <c r="AV23" s="17" t="inlineStr"/>
+      <c r="AW23" s="32" t="inlineStr"/>
+      <c r="AX23" s="18" t="inlineStr"/>
       <c r="AY23" s="19" t="inlineStr"/>
       <c r="AZ23" s="19" t="inlineStr"/>
       <c r="BA23" s="19" t="inlineStr"/>
@@ -4091,13 +4125,13 @@
       <c r="BD23" s="19" t="inlineStr"/>
       <c r="BE23" s="19" t="inlineStr"/>
       <c r="BF23" s="19" t="inlineStr"/>
-      <c r="BG23" s="33" t="inlineStr"/>
-      <c r="BH23" s="19" t="inlineStr"/>
-      <c r="BI23" s="20" t="inlineStr"/>
-      <c r="BJ23" s="21" t="inlineStr"/>
+      <c r="BG23" s="19" t="inlineStr"/>
+      <c r="BH23" s="33" t="inlineStr"/>
+      <c r="BI23" s="19" t="inlineStr"/>
+      <c r="BJ23" s="20" t="inlineStr"/>
       <c r="BK23" s="21" t="inlineStr"/>
-      <c r="BL23" s="23" t="inlineStr"/>
-      <c r="BM23" s="25" t="inlineStr"/>
+      <c r="BL23" s="21" t="inlineStr"/>
+      <c r="BM23" s="23" t="inlineStr"/>
       <c r="BN23" s="25" t="inlineStr"/>
       <c r="BO23" s="25" t="inlineStr"/>
       <c r="BP23" s="25" t="inlineStr"/>
@@ -4118,14 +4152,15 @@
       <c r="CE23" s="25" t="inlineStr"/>
       <c r="CF23" s="25" t="inlineStr"/>
       <c r="CG23" s="25" t="inlineStr"/>
-      <c r="CH23" s="26" t="inlineStr"/>
-      <c r="CI23" s="34" t="inlineStr"/>
+      <c r="CH23" s="25" t="inlineStr"/>
+      <c r="CI23" s="26" t="inlineStr"/>
       <c r="CJ23" s="34" t="inlineStr"/>
       <c r="CK23" s="34" t="inlineStr"/>
       <c r="CL23" s="34" t="inlineStr"/>
-      <c r="CM23" s="27" t="inlineStr"/>
-      <c r="CN23" s="28" t="inlineStr"/>
+      <c r="CM23" s="34" t="inlineStr"/>
+      <c r="CN23" s="27" t="inlineStr"/>
       <c r="CO23" s="28" t="inlineStr"/>
+      <c r="CP23" s="28" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -4153,31 +4188,31 @@
       <c r="W24" s="19" t="inlineStr"/>
       <c r="X24" s="19" t="inlineStr"/>
       <c r="Y24" s="19" t="inlineStr"/>
-      <c r="Z24" s="20" t="inlineStr"/>
-      <c r="AA24" s="21" t="inlineStr"/>
+      <c r="Z24" s="19" t="inlineStr"/>
+      <c r="AA24" s="20" t="inlineStr"/>
       <c r="AB24" s="21" t="inlineStr"/>
-      <c r="AC24" s="22" t="inlineStr"/>
+      <c r="AC24" s="21" t="inlineStr"/>
       <c r="AD24" s="22" t="inlineStr"/>
-      <c r="AE24" s="21" t="inlineStr"/>
-      <c r="AF24" s="23" t="inlineStr"/>
-      <c r="AG24" s="24" t="inlineStr"/>
+      <c r="AE24" s="22" t="inlineStr"/>
+      <c r="AF24" s="21" t="inlineStr"/>
+      <c r="AG24" s="23" t="inlineStr"/>
       <c r="AH24" s="24" t="inlineStr"/>
       <c r="AI24" s="24" t="inlineStr"/>
       <c r="AJ24" s="24" t="inlineStr"/>
-      <c r="AK24" s="25" t="inlineStr"/>
+      <c r="AK24" s="24" t="inlineStr"/>
       <c r="AL24" s="25" t="inlineStr"/>
       <c r="AM24" s="25" t="inlineStr"/>
-      <c r="AN24" s="26" t="inlineStr"/>
-      <c r="AO24" s="27" t="inlineStr"/>
-      <c r="AP24" s="28" t="inlineStr"/>
-      <c r="AQ24" s="29" t="inlineStr"/>
-      <c r="AR24" s="30" t="inlineStr"/>
-      <c r="AS24" s="31" t="inlineStr"/>
-      <c r="AT24" s="17" t="inlineStr"/>
+      <c r="AN24" s="25" t="inlineStr"/>
+      <c r="AO24" s="26" t="inlineStr"/>
+      <c r="AP24" s="27" t="inlineStr"/>
+      <c r="AQ24" s="28" t="inlineStr"/>
+      <c r="AR24" s="29" t="inlineStr"/>
+      <c r="AS24" s="30" t="inlineStr"/>
+      <c r="AT24" s="31" t="inlineStr"/>
       <c r="AU24" s="17" t="inlineStr"/>
-      <c r="AV24" s="32" t="inlineStr"/>
-      <c r="AW24" s="18" t="inlineStr"/>
-      <c r="AX24" s="19" t="inlineStr"/>
+      <c r="AV24" s="17" t="inlineStr"/>
+      <c r="AW24" s="32" t="inlineStr"/>
+      <c r="AX24" s="18" t="inlineStr"/>
       <c r="AY24" s="19" t="inlineStr"/>
       <c r="AZ24" s="19" t="inlineStr"/>
       <c r="BA24" s="19" t="inlineStr"/>
@@ -4186,13 +4221,13 @@
       <c r="BD24" s="19" t="inlineStr"/>
       <c r="BE24" s="19" t="inlineStr"/>
       <c r="BF24" s="19" t="inlineStr"/>
-      <c r="BG24" s="33" t="inlineStr"/>
-      <c r="BH24" s="19" t="inlineStr"/>
-      <c r="BI24" s="20" t="inlineStr"/>
-      <c r="BJ24" s="21" t="inlineStr"/>
+      <c r="BG24" s="19" t="inlineStr"/>
+      <c r="BH24" s="33" t="inlineStr"/>
+      <c r="BI24" s="19" t="inlineStr"/>
+      <c r="BJ24" s="20" t="inlineStr"/>
       <c r="BK24" s="21" t="inlineStr"/>
-      <c r="BL24" s="23" t="inlineStr"/>
-      <c r="BM24" s="25" t="inlineStr"/>
+      <c r="BL24" s="21" t="inlineStr"/>
+      <c r="BM24" s="23" t="inlineStr"/>
       <c r="BN24" s="25" t="inlineStr"/>
       <c r="BO24" s="25" t="inlineStr"/>
       <c r="BP24" s="25" t="inlineStr"/>
@@ -4213,14 +4248,15 @@
       <c r="CE24" s="25" t="inlineStr"/>
       <c r="CF24" s="25" t="inlineStr"/>
       <c r="CG24" s="25" t="inlineStr"/>
-      <c r="CH24" s="26" t="inlineStr"/>
-      <c r="CI24" s="34" t="inlineStr"/>
+      <c r="CH24" s="25" t="inlineStr"/>
+      <c r="CI24" s="26" t="inlineStr"/>
       <c r="CJ24" s="34" t="inlineStr"/>
       <c r="CK24" s="34" t="inlineStr"/>
       <c r="CL24" s="34" t="inlineStr"/>
-      <c r="CM24" s="27" t="inlineStr"/>
-      <c r="CN24" s="28" t="inlineStr"/>
+      <c r="CM24" s="34" t="inlineStr"/>
+      <c r="CN24" s="27" t="inlineStr"/>
       <c r="CO24" s="28" t="inlineStr"/>
+      <c r="CP24" s="28" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -4248,31 +4284,31 @@
       <c r="W25" s="19" t="inlineStr"/>
       <c r="X25" s="19" t="inlineStr"/>
       <c r="Y25" s="19" t="inlineStr"/>
-      <c r="Z25" s="20" t="inlineStr"/>
-      <c r="AA25" s="21" t="inlineStr"/>
+      <c r="Z25" s="19" t="inlineStr"/>
+      <c r="AA25" s="20" t="inlineStr"/>
       <c r="AB25" s="21" t="inlineStr"/>
-      <c r="AC25" s="22" t="inlineStr"/>
+      <c r="AC25" s="21" t="inlineStr"/>
       <c r="AD25" s="22" t="inlineStr"/>
-      <c r="AE25" s="21" t="inlineStr"/>
-      <c r="AF25" s="23" t="inlineStr"/>
-      <c r="AG25" s="24" t="inlineStr"/>
+      <c r="AE25" s="22" t="inlineStr"/>
+      <c r="AF25" s="21" t="inlineStr"/>
+      <c r="AG25" s="23" t="inlineStr"/>
       <c r="AH25" s="24" t="inlineStr"/>
       <c r="AI25" s="24" t="inlineStr"/>
       <c r="AJ25" s="24" t="inlineStr"/>
-      <c r="AK25" s="25" t="inlineStr"/>
+      <c r="AK25" s="24" t="inlineStr"/>
       <c r="AL25" s="25" t="inlineStr"/>
       <c r="AM25" s="25" t="inlineStr"/>
-      <c r="AN25" s="26" t="inlineStr"/>
-      <c r="AO25" s="27" t="inlineStr"/>
-      <c r="AP25" s="28" t="inlineStr"/>
-      <c r="AQ25" s="29" t="inlineStr"/>
-      <c r="AR25" s="30" t="inlineStr"/>
-      <c r="AS25" s="31" t="inlineStr"/>
-      <c r="AT25" s="17" t="inlineStr"/>
+      <c r="AN25" s="25" t="inlineStr"/>
+      <c r="AO25" s="26" t="inlineStr"/>
+      <c r="AP25" s="27" t="inlineStr"/>
+      <c r="AQ25" s="28" t="inlineStr"/>
+      <c r="AR25" s="29" t="inlineStr"/>
+      <c r="AS25" s="30" t="inlineStr"/>
+      <c r="AT25" s="31" t="inlineStr"/>
       <c r="AU25" s="17" t="inlineStr"/>
-      <c r="AV25" s="32" t="inlineStr"/>
-      <c r="AW25" s="18" t="inlineStr"/>
-      <c r="AX25" s="19" t="inlineStr"/>
+      <c r="AV25" s="17" t="inlineStr"/>
+      <c r="AW25" s="32" t="inlineStr"/>
+      <c r="AX25" s="18" t="inlineStr"/>
       <c r="AY25" s="19" t="inlineStr"/>
       <c r="AZ25" s="19" t="inlineStr"/>
       <c r="BA25" s="19" t="inlineStr"/>
@@ -4281,13 +4317,13 @@
       <c r="BD25" s="19" t="inlineStr"/>
       <c r="BE25" s="19" t="inlineStr"/>
       <c r="BF25" s="19" t="inlineStr"/>
-      <c r="BG25" s="33" t="inlineStr"/>
-      <c r="BH25" s="19" t="inlineStr"/>
-      <c r="BI25" s="20" t="inlineStr"/>
-      <c r="BJ25" s="21" t="inlineStr"/>
+      <c r="BG25" s="19" t="inlineStr"/>
+      <c r="BH25" s="33" t="inlineStr"/>
+      <c r="BI25" s="19" t="inlineStr"/>
+      <c r="BJ25" s="20" t="inlineStr"/>
       <c r="BK25" s="21" t="inlineStr"/>
-      <c r="BL25" s="23" t="inlineStr"/>
-      <c r="BM25" s="25" t="inlineStr"/>
+      <c r="BL25" s="21" t="inlineStr"/>
+      <c r="BM25" s="23" t="inlineStr"/>
       <c r="BN25" s="25" t="inlineStr"/>
       <c r="BO25" s="25" t="inlineStr"/>
       <c r="BP25" s="25" t="inlineStr"/>
@@ -4308,14 +4344,15 @@
       <c r="CE25" s="25" t="inlineStr"/>
       <c r="CF25" s="25" t="inlineStr"/>
       <c r="CG25" s="25" t="inlineStr"/>
-      <c r="CH25" s="26" t="inlineStr"/>
-      <c r="CI25" s="34" t="inlineStr"/>
+      <c r="CH25" s="25" t="inlineStr"/>
+      <c r="CI25" s="26" t="inlineStr"/>
       <c r="CJ25" s="34" t="inlineStr"/>
       <c r="CK25" s="34" t="inlineStr"/>
       <c r="CL25" s="34" t="inlineStr"/>
-      <c r="CM25" s="27" t="inlineStr"/>
-      <c r="CN25" s="28" t="inlineStr"/>
+      <c r="CM25" s="34" t="inlineStr"/>
+      <c r="CN25" s="27" t="inlineStr"/>
       <c r="CO25" s="28" t="inlineStr"/>
+      <c r="CP25" s="28" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -4343,31 +4380,31 @@
       <c r="W26" s="19" t="inlineStr"/>
       <c r="X26" s="19" t="inlineStr"/>
       <c r="Y26" s="19" t="inlineStr"/>
-      <c r="Z26" s="20" t="inlineStr"/>
-      <c r="AA26" s="21" t="inlineStr"/>
+      <c r="Z26" s="19" t="inlineStr"/>
+      <c r="AA26" s="20" t="inlineStr"/>
       <c r="AB26" s="21" t="inlineStr"/>
-      <c r="AC26" s="22" t="inlineStr"/>
+      <c r="AC26" s="21" t="inlineStr"/>
       <c r="AD26" s="22" t="inlineStr"/>
-      <c r="AE26" s="21" t="inlineStr"/>
-      <c r="AF26" s="23" t="inlineStr"/>
-      <c r="AG26" s="24" t="inlineStr"/>
+      <c r="AE26" s="22" t="inlineStr"/>
+      <c r="AF26" s="21" t="inlineStr"/>
+      <c r="AG26" s="23" t="inlineStr"/>
       <c r="AH26" s="24" t="inlineStr"/>
       <c r="AI26" s="24" t="inlineStr"/>
       <c r="AJ26" s="24" t="inlineStr"/>
-      <c r="AK26" s="25" t="inlineStr"/>
+      <c r="AK26" s="24" t="inlineStr"/>
       <c r="AL26" s="25" t="inlineStr"/>
       <c r="AM26" s="25" t="inlineStr"/>
-      <c r="AN26" s="26" t="inlineStr"/>
-      <c r="AO26" s="27" t="inlineStr"/>
-      <c r="AP26" s="28" t="inlineStr"/>
-      <c r="AQ26" s="29" t="inlineStr"/>
-      <c r="AR26" s="30" t="inlineStr"/>
-      <c r="AS26" s="31" t="inlineStr"/>
-      <c r="AT26" s="17" t="inlineStr"/>
+      <c r="AN26" s="25" t="inlineStr"/>
+      <c r="AO26" s="26" t="inlineStr"/>
+      <c r="AP26" s="27" t="inlineStr"/>
+      <c r="AQ26" s="28" t="inlineStr"/>
+      <c r="AR26" s="29" t="inlineStr"/>
+      <c r="AS26" s="30" t="inlineStr"/>
+      <c r="AT26" s="31" t="inlineStr"/>
       <c r="AU26" s="17" t="inlineStr"/>
-      <c r="AV26" s="32" t="inlineStr"/>
-      <c r="AW26" s="18" t="inlineStr"/>
-      <c r="AX26" s="19" t="inlineStr"/>
+      <c r="AV26" s="17" t="inlineStr"/>
+      <c r="AW26" s="32" t="inlineStr"/>
+      <c r="AX26" s="18" t="inlineStr"/>
       <c r="AY26" s="19" t="inlineStr"/>
       <c r="AZ26" s="19" t="inlineStr"/>
       <c r="BA26" s="19" t="inlineStr"/>
@@ -4376,13 +4413,13 @@
       <c r="BD26" s="19" t="inlineStr"/>
       <c r="BE26" s="19" t="inlineStr"/>
       <c r="BF26" s="19" t="inlineStr"/>
-      <c r="BG26" s="33" t="inlineStr"/>
-      <c r="BH26" s="19" t="inlineStr"/>
-      <c r="BI26" s="20" t="inlineStr"/>
-      <c r="BJ26" s="21" t="inlineStr"/>
+      <c r="BG26" s="19" t="inlineStr"/>
+      <c r="BH26" s="33" t="inlineStr"/>
+      <c r="BI26" s="19" t="inlineStr"/>
+      <c r="BJ26" s="20" t="inlineStr"/>
       <c r="BK26" s="21" t="inlineStr"/>
-      <c r="BL26" s="23" t="inlineStr"/>
-      <c r="BM26" s="25" t="inlineStr"/>
+      <c r="BL26" s="21" t="inlineStr"/>
+      <c r="BM26" s="23" t="inlineStr"/>
       <c r="BN26" s="25" t="inlineStr"/>
       <c r="BO26" s="25" t="inlineStr"/>
       <c r="BP26" s="25" t="inlineStr"/>
@@ -4403,14 +4440,15 @@
       <c r="CE26" s="25" t="inlineStr"/>
       <c r="CF26" s="25" t="inlineStr"/>
       <c r="CG26" s="25" t="inlineStr"/>
-      <c r="CH26" s="26" t="inlineStr"/>
-      <c r="CI26" s="34" t="inlineStr"/>
+      <c r="CH26" s="25" t="inlineStr"/>
+      <c r="CI26" s="26" t="inlineStr"/>
       <c r="CJ26" s="34" t="inlineStr"/>
       <c r="CK26" s="34" t="inlineStr"/>
       <c r="CL26" s="34" t="inlineStr"/>
-      <c r="CM26" s="27" t="inlineStr"/>
-      <c r="CN26" s="28" t="inlineStr"/>
+      <c r="CM26" s="34" t="inlineStr"/>
+      <c r="CN26" s="27" t="inlineStr"/>
       <c r="CO26" s="28" t="inlineStr"/>
+      <c r="CP26" s="28" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -4438,31 +4476,31 @@
       <c r="W27" s="19" t="inlineStr"/>
       <c r="X27" s="19" t="inlineStr"/>
       <c r="Y27" s="19" t="inlineStr"/>
-      <c r="Z27" s="20" t="inlineStr"/>
-      <c r="AA27" s="21" t="inlineStr"/>
+      <c r="Z27" s="19" t="inlineStr"/>
+      <c r="AA27" s="20" t="inlineStr"/>
       <c r="AB27" s="21" t="inlineStr"/>
-      <c r="AC27" s="22" t="inlineStr"/>
+      <c r="AC27" s="21" t="inlineStr"/>
       <c r="AD27" s="22" t="inlineStr"/>
-      <c r="AE27" s="21" t="inlineStr"/>
-      <c r="AF27" s="23" t="inlineStr"/>
-      <c r="AG27" s="24" t="inlineStr"/>
+      <c r="AE27" s="22" t="inlineStr"/>
+      <c r="AF27" s="21" t="inlineStr"/>
+      <c r="AG27" s="23" t="inlineStr"/>
       <c r="AH27" s="24" t="inlineStr"/>
       <c r="AI27" s="24" t="inlineStr"/>
       <c r="AJ27" s="24" t="inlineStr"/>
-      <c r="AK27" s="25" t="inlineStr"/>
+      <c r="AK27" s="24" t="inlineStr"/>
       <c r="AL27" s="25" t="inlineStr"/>
       <c r="AM27" s="25" t="inlineStr"/>
-      <c r="AN27" s="26" t="inlineStr"/>
-      <c r="AO27" s="27" t="inlineStr"/>
-      <c r="AP27" s="28" t="inlineStr"/>
-      <c r="AQ27" s="29" t="inlineStr"/>
-      <c r="AR27" s="30" t="inlineStr"/>
-      <c r="AS27" s="31" t="inlineStr"/>
-      <c r="AT27" s="17" t="inlineStr"/>
+      <c r="AN27" s="25" t="inlineStr"/>
+      <c r="AO27" s="26" t="inlineStr"/>
+      <c r="AP27" s="27" t="inlineStr"/>
+      <c r="AQ27" s="28" t="inlineStr"/>
+      <c r="AR27" s="29" t="inlineStr"/>
+      <c r="AS27" s="30" t="inlineStr"/>
+      <c r="AT27" s="31" t="inlineStr"/>
       <c r="AU27" s="17" t="inlineStr"/>
-      <c r="AV27" s="32" t="inlineStr"/>
-      <c r="AW27" s="18" t="inlineStr"/>
-      <c r="AX27" s="19" t="inlineStr"/>
+      <c r="AV27" s="17" t="inlineStr"/>
+      <c r="AW27" s="32" t="inlineStr"/>
+      <c r="AX27" s="18" t="inlineStr"/>
       <c r="AY27" s="19" t="inlineStr"/>
       <c r="AZ27" s="19" t="inlineStr"/>
       <c r="BA27" s="19" t="inlineStr"/>
@@ -4471,13 +4509,13 @@
       <c r="BD27" s="19" t="inlineStr"/>
       <c r="BE27" s="19" t="inlineStr"/>
       <c r="BF27" s="19" t="inlineStr"/>
-      <c r="BG27" s="33" t="inlineStr"/>
-      <c r="BH27" s="19" t="inlineStr"/>
-      <c r="BI27" s="20" t="inlineStr"/>
-      <c r="BJ27" s="21" t="inlineStr"/>
+      <c r="BG27" s="19" t="inlineStr"/>
+      <c r="BH27" s="33" t="inlineStr"/>
+      <c r="BI27" s="19" t="inlineStr"/>
+      <c r="BJ27" s="20" t="inlineStr"/>
       <c r="BK27" s="21" t="inlineStr"/>
-      <c r="BL27" s="23" t="inlineStr"/>
-      <c r="BM27" s="25" t="inlineStr"/>
+      <c r="BL27" s="21" t="inlineStr"/>
+      <c r="BM27" s="23" t="inlineStr"/>
       <c r="BN27" s="25" t="inlineStr"/>
       <c r="BO27" s="25" t="inlineStr"/>
       <c r="BP27" s="25" t="inlineStr"/>
@@ -4498,14 +4536,15 @@
       <c r="CE27" s="25" t="inlineStr"/>
       <c r="CF27" s="25" t="inlineStr"/>
       <c r="CG27" s="25" t="inlineStr"/>
-      <c r="CH27" s="26" t="inlineStr"/>
-      <c r="CI27" s="34" t="inlineStr"/>
+      <c r="CH27" s="25" t="inlineStr"/>
+      <c r="CI27" s="26" t="inlineStr"/>
       <c r="CJ27" s="34" t="inlineStr"/>
       <c r="CK27" s="34" t="inlineStr"/>
       <c r="CL27" s="34" t="inlineStr"/>
-      <c r="CM27" s="27" t="inlineStr"/>
-      <c r="CN27" s="28" t="inlineStr"/>
+      <c r="CM27" s="34" t="inlineStr"/>
+      <c r="CN27" s="27" t="inlineStr"/>
       <c r="CO27" s="28" t="inlineStr"/>
+      <c r="CP27" s="28" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -4533,31 +4572,31 @@
       <c r="W28" s="19" t="inlineStr"/>
       <c r="X28" s="19" t="inlineStr"/>
       <c r="Y28" s="19" t="inlineStr"/>
-      <c r="Z28" s="20" t="inlineStr"/>
-      <c r="AA28" s="21" t="inlineStr"/>
+      <c r="Z28" s="19" t="inlineStr"/>
+      <c r="AA28" s="20" t="inlineStr"/>
       <c r="AB28" s="21" t="inlineStr"/>
-      <c r="AC28" s="22" t="inlineStr"/>
+      <c r="AC28" s="21" t="inlineStr"/>
       <c r="AD28" s="22" t="inlineStr"/>
-      <c r="AE28" s="21" t="inlineStr"/>
-      <c r="AF28" s="23" t="inlineStr"/>
-      <c r="AG28" s="24" t="inlineStr"/>
+      <c r="AE28" s="22" t="inlineStr"/>
+      <c r="AF28" s="21" t="inlineStr"/>
+      <c r="AG28" s="23" t="inlineStr"/>
       <c r="AH28" s="24" t="inlineStr"/>
       <c r="AI28" s="24" t="inlineStr"/>
       <c r="AJ28" s="24" t="inlineStr"/>
-      <c r="AK28" s="25" t="inlineStr"/>
+      <c r="AK28" s="24" t="inlineStr"/>
       <c r="AL28" s="25" t="inlineStr"/>
       <c r="AM28" s="25" t="inlineStr"/>
-      <c r="AN28" s="26" t="inlineStr"/>
-      <c r="AO28" s="27" t="inlineStr"/>
-      <c r="AP28" s="28" t="inlineStr"/>
-      <c r="AQ28" s="29" t="inlineStr"/>
-      <c r="AR28" s="30" t="inlineStr"/>
-      <c r="AS28" s="31" t="inlineStr"/>
-      <c r="AT28" s="17" t="inlineStr"/>
+      <c r="AN28" s="25" t="inlineStr"/>
+      <c r="AO28" s="26" t="inlineStr"/>
+      <c r="AP28" s="27" t="inlineStr"/>
+      <c r="AQ28" s="28" t="inlineStr"/>
+      <c r="AR28" s="29" t="inlineStr"/>
+      <c r="AS28" s="30" t="inlineStr"/>
+      <c r="AT28" s="31" t="inlineStr"/>
       <c r="AU28" s="17" t="inlineStr"/>
-      <c r="AV28" s="32" t="inlineStr"/>
-      <c r="AW28" s="18" t="inlineStr"/>
-      <c r="AX28" s="19" t="inlineStr"/>
+      <c r="AV28" s="17" t="inlineStr"/>
+      <c r="AW28" s="32" t="inlineStr"/>
+      <c r="AX28" s="18" t="inlineStr"/>
       <c r="AY28" s="19" t="inlineStr"/>
       <c r="AZ28" s="19" t="inlineStr"/>
       <c r="BA28" s="19" t="inlineStr"/>
@@ -4566,13 +4605,13 @@
       <c r="BD28" s="19" t="inlineStr"/>
       <c r="BE28" s="19" t="inlineStr"/>
       <c r="BF28" s="19" t="inlineStr"/>
-      <c r="BG28" s="33" t="inlineStr"/>
-      <c r="BH28" s="19" t="inlineStr"/>
-      <c r="BI28" s="20" t="inlineStr"/>
-      <c r="BJ28" s="21" t="inlineStr"/>
+      <c r="BG28" s="19" t="inlineStr"/>
+      <c r="BH28" s="33" t="inlineStr"/>
+      <c r="BI28" s="19" t="inlineStr"/>
+      <c r="BJ28" s="20" t="inlineStr"/>
       <c r="BK28" s="21" t="inlineStr"/>
-      <c r="BL28" s="23" t="inlineStr"/>
-      <c r="BM28" s="25" t="inlineStr"/>
+      <c r="BL28" s="21" t="inlineStr"/>
+      <c r="BM28" s="23" t="inlineStr"/>
       <c r="BN28" s="25" t="inlineStr"/>
       <c r="BO28" s="25" t="inlineStr"/>
       <c r="BP28" s="25" t="inlineStr"/>
@@ -4593,14 +4632,15 @@
       <c r="CE28" s="25" t="inlineStr"/>
       <c r="CF28" s="25" t="inlineStr"/>
       <c r="CG28" s="25" t="inlineStr"/>
-      <c r="CH28" s="26" t="inlineStr"/>
-      <c r="CI28" s="34" t="inlineStr"/>
+      <c r="CH28" s="25" t="inlineStr"/>
+      <c r="CI28" s="26" t="inlineStr"/>
       <c r="CJ28" s="34" t="inlineStr"/>
       <c r="CK28" s="34" t="inlineStr"/>
       <c r="CL28" s="34" t="inlineStr"/>
-      <c r="CM28" s="27" t="inlineStr"/>
-      <c r="CN28" s="28" t="inlineStr"/>
+      <c r="CM28" s="34" t="inlineStr"/>
+      <c r="CN28" s="27" t="inlineStr"/>
       <c r="CO28" s="28" t="inlineStr"/>
+      <c r="CP28" s="28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -4628,31 +4668,31 @@
       <c r="W29" s="19" t="inlineStr"/>
       <c r="X29" s="19" t="inlineStr"/>
       <c r="Y29" s="19" t="inlineStr"/>
-      <c r="Z29" s="20" t="inlineStr"/>
-      <c r="AA29" s="21" t="inlineStr"/>
+      <c r="Z29" s="19" t="inlineStr"/>
+      <c r="AA29" s="20" t="inlineStr"/>
       <c r="AB29" s="21" t="inlineStr"/>
-      <c r="AC29" s="22" t="inlineStr"/>
+      <c r="AC29" s="21" t="inlineStr"/>
       <c r="AD29" s="22" t="inlineStr"/>
-      <c r="AE29" s="21" t="inlineStr"/>
-      <c r="AF29" s="23" t="inlineStr"/>
-      <c r="AG29" s="24" t="inlineStr"/>
+      <c r="AE29" s="22" t="inlineStr"/>
+      <c r="AF29" s="21" t="inlineStr"/>
+      <c r="AG29" s="23" t="inlineStr"/>
       <c r="AH29" s="24" t="inlineStr"/>
       <c r="AI29" s="24" t="inlineStr"/>
       <c r="AJ29" s="24" t="inlineStr"/>
-      <c r="AK29" s="25" t="inlineStr"/>
+      <c r="AK29" s="24" t="inlineStr"/>
       <c r="AL29" s="25" t="inlineStr"/>
       <c r="AM29" s="25" t="inlineStr"/>
-      <c r="AN29" s="26" t="inlineStr"/>
-      <c r="AO29" s="27" t="inlineStr"/>
-      <c r="AP29" s="28" t="inlineStr"/>
-      <c r="AQ29" s="29" t="inlineStr"/>
-      <c r="AR29" s="30" t="inlineStr"/>
-      <c r="AS29" s="31" t="inlineStr"/>
-      <c r="AT29" s="17" t="inlineStr"/>
+      <c r="AN29" s="25" t="inlineStr"/>
+      <c r="AO29" s="26" t="inlineStr"/>
+      <c r="AP29" s="27" t="inlineStr"/>
+      <c r="AQ29" s="28" t="inlineStr"/>
+      <c r="AR29" s="29" t="inlineStr"/>
+      <c r="AS29" s="30" t="inlineStr"/>
+      <c r="AT29" s="31" t="inlineStr"/>
       <c r="AU29" s="17" t="inlineStr"/>
-      <c r="AV29" s="32" t="inlineStr"/>
-      <c r="AW29" s="18" t="inlineStr"/>
-      <c r="AX29" s="19" t="inlineStr"/>
+      <c r="AV29" s="17" t="inlineStr"/>
+      <c r="AW29" s="32" t="inlineStr"/>
+      <c r="AX29" s="18" t="inlineStr"/>
       <c r="AY29" s="19" t="inlineStr"/>
       <c r="AZ29" s="19" t="inlineStr"/>
       <c r="BA29" s="19" t="inlineStr"/>
@@ -4661,13 +4701,13 @@
       <c r="BD29" s="19" t="inlineStr"/>
       <c r="BE29" s="19" t="inlineStr"/>
       <c r="BF29" s="19" t="inlineStr"/>
-      <c r="BG29" s="33" t="inlineStr"/>
-      <c r="BH29" s="19" t="inlineStr"/>
-      <c r="BI29" s="20" t="inlineStr"/>
-      <c r="BJ29" s="21" t="inlineStr"/>
+      <c r="BG29" s="19" t="inlineStr"/>
+      <c r="BH29" s="33" t="inlineStr"/>
+      <c r="BI29" s="19" t="inlineStr"/>
+      <c r="BJ29" s="20" t="inlineStr"/>
       <c r="BK29" s="21" t="inlineStr"/>
-      <c r="BL29" s="23" t="inlineStr"/>
-      <c r="BM29" s="25" t="inlineStr"/>
+      <c r="BL29" s="21" t="inlineStr"/>
+      <c r="BM29" s="23" t="inlineStr"/>
       <c r="BN29" s="25" t="inlineStr"/>
       <c r="BO29" s="25" t="inlineStr"/>
       <c r="BP29" s="25" t="inlineStr"/>
@@ -4688,14 +4728,15 @@
       <c r="CE29" s="25" t="inlineStr"/>
       <c r="CF29" s="25" t="inlineStr"/>
       <c r="CG29" s="25" t="inlineStr"/>
-      <c r="CH29" s="26" t="inlineStr"/>
-      <c r="CI29" s="34" t="inlineStr"/>
+      <c r="CH29" s="25" t="inlineStr"/>
+      <c r="CI29" s="26" t="inlineStr"/>
       <c r="CJ29" s="34" t="inlineStr"/>
       <c r="CK29" s="34" t="inlineStr"/>
       <c r="CL29" s="34" t="inlineStr"/>
-      <c r="CM29" s="27" t="inlineStr"/>
-      <c r="CN29" s="28" t="inlineStr"/>
+      <c r="CM29" s="34" t="inlineStr"/>
+      <c r="CN29" s="27" t="inlineStr"/>
       <c r="CO29" s="28" t="inlineStr"/>
+      <c r="CP29" s="28" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4723,31 +4764,31 @@
       <c r="W30" s="19" t="inlineStr"/>
       <c r="X30" s="19" t="inlineStr"/>
       <c r="Y30" s="19" t="inlineStr"/>
-      <c r="Z30" s="20" t="inlineStr"/>
-      <c r="AA30" s="21" t="inlineStr"/>
+      <c r="Z30" s="19" t="inlineStr"/>
+      <c r="AA30" s="20" t="inlineStr"/>
       <c r="AB30" s="21" t="inlineStr"/>
-      <c r="AC30" s="22" t="inlineStr"/>
+      <c r="AC30" s="21" t="inlineStr"/>
       <c r="AD30" s="22" t="inlineStr"/>
-      <c r="AE30" s="21" t="inlineStr"/>
-      <c r="AF30" s="23" t="inlineStr"/>
-      <c r="AG30" s="24" t="inlineStr"/>
+      <c r="AE30" s="22" t="inlineStr"/>
+      <c r="AF30" s="21" t="inlineStr"/>
+      <c r="AG30" s="23" t="inlineStr"/>
       <c r="AH30" s="24" t="inlineStr"/>
       <c r="AI30" s="24" t="inlineStr"/>
       <c r="AJ30" s="24" t="inlineStr"/>
-      <c r="AK30" s="25" t="inlineStr"/>
+      <c r="AK30" s="24" t="inlineStr"/>
       <c r="AL30" s="25" t="inlineStr"/>
       <c r="AM30" s="25" t="inlineStr"/>
-      <c r="AN30" s="26" t="inlineStr"/>
-      <c r="AO30" s="27" t="inlineStr"/>
-      <c r="AP30" s="28" t="inlineStr"/>
-      <c r="AQ30" s="29" t="inlineStr"/>
-      <c r="AR30" s="30" t="inlineStr"/>
-      <c r="AS30" s="31" t="inlineStr"/>
-      <c r="AT30" s="17" t="inlineStr"/>
+      <c r="AN30" s="25" t="inlineStr"/>
+      <c r="AO30" s="26" t="inlineStr"/>
+      <c r="AP30" s="27" t="inlineStr"/>
+      <c r="AQ30" s="28" t="inlineStr"/>
+      <c r="AR30" s="29" t="inlineStr"/>
+      <c r="AS30" s="30" t="inlineStr"/>
+      <c r="AT30" s="31" t="inlineStr"/>
       <c r="AU30" s="17" t="inlineStr"/>
-      <c r="AV30" s="32" t="inlineStr"/>
-      <c r="AW30" s="18" t="inlineStr"/>
-      <c r="AX30" s="19" t="inlineStr"/>
+      <c r="AV30" s="17" t="inlineStr"/>
+      <c r="AW30" s="32" t="inlineStr"/>
+      <c r="AX30" s="18" t="inlineStr"/>
       <c r="AY30" s="19" t="inlineStr"/>
       <c r="AZ30" s="19" t="inlineStr"/>
       <c r="BA30" s="19" t="inlineStr"/>
@@ -4756,13 +4797,13 @@
       <c r="BD30" s="19" t="inlineStr"/>
       <c r="BE30" s="19" t="inlineStr"/>
       <c r="BF30" s="19" t="inlineStr"/>
-      <c r="BG30" s="33" t="inlineStr"/>
-      <c r="BH30" s="19" t="inlineStr"/>
-      <c r="BI30" s="20" t="inlineStr"/>
-      <c r="BJ30" s="21" t="inlineStr"/>
+      <c r="BG30" s="19" t="inlineStr"/>
+      <c r="BH30" s="33" t="inlineStr"/>
+      <c r="BI30" s="19" t="inlineStr"/>
+      <c r="BJ30" s="20" t="inlineStr"/>
       <c r="BK30" s="21" t="inlineStr"/>
-      <c r="BL30" s="23" t="inlineStr"/>
-      <c r="BM30" s="25" t="inlineStr"/>
+      <c r="BL30" s="21" t="inlineStr"/>
+      <c r="BM30" s="23" t="inlineStr"/>
       <c r="BN30" s="25" t="inlineStr"/>
       <c r="BO30" s="25" t="inlineStr"/>
       <c r="BP30" s="25" t="inlineStr"/>
@@ -4783,14 +4824,15 @@
       <c r="CE30" s="25" t="inlineStr"/>
       <c r="CF30" s="25" t="inlineStr"/>
       <c r="CG30" s="25" t="inlineStr"/>
-      <c r="CH30" s="26" t="inlineStr"/>
-      <c r="CI30" s="34" t="inlineStr"/>
+      <c r="CH30" s="25" t="inlineStr"/>
+      <c r="CI30" s="26" t="inlineStr"/>
       <c r="CJ30" s="34" t="inlineStr"/>
       <c r="CK30" s="34" t="inlineStr"/>
       <c r="CL30" s="34" t="inlineStr"/>
-      <c r="CM30" s="27" t="inlineStr"/>
-      <c r="CN30" s="28" t="inlineStr"/>
+      <c r="CM30" s="34" t="inlineStr"/>
+      <c r="CN30" s="27" t="inlineStr"/>
       <c r="CO30" s="28" t="inlineStr"/>
+      <c r="CP30" s="28" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4818,31 +4860,31 @@
       <c r="W31" s="19" t="inlineStr"/>
       <c r="X31" s="19" t="inlineStr"/>
       <c r="Y31" s="19" t="inlineStr"/>
-      <c r="Z31" s="20" t="inlineStr"/>
-      <c r="AA31" s="21" t="inlineStr"/>
+      <c r="Z31" s="19" t="inlineStr"/>
+      <c r="AA31" s="20" t="inlineStr"/>
       <c r="AB31" s="21" t="inlineStr"/>
-      <c r="AC31" s="22" t="inlineStr"/>
+      <c r="AC31" s="21" t="inlineStr"/>
       <c r="AD31" s="22" t="inlineStr"/>
-      <c r="AE31" s="21" t="inlineStr"/>
-      <c r="AF31" s="23" t="inlineStr"/>
-      <c r="AG31" s="24" t="inlineStr"/>
+      <c r="AE31" s="22" t="inlineStr"/>
+      <c r="AF31" s="21" t="inlineStr"/>
+      <c r="AG31" s="23" t="inlineStr"/>
       <c r="AH31" s="24" t="inlineStr"/>
       <c r="AI31" s="24" t="inlineStr"/>
       <c r="AJ31" s="24" t="inlineStr"/>
-      <c r="AK31" s="25" t="inlineStr"/>
+      <c r="AK31" s="24" t="inlineStr"/>
       <c r="AL31" s="25" t="inlineStr"/>
       <c r="AM31" s="25" t="inlineStr"/>
-      <c r="AN31" s="26" t="inlineStr"/>
-      <c r="AO31" s="27" t="inlineStr"/>
-      <c r="AP31" s="28" t="inlineStr"/>
-      <c r="AQ31" s="29" t="inlineStr"/>
-      <c r="AR31" s="30" t="inlineStr"/>
-      <c r="AS31" s="31" t="inlineStr"/>
-      <c r="AT31" s="17" t="inlineStr"/>
+      <c r="AN31" s="25" t="inlineStr"/>
+      <c r="AO31" s="26" t="inlineStr"/>
+      <c r="AP31" s="27" t="inlineStr"/>
+      <c r="AQ31" s="28" t="inlineStr"/>
+      <c r="AR31" s="29" t="inlineStr"/>
+      <c r="AS31" s="30" t="inlineStr"/>
+      <c r="AT31" s="31" t="inlineStr"/>
       <c r="AU31" s="17" t="inlineStr"/>
-      <c r="AV31" s="32" t="inlineStr"/>
-      <c r="AW31" s="18" t="inlineStr"/>
-      <c r="AX31" s="19" t="inlineStr"/>
+      <c r="AV31" s="17" t="inlineStr"/>
+      <c r="AW31" s="32" t="inlineStr"/>
+      <c r="AX31" s="18" t="inlineStr"/>
       <c r="AY31" s="19" t="inlineStr"/>
       <c r="AZ31" s="19" t="inlineStr"/>
       <c r="BA31" s="19" t="inlineStr"/>
@@ -4851,13 +4893,13 @@
       <c r="BD31" s="19" t="inlineStr"/>
       <c r="BE31" s="19" t="inlineStr"/>
       <c r="BF31" s="19" t="inlineStr"/>
-      <c r="BG31" s="33" t="inlineStr"/>
-      <c r="BH31" s="19" t="inlineStr"/>
-      <c r="BI31" s="20" t="inlineStr"/>
-      <c r="BJ31" s="21" t="inlineStr"/>
+      <c r="BG31" s="19" t="inlineStr"/>
+      <c r="BH31" s="33" t="inlineStr"/>
+      <c r="BI31" s="19" t="inlineStr"/>
+      <c r="BJ31" s="20" t="inlineStr"/>
       <c r="BK31" s="21" t="inlineStr"/>
-      <c r="BL31" s="23" t="inlineStr"/>
-      <c r="BM31" s="25" t="inlineStr"/>
+      <c r="BL31" s="21" t="inlineStr"/>
+      <c r="BM31" s="23" t="inlineStr"/>
       <c r="BN31" s="25" t="inlineStr"/>
       <c r="BO31" s="25" t="inlineStr"/>
       <c r="BP31" s="25" t="inlineStr"/>
@@ -4878,14 +4920,15 @@
       <c r="CE31" s="25" t="inlineStr"/>
       <c r="CF31" s="25" t="inlineStr"/>
       <c r="CG31" s="25" t="inlineStr"/>
-      <c r="CH31" s="26" t="inlineStr"/>
-      <c r="CI31" s="34" t="inlineStr"/>
+      <c r="CH31" s="25" t="inlineStr"/>
+      <c r="CI31" s="26" t="inlineStr"/>
       <c r="CJ31" s="34" t="inlineStr"/>
       <c r="CK31" s="34" t="inlineStr"/>
       <c r="CL31" s="34" t="inlineStr"/>
-      <c r="CM31" s="27" t="inlineStr"/>
-      <c r="CN31" s="28" t="inlineStr"/>
+      <c r="CM31" s="34" t="inlineStr"/>
+      <c r="CN31" s="27" t="inlineStr"/>
       <c r="CO31" s="28" t="inlineStr"/>
+      <c r="CP31" s="28" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4913,31 +4956,31 @@
       <c r="W32" s="19" t="inlineStr"/>
       <c r="X32" s="19" t="inlineStr"/>
       <c r="Y32" s="19" t="inlineStr"/>
-      <c r="Z32" s="20" t="inlineStr"/>
-      <c r="AA32" s="21" t="inlineStr"/>
+      <c r="Z32" s="19" t="inlineStr"/>
+      <c r="AA32" s="20" t="inlineStr"/>
       <c r="AB32" s="21" t="inlineStr"/>
-      <c r="AC32" s="22" t="inlineStr"/>
+      <c r="AC32" s="21" t="inlineStr"/>
       <c r="AD32" s="22" t="inlineStr"/>
-      <c r="AE32" s="21" t="inlineStr"/>
-      <c r="AF32" s="23" t="inlineStr"/>
-      <c r="AG32" s="24" t="inlineStr"/>
+      <c r="AE32" s="22" t="inlineStr"/>
+      <c r="AF32" s="21" t="inlineStr"/>
+      <c r="AG32" s="23" t="inlineStr"/>
       <c r="AH32" s="24" t="inlineStr"/>
       <c r="AI32" s="24" t="inlineStr"/>
       <c r="AJ32" s="24" t="inlineStr"/>
-      <c r="AK32" s="25" t="inlineStr"/>
+      <c r="AK32" s="24" t="inlineStr"/>
       <c r="AL32" s="25" t="inlineStr"/>
       <c r="AM32" s="25" t="inlineStr"/>
-      <c r="AN32" s="26" t="inlineStr"/>
-      <c r="AO32" s="27" t="inlineStr"/>
-      <c r="AP32" s="28" t="inlineStr"/>
-      <c r="AQ32" s="29" t="inlineStr"/>
-      <c r="AR32" s="30" t="inlineStr"/>
-      <c r="AS32" s="31" t="inlineStr"/>
-      <c r="AT32" s="17" t="inlineStr"/>
+      <c r="AN32" s="25" t="inlineStr"/>
+      <c r="AO32" s="26" t="inlineStr"/>
+      <c r="AP32" s="27" t="inlineStr"/>
+      <c r="AQ32" s="28" t="inlineStr"/>
+      <c r="AR32" s="29" t="inlineStr"/>
+      <c r="AS32" s="30" t="inlineStr"/>
+      <c r="AT32" s="31" t="inlineStr"/>
       <c r="AU32" s="17" t="inlineStr"/>
-      <c r="AV32" s="32" t="inlineStr"/>
-      <c r="AW32" s="18" t="inlineStr"/>
-      <c r="AX32" s="19" t="inlineStr"/>
+      <c r="AV32" s="17" t="inlineStr"/>
+      <c r="AW32" s="32" t="inlineStr"/>
+      <c r="AX32" s="18" t="inlineStr"/>
       <c r="AY32" s="19" t="inlineStr"/>
       <c r="AZ32" s="19" t="inlineStr"/>
       <c r="BA32" s="19" t="inlineStr"/>
@@ -4946,13 +4989,13 @@
       <c r="BD32" s="19" t="inlineStr"/>
       <c r="BE32" s="19" t="inlineStr"/>
       <c r="BF32" s="19" t="inlineStr"/>
-      <c r="BG32" s="33" t="inlineStr"/>
-      <c r="BH32" s="19" t="inlineStr"/>
-      <c r="BI32" s="20" t="inlineStr"/>
-      <c r="BJ32" s="21" t="inlineStr"/>
+      <c r="BG32" s="19" t="inlineStr"/>
+      <c r="BH32" s="33" t="inlineStr"/>
+      <c r="BI32" s="19" t="inlineStr"/>
+      <c r="BJ32" s="20" t="inlineStr"/>
       <c r="BK32" s="21" t="inlineStr"/>
-      <c r="BL32" s="23" t="inlineStr"/>
-      <c r="BM32" s="25" t="inlineStr"/>
+      <c r="BL32" s="21" t="inlineStr"/>
+      <c r="BM32" s="23" t="inlineStr"/>
       <c r="BN32" s="25" t="inlineStr"/>
       <c r="BO32" s="25" t="inlineStr"/>
       <c r="BP32" s="25" t="inlineStr"/>
@@ -4973,14 +5016,15 @@
       <c r="CE32" s="25" t="inlineStr"/>
       <c r="CF32" s="25" t="inlineStr"/>
       <c r="CG32" s="25" t="inlineStr"/>
-      <c r="CH32" s="26" t="inlineStr"/>
-      <c r="CI32" s="34" t="inlineStr"/>
+      <c r="CH32" s="25" t="inlineStr"/>
+      <c r="CI32" s="26" t="inlineStr"/>
       <c r="CJ32" s="34" t="inlineStr"/>
       <c r="CK32" s="34" t="inlineStr"/>
       <c r="CL32" s="34" t="inlineStr"/>
-      <c r="CM32" s="27" t="inlineStr"/>
-      <c r="CN32" s="28" t="inlineStr"/>
+      <c r="CM32" s="34" t="inlineStr"/>
+      <c r="CN32" s="27" t="inlineStr"/>
       <c r="CO32" s="28" t="inlineStr"/>
+      <c r="CP32" s="28" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -5008,31 +5052,31 @@
       <c r="W33" s="19" t="inlineStr"/>
       <c r="X33" s="19" t="inlineStr"/>
       <c r="Y33" s="19" t="inlineStr"/>
-      <c r="Z33" s="20" t="inlineStr"/>
-      <c r="AA33" s="21" t="inlineStr"/>
+      <c r="Z33" s="19" t="inlineStr"/>
+      <c r="AA33" s="20" t="inlineStr"/>
       <c r="AB33" s="21" t="inlineStr"/>
-      <c r="AC33" s="22" t="inlineStr"/>
+      <c r="AC33" s="21" t="inlineStr"/>
       <c r="AD33" s="22" t="inlineStr"/>
-      <c r="AE33" s="21" t="inlineStr"/>
-      <c r="AF33" s="23" t="inlineStr"/>
-      <c r="AG33" s="24" t="inlineStr"/>
+      <c r="AE33" s="22" t="inlineStr"/>
+      <c r="AF33" s="21" t="inlineStr"/>
+      <c r="AG33" s="23" t="inlineStr"/>
       <c r="AH33" s="24" t="inlineStr"/>
       <c r="AI33" s="24" t="inlineStr"/>
       <c r="AJ33" s="24" t="inlineStr"/>
-      <c r="AK33" s="25" t="inlineStr"/>
+      <c r="AK33" s="24" t="inlineStr"/>
       <c r="AL33" s="25" t="inlineStr"/>
       <c r="AM33" s="25" t="inlineStr"/>
-      <c r="AN33" s="26" t="inlineStr"/>
-      <c r="AO33" s="27" t="inlineStr"/>
-      <c r="AP33" s="28" t="inlineStr"/>
-      <c r="AQ33" s="29" t="inlineStr"/>
-      <c r="AR33" s="30" t="inlineStr"/>
-      <c r="AS33" s="31" t="inlineStr"/>
-      <c r="AT33" s="17" t="inlineStr"/>
+      <c r="AN33" s="25" t="inlineStr"/>
+      <c r="AO33" s="26" t="inlineStr"/>
+      <c r="AP33" s="27" t="inlineStr"/>
+      <c r="AQ33" s="28" t="inlineStr"/>
+      <c r="AR33" s="29" t="inlineStr"/>
+      <c r="AS33" s="30" t="inlineStr"/>
+      <c r="AT33" s="31" t="inlineStr"/>
       <c r="AU33" s="17" t="inlineStr"/>
-      <c r="AV33" s="32" t="inlineStr"/>
-      <c r="AW33" s="18" t="inlineStr"/>
-      <c r="AX33" s="19" t="inlineStr"/>
+      <c r="AV33" s="17" t="inlineStr"/>
+      <c r="AW33" s="32" t="inlineStr"/>
+      <c r="AX33" s="18" t="inlineStr"/>
       <c r="AY33" s="19" t="inlineStr"/>
       <c r="AZ33" s="19" t="inlineStr"/>
       <c r="BA33" s="19" t="inlineStr"/>
@@ -5041,13 +5085,13 @@
       <c r="BD33" s="19" t="inlineStr"/>
       <c r="BE33" s="19" t="inlineStr"/>
       <c r="BF33" s="19" t="inlineStr"/>
-      <c r="BG33" s="33" t="inlineStr"/>
-      <c r="BH33" s="19" t="inlineStr"/>
-      <c r="BI33" s="20" t="inlineStr"/>
-      <c r="BJ33" s="21" t="inlineStr"/>
+      <c r="BG33" s="19" t="inlineStr"/>
+      <c r="BH33" s="33" t="inlineStr"/>
+      <c r="BI33" s="19" t="inlineStr"/>
+      <c r="BJ33" s="20" t="inlineStr"/>
       <c r="BK33" s="21" t="inlineStr"/>
-      <c r="BL33" s="23" t="inlineStr"/>
-      <c r="BM33" s="25" t="inlineStr"/>
+      <c r="BL33" s="21" t="inlineStr"/>
+      <c r="BM33" s="23" t="inlineStr"/>
       <c r="BN33" s="25" t="inlineStr"/>
       <c r="BO33" s="25" t="inlineStr"/>
       <c r="BP33" s="25" t="inlineStr"/>
@@ -5068,14 +5112,15 @@
       <c r="CE33" s="25" t="inlineStr"/>
       <c r="CF33" s="25" t="inlineStr"/>
       <c r="CG33" s="25" t="inlineStr"/>
-      <c r="CH33" s="26" t="inlineStr"/>
-      <c r="CI33" s="34" t="inlineStr"/>
+      <c r="CH33" s="25" t="inlineStr"/>
+      <c r="CI33" s="26" t="inlineStr"/>
       <c r="CJ33" s="34" t="inlineStr"/>
       <c r="CK33" s="34" t="inlineStr"/>
       <c r="CL33" s="34" t="inlineStr"/>
-      <c r="CM33" s="27" t="inlineStr"/>
-      <c r="CN33" s="28" t="inlineStr"/>
+      <c r="CM33" s="34" t="inlineStr"/>
+      <c r="CN33" s="27" t="inlineStr"/>
       <c r="CO33" s="28" t="inlineStr"/>
+      <c r="CP33" s="28" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -5103,31 +5148,31 @@
       <c r="W34" s="19" t="inlineStr"/>
       <c r="X34" s="19" t="inlineStr"/>
       <c r="Y34" s="19" t="inlineStr"/>
-      <c r="Z34" s="20" t="inlineStr"/>
-      <c r="AA34" s="21" t="inlineStr"/>
+      <c r="Z34" s="19" t="inlineStr"/>
+      <c r="AA34" s="20" t="inlineStr"/>
       <c r="AB34" s="21" t="inlineStr"/>
-      <c r="AC34" s="22" t="inlineStr"/>
+      <c r="AC34" s="21" t="inlineStr"/>
       <c r="AD34" s="22" t="inlineStr"/>
-      <c r="AE34" s="21" t="inlineStr"/>
-      <c r="AF34" s="23" t="inlineStr"/>
-      <c r="AG34" s="24" t="inlineStr"/>
+      <c r="AE34" s="22" t="inlineStr"/>
+      <c r="AF34" s="21" t="inlineStr"/>
+      <c r="AG34" s="23" t="inlineStr"/>
       <c r="AH34" s="24" t="inlineStr"/>
       <c r="AI34" s="24" t="inlineStr"/>
       <c r="AJ34" s="24" t="inlineStr"/>
-      <c r="AK34" s="25" t="inlineStr"/>
+      <c r="AK34" s="24" t="inlineStr"/>
       <c r="AL34" s="25" t="inlineStr"/>
       <c r="AM34" s="25" t="inlineStr"/>
-      <c r="AN34" s="26" t="inlineStr"/>
-      <c r="AO34" s="27" t="inlineStr"/>
-      <c r="AP34" s="28" t="inlineStr"/>
-      <c r="AQ34" s="29" t="inlineStr"/>
-      <c r="AR34" s="30" t="inlineStr"/>
-      <c r="AS34" s="31" t="inlineStr"/>
-      <c r="AT34" s="17" t="inlineStr"/>
+      <c r="AN34" s="25" t="inlineStr"/>
+      <c r="AO34" s="26" t="inlineStr"/>
+      <c r="AP34" s="27" t="inlineStr"/>
+      <c r="AQ34" s="28" t="inlineStr"/>
+      <c r="AR34" s="29" t="inlineStr"/>
+      <c r="AS34" s="30" t="inlineStr"/>
+      <c r="AT34" s="31" t="inlineStr"/>
       <c r="AU34" s="17" t="inlineStr"/>
-      <c r="AV34" s="32" t="inlineStr"/>
-      <c r="AW34" s="18" t="inlineStr"/>
-      <c r="AX34" s="19" t="inlineStr"/>
+      <c r="AV34" s="17" t="inlineStr"/>
+      <c r="AW34" s="32" t="inlineStr"/>
+      <c r="AX34" s="18" t="inlineStr"/>
       <c r="AY34" s="19" t="inlineStr"/>
       <c r="AZ34" s="19" t="inlineStr"/>
       <c r="BA34" s="19" t="inlineStr"/>
@@ -5136,13 +5181,13 @@
       <c r="BD34" s="19" t="inlineStr"/>
       <c r="BE34" s="19" t="inlineStr"/>
       <c r="BF34" s="19" t="inlineStr"/>
-      <c r="BG34" s="33" t="inlineStr"/>
-      <c r="BH34" s="19" t="inlineStr"/>
-      <c r="BI34" s="20" t="inlineStr"/>
-      <c r="BJ34" s="21" t="inlineStr"/>
+      <c r="BG34" s="19" t="inlineStr"/>
+      <c r="BH34" s="33" t="inlineStr"/>
+      <c r="BI34" s="19" t="inlineStr"/>
+      <c r="BJ34" s="20" t="inlineStr"/>
       <c r="BK34" s="21" t="inlineStr"/>
-      <c r="BL34" s="23" t="inlineStr"/>
-      <c r="BM34" s="25" t="inlineStr"/>
+      <c r="BL34" s="21" t="inlineStr"/>
+      <c r="BM34" s="23" t="inlineStr"/>
       <c r="BN34" s="25" t="inlineStr"/>
       <c r="BO34" s="25" t="inlineStr"/>
       <c r="BP34" s="25" t="inlineStr"/>
@@ -5163,14 +5208,15 @@
       <c r="CE34" s="25" t="inlineStr"/>
       <c r="CF34" s="25" t="inlineStr"/>
       <c r="CG34" s="25" t="inlineStr"/>
-      <c r="CH34" s="26" t="inlineStr"/>
-      <c r="CI34" s="34" t="inlineStr"/>
+      <c r="CH34" s="25" t="inlineStr"/>
+      <c r="CI34" s="26" t="inlineStr"/>
       <c r="CJ34" s="34" t="inlineStr"/>
       <c r="CK34" s="34" t="inlineStr"/>
       <c r="CL34" s="34" t="inlineStr"/>
-      <c r="CM34" s="27" t="inlineStr"/>
-      <c r="CN34" s="28" t="inlineStr"/>
+      <c r="CM34" s="34" t="inlineStr"/>
+      <c r="CN34" s="27" t="inlineStr"/>
       <c r="CO34" s="28" t="inlineStr"/>
+      <c r="CP34" s="28" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -5198,31 +5244,31 @@
       <c r="W35" s="19" t="inlineStr"/>
       <c r="X35" s="19" t="inlineStr"/>
       <c r="Y35" s="19" t="inlineStr"/>
-      <c r="Z35" s="20" t="inlineStr"/>
-      <c r="AA35" s="21" t="inlineStr"/>
+      <c r="Z35" s="19" t="inlineStr"/>
+      <c r="AA35" s="20" t="inlineStr"/>
       <c r="AB35" s="21" t="inlineStr"/>
-      <c r="AC35" s="22" t="inlineStr"/>
+      <c r="AC35" s="21" t="inlineStr"/>
       <c r="AD35" s="22" t="inlineStr"/>
-      <c r="AE35" s="21" t="inlineStr"/>
-      <c r="AF35" s="23" t="inlineStr"/>
-      <c r="AG35" s="24" t="inlineStr"/>
+      <c r="AE35" s="22" t="inlineStr"/>
+      <c r="AF35" s="21" t="inlineStr"/>
+      <c r="AG35" s="23" t="inlineStr"/>
       <c r="AH35" s="24" t="inlineStr"/>
       <c r="AI35" s="24" t="inlineStr"/>
       <c r="AJ35" s="24" t="inlineStr"/>
-      <c r="AK35" s="25" t="inlineStr"/>
+      <c r="AK35" s="24" t="inlineStr"/>
       <c r="AL35" s="25" t="inlineStr"/>
       <c r="AM35" s="25" t="inlineStr"/>
-      <c r="AN35" s="26" t="inlineStr"/>
-      <c r="AO35" s="27" t="inlineStr"/>
-      <c r="AP35" s="28" t="inlineStr"/>
-      <c r="AQ35" s="29" t="inlineStr"/>
-      <c r="AR35" s="30" t="inlineStr"/>
-      <c r="AS35" s="31" t="inlineStr"/>
-      <c r="AT35" s="17" t="inlineStr"/>
+      <c r="AN35" s="25" t="inlineStr"/>
+      <c r="AO35" s="26" t="inlineStr"/>
+      <c r="AP35" s="27" t="inlineStr"/>
+      <c r="AQ35" s="28" t="inlineStr"/>
+      <c r="AR35" s="29" t="inlineStr"/>
+      <c r="AS35" s="30" t="inlineStr"/>
+      <c r="AT35" s="31" t="inlineStr"/>
       <c r="AU35" s="17" t="inlineStr"/>
-      <c r="AV35" s="32" t="inlineStr"/>
-      <c r="AW35" s="18" t="inlineStr"/>
-      <c r="AX35" s="19" t="inlineStr"/>
+      <c r="AV35" s="17" t="inlineStr"/>
+      <c r="AW35" s="32" t="inlineStr"/>
+      <c r="AX35" s="18" t="inlineStr"/>
       <c r="AY35" s="19" t="inlineStr"/>
       <c r="AZ35" s="19" t="inlineStr"/>
       <c r="BA35" s="19" t="inlineStr"/>
@@ -5231,13 +5277,13 @@
       <c r="BD35" s="19" t="inlineStr"/>
       <c r="BE35" s="19" t="inlineStr"/>
       <c r="BF35" s="19" t="inlineStr"/>
-      <c r="BG35" s="33" t="inlineStr"/>
-      <c r="BH35" s="19" t="inlineStr"/>
-      <c r="BI35" s="20" t="inlineStr"/>
-      <c r="BJ35" s="21" t="inlineStr"/>
+      <c r="BG35" s="19" t="inlineStr"/>
+      <c r="BH35" s="33" t="inlineStr"/>
+      <c r="BI35" s="19" t="inlineStr"/>
+      <c r="BJ35" s="20" t="inlineStr"/>
       <c r="BK35" s="21" t="inlineStr"/>
-      <c r="BL35" s="23" t="inlineStr"/>
-      <c r="BM35" s="25" t="inlineStr"/>
+      <c r="BL35" s="21" t="inlineStr"/>
+      <c r="BM35" s="23" t="inlineStr"/>
       <c r="BN35" s="25" t="inlineStr"/>
       <c r="BO35" s="25" t="inlineStr"/>
       <c r="BP35" s="25" t="inlineStr"/>
@@ -5258,14 +5304,15 @@
       <c r="CE35" s="25" t="inlineStr"/>
       <c r="CF35" s="25" t="inlineStr"/>
       <c r="CG35" s="25" t="inlineStr"/>
-      <c r="CH35" s="26" t="inlineStr"/>
-      <c r="CI35" s="34" t="inlineStr"/>
+      <c r="CH35" s="25" t="inlineStr"/>
+      <c r="CI35" s="26" t="inlineStr"/>
       <c r="CJ35" s="34" t="inlineStr"/>
       <c r="CK35" s="34" t="inlineStr"/>
       <c r="CL35" s="34" t="inlineStr"/>
-      <c r="CM35" s="27" t="inlineStr"/>
-      <c r="CN35" s="28" t="inlineStr"/>
+      <c r="CM35" s="34" t="inlineStr"/>
+      <c r="CN35" s="27" t="inlineStr"/>
       <c r="CO35" s="28" t="inlineStr"/>
+      <c r="CP35" s="28" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -5293,31 +5340,31 @@
       <c r="W36" s="19" t="inlineStr"/>
       <c r="X36" s="19" t="inlineStr"/>
       <c r="Y36" s="19" t="inlineStr"/>
-      <c r="Z36" s="20" t="inlineStr"/>
-      <c r="AA36" s="21" t="inlineStr"/>
+      <c r="Z36" s="19" t="inlineStr"/>
+      <c r="AA36" s="20" t="inlineStr"/>
       <c r="AB36" s="21" t="inlineStr"/>
-      <c r="AC36" s="22" t="inlineStr"/>
+      <c r="AC36" s="21" t="inlineStr"/>
       <c r="AD36" s="22" t="inlineStr"/>
-      <c r="AE36" s="21" t="inlineStr"/>
-      <c r="AF36" s="23" t="inlineStr"/>
-      <c r="AG36" s="24" t="inlineStr"/>
+      <c r="AE36" s="22" t="inlineStr"/>
+      <c r="AF36" s="21" t="inlineStr"/>
+      <c r="AG36" s="23" t="inlineStr"/>
       <c r="AH36" s="24" t="inlineStr"/>
       <c r="AI36" s="24" t="inlineStr"/>
       <c r="AJ36" s="24" t="inlineStr"/>
-      <c r="AK36" s="25" t="inlineStr"/>
+      <c r="AK36" s="24" t="inlineStr"/>
       <c r="AL36" s="25" t="inlineStr"/>
       <c r="AM36" s="25" t="inlineStr"/>
-      <c r="AN36" s="26" t="inlineStr"/>
-      <c r="AO36" s="27" t="inlineStr"/>
-      <c r="AP36" s="28" t="inlineStr"/>
-      <c r="AQ36" s="29" t="inlineStr"/>
-      <c r="AR36" s="30" t="inlineStr"/>
-      <c r="AS36" s="31" t="inlineStr"/>
-      <c r="AT36" s="17" t="inlineStr"/>
+      <c r="AN36" s="25" t="inlineStr"/>
+      <c r="AO36" s="26" t="inlineStr"/>
+      <c r="AP36" s="27" t="inlineStr"/>
+      <c r="AQ36" s="28" t="inlineStr"/>
+      <c r="AR36" s="29" t="inlineStr"/>
+      <c r="AS36" s="30" t="inlineStr"/>
+      <c r="AT36" s="31" t="inlineStr"/>
       <c r="AU36" s="17" t="inlineStr"/>
-      <c r="AV36" s="32" t="inlineStr"/>
-      <c r="AW36" s="18" t="inlineStr"/>
-      <c r="AX36" s="19" t="inlineStr"/>
+      <c r="AV36" s="17" t="inlineStr"/>
+      <c r="AW36" s="32" t="inlineStr"/>
+      <c r="AX36" s="18" t="inlineStr"/>
       <c r="AY36" s="19" t="inlineStr"/>
       <c r="AZ36" s="19" t="inlineStr"/>
       <c r="BA36" s="19" t="inlineStr"/>
@@ -5326,13 +5373,13 @@
       <c r="BD36" s="19" t="inlineStr"/>
       <c r="BE36" s="19" t="inlineStr"/>
       <c r="BF36" s="19" t="inlineStr"/>
-      <c r="BG36" s="33" t="inlineStr"/>
-      <c r="BH36" s="19" t="inlineStr"/>
-      <c r="BI36" s="20" t="inlineStr"/>
-      <c r="BJ36" s="21" t="inlineStr"/>
+      <c r="BG36" s="19" t="inlineStr"/>
+      <c r="BH36" s="33" t="inlineStr"/>
+      <c r="BI36" s="19" t="inlineStr"/>
+      <c r="BJ36" s="20" t="inlineStr"/>
       <c r="BK36" s="21" t="inlineStr"/>
-      <c r="BL36" s="23" t="inlineStr"/>
-      <c r="BM36" s="25" t="inlineStr"/>
+      <c r="BL36" s="21" t="inlineStr"/>
+      <c r="BM36" s="23" t="inlineStr"/>
       <c r="BN36" s="25" t="inlineStr"/>
       <c r="BO36" s="25" t="inlineStr"/>
       <c r="BP36" s="25" t="inlineStr"/>
@@ -5353,14 +5400,15 @@
       <c r="CE36" s="25" t="inlineStr"/>
       <c r="CF36" s="25" t="inlineStr"/>
       <c r="CG36" s="25" t="inlineStr"/>
-      <c r="CH36" s="26" t="inlineStr"/>
-      <c r="CI36" s="34" t="inlineStr"/>
+      <c r="CH36" s="25" t="inlineStr"/>
+      <c r="CI36" s="26" t="inlineStr"/>
       <c r="CJ36" s="34" t="inlineStr"/>
       <c r="CK36" s="34" t="inlineStr"/>
       <c r="CL36" s="34" t="inlineStr"/>
-      <c r="CM36" s="27" t="inlineStr"/>
-      <c r="CN36" s="28" t="inlineStr"/>
+      <c r="CM36" s="34" t="inlineStr"/>
+      <c r="CN36" s="27" t="inlineStr"/>
       <c r="CO36" s="28" t="inlineStr"/>
+      <c r="CP36" s="28" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -5388,31 +5436,31 @@
       <c r="W37" s="19" t="inlineStr"/>
       <c r="X37" s="19" t="inlineStr"/>
       <c r="Y37" s="19" t="inlineStr"/>
-      <c r="Z37" s="20" t="inlineStr"/>
-      <c r="AA37" s="21" t="inlineStr"/>
+      <c r="Z37" s="19" t="inlineStr"/>
+      <c r="AA37" s="20" t="inlineStr"/>
       <c r="AB37" s="21" t="inlineStr"/>
-      <c r="AC37" s="22" t="inlineStr"/>
+      <c r="AC37" s="21" t="inlineStr"/>
       <c r="AD37" s="22" t="inlineStr"/>
-      <c r="AE37" s="21" t="inlineStr"/>
-      <c r="AF37" s="23" t="inlineStr"/>
-      <c r="AG37" s="24" t="inlineStr"/>
+      <c r="AE37" s="22" t="inlineStr"/>
+      <c r="AF37" s="21" t="inlineStr"/>
+      <c r="AG37" s="23" t="inlineStr"/>
       <c r="AH37" s="24" t="inlineStr"/>
       <c r="AI37" s="24" t="inlineStr"/>
       <c r="AJ37" s="24" t="inlineStr"/>
-      <c r="AK37" s="25" t="inlineStr"/>
+      <c r="AK37" s="24" t="inlineStr"/>
       <c r="AL37" s="25" t="inlineStr"/>
       <c r="AM37" s="25" t="inlineStr"/>
-      <c r="AN37" s="26" t="inlineStr"/>
-      <c r="AO37" s="27" t="inlineStr"/>
-      <c r="AP37" s="28" t="inlineStr"/>
-      <c r="AQ37" s="29" t="inlineStr"/>
-      <c r="AR37" s="30" t="inlineStr"/>
-      <c r="AS37" s="31" t="inlineStr"/>
-      <c r="AT37" s="17" t="inlineStr"/>
+      <c r="AN37" s="25" t="inlineStr"/>
+      <c r="AO37" s="26" t="inlineStr"/>
+      <c r="AP37" s="27" t="inlineStr"/>
+      <c r="AQ37" s="28" t="inlineStr"/>
+      <c r="AR37" s="29" t="inlineStr"/>
+      <c r="AS37" s="30" t="inlineStr"/>
+      <c r="AT37" s="31" t="inlineStr"/>
       <c r="AU37" s="17" t="inlineStr"/>
-      <c r="AV37" s="32" t="inlineStr"/>
-      <c r="AW37" s="18" t="inlineStr"/>
-      <c r="AX37" s="19" t="inlineStr"/>
+      <c r="AV37" s="17" t="inlineStr"/>
+      <c r="AW37" s="32" t="inlineStr"/>
+      <c r="AX37" s="18" t="inlineStr"/>
       <c r="AY37" s="19" t="inlineStr"/>
       <c r="AZ37" s="19" t="inlineStr"/>
       <c r="BA37" s="19" t="inlineStr"/>
@@ -5421,13 +5469,13 @@
       <c r="BD37" s="19" t="inlineStr"/>
       <c r="BE37" s="19" t="inlineStr"/>
       <c r="BF37" s="19" t="inlineStr"/>
-      <c r="BG37" s="33" t="inlineStr"/>
-      <c r="BH37" s="19" t="inlineStr"/>
-      <c r="BI37" s="20" t="inlineStr"/>
-      <c r="BJ37" s="21" t="inlineStr"/>
+      <c r="BG37" s="19" t="inlineStr"/>
+      <c r="BH37" s="33" t="inlineStr"/>
+      <c r="BI37" s="19" t="inlineStr"/>
+      <c r="BJ37" s="20" t="inlineStr"/>
       <c r="BK37" s="21" t="inlineStr"/>
-      <c r="BL37" s="23" t="inlineStr"/>
-      <c r="BM37" s="25" t="inlineStr"/>
+      <c r="BL37" s="21" t="inlineStr"/>
+      <c r="BM37" s="23" t="inlineStr"/>
       <c r="BN37" s="25" t="inlineStr"/>
       <c r="BO37" s="25" t="inlineStr"/>
       <c r="BP37" s="25" t="inlineStr"/>
@@ -5448,14 +5496,15 @@
       <c r="CE37" s="25" t="inlineStr"/>
       <c r="CF37" s="25" t="inlineStr"/>
       <c r="CG37" s="25" t="inlineStr"/>
-      <c r="CH37" s="26" t="inlineStr"/>
-      <c r="CI37" s="34" t="inlineStr"/>
+      <c r="CH37" s="25" t="inlineStr"/>
+      <c r="CI37" s="26" t="inlineStr"/>
       <c r="CJ37" s="34" t="inlineStr"/>
       <c r="CK37" s="34" t="inlineStr"/>
       <c r="CL37" s="34" t="inlineStr"/>
-      <c r="CM37" s="27" t="inlineStr"/>
-      <c r="CN37" s="28" t="inlineStr"/>
+      <c r="CM37" s="34" t="inlineStr"/>
+      <c r="CN37" s="27" t="inlineStr"/>
       <c r="CO37" s="28" t="inlineStr"/>
+      <c r="CP37" s="28" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -5483,31 +5532,31 @@
       <c r="W38" s="19" t="inlineStr"/>
       <c r="X38" s="19" t="inlineStr"/>
       <c r="Y38" s="19" t="inlineStr"/>
-      <c r="Z38" s="20" t="inlineStr"/>
-      <c r="AA38" s="21" t="inlineStr"/>
+      <c r="Z38" s="19" t="inlineStr"/>
+      <c r="AA38" s="20" t="inlineStr"/>
       <c r="AB38" s="21" t="inlineStr"/>
-      <c r="AC38" s="22" t="inlineStr"/>
+      <c r="AC38" s="21" t="inlineStr"/>
       <c r="AD38" s="22" t="inlineStr"/>
-      <c r="AE38" s="21" t="inlineStr"/>
-      <c r="AF38" s="23" t="inlineStr"/>
-      <c r="AG38" s="24" t="inlineStr"/>
+      <c r="AE38" s="22" t="inlineStr"/>
+      <c r="AF38" s="21" t="inlineStr"/>
+      <c r="AG38" s="23" t="inlineStr"/>
       <c r="AH38" s="24" t="inlineStr"/>
       <c r="AI38" s="24" t="inlineStr"/>
       <c r="AJ38" s="24" t="inlineStr"/>
-      <c r="AK38" s="25" t="inlineStr"/>
+      <c r="AK38" s="24" t="inlineStr"/>
       <c r="AL38" s="25" t="inlineStr"/>
       <c r="AM38" s="25" t="inlineStr"/>
-      <c r="AN38" s="26" t="inlineStr"/>
-      <c r="AO38" s="27" t="inlineStr"/>
-      <c r="AP38" s="28" t="inlineStr"/>
-      <c r="AQ38" s="29" t="inlineStr"/>
-      <c r="AR38" s="30" t="inlineStr"/>
-      <c r="AS38" s="31" t="inlineStr"/>
-      <c r="AT38" s="17" t="inlineStr"/>
+      <c r="AN38" s="25" t="inlineStr"/>
+      <c r="AO38" s="26" t="inlineStr"/>
+      <c r="AP38" s="27" t="inlineStr"/>
+      <c r="AQ38" s="28" t="inlineStr"/>
+      <c r="AR38" s="29" t="inlineStr"/>
+      <c r="AS38" s="30" t="inlineStr"/>
+      <c r="AT38" s="31" t="inlineStr"/>
       <c r="AU38" s="17" t="inlineStr"/>
-      <c r="AV38" s="32" t="inlineStr"/>
-      <c r="AW38" s="18" t="inlineStr"/>
-      <c r="AX38" s="19" t="inlineStr"/>
+      <c r="AV38" s="17" t="inlineStr"/>
+      <c r="AW38" s="32" t="inlineStr"/>
+      <c r="AX38" s="18" t="inlineStr"/>
       <c r="AY38" s="19" t="inlineStr"/>
       <c r="AZ38" s="19" t="inlineStr"/>
       <c r="BA38" s="19" t="inlineStr"/>
@@ -5516,13 +5565,13 @@
       <c r="BD38" s="19" t="inlineStr"/>
       <c r="BE38" s="19" t="inlineStr"/>
       <c r="BF38" s="19" t="inlineStr"/>
-      <c r="BG38" s="33" t="inlineStr"/>
-      <c r="BH38" s="19" t="inlineStr"/>
-      <c r="BI38" s="20" t="inlineStr"/>
-      <c r="BJ38" s="21" t="inlineStr"/>
+      <c r="BG38" s="19" t="inlineStr"/>
+      <c r="BH38" s="33" t="inlineStr"/>
+      <c r="BI38" s="19" t="inlineStr"/>
+      <c r="BJ38" s="20" t="inlineStr"/>
       <c r="BK38" s="21" t="inlineStr"/>
-      <c r="BL38" s="23" t="inlineStr"/>
-      <c r="BM38" s="25" t="inlineStr"/>
+      <c r="BL38" s="21" t="inlineStr"/>
+      <c r="BM38" s="23" t="inlineStr"/>
       <c r="BN38" s="25" t="inlineStr"/>
       <c r="BO38" s="25" t="inlineStr"/>
       <c r="BP38" s="25" t="inlineStr"/>
@@ -5543,14 +5592,15 @@
       <c r="CE38" s="25" t="inlineStr"/>
       <c r="CF38" s="25" t="inlineStr"/>
       <c r="CG38" s="25" t="inlineStr"/>
-      <c r="CH38" s="26" t="inlineStr"/>
-      <c r="CI38" s="34" t="inlineStr"/>
+      <c r="CH38" s="25" t="inlineStr"/>
+      <c r="CI38" s="26" t="inlineStr"/>
       <c r="CJ38" s="34" t="inlineStr"/>
       <c r="CK38" s="34" t="inlineStr"/>
       <c r="CL38" s="34" t="inlineStr"/>
-      <c r="CM38" s="27" t="inlineStr"/>
-      <c r="CN38" s="28" t="inlineStr"/>
+      <c r="CM38" s="34" t="inlineStr"/>
+      <c r="CN38" s="27" t="inlineStr"/>
       <c r="CO38" s="28" t="inlineStr"/>
+      <c r="CP38" s="28" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -5578,31 +5628,31 @@
       <c r="W39" s="19" t="inlineStr"/>
       <c r="X39" s="19" t="inlineStr"/>
       <c r="Y39" s="19" t="inlineStr"/>
-      <c r="Z39" s="20" t="inlineStr"/>
-      <c r="AA39" s="21" t="inlineStr"/>
+      <c r="Z39" s="19" t="inlineStr"/>
+      <c r="AA39" s="20" t="inlineStr"/>
       <c r="AB39" s="21" t="inlineStr"/>
-      <c r="AC39" s="22" t="inlineStr"/>
+      <c r="AC39" s="21" t="inlineStr"/>
       <c r="AD39" s="22" t="inlineStr"/>
-      <c r="AE39" s="21" t="inlineStr"/>
-      <c r="AF39" s="23" t="inlineStr"/>
-      <c r="AG39" s="24" t="inlineStr"/>
+      <c r="AE39" s="22" t="inlineStr"/>
+      <c r="AF39" s="21" t="inlineStr"/>
+      <c r="AG39" s="23" t="inlineStr"/>
       <c r="AH39" s="24" t="inlineStr"/>
       <c r="AI39" s="24" t="inlineStr"/>
       <c r="AJ39" s="24" t="inlineStr"/>
-      <c r="AK39" s="25" t="inlineStr"/>
+      <c r="AK39" s="24" t="inlineStr"/>
       <c r="AL39" s="25" t="inlineStr"/>
       <c r="AM39" s="25" t="inlineStr"/>
-      <c r="AN39" s="26" t="inlineStr"/>
-      <c r="AO39" s="27" t="inlineStr"/>
-      <c r="AP39" s="28" t="inlineStr"/>
-      <c r="AQ39" s="29" t="inlineStr"/>
-      <c r="AR39" s="30" t="inlineStr"/>
-      <c r="AS39" s="31" t="inlineStr"/>
-      <c r="AT39" s="17" t="inlineStr"/>
+      <c r="AN39" s="25" t="inlineStr"/>
+      <c r="AO39" s="26" t="inlineStr"/>
+      <c r="AP39" s="27" t="inlineStr"/>
+      <c r="AQ39" s="28" t="inlineStr"/>
+      <c r="AR39" s="29" t="inlineStr"/>
+      <c r="AS39" s="30" t="inlineStr"/>
+      <c r="AT39" s="31" t="inlineStr"/>
       <c r="AU39" s="17" t="inlineStr"/>
-      <c r="AV39" s="32" t="inlineStr"/>
-      <c r="AW39" s="18" t="inlineStr"/>
-      <c r="AX39" s="19" t="inlineStr"/>
+      <c r="AV39" s="17" t="inlineStr"/>
+      <c r="AW39" s="32" t="inlineStr"/>
+      <c r="AX39" s="18" t="inlineStr"/>
       <c r="AY39" s="19" t="inlineStr"/>
       <c r="AZ39" s="19" t="inlineStr"/>
       <c r="BA39" s="19" t="inlineStr"/>
@@ -5611,13 +5661,13 @@
       <c r="BD39" s="19" t="inlineStr"/>
       <c r="BE39" s="19" t="inlineStr"/>
       <c r="BF39" s="19" t="inlineStr"/>
-      <c r="BG39" s="33" t="inlineStr"/>
-      <c r="BH39" s="19" t="inlineStr"/>
-      <c r="BI39" s="20" t="inlineStr"/>
-      <c r="BJ39" s="21" t="inlineStr"/>
+      <c r="BG39" s="19" t="inlineStr"/>
+      <c r="BH39" s="33" t="inlineStr"/>
+      <c r="BI39" s="19" t="inlineStr"/>
+      <c r="BJ39" s="20" t="inlineStr"/>
       <c r="BK39" s="21" t="inlineStr"/>
-      <c r="BL39" s="23" t="inlineStr"/>
-      <c r="BM39" s="25" t="inlineStr"/>
+      <c r="BL39" s="21" t="inlineStr"/>
+      <c r="BM39" s="23" t="inlineStr"/>
       <c r="BN39" s="25" t="inlineStr"/>
       <c r="BO39" s="25" t="inlineStr"/>
       <c r="BP39" s="25" t="inlineStr"/>
@@ -5638,14 +5688,15 @@
       <c r="CE39" s="25" t="inlineStr"/>
       <c r="CF39" s="25" t="inlineStr"/>
       <c r="CG39" s="25" t="inlineStr"/>
-      <c r="CH39" s="26" t="inlineStr"/>
-      <c r="CI39" s="34" t="inlineStr"/>
+      <c r="CH39" s="25" t="inlineStr"/>
+      <c r="CI39" s="26" t="inlineStr"/>
       <c r="CJ39" s="34" t="inlineStr"/>
       <c r="CK39" s="34" t="inlineStr"/>
       <c r="CL39" s="34" t="inlineStr"/>
-      <c r="CM39" s="27" t="inlineStr"/>
-      <c r="CN39" s="28" t="inlineStr"/>
+      <c r="CM39" s="34" t="inlineStr"/>
+      <c r="CN39" s="27" t="inlineStr"/>
       <c r="CO39" s="28" t="inlineStr"/>
+      <c r="CP39" s="28" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -5673,31 +5724,31 @@
       <c r="W40" s="19" t="inlineStr"/>
       <c r="X40" s="19" t="inlineStr"/>
       <c r="Y40" s="19" t="inlineStr"/>
-      <c r="Z40" s="20" t="inlineStr"/>
-      <c r="AA40" s="21" t="inlineStr"/>
+      <c r="Z40" s="19" t="inlineStr"/>
+      <c r="AA40" s="20" t="inlineStr"/>
       <c r="AB40" s="21" t="inlineStr"/>
-      <c r="AC40" s="22" t="inlineStr"/>
+      <c r="AC40" s="21" t="inlineStr"/>
       <c r="AD40" s="22" t="inlineStr"/>
-      <c r="AE40" s="21" t="inlineStr"/>
-      <c r="AF40" s="23" t="inlineStr"/>
-      <c r="AG40" s="24" t="inlineStr"/>
+      <c r="AE40" s="22" t="inlineStr"/>
+      <c r="AF40" s="21" t="inlineStr"/>
+      <c r="AG40" s="23" t="inlineStr"/>
       <c r="AH40" s="24" t="inlineStr"/>
       <c r="AI40" s="24" t="inlineStr"/>
       <c r="AJ40" s="24" t="inlineStr"/>
-      <c r="AK40" s="25" t="inlineStr"/>
+      <c r="AK40" s="24" t="inlineStr"/>
       <c r="AL40" s="25" t="inlineStr"/>
       <c r="AM40" s="25" t="inlineStr"/>
-      <c r="AN40" s="26" t="inlineStr"/>
-      <c r="AO40" s="27" t="inlineStr"/>
-      <c r="AP40" s="28" t="inlineStr"/>
-      <c r="AQ40" s="29" t="inlineStr"/>
-      <c r="AR40" s="30" t="inlineStr"/>
-      <c r="AS40" s="31" t="inlineStr"/>
-      <c r="AT40" s="17" t="inlineStr"/>
+      <c r="AN40" s="25" t="inlineStr"/>
+      <c r="AO40" s="26" t="inlineStr"/>
+      <c r="AP40" s="27" t="inlineStr"/>
+      <c r="AQ40" s="28" t="inlineStr"/>
+      <c r="AR40" s="29" t="inlineStr"/>
+      <c r="AS40" s="30" t="inlineStr"/>
+      <c r="AT40" s="31" t="inlineStr"/>
       <c r="AU40" s="17" t="inlineStr"/>
-      <c r="AV40" s="32" t="inlineStr"/>
-      <c r="AW40" s="18" t="inlineStr"/>
-      <c r="AX40" s="19" t="inlineStr"/>
+      <c r="AV40" s="17" t="inlineStr"/>
+      <c r="AW40" s="32" t="inlineStr"/>
+      <c r="AX40" s="18" t="inlineStr"/>
       <c r="AY40" s="19" t="inlineStr"/>
       <c r="AZ40" s="19" t="inlineStr"/>
       <c r="BA40" s="19" t="inlineStr"/>
@@ -5706,13 +5757,13 @@
       <c r="BD40" s="19" t="inlineStr"/>
       <c r="BE40" s="19" t="inlineStr"/>
       <c r="BF40" s="19" t="inlineStr"/>
-      <c r="BG40" s="33" t="inlineStr"/>
-      <c r="BH40" s="19" t="inlineStr"/>
-      <c r="BI40" s="20" t="inlineStr"/>
-      <c r="BJ40" s="21" t="inlineStr"/>
+      <c r="BG40" s="19" t="inlineStr"/>
+      <c r="BH40" s="33" t="inlineStr"/>
+      <c r="BI40" s="19" t="inlineStr"/>
+      <c r="BJ40" s="20" t="inlineStr"/>
       <c r="BK40" s="21" t="inlineStr"/>
-      <c r="BL40" s="23" t="inlineStr"/>
-      <c r="BM40" s="25" t="inlineStr"/>
+      <c r="BL40" s="21" t="inlineStr"/>
+      <c r="BM40" s="23" t="inlineStr"/>
       <c r="BN40" s="25" t="inlineStr"/>
       <c r="BO40" s="25" t="inlineStr"/>
       <c r="BP40" s="25" t="inlineStr"/>
@@ -5733,14 +5784,15 @@
       <c r="CE40" s="25" t="inlineStr"/>
       <c r="CF40" s="25" t="inlineStr"/>
       <c r="CG40" s="25" t="inlineStr"/>
-      <c r="CH40" s="26" t="inlineStr"/>
-      <c r="CI40" s="34" t="inlineStr"/>
+      <c r="CH40" s="25" t="inlineStr"/>
+      <c r="CI40" s="26" t="inlineStr"/>
       <c r="CJ40" s="34" t="inlineStr"/>
       <c r="CK40" s="34" t="inlineStr"/>
       <c r="CL40" s="34" t="inlineStr"/>
-      <c r="CM40" s="27" t="inlineStr"/>
-      <c r="CN40" s="28" t="inlineStr"/>
+      <c r="CM40" s="34" t="inlineStr"/>
+      <c r="CN40" s="27" t="inlineStr"/>
       <c r="CO40" s="28" t="inlineStr"/>
+      <c r="CP40" s="28" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -5768,31 +5820,31 @@
       <c r="W41" s="19" t="inlineStr"/>
       <c r="X41" s="19" t="inlineStr"/>
       <c r="Y41" s="19" t="inlineStr"/>
-      <c r="Z41" s="20" t="inlineStr"/>
-      <c r="AA41" s="21" t="inlineStr"/>
+      <c r="Z41" s="19" t="inlineStr"/>
+      <c r="AA41" s="20" t="inlineStr"/>
       <c r="AB41" s="21" t="inlineStr"/>
-      <c r="AC41" s="22" t="inlineStr"/>
+      <c r="AC41" s="21" t="inlineStr"/>
       <c r="AD41" s="22" t="inlineStr"/>
-      <c r="AE41" s="21" t="inlineStr"/>
-      <c r="AF41" s="23" t="inlineStr"/>
-      <c r="AG41" s="24" t="inlineStr"/>
+      <c r="AE41" s="22" t="inlineStr"/>
+      <c r="AF41" s="21" t="inlineStr"/>
+      <c r="AG41" s="23" t="inlineStr"/>
       <c r="AH41" s="24" t="inlineStr"/>
       <c r="AI41" s="24" t="inlineStr"/>
       <c r="AJ41" s="24" t="inlineStr"/>
-      <c r="AK41" s="25" t="inlineStr"/>
+      <c r="AK41" s="24" t="inlineStr"/>
       <c r="AL41" s="25" t="inlineStr"/>
       <c r="AM41" s="25" t="inlineStr"/>
-      <c r="AN41" s="26" t="inlineStr"/>
-      <c r="AO41" s="27" t="inlineStr"/>
-      <c r="AP41" s="28" t="inlineStr"/>
-      <c r="AQ41" s="29" t="inlineStr"/>
-      <c r="AR41" s="30" t="inlineStr"/>
-      <c r="AS41" s="31" t="inlineStr"/>
-      <c r="AT41" s="17" t="inlineStr"/>
+      <c r="AN41" s="25" t="inlineStr"/>
+      <c r="AO41" s="26" t="inlineStr"/>
+      <c r="AP41" s="27" t="inlineStr"/>
+      <c r="AQ41" s="28" t="inlineStr"/>
+      <c r="AR41" s="29" t="inlineStr"/>
+      <c r="AS41" s="30" t="inlineStr"/>
+      <c r="AT41" s="31" t="inlineStr"/>
       <c r="AU41" s="17" t="inlineStr"/>
-      <c r="AV41" s="32" t="inlineStr"/>
-      <c r="AW41" s="18" t="inlineStr"/>
-      <c r="AX41" s="19" t="inlineStr"/>
+      <c r="AV41" s="17" t="inlineStr"/>
+      <c r="AW41" s="32" t="inlineStr"/>
+      <c r="AX41" s="18" t="inlineStr"/>
       <c r="AY41" s="19" t="inlineStr"/>
       <c r="AZ41" s="19" t="inlineStr"/>
       <c r="BA41" s="19" t="inlineStr"/>
@@ -5801,13 +5853,13 @@
       <c r="BD41" s="19" t="inlineStr"/>
       <c r="BE41" s="19" t="inlineStr"/>
       <c r="BF41" s="19" t="inlineStr"/>
-      <c r="BG41" s="33" t="inlineStr"/>
-      <c r="BH41" s="19" t="inlineStr"/>
-      <c r="BI41" s="20" t="inlineStr"/>
-      <c r="BJ41" s="21" t="inlineStr"/>
+      <c r="BG41" s="19" t="inlineStr"/>
+      <c r="BH41" s="33" t="inlineStr"/>
+      <c r="BI41" s="19" t="inlineStr"/>
+      <c r="BJ41" s="20" t="inlineStr"/>
       <c r="BK41" s="21" t="inlineStr"/>
-      <c r="BL41" s="23" t="inlineStr"/>
-      <c r="BM41" s="25" t="inlineStr"/>
+      <c r="BL41" s="21" t="inlineStr"/>
+      <c r="BM41" s="23" t="inlineStr"/>
       <c r="BN41" s="25" t="inlineStr"/>
       <c r="BO41" s="25" t="inlineStr"/>
       <c r="BP41" s="25" t="inlineStr"/>
@@ -5828,14 +5880,15 @@
       <c r="CE41" s="25" t="inlineStr"/>
       <c r="CF41" s="25" t="inlineStr"/>
       <c r="CG41" s="25" t="inlineStr"/>
-      <c r="CH41" s="26" t="inlineStr"/>
-      <c r="CI41" s="34" t="inlineStr"/>
+      <c r="CH41" s="25" t="inlineStr"/>
+      <c r="CI41" s="26" t="inlineStr"/>
       <c r="CJ41" s="34" t="inlineStr"/>
       <c r="CK41" s="34" t="inlineStr"/>
       <c r="CL41" s="34" t="inlineStr"/>
-      <c r="CM41" s="27" t="inlineStr"/>
-      <c r="CN41" s="28" t="inlineStr"/>
+      <c r="CM41" s="34" t="inlineStr"/>
+      <c r="CN41" s="27" t="inlineStr"/>
       <c r="CO41" s="28" t="inlineStr"/>
+      <c r="CP41" s="28" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5863,31 +5916,31 @@
       <c r="W42" s="19" t="inlineStr"/>
       <c r="X42" s="19" t="inlineStr"/>
       <c r="Y42" s="19" t="inlineStr"/>
-      <c r="Z42" s="20" t="inlineStr"/>
-      <c r="AA42" s="21" t="inlineStr"/>
+      <c r="Z42" s="19" t="inlineStr"/>
+      <c r="AA42" s="20" t="inlineStr"/>
       <c r="AB42" s="21" t="inlineStr"/>
-      <c r="AC42" s="22" t="inlineStr"/>
+      <c r="AC42" s="21" t="inlineStr"/>
       <c r="AD42" s="22" t="inlineStr"/>
-      <c r="AE42" s="21" t="inlineStr"/>
-      <c r="AF42" s="23" t="inlineStr"/>
-      <c r="AG42" s="24" t="inlineStr"/>
+      <c r="AE42" s="22" t="inlineStr"/>
+      <c r="AF42" s="21" t="inlineStr"/>
+      <c r="AG42" s="23" t="inlineStr"/>
       <c r="AH42" s="24" t="inlineStr"/>
       <c r="AI42" s="24" t="inlineStr"/>
       <c r="AJ42" s="24" t="inlineStr"/>
-      <c r="AK42" s="25" t="inlineStr"/>
+      <c r="AK42" s="24" t="inlineStr"/>
       <c r="AL42" s="25" t="inlineStr"/>
       <c r="AM42" s="25" t="inlineStr"/>
-      <c r="AN42" s="26" t="inlineStr"/>
-      <c r="AO42" s="27" t="inlineStr"/>
-      <c r="AP42" s="28" t="inlineStr"/>
-      <c r="AQ42" s="29" t="inlineStr"/>
-      <c r="AR42" s="30" t="inlineStr"/>
-      <c r="AS42" s="31" t="inlineStr"/>
-      <c r="AT42" s="17" t="inlineStr"/>
+      <c r="AN42" s="25" t="inlineStr"/>
+      <c r="AO42" s="26" t="inlineStr"/>
+      <c r="AP42" s="27" t="inlineStr"/>
+      <c r="AQ42" s="28" t="inlineStr"/>
+      <c r="AR42" s="29" t="inlineStr"/>
+      <c r="AS42" s="30" t="inlineStr"/>
+      <c r="AT42" s="31" t="inlineStr"/>
       <c r="AU42" s="17" t="inlineStr"/>
-      <c r="AV42" s="32" t="inlineStr"/>
-      <c r="AW42" s="18" t="inlineStr"/>
-      <c r="AX42" s="19" t="inlineStr"/>
+      <c r="AV42" s="17" t="inlineStr"/>
+      <c r="AW42" s="32" t="inlineStr"/>
+      <c r="AX42" s="18" t="inlineStr"/>
       <c r="AY42" s="19" t="inlineStr"/>
       <c r="AZ42" s="19" t="inlineStr"/>
       <c r="BA42" s="19" t="inlineStr"/>
@@ -5896,13 +5949,13 @@
       <c r="BD42" s="19" t="inlineStr"/>
       <c r="BE42" s="19" t="inlineStr"/>
       <c r="BF42" s="19" t="inlineStr"/>
-      <c r="BG42" s="33" t="inlineStr"/>
-      <c r="BH42" s="19" t="inlineStr"/>
-      <c r="BI42" s="20" t="inlineStr"/>
-      <c r="BJ42" s="21" t="inlineStr"/>
+      <c r="BG42" s="19" t="inlineStr"/>
+      <c r="BH42" s="33" t="inlineStr"/>
+      <c r="BI42" s="19" t="inlineStr"/>
+      <c r="BJ42" s="20" t="inlineStr"/>
       <c r="BK42" s="21" t="inlineStr"/>
-      <c r="BL42" s="23" t="inlineStr"/>
-      <c r="BM42" s="25" t="inlineStr"/>
+      <c r="BL42" s="21" t="inlineStr"/>
+      <c r="BM42" s="23" t="inlineStr"/>
       <c r="BN42" s="25" t="inlineStr"/>
       <c r="BO42" s="25" t="inlineStr"/>
       <c r="BP42" s="25" t="inlineStr"/>
@@ -5923,14 +5976,15 @@
       <c r="CE42" s="25" t="inlineStr"/>
       <c r="CF42" s="25" t="inlineStr"/>
       <c r="CG42" s="25" t="inlineStr"/>
-      <c r="CH42" s="26" t="inlineStr"/>
-      <c r="CI42" s="34" t="inlineStr"/>
+      <c r="CH42" s="25" t="inlineStr"/>
+      <c r="CI42" s="26" t="inlineStr"/>
       <c r="CJ42" s="34" t="inlineStr"/>
       <c r="CK42" s="34" t="inlineStr"/>
       <c r="CL42" s="34" t="inlineStr"/>
-      <c r="CM42" s="27" t="inlineStr"/>
-      <c r="CN42" s="28" t="inlineStr"/>
+      <c r="CM42" s="34" t="inlineStr"/>
+      <c r="CN42" s="27" t="inlineStr"/>
       <c r="CO42" s="28" t="inlineStr"/>
+      <c r="CP42" s="28" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5958,31 +6012,31 @@
       <c r="W43" s="19" t="inlineStr"/>
       <c r="X43" s="19" t="inlineStr"/>
       <c r="Y43" s="19" t="inlineStr"/>
-      <c r="Z43" s="20" t="inlineStr"/>
-      <c r="AA43" s="21" t="inlineStr"/>
+      <c r="Z43" s="19" t="inlineStr"/>
+      <c r="AA43" s="20" t="inlineStr"/>
       <c r="AB43" s="21" t="inlineStr"/>
-      <c r="AC43" s="22" t="inlineStr"/>
+      <c r="AC43" s="21" t="inlineStr"/>
       <c r="AD43" s="22" t="inlineStr"/>
-      <c r="AE43" s="21" t="inlineStr"/>
-      <c r="AF43" s="23" t="inlineStr"/>
-      <c r="AG43" s="24" t="inlineStr"/>
+      <c r="AE43" s="22" t="inlineStr"/>
+      <c r="AF43" s="21" t="inlineStr"/>
+      <c r="AG43" s="23" t="inlineStr"/>
       <c r="AH43" s="24" t="inlineStr"/>
       <c r="AI43" s="24" t="inlineStr"/>
       <c r="AJ43" s="24" t="inlineStr"/>
-      <c r="AK43" s="25" t="inlineStr"/>
+      <c r="AK43" s="24" t="inlineStr"/>
       <c r="AL43" s="25" t="inlineStr"/>
       <c r="AM43" s="25" t="inlineStr"/>
-      <c r="AN43" s="26" t="inlineStr"/>
-      <c r="AO43" s="27" t="inlineStr"/>
-      <c r="AP43" s="28" t="inlineStr"/>
-      <c r="AQ43" s="29" t="inlineStr"/>
-      <c r="AR43" s="30" t="inlineStr"/>
-      <c r="AS43" s="31" t="inlineStr"/>
-      <c r="AT43" s="17" t="inlineStr"/>
+      <c r="AN43" s="25" t="inlineStr"/>
+      <c r="AO43" s="26" t="inlineStr"/>
+      <c r="AP43" s="27" t="inlineStr"/>
+      <c r="AQ43" s="28" t="inlineStr"/>
+      <c r="AR43" s="29" t="inlineStr"/>
+      <c r="AS43" s="30" t="inlineStr"/>
+      <c r="AT43" s="31" t="inlineStr"/>
       <c r="AU43" s="17" t="inlineStr"/>
-      <c r="AV43" s="32" t="inlineStr"/>
-      <c r="AW43" s="18" t="inlineStr"/>
-      <c r="AX43" s="19" t="inlineStr"/>
+      <c r="AV43" s="17" t="inlineStr"/>
+      <c r="AW43" s="32" t="inlineStr"/>
+      <c r="AX43" s="18" t="inlineStr"/>
       <c r="AY43" s="19" t="inlineStr"/>
       <c r="AZ43" s="19" t="inlineStr"/>
       <c r="BA43" s="19" t="inlineStr"/>
@@ -5991,13 +6045,13 @@
       <c r="BD43" s="19" t="inlineStr"/>
       <c r="BE43" s="19" t="inlineStr"/>
       <c r="BF43" s="19" t="inlineStr"/>
-      <c r="BG43" s="33" t="inlineStr"/>
-      <c r="BH43" s="19" t="inlineStr"/>
-      <c r="BI43" s="20" t="inlineStr"/>
-      <c r="BJ43" s="21" t="inlineStr"/>
+      <c r="BG43" s="19" t="inlineStr"/>
+      <c r="BH43" s="33" t="inlineStr"/>
+      <c r="BI43" s="19" t="inlineStr"/>
+      <c r="BJ43" s="20" t="inlineStr"/>
       <c r="BK43" s="21" t="inlineStr"/>
-      <c r="BL43" s="23" t="inlineStr"/>
-      <c r="BM43" s="25" t="inlineStr"/>
+      <c r="BL43" s="21" t="inlineStr"/>
+      <c r="BM43" s="23" t="inlineStr"/>
       <c r="BN43" s="25" t="inlineStr"/>
       <c r="BO43" s="25" t="inlineStr"/>
       <c r="BP43" s="25" t="inlineStr"/>
@@ -6018,14 +6072,15 @@
       <c r="CE43" s="25" t="inlineStr"/>
       <c r="CF43" s="25" t="inlineStr"/>
       <c r="CG43" s="25" t="inlineStr"/>
-      <c r="CH43" s="26" t="inlineStr"/>
-      <c r="CI43" s="34" t="inlineStr"/>
+      <c r="CH43" s="25" t="inlineStr"/>
+      <c r="CI43" s="26" t="inlineStr"/>
       <c r="CJ43" s="34" t="inlineStr"/>
       <c r="CK43" s="34" t="inlineStr"/>
       <c r="CL43" s="34" t="inlineStr"/>
-      <c r="CM43" s="27" t="inlineStr"/>
-      <c r="CN43" s="28" t="inlineStr"/>
+      <c r="CM43" s="34" t="inlineStr"/>
+      <c r="CN43" s="27" t="inlineStr"/>
       <c r="CO43" s="28" t="inlineStr"/>
+      <c r="CP43" s="28" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -6053,31 +6108,31 @@
       <c r="W44" s="19" t="inlineStr"/>
       <c r="X44" s="19" t="inlineStr"/>
       <c r="Y44" s="19" t="inlineStr"/>
-      <c r="Z44" s="20" t="inlineStr"/>
-      <c r="AA44" s="21" t="inlineStr"/>
+      <c r="Z44" s="19" t="inlineStr"/>
+      <c r="AA44" s="20" t="inlineStr"/>
       <c r="AB44" s="21" t="inlineStr"/>
-      <c r="AC44" s="22" t="inlineStr"/>
+      <c r="AC44" s="21" t="inlineStr"/>
       <c r="AD44" s="22" t="inlineStr"/>
-      <c r="AE44" s="21" t="inlineStr"/>
-      <c r="AF44" s="23" t="inlineStr"/>
-      <c r="AG44" s="24" t="inlineStr"/>
+      <c r="AE44" s="22" t="inlineStr"/>
+      <c r="AF44" s="21" t="inlineStr"/>
+      <c r="AG44" s="23" t="inlineStr"/>
       <c r="AH44" s="24" t="inlineStr"/>
       <c r="AI44" s="24" t="inlineStr"/>
       <c r="AJ44" s="24" t="inlineStr"/>
-      <c r="AK44" s="25" t="inlineStr"/>
+      <c r="AK44" s="24" t="inlineStr"/>
       <c r="AL44" s="25" t="inlineStr"/>
       <c r="AM44" s="25" t="inlineStr"/>
-      <c r="AN44" s="26" t="inlineStr"/>
-      <c r="AO44" s="27" t="inlineStr"/>
-      <c r="AP44" s="28" t="inlineStr"/>
-      <c r="AQ44" s="29" t="inlineStr"/>
-      <c r="AR44" s="30" t="inlineStr"/>
-      <c r="AS44" s="31" t="inlineStr"/>
-      <c r="AT44" s="17" t="inlineStr"/>
+      <c r="AN44" s="25" t="inlineStr"/>
+      <c r="AO44" s="26" t="inlineStr"/>
+      <c r="AP44" s="27" t="inlineStr"/>
+      <c r="AQ44" s="28" t="inlineStr"/>
+      <c r="AR44" s="29" t="inlineStr"/>
+      <c r="AS44" s="30" t="inlineStr"/>
+      <c r="AT44" s="31" t="inlineStr"/>
       <c r="AU44" s="17" t="inlineStr"/>
-      <c r="AV44" s="32" t="inlineStr"/>
-      <c r="AW44" s="18" t="inlineStr"/>
-      <c r="AX44" s="19" t="inlineStr"/>
+      <c r="AV44" s="17" t="inlineStr"/>
+      <c r="AW44" s="32" t="inlineStr"/>
+      <c r="AX44" s="18" t="inlineStr"/>
       <c r="AY44" s="19" t="inlineStr"/>
       <c r="AZ44" s="19" t="inlineStr"/>
       <c r="BA44" s="19" t="inlineStr"/>
@@ -6086,13 +6141,13 @@
       <c r="BD44" s="19" t="inlineStr"/>
       <c r="BE44" s="19" t="inlineStr"/>
       <c r="BF44" s="19" t="inlineStr"/>
-      <c r="BG44" s="33" t="inlineStr"/>
-      <c r="BH44" s="19" t="inlineStr"/>
-      <c r="BI44" s="20" t="inlineStr"/>
-      <c r="BJ44" s="21" t="inlineStr"/>
+      <c r="BG44" s="19" t="inlineStr"/>
+      <c r="BH44" s="33" t="inlineStr"/>
+      <c r="BI44" s="19" t="inlineStr"/>
+      <c r="BJ44" s="20" t="inlineStr"/>
       <c r="BK44" s="21" t="inlineStr"/>
-      <c r="BL44" s="23" t="inlineStr"/>
-      <c r="BM44" s="25" t="inlineStr"/>
+      <c r="BL44" s="21" t="inlineStr"/>
+      <c r="BM44" s="23" t="inlineStr"/>
       <c r="BN44" s="25" t="inlineStr"/>
       <c r="BO44" s="25" t="inlineStr"/>
       <c r="BP44" s="25" t="inlineStr"/>
@@ -6113,14 +6168,15 @@
       <c r="CE44" s="25" t="inlineStr"/>
       <c r="CF44" s="25" t="inlineStr"/>
       <c r="CG44" s="25" t="inlineStr"/>
-      <c r="CH44" s="26" t="inlineStr"/>
-      <c r="CI44" s="34" t="inlineStr"/>
+      <c r="CH44" s="25" t="inlineStr"/>
+      <c r="CI44" s="26" t="inlineStr"/>
       <c r="CJ44" s="34" t="inlineStr"/>
       <c r="CK44" s="34" t="inlineStr"/>
       <c r="CL44" s="34" t="inlineStr"/>
-      <c r="CM44" s="27" t="inlineStr"/>
-      <c r="CN44" s="28" t="inlineStr"/>
+      <c r="CM44" s="34" t="inlineStr"/>
+      <c r="CN44" s="27" t="inlineStr"/>
       <c r="CO44" s="28" t="inlineStr"/>
+      <c r="CP44" s="28" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -6148,31 +6204,31 @@
       <c r="W45" s="19" t="inlineStr"/>
       <c r="X45" s="19" t="inlineStr"/>
       <c r="Y45" s="19" t="inlineStr"/>
-      <c r="Z45" s="20" t="inlineStr"/>
-      <c r="AA45" s="21" t="inlineStr"/>
+      <c r="Z45" s="19" t="inlineStr"/>
+      <c r="AA45" s="20" t="inlineStr"/>
       <c r="AB45" s="21" t="inlineStr"/>
-      <c r="AC45" s="22" t="inlineStr"/>
+      <c r="AC45" s="21" t="inlineStr"/>
       <c r="AD45" s="22" t="inlineStr"/>
-      <c r="AE45" s="21" t="inlineStr"/>
-      <c r="AF45" s="23" t="inlineStr"/>
-      <c r="AG45" s="24" t="inlineStr"/>
+      <c r="AE45" s="22" t="inlineStr"/>
+      <c r="AF45" s="21" t="inlineStr"/>
+      <c r="AG45" s="23" t="inlineStr"/>
       <c r="AH45" s="24" t="inlineStr"/>
       <c r="AI45" s="24" t="inlineStr"/>
       <c r="AJ45" s="24" t="inlineStr"/>
-      <c r="AK45" s="25" t="inlineStr"/>
+      <c r="AK45" s="24" t="inlineStr"/>
       <c r="AL45" s="25" t="inlineStr"/>
       <c r="AM45" s="25" t="inlineStr"/>
-      <c r="AN45" s="26" t="inlineStr"/>
-      <c r="AO45" s="27" t="inlineStr"/>
-      <c r="AP45" s="28" t="inlineStr"/>
-      <c r="AQ45" s="29" t="inlineStr"/>
-      <c r="AR45" s="30" t="inlineStr"/>
-      <c r="AS45" s="31" t="inlineStr"/>
-      <c r="AT45" s="17" t="inlineStr"/>
+      <c r="AN45" s="25" t="inlineStr"/>
+      <c r="AO45" s="26" t="inlineStr"/>
+      <c r="AP45" s="27" t="inlineStr"/>
+      <c r="AQ45" s="28" t="inlineStr"/>
+      <c r="AR45" s="29" t="inlineStr"/>
+      <c r="AS45" s="30" t="inlineStr"/>
+      <c r="AT45" s="31" t="inlineStr"/>
       <c r="AU45" s="17" t="inlineStr"/>
-      <c r="AV45" s="32" t="inlineStr"/>
-      <c r="AW45" s="18" t="inlineStr"/>
-      <c r="AX45" s="19" t="inlineStr"/>
+      <c r="AV45" s="17" t="inlineStr"/>
+      <c r="AW45" s="32" t="inlineStr"/>
+      <c r="AX45" s="18" t="inlineStr"/>
       <c r="AY45" s="19" t="inlineStr"/>
       <c r="AZ45" s="19" t="inlineStr"/>
       <c r="BA45" s="19" t="inlineStr"/>
@@ -6181,13 +6237,13 @@
       <c r="BD45" s="19" t="inlineStr"/>
       <c r="BE45" s="19" t="inlineStr"/>
       <c r="BF45" s="19" t="inlineStr"/>
-      <c r="BG45" s="33" t="inlineStr"/>
-      <c r="BH45" s="19" t="inlineStr"/>
-      <c r="BI45" s="20" t="inlineStr"/>
-      <c r="BJ45" s="21" t="inlineStr"/>
+      <c r="BG45" s="19" t="inlineStr"/>
+      <c r="BH45" s="33" t="inlineStr"/>
+      <c r="BI45" s="19" t="inlineStr"/>
+      <c r="BJ45" s="20" t="inlineStr"/>
       <c r="BK45" s="21" t="inlineStr"/>
-      <c r="BL45" s="23" t="inlineStr"/>
-      <c r="BM45" s="25" t="inlineStr"/>
+      <c r="BL45" s="21" t="inlineStr"/>
+      <c r="BM45" s="23" t="inlineStr"/>
       <c r="BN45" s="25" t="inlineStr"/>
       <c r="BO45" s="25" t="inlineStr"/>
       <c r="BP45" s="25" t="inlineStr"/>
@@ -6208,14 +6264,15 @@
       <c r="CE45" s="25" t="inlineStr"/>
       <c r="CF45" s="25" t="inlineStr"/>
       <c r="CG45" s="25" t="inlineStr"/>
-      <c r="CH45" s="26" t="inlineStr"/>
-      <c r="CI45" s="34" t="inlineStr"/>
+      <c r="CH45" s="25" t="inlineStr"/>
+      <c r="CI45" s="26" t="inlineStr"/>
       <c r="CJ45" s="34" t="inlineStr"/>
       <c r="CK45" s="34" t="inlineStr"/>
       <c r="CL45" s="34" t="inlineStr"/>
-      <c r="CM45" s="27" t="inlineStr"/>
-      <c r="CN45" s="28" t="inlineStr"/>
+      <c r="CM45" s="34" t="inlineStr"/>
+      <c r="CN45" s="27" t="inlineStr"/>
       <c r="CO45" s="28" t="inlineStr"/>
+      <c r="CP45" s="28" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -6243,31 +6300,31 @@
       <c r="W46" s="19" t="inlineStr"/>
       <c r="X46" s="19" t="inlineStr"/>
       <c r="Y46" s="19" t="inlineStr"/>
-      <c r="Z46" s="20" t="inlineStr"/>
-      <c r="AA46" s="21" t="inlineStr"/>
+      <c r="Z46" s="19" t="inlineStr"/>
+      <c r="AA46" s="20" t="inlineStr"/>
       <c r="AB46" s="21" t="inlineStr"/>
-      <c r="AC46" s="22" t="inlineStr"/>
+      <c r="AC46" s="21" t="inlineStr"/>
       <c r="AD46" s="22" t="inlineStr"/>
-      <c r="AE46" s="21" t="inlineStr"/>
-      <c r="AF46" s="23" t="inlineStr"/>
-      <c r="AG46" s="24" t="inlineStr"/>
+      <c r="AE46" s="22" t="inlineStr"/>
+      <c r="AF46" s="21" t="inlineStr"/>
+      <c r="AG46" s="23" t="inlineStr"/>
       <c r="AH46" s="24" t="inlineStr"/>
       <c r="AI46" s="24" t="inlineStr"/>
       <c r="AJ46" s="24" t="inlineStr"/>
-      <c r="AK46" s="25" t="inlineStr"/>
+      <c r="AK46" s="24" t="inlineStr"/>
       <c r="AL46" s="25" t="inlineStr"/>
       <c r="AM46" s="25" t="inlineStr"/>
-      <c r="AN46" s="26" t="inlineStr"/>
-      <c r="AO46" s="27" t="inlineStr"/>
-      <c r="AP46" s="28" t="inlineStr"/>
-      <c r="AQ46" s="29" t="inlineStr"/>
-      <c r="AR46" s="30" t="inlineStr"/>
-      <c r="AS46" s="31" t="inlineStr"/>
-      <c r="AT46" s="17" t="inlineStr"/>
+      <c r="AN46" s="25" t="inlineStr"/>
+      <c r="AO46" s="26" t="inlineStr"/>
+      <c r="AP46" s="27" t="inlineStr"/>
+      <c r="AQ46" s="28" t="inlineStr"/>
+      <c r="AR46" s="29" t="inlineStr"/>
+      <c r="AS46" s="30" t="inlineStr"/>
+      <c r="AT46" s="31" t="inlineStr"/>
       <c r="AU46" s="17" t="inlineStr"/>
-      <c r="AV46" s="32" t="inlineStr"/>
-      <c r="AW46" s="18" t="inlineStr"/>
-      <c r="AX46" s="19" t="inlineStr"/>
+      <c r="AV46" s="17" t="inlineStr"/>
+      <c r="AW46" s="32" t="inlineStr"/>
+      <c r="AX46" s="18" t="inlineStr"/>
       <c r="AY46" s="19" t="inlineStr"/>
       <c r="AZ46" s="19" t="inlineStr"/>
       <c r="BA46" s="19" t="inlineStr"/>
@@ -6276,13 +6333,13 @@
       <c r="BD46" s="19" t="inlineStr"/>
       <c r="BE46" s="19" t="inlineStr"/>
       <c r="BF46" s="19" t="inlineStr"/>
-      <c r="BG46" s="33" t="inlineStr"/>
-      <c r="BH46" s="19" t="inlineStr"/>
-      <c r="BI46" s="20" t="inlineStr"/>
-      <c r="BJ46" s="21" t="inlineStr"/>
+      <c r="BG46" s="19" t="inlineStr"/>
+      <c r="BH46" s="33" t="inlineStr"/>
+      <c r="BI46" s="19" t="inlineStr"/>
+      <c r="BJ46" s="20" t="inlineStr"/>
       <c r="BK46" s="21" t="inlineStr"/>
-      <c r="BL46" s="23" t="inlineStr"/>
-      <c r="BM46" s="25" t="inlineStr"/>
+      <c r="BL46" s="21" t="inlineStr"/>
+      <c r="BM46" s="23" t="inlineStr"/>
       <c r="BN46" s="25" t="inlineStr"/>
       <c r="BO46" s="25" t="inlineStr"/>
       <c r="BP46" s="25" t="inlineStr"/>
@@ -6303,14 +6360,15 @@
       <c r="CE46" s="25" t="inlineStr"/>
       <c r="CF46" s="25" t="inlineStr"/>
       <c r="CG46" s="25" t="inlineStr"/>
-      <c r="CH46" s="26" t="inlineStr"/>
-      <c r="CI46" s="34" t="inlineStr"/>
+      <c r="CH46" s="25" t="inlineStr"/>
+      <c r="CI46" s="26" t="inlineStr"/>
       <c r="CJ46" s="34" t="inlineStr"/>
       <c r="CK46" s="34" t="inlineStr"/>
       <c r="CL46" s="34" t="inlineStr"/>
-      <c r="CM46" s="27" t="inlineStr"/>
-      <c r="CN46" s="28" t="inlineStr"/>
+      <c r="CM46" s="34" t="inlineStr"/>
+      <c r="CN46" s="27" t="inlineStr"/>
       <c r="CO46" s="28" t="inlineStr"/>
+      <c r="CP46" s="28" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -6338,31 +6396,31 @@
       <c r="W47" s="19" t="inlineStr"/>
       <c r="X47" s="19" t="inlineStr"/>
       <c r="Y47" s="19" t="inlineStr"/>
-      <c r="Z47" s="20" t="inlineStr"/>
-      <c r="AA47" s="21" t="inlineStr"/>
+      <c r="Z47" s="19" t="inlineStr"/>
+      <c r="AA47" s="20" t="inlineStr"/>
       <c r="AB47" s="21" t="inlineStr"/>
-      <c r="AC47" s="22" t="inlineStr"/>
+      <c r="AC47" s="21" t="inlineStr"/>
       <c r="AD47" s="22" t="inlineStr"/>
-      <c r="AE47" s="21" t="inlineStr"/>
-      <c r="AF47" s="23" t="inlineStr"/>
-      <c r="AG47" s="24" t="inlineStr"/>
+      <c r="AE47" s="22" t="inlineStr"/>
+      <c r="AF47" s="21" t="inlineStr"/>
+      <c r="AG47" s="23" t="inlineStr"/>
       <c r="AH47" s="24" t="inlineStr"/>
       <c r="AI47" s="24" t="inlineStr"/>
       <c r="AJ47" s="24" t="inlineStr"/>
-      <c r="AK47" s="25" t="inlineStr"/>
+      <c r="AK47" s="24" t="inlineStr"/>
       <c r="AL47" s="25" t="inlineStr"/>
       <c r="AM47" s="25" t="inlineStr"/>
-      <c r="AN47" s="26" t="inlineStr"/>
-      <c r="AO47" s="27" t="inlineStr"/>
-      <c r="AP47" s="28" t="inlineStr"/>
-      <c r="AQ47" s="29" t="inlineStr"/>
-      <c r="AR47" s="30" t="inlineStr"/>
-      <c r="AS47" s="31" t="inlineStr"/>
-      <c r="AT47" s="17" t="inlineStr"/>
+      <c r="AN47" s="25" t="inlineStr"/>
+      <c r="AO47" s="26" t="inlineStr"/>
+      <c r="AP47" s="27" t="inlineStr"/>
+      <c r="AQ47" s="28" t="inlineStr"/>
+      <c r="AR47" s="29" t="inlineStr"/>
+      <c r="AS47" s="30" t="inlineStr"/>
+      <c r="AT47" s="31" t="inlineStr"/>
       <c r="AU47" s="17" t="inlineStr"/>
-      <c r="AV47" s="32" t="inlineStr"/>
-      <c r="AW47" s="18" t="inlineStr"/>
-      <c r="AX47" s="19" t="inlineStr"/>
+      <c r="AV47" s="17" t="inlineStr"/>
+      <c r="AW47" s="32" t="inlineStr"/>
+      <c r="AX47" s="18" t="inlineStr"/>
       <c r="AY47" s="19" t="inlineStr"/>
       <c r="AZ47" s="19" t="inlineStr"/>
       <c r="BA47" s="19" t="inlineStr"/>
@@ -6371,13 +6429,13 @@
       <c r="BD47" s="19" t="inlineStr"/>
       <c r="BE47" s="19" t="inlineStr"/>
       <c r="BF47" s="19" t="inlineStr"/>
-      <c r="BG47" s="33" t="inlineStr"/>
-      <c r="BH47" s="19" t="inlineStr"/>
-      <c r="BI47" s="20" t="inlineStr"/>
-      <c r="BJ47" s="21" t="inlineStr"/>
+      <c r="BG47" s="19" t="inlineStr"/>
+      <c r="BH47" s="33" t="inlineStr"/>
+      <c r="BI47" s="19" t="inlineStr"/>
+      <c r="BJ47" s="20" t="inlineStr"/>
       <c r="BK47" s="21" t="inlineStr"/>
-      <c r="BL47" s="23" t="inlineStr"/>
-      <c r="BM47" s="25" t="inlineStr"/>
+      <c r="BL47" s="21" t="inlineStr"/>
+      <c r="BM47" s="23" t="inlineStr"/>
       <c r="BN47" s="25" t="inlineStr"/>
       <c r="BO47" s="25" t="inlineStr"/>
       <c r="BP47" s="25" t="inlineStr"/>
@@ -6398,14 +6456,15 @@
       <c r="CE47" s="25" t="inlineStr"/>
       <c r="CF47" s="25" t="inlineStr"/>
       <c r="CG47" s="25" t="inlineStr"/>
-      <c r="CH47" s="26" t="inlineStr"/>
-      <c r="CI47" s="34" t="inlineStr"/>
+      <c r="CH47" s="25" t="inlineStr"/>
+      <c r="CI47" s="26" t="inlineStr"/>
       <c r="CJ47" s="34" t="inlineStr"/>
       <c r="CK47" s="34" t="inlineStr"/>
       <c r="CL47" s="34" t="inlineStr"/>
-      <c r="CM47" s="27" t="inlineStr"/>
-      <c r="CN47" s="28" t="inlineStr"/>
+      <c r="CM47" s="34" t="inlineStr"/>
+      <c r="CN47" s="27" t="inlineStr"/>
       <c r="CO47" s="28" t="inlineStr"/>
+      <c r="CP47" s="28" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -6433,31 +6492,31 @@
       <c r="W48" s="19" t="inlineStr"/>
       <c r="X48" s="19" t="inlineStr"/>
       <c r="Y48" s="19" t="inlineStr"/>
-      <c r="Z48" s="20" t="inlineStr"/>
-      <c r="AA48" s="21" t="inlineStr"/>
+      <c r="Z48" s="19" t="inlineStr"/>
+      <c r="AA48" s="20" t="inlineStr"/>
       <c r="AB48" s="21" t="inlineStr"/>
-      <c r="AC48" s="22" t="inlineStr"/>
+      <c r="AC48" s="21" t="inlineStr"/>
       <c r="AD48" s="22" t="inlineStr"/>
-      <c r="AE48" s="21" t="inlineStr"/>
-      <c r="AF48" s="23" t="inlineStr"/>
-      <c r="AG48" s="24" t="inlineStr"/>
+      <c r="AE48" s="22" t="inlineStr"/>
+      <c r="AF48" s="21" t="inlineStr"/>
+      <c r="AG48" s="23" t="inlineStr"/>
       <c r="AH48" s="24" t="inlineStr"/>
       <c r="AI48" s="24" t="inlineStr"/>
       <c r="AJ48" s="24" t="inlineStr"/>
-      <c r="AK48" s="25" t="inlineStr"/>
+      <c r="AK48" s="24" t="inlineStr"/>
       <c r="AL48" s="25" t="inlineStr"/>
       <c r="AM48" s="25" t="inlineStr"/>
-      <c r="AN48" s="26" t="inlineStr"/>
-      <c r="AO48" s="27" t="inlineStr"/>
-      <c r="AP48" s="28" t="inlineStr"/>
-      <c r="AQ48" s="29" t="inlineStr"/>
-      <c r="AR48" s="30" t="inlineStr"/>
-      <c r="AS48" s="31" t="inlineStr"/>
-      <c r="AT48" s="17" t="inlineStr"/>
+      <c r="AN48" s="25" t="inlineStr"/>
+      <c r="AO48" s="26" t="inlineStr"/>
+      <c r="AP48" s="27" t="inlineStr"/>
+      <c r="AQ48" s="28" t="inlineStr"/>
+      <c r="AR48" s="29" t="inlineStr"/>
+      <c r="AS48" s="30" t="inlineStr"/>
+      <c r="AT48" s="31" t="inlineStr"/>
       <c r="AU48" s="17" t="inlineStr"/>
-      <c r="AV48" s="32" t="inlineStr"/>
-      <c r="AW48" s="18" t="inlineStr"/>
-      <c r="AX48" s="19" t="inlineStr"/>
+      <c r="AV48" s="17" t="inlineStr"/>
+      <c r="AW48" s="32" t="inlineStr"/>
+      <c r="AX48" s="18" t="inlineStr"/>
       <c r="AY48" s="19" t="inlineStr"/>
       <c r="AZ48" s="19" t="inlineStr"/>
       <c r="BA48" s="19" t="inlineStr"/>
@@ -6466,13 +6525,13 @@
       <c r="BD48" s="19" t="inlineStr"/>
       <c r="BE48" s="19" t="inlineStr"/>
       <c r="BF48" s="19" t="inlineStr"/>
-      <c r="BG48" s="33" t="inlineStr"/>
-      <c r="BH48" s="19" t="inlineStr"/>
-      <c r="BI48" s="20" t="inlineStr"/>
-      <c r="BJ48" s="21" t="inlineStr"/>
+      <c r="BG48" s="19" t="inlineStr"/>
+      <c r="BH48" s="33" t="inlineStr"/>
+      <c r="BI48" s="19" t="inlineStr"/>
+      <c r="BJ48" s="20" t="inlineStr"/>
       <c r="BK48" s="21" t="inlineStr"/>
-      <c r="BL48" s="23" t="inlineStr"/>
-      <c r="BM48" s="25" t="inlineStr"/>
+      <c r="BL48" s="21" t="inlineStr"/>
+      <c r="BM48" s="23" t="inlineStr"/>
       <c r="BN48" s="25" t="inlineStr"/>
       <c r="BO48" s="25" t="inlineStr"/>
       <c r="BP48" s="25" t="inlineStr"/>
@@ -6493,14 +6552,15 @@
       <c r="CE48" s="25" t="inlineStr"/>
       <c r="CF48" s="25" t="inlineStr"/>
       <c r="CG48" s="25" t="inlineStr"/>
-      <c r="CH48" s="26" t="inlineStr"/>
-      <c r="CI48" s="34" t="inlineStr"/>
+      <c r="CH48" s="25" t="inlineStr"/>
+      <c r="CI48" s="26" t="inlineStr"/>
       <c r="CJ48" s="34" t="inlineStr"/>
       <c r="CK48" s="34" t="inlineStr"/>
       <c r="CL48" s="34" t="inlineStr"/>
-      <c r="CM48" s="27" t="inlineStr"/>
-      <c r="CN48" s="28" t="inlineStr"/>
+      <c r="CM48" s="34" t="inlineStr"/>
+      <c r="CN48" s="27" t="inlineStr"/>
       <c r="CO48" s="28" t="inlineStr"/>
+      <c r="CP48" s="28" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -6528,31 +6588,31 @@
       <c r="W49" s="19" t="inlineStr"/>
       <c r="X49" s="19" t="inlineStr"/>
       <c r="Y49" s="19" t="inlineStr"/>
-      <c r="Z49" s="20" t="inlineStr"/>
-      <c r="AA49" s="21" t="inlineStr"/>
+      <c r="Z49" s="19" t="inlineStr"/>
+      <c r="AA49" s="20" t="inlineStr"/>
       <c r="AB49" s="21" t="inlineStr"/>
-      <c r="AC49" s="22" t="inlineStr"/>
+      <c r="AC49" s="21" t="inlineStr"/>
       <c r="AD49" s="22" t="inlineStr"/>
-      <c r="AE49" s="21" t="inlineStr"/>
-      <c r="AF49" s="23" t="inlineStr"/>
-      <c r="AG49" s="24" t="inlineStr"/>
+      <c r="AE49" s="22" t="inlineStr"/>
+      <c r="AF49" s="21" t="inlineStr"/>
+      <c r="AG49" s="23" t="inlineStr"/>
       <c r="AH49" s="24" t="inlineStr"/>
       <c r="AI49" s="24" t="inlineStr"/>
       <c r="AJ49" s="24" t="inlineStr"/>
-      <c r="AK49" s="25" t="inlineStr"/>
+      <c r="AK49" s="24" t="inlineStr"/>
       <c r="AL49" s="25" t="inlineStr"/>
       <c r="AM49" s="25" t="inlineStr"/>
-      <c r="AN49" s="26" t="inlineStr"/>
-      <c r="AO49" s="27" t="inlineStr"/>
-      <c r="AP49" s="28" t="inlineStr"/>
-      <c r="AQ49" s="29" t="inlineStr"/>
-      <c r="AR49" s="30" t="inlineStr"/>
-      <c r="AS49" s="31" t="inlineStr"/>
-      <c r="AT49" s="17" t="inlineStr"/>
+      <c r="AN49" s="25" t="inlineStr"/>
+      <c r="AO49" s="26" t="inlineStr"/>
+      <c r="AP49" s="27" t="inlineStr"/>
+      <c r="AQ49" s="28" t="inlineStr"/>
+      <c r="AR49" s="29" t="inlineStr"/>
+      <c r="AS49" s="30" t="inlineStr"/>
+      <c r="AT49" s="31" t="inlineStr"/>
       <c r="AU49" s="17" t="inlineStr"/>
-      <c r="AV49" s="32" t="inlineStr"/>
-      <c r="AW49" s="18" t="inlineStr"/>
-      <c r="AX49" s="19" t="inlineStr"/>
+      <c r="AV49" s="17" t="inlineStr"/>
+      <c r="AW49" s="32" t="inlineStr"/>
+      <c r="AX49" s="18" t="inlineStr"/>
       <c r="AY49" s="19" t="inlineStr"/>
       <c r="AZ49" s="19" t="inlineStr"/>
       <c r="BA49" s="19" t="inlineStr"/>
@@ -6561,13 +6621,13 @@
       <c r="BD49" s="19" t="inlineStr"/>
       <c r="BE49" s="19" t="inlineStr"/>
       <c r="BF49" s="19" t="inlineStr"/>
-      <c r="BG49" s="33" t="inlineStr"/>
-      <c r="BH49" s="19" t="inlineStr"/>
-      <c r="BI49" s="20" t="inlineStr"/>
-      <c r="BJ49" s="21" t="inlineStr"/>
+      <c r="BG49" s="19" t="inlineStr"/>
+      <c r="BH49" s="33" t="inlineStr"/>
+      <c r="BI49" s="19" t="inlineStr"/>
+      <c r="BJ49" s="20" t="inlineStr"/>
       <c r="BK49" s="21" t="inlineStr"/>
-      <c r="BL49" s="23" t="inlineStr"/>
-      <c r="BM49" s="25" t="inlineStr"/>
+      <c r="BL49" s="21" t="inlineStr"/>
+      <c r="BM49" s="23" t="inlineStr"/>
       <c r="BN49" s="25" t="inlineStr"/>
       <c r="BO49" s="25" t="inlineStr"/>
       <c r="BP49" s="25" t="inlineStr"/>
@@ -6588,14 +6648,15 @@
       <c r="CE49" s="25" t="inlineStr"/>
       <c r="CF49" s="25" t="inlineStr"/>
       <c r="CG49" s="25" t="inlineStr"/>
-      <c r="CH49" s="26" t="inlineStr"/>
-      <c r="CI49" s="34" t="inlineStr"/>
+      <c r="CH49" s="25" t="inlineStr"/>
+      <c r="CI49" s="26" t="inlineStr"/>
       <c r="CJ49" s="34" t="inlineStr"/>
       <c r="CK49" s="34" t="inlineStr"/>
       <c r="CL49" s="34" t="inlineStr"/>
-      <c r="CM49" s="27" t="inlineStr"/>
-      <c r="CN49" s="28" t="inlineStr"/>
+      <c r="CM49" s="34" t="inlineStr"/>
+      <c r="CN49" s="27" t="inlineStr"/>
       <c r="CO49" s="28" t="inlineStr"/>
+      <c r="CP49" s="28" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -6623,31 +6684,31 @@
       <c r="W50" s="19" t="inlineStr"/>
       <c r="X50" s="19" t="inlineStr"/>
       <c r="Y50" s="19" t="inlineStr"/>
-      <c r="Z50" s="20" t="inlineStr"/>
-      <c r="AA50" s="21" t="inlineStr"/>
+      <c r="Z50" s="19" t="inlineStr"/>
+      <c r="AA50" s="20" t="inlineStr"/>
       <c r="AB50" s="21" t="inlineStr"/>
-      <c r="AC50" s="22" t="inlineStr"/>
+      <c r="AC50" s="21" t="inlineStr"/>
       <c r="AD50" s="22" t="inlineStr"/>
-      <c r="AE50" s="21" t="inlineStr"/>
-      <c r="AF50" s="23" t="inlineStr"/>
-      <c r="AG50" s="24" t="inlineStr"/>
+      <c r="AE50" s="22" t="inlineStr"/>
+      <c r="AF50" s="21" t="inlineStr"/>
+      <c r="AG50" s="23" t="inlineStr"/>
       <c r="AH50" s="24" t="inlineStr"/>
       <c r="AI50" s="24" t="inlineStr"/>
       <c r="AJ50" s="24" t="inlineStr"/>
-      <c r="AK50" s="25" t="inlineStr"/>
+      <c r="AK50" s="24" t="inlineStr"/>
       <c r="AL50" s="25" t="inlineStr"/>
       <c r="AM50" s="25" t="inlineStr"/>
-      <c r="AN50" s="26" t="inlineStr"/>
-      <c r="AO50" s="27" t="inlineStr"/>
-      <c r="AP50" s="28" t="inlineStr"/>
-      <c r="AQ50" s="29" t="inlineStr"/>
-      <c r="AR50" s="30" t="inlineStr"/>
-      <c r="AS50" s="31" t="inlineStr"/>
-      <c r="AT50" s="17" t="inlineStr"/>
+      <c r="AN50" s="25" t="inlineStr"/>
+      <c r="AO50" s="26" t="inlineStr"/>
+      <c r="AP50" s="27" t="inlineStr"/>
+      <c r="AQ50" s="28" t="inlineStr"/>
+      <c r="AR50" s="29" t="inlineStr"/>
+      <c r="AS50" s="30" t="inlineStr"/>
+      <c r="AT50" s="31" t="inlineStr"/>
       <c r="AU50" s="17" t="inlineStr"/>
-      <c r="AV50" s="32" t="inlineStr"/>
-      <c r="AW50" s="18" t="inlineStr"/>
-      <c r="AX50" s="19" t="inlineStr"/>
+      <c r="AV50" s="17" t="inlineStr"/>
+      <c r="AW50" s="32" t="inlineStr"/>
+      <c r="AX50" s="18" t="inlineStr"/>
       <c r="AY50" s="19" t="inlineStr"/>
       <c r="AZ50" s="19" t="inlineStr"/>
       <c r="BA50" s="19" t="inlineStr"/>
@@ -6656,13 +6717,13 @@
       <c r="BD50" s="19" t="inlineStr"/>
       <c r="BE50" s="19" t="inlineStr"/>
       <c r="BF50" s="19" t="inlineStr"/>
-      <c r="BG50" s="33" t="inlineStr"/>
-      <c r="BH50" s="19" t="inlineStr"/>
-      <c r="BI50" s="20" t="inlineStr"/>
-      <c r="BJ50" s="21" t="inlineStr"/>
+      <c r="BG50" s="19" t="inlineStr"/>
+      <c r="BH50" s="33" t="inlineStr"/>
+      <c r="BI50" s="19" t="inlineStr"/>
+      <c r="BJ50" s="20" t="inlineStr"/>
       <c r="BK50" s="21" t="inlineStr"/>
-      <c r="BL50" s="23" t="inlineStr"/>
-      <c r="BM50" s="25" t="inlineStr"/>
+      <c r="BL50" s="21" t="inlineStr"/>
+      <c r="BM50" s="23" t="inlineStr"/>
       <c r="BN50" s="25" t="inlineStr"/>
       <c r="BO50" s="25" t="inlineStr"/>
       <c r="BP50" s="25" t="inlineStr"/>
@@ -6683,14 +6744,15 @@
       <c r="CE50" s="25" t="inlineStr"/>
       <c r="CF50" s="25" t="inlineStr"/>
       <c r="CG50" s="25" t="inlineStr"/>
-      <c r="CH50" s="26" t="inlineStr"/>
-      <c r="CI50" s="34" t="inlineStr"/>
+      <c r="CH50" s="25" t="inlineStr"/>
+      <c r="CI50" s="26" t="inlineStr"/>
       <c r="CJ50" s="34" t="inlineStr"/>
       <c r="CK50" s="34" t="inlineStr"/>
       <c r="CL50" s="34" t="inlineStr"/>
-      <c r="CM50" s="27" t="inlineStr"/>
-      <c r="CN50" s="28" t="inlineStr"/>
+      <c r="CM50" s="34" t="inlineStr"/>
+      <c r="CN50" s="27" t="inlineStr"/>
       <c r="CO50" s="28" t="inlineStr"/>
+      <c r="CP50" s="28" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -6718,31 +6780,31 @@
       <c r="W51" s="19" t="inlineStr"/>
       <c r="X51" s="19" t="inlineStr"/>
       <c r="Y51" s="19" t="inlineStr"/>
-      <c r="Z51" s="20" t="inlineStr"/>
-      <c r="AA51" s="21" t="inlineStr"/>
+      <c r="Z51" s="19" t="inlineStr"/>
+      <c r="AA51" s="20" t="inlineStr"/>
       <c r="AB51" s="21" t="inlineStr"/>
-      <c r="AC51" s="22" t="inlineStr"/>
+      <c r="AC51" s="21" t="inlineStr"/>
       <c r="AD51" s="22" t="inlineStr"/>
-      <c r="AE51" s="21" t="inlineStr"/>
-      <c r="AF51" s="23" t="inlineStr"/>
-      <c r="AG51" s="24" t="inlineStr"/>
+      <c r="AE51" s="22" t="inlineStr"/>
+      <c r="AF51" s="21" t="inlineStr"/>
+      <c r="AG51" s="23" t="inlineStr"/>
       <c r="AH51" s="24" t="inlineStr"/>
       <c r="AI51" s="24" t="inlineStr"/>
       <c r="AJ51" s="24" t="inlineStr"/>
-      <c r="AK51" s="25" t="inlineStr"/>
+      <c r="AK51" s="24" t="inlineStr"/>
       <c r="AL51" s="25" t="inlineStr"/>
       <c r="AM51" s="25" t="inlineStr"/>
-      <c r="AN51" s="26" t="inlineStr"/>
-      <c r="AO51" s="27" t="inlineStr"/>
-      <c r="AP51" s="28" t="inlineStr"/>
-      <c r="AQ51" s="29" t="inlineStr"/>
-      <c r="AR51" s="30" t="inlineStr"/>
-      <c r="AS51" s="31" t="inlineStr"/>
-      <c r="AT51" s="17" t="inlineStr"/>
+      <c r="AN51" s="25" t="inlineStr"/>
+      <c r="AO51" s="26" t="inlineStr"/>
+      <c r="AP51" s="27" t="inlineStr"/>
+      <c r="AQ51" s="28" t="inlineStr"/>
+      <c r="AR51" s="29" t="inlineStr"/>
+      <c r="AS51" s="30" t="inlineStr"/>
+      <c r="AT51" s="31" t="inlineStr"/>
       <c r="AU51" s="17" t="inlineStr"/>
-      <c r="AV51" s="32" t="inlineStr"/>
-      <c r="AW51" s="18" t="inlineStr"/>
-      <c r="AX51" s="19" t="inlineStr"/>
+      <c r="AV51" s="17" t="inlineStr"/>
+      <c r="AW51" s="32" t="inlineStr"/>
+      <c r="AX51" s="18" t="inlineStr"/>
       <c r="AY51" s="19" t="inlineStr"/>
       <c r="AZ51" s="19" t="inlineStr"/>
       <c r="BA51" s="19" t="inlineStr"/>
@@ -6751,13 +6813,13 @@
       <c r="BD51" s="19" t="inlineStr"/>
       <c r="BE51" s="19" t="inlineStr"/>
       <c r="BF51" s="19" t="inlineStr"/>
-      <c r="BG51" s="33" t="inlineStr"/>
-      <c r="BH51" s="19" t="inlineStr"/>
-      <c r="BI51" s="20" t="inlineStr"/>
-      <c r="BJ51" s="21" t="inlineStr"/>
+      <c r="BG51" s="19" t="inlineStr"/>
+      <c r="BH51" s="33" t="inlineStr"/>
+      <c r="BI51" s="19" t="inlineStr"/>
+      <c r="BJ51" s="20" t="inlineStr"/>
       <c r="BK51" s="21" t="inlineStr"/>
-      <c r="BL51" s="23" t="inlineStr"/>
-      <c r="BM51" s="25" t="inlineStr"/>
+      <c r="BL51" s="21" t="inlineStr"/>
+      <c r="BM51" s="23" t="inlineStr"/>
       <c r="BN51" s="25" t="inlineStr"/>
       <c r="BO51" s="25" t="inlineStr"/>
       <c r="BP51" s="25" t="inlineStr"/>
@@ -6778,14 +6840,15 @@
       <c r="CE51" s="25" t="inlineStr"/>
       <c r="CF51" s="25" t="inlineStr"/>
       <c r="CG51" s="25" t="inlineStr"/>
-      <c r="CH51" s="26" t="inlineStr"/>
-      <c r="CI51" s="34" t="inlineStr"/>
+      <c r="CH51" s="25" t="inlineStr"/>
+      <c r="CI51" s="26" t="inlineStr"/>
       <c r="CJ51" s="34" t="inlineStr"/>
       <c r="CK51" s="34" t="inlineStr"/>
       <c r="CL51" s="34" t="inlineStr"/>
-      <c r="CM51" s="27" t="inlineStr"/>
-      <c r="CN51" s="28" t="inlineStr"/>
+      <c r="CM51" s="34" t="inlineStr"/>
+      <c r="CN51" s="27" t="inlineStr"/>
       <c r="CO51" s="28" t="inlineStr"/>
+      <c r="CP51" s="28" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -6813,31 +6876,31 @@
       <c r="W52" s="19" t="inlineStr"/>
       <c r="X52" s="19" t="inlineStr"/>
       <c r="Y52" s="19" t="inlineStr"/>
-      <c r="Z52" s="20" t="inlineStr"/>
-      <c r="AA52" s="21" t="inlineStr"/>
+      <c r="Z52" s="19" t="inlineStr"/>
+      <c r="AA52" s="20" t="inlineStr"/>
       <c r="AB52" s="21" t="inlineStr"/>
-      <c r="AC52" s="22" t="inlineStr"/>
+      <c r="AC52" s="21" t="inlineStr"/>
       <c r="AD52" s="22" t="inlineStr"/>
-      <c r="AE52" s="21" t="inlineStr"/>
-      <c r="AF52" s="23" t="inlineStr"/>
-      <c r="AG52" s="24" t="inlineStr"/>
+      <c r="AE52" s="22" t="inlineStr"/>
+      <c r="AF52" s="21" t="inlineStr"/>
+      <c r="AG52" s="23" t="inlineStr"/>
       <c r="AH52" s="24" t="inlineStr"/>
       <c r="AI52" s="24" t="inlineStr"/>
       <c r="AJ52" s="24" t="inlineStr"/>
-      <c r="AK52" s="25" t="inlineStr"/>
+      <c r="AK52" s="24" t="inlineStr"/>
       <c r="AL52" s="25" t="inlineStr"/>
       <c r="AM52" s="25" t="inlineStr"/>
-      <c r="AN52" s="26" t="inlineStr"/>
-      <c r="AO52" s="27" t="inlineStr"/>
-      <c r="AP52" s="28" t="inlineStr"/>
-      <c r="AQ52" s="29" t="inlineStr"/>
-      <c r="AR52" s="30" t="inlineStr"/>
-      <c r="AS52" s="31" t="inlineStr"/>
-      <c r="AT52" s="17" t="inlineStr"/>
+      <c r="AN52" s="25" t="inlineStr"/>
+      <c r="AO52" s="26" t="inlineStr"/>
+      <c r="AP52" s="27" t="inlineStr"/>
+      <c r="AQ52" s="28" t="inlineStr"/>
+      <c r="AR52" s="29" t="inlineStr"/>
+      <c r="AS52" s="30" t="inlineStr"/>
+      <c r="AT52" s="31" t="inlineStr"/>
       <c r="AU52" s="17" t="inlineStr"/>
-      <c r="AV52" s="32" t="inlineStr"/>
-      <c r="AW52" s="18" t="inlineStr"/>
-      <c r="AX52" s="19" t="inlineStr"/>
+      <c r="AV52" s="17" t="inlineStr"/>
+      <c r="AW52" s="32" t="inlineStr"/>
+      <c r="AX52" s="18" t="inlineStr"/>
       <c r="AY52" s="19" t="inlineStr"/>
       <c r="AZ52" s="19" t="inlineStr"/>
       <c r="BA52" s="19" t="inlineStr"/>
@@ -6846,13 +6909,13 @@
       <c r="BD52" s="19" t="inlineStr"/>
       <c r="BE52" s="19" t="inlineStr"/>
       <c r="BF52" s="19" t="inlineStr"/>
-      <c r="BG52" s="33" t="inlineStr"/>
-      <c r="BH52" s="19" t="inlineStr"/>
-      <c r="BI52" s="20" t="inlineStr"/>
-      <c r="BJ52" s="21" t="inlineStr"/>
+      <c r="BG52" s="19" t="inlineStr"/>
+      <c r="BH52" s="33" t="inlineStr"/>
+      <c r="BI52" s="19" t="inlineStr"/>
+      <c r="BJ52" s="20" t="inlineStr"/>
       <c r="BK52" s="21" t="inlineStr"/>
-      <c r="BL52" s="23" t="inlineStr"/>
-      <c r="BM52" s="25" t="inlineStr"/>
+      <c r="BL52" s="21" t="inlineStr"/>
+      <c r="BM52" s="23" t="inlineStr"/>
       <c r="BN52" s="25" t="inlineStr"/>
       <c r="BO52" s="25" t="inlineStr"/>
       <c r="BP52" s="25" t="inlineStr"/>
@@ -6873,14 +6936,15 @@
       <c r="CE52" s="25" t="inlineStr"/>
       <c r="CF52" s="25" t="inlineStr"/>
       <c r="CG52" s="25" t="inlineStr"/>
-      <c r="CH52" s="26" t="inlineStr"/>
-      <c r="CI52" s="34" t="inlineStr"/>
+      <c r="CH52" s="25" t="inlineStr"/>
+      <c r="CI52" s="26" t="inlineStr"/>
       <c r="CJ52" s="34" t="inlineStr"/>
       <c r="CK52" s="34" t="inlineStr"/>
       <c r="CL52" s="34" t="inlineStr"/>
-      <c r="CM52" s="27" t="inlineStr"/>
-      <c r="CN52" s="28" t="inlineStr"/>
+      <c r="CM52" s="34" t="inlineStr"/>
+      <c r="CN52" s="27" t="inlineStr"/>
       <c r="CO52" s="28" t="inlineStr"/>
+      <c r="CP52" s="28" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -6908,31 +6972,31 @@
       <c r="W53" s="19" t="inlineStr"/>
       <c r="X53" s="19" t="inlineStr"/>
       <c r="Y53" s="19" t="inlineStr"/>
-      <c r="Z53" s="20" t="inlineStr"/>
-      <c r="AA53" s="21" t="inlineStr"/>
+      <c r="Z53" s="19" t="inlineStr"/>
+      <c r="AA53" s="20" t="inlineStr"/>
       <c r="AB53" s="21" t="inlineStr"/>
-      <c r="AC53" s="22" t="inlineStr"/>
+      <c r="AC53" s="21" t="inlineStr"/>
       <c r="AD53" s="22" t="inlineStr"/>
-      <c r="AE53" s="21" t="inlineStr"/>
-      <c r="AF53" s="23" t="inlineStr"/>
-      <c r="AG53" s="24" t="inlineStr"/>
+      <c r="AE53" s="22" t="inlineStr"/>
+      <c r="AF53" s="21" t="inlineStr"/>
+      <c r="AG53" s="23" t="inlineStr"/>
       <c r="AH53" s="24" t="inlineStr"/>
       <c r="AI53" s="24" t="inlineStr"/>
       <c r="AJ53" s="24" t="inlineStr"/>
-      <c r="AK53" s="25" t="inlineStr"/>
+      <c r="AK53" s="24" t="inlineStr"/>
       <c r="AL53" s="25" t="inlineStr"/>
       <c r="AM53" s="25" t="inlineStr"/>
-      <c r="AN53" s="26" t="inlineStr"/>
-      <c r="AO53" s="27" t="inlineStr"/>
-      <c r="AP53" s="28" t="inlineStr"/>
-      <c r="AQ53" s="29" t="inlineStr"/>
-      <c r="AR53" s="30" t="inlineStr"/>
-      <c r="AS53" s="31" t="inlineStr"/>
-      <c r="AT53" s="17" t="inlineStr"/>
+      <c r="AN53" s="25" t="inlineStr"/>
+      <c r="AO53" s="26" t="inlineStr"/>
+      <c r="AP53" s="27" t="inlineStr"/>
+      <c r="AQ53" s="28" t="inlineStr"/>
+      <c r="AR53" s="29" t="inlineStr"/>
+      <c r="AS53" s="30" t="inlineStr"/>
+      <c r="AT53" s="31" t="inlineStr"/>
       <c r="AU53" s="17" t="inlineStr"/>
-      <c r="AV53" s="32" t="inlineStr"/>
-      <c r="AW53" s="18" t="inlineStr"/>
-      <c r="AX53" s="19" t="inlineStr"/>
+      <c r="AV53" s="17" t="inlineStr"/>
+      <c r="AW53" s="32" t="inlineStr"/>
+      <c r="AX53" s="18" t="inlineStr"/>
       <c r="AY53" s="19" t="inlineStr"/>
       <c r="AZ53" s="19" t="inlineStr"/>
       <c r="BA53" s="19" t="inlineStr"/>
@@ -6941,13 +7005,13 @@
       <c r="BD53" s="19" t="inlineStr"/>
       <c r="BE53" s="19" t="inlineStr"/>
       <c r="BF53" s="19" t="inlineStr"/>
-      <c r="BG53" s="33" t="inlineStr"/>
-      <c r="BH53" s="19" t="inlineStr"/>
-      <c r="BI53" s="20" t="inlineStr"/>
-      <c r="BJ53" s="21" t="inlineStr"/>
+      <c r="BG53" s="19" t="inlineStr"/>
+      <c r="BH53" s="33" t="inlineStr"/>
+      <c r="BI53" s="19" t="inlineStr"/>
+      <c r="BJ53" s="20" t="inlineStr"/>
       <c r="BK53" s="21" t="inlineStr"/>
-      <c r="BL53" s="23" t="inlineStr"/>
-      <c r="BM53" s="25" t="inlineStr"/>
+      <c r="BL53" s="21" t="inlineStr"/>
+      <c r="BM53" s="23" t="inlineStr"/>
       <c r="BN53" s="25" t="inlineStr"/>
       <c r="BO53" s="25" t="inlineStr"/>
       <c r="BP53" s="25" t="inlineStr"/>
@@ -6968,14 +7032,15 @@
       <c r="CE53" s="25" t="inlineStr"/>
       <c r="CF53" s="25" t="inlineStr"/>
       <c r="CG53" s="25" t="inlineStr"/>
-      <c r="CH53" s="26" t="inlineStr"/>
-      <c r="CI53" s="34" t="inlineStr"/>
+      <c r="CH53" s="25" t="inlineStr"/>
+      <c r="CI53" s="26" t="inlineStr"/>
       <c r="CJ53" s="34" t="inlineStr"/>
       <c r="CK53" s="34" t="inlineStr"/>
       <c r="CL53" s="34" t="inlineStr"/>
-      <c r="CM53" s="27" t="inlineStr"/>
-      <c r="CN53" s="28" t="inlineStr"/>
+      <c r="CM53" s="34" t="inlineStr"/>
+      <c r="CN53" s="27" t="inlineStr"/>
       <c r="CO53" s="28" t="inlineStr"/>
+      <c r="CP53" s="28" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -7003,31 +7068,31 @@
       <c r="W54" s="19" t="inlineStr"/>
       <c r="X54" s="19" t="inlineStr"/>
       <c r="Y54" s="19" t="inlineStr"/>
-      <c r="Z54" s="20" t="inlineStr"/>
-      <c r="AA54" s="21" t="inlineStr"/>
+      <c r="Z54" s="19" t="inlineStr"/>
+      <c r="AA54" s="20" t="inlineStr"/>
       <c r="AB54" s="21" t="inlineStr"/>
-      <c r="AC54" s="22" t="inlineStr"/>
+      <c r="AC54" s="21" t="inlineStr"/>
       <c r="AD54" s="22" t="inlineStr"/>
-      <c r="AE54" s="21" t="inlineStr"/>
-      <c r="AF54" s="23" t="inlineStr"/>
-      <c r="AG54" s="24" t="inlineStr"/>
+      <c r="AE54" s="22" t="inlineStr"/>
+      <c r="AF54" s="21" t="inlineStr"/>
+      <c r="AG54" s="23" t="inlineStr"/>
       <c r="AH54" s="24" t="inlineStr"/>
       <c r="AI54" s="24" t="inlineStr"/>
       <c r="AJ54" s="24" t="inlineStr"/>
-      <c r="AK54" s="25" t="inlineStr"/>
+      <c r="AK54" s="24" t="inlineStr"/>
       <c r="AL54" s="25" t="inlineStr"/>
       <c r="AM54" s="25" t="inlineStr"/>
-      <c r="AN54" s="26" t="inlineStr"/>
-      <c r="AO54" s="27" t="inlineStr"/>
-      <c r="AP54" s="28" t="inlineStr"/>
-      <c r="AQ54" s="29" t="inlineStr"/>
-      <c r="AR54" s="30" t="inlineStr"/>
-      <c r="AS54" s="31" t="inlineStr"/>
-      <c r="AT54" s="17" t="inlineStr"/>
+      <c r="AN54" s="25" t="inlineStr"/>
+      <c r="AO54" s="26" t="inlineStr"/>
+      <c r="AP54" s="27" t="inlineStr"/>
+      <c r="AQ54" s="28" t="inlineStr"/>
+      <c r="AR54" s="29" t="inlineStr"/>
+      <c r="AS54" s="30" t="inlineStr"/>
+      <c r="AT54" s="31" t="inlineStr"/>
       <c r="AU54" s="17" t="inlineStr"/>
-      <c r="AV54" s="32" t="inlineStr"/>
-      <c r="AW54" s="18" t="inlineStr"/>
-      <c r="AX54" s="19" t="inlineStr"/>
+      <c r="AV54" s="17" t="inlineStr"/>
+      <c r="AW54" s="32" t="inlineStr"/>
+      <c r="AX54" s="18" t="inlineStr"/>
       <c r="AY54" s="19" t="inlineStr"/>
       <c r="AZ54" s="19" t="inlineStr"/>
       <c r="BA54" s="19" t="inlineStr"/>
@@ -7036,13 +7101,13 @@
       <c r="BD54" s="19" t="inlineStr"/>
       <c r="BE54" s="19" t="inlineStr"/>
       <c r="BF54" s="19" t="inlineStr"/>
-      <c r="BG54" s="33" t="inlineStr"/>
-      <c r="BH54" s="19" t="inlineStr"/>
-      <c r="BI54" s="20" t="inlineStr"/>
-      <c r="BJ54" s="21" t="inlineStr"/>
+      <c r="BG54" s="19" t="inlineStr"/>
+      <c r="BH54" s="33" t="inlineStr"/>
+      <c r="BI54" s="19" t="inlineStr"/>
+      <c r="BJ54" s="20" t="inlineStr"/>
       <c r="BK54" s="21" t="inlineStr"/>
-      <c r="BL54" s="23" t="inlineStr"/>
-      <c r="BM54" s="25" t="inlineStr"/>
+      <c r="BL54" s="21" t="inlineStr"/>
+      <c r="BM54" s="23" t="inlineStr"/>
       <c r="BN54" s="25" t="inlineStr"/>
       <c r="BO54" s="25" t="inlineStr"/>
       <c r="BP54" s="25" t="inlineStr"/>
@@ -7063,14 +7128,15 @@
       <c r="CE54" s="25" t="inlineStr"/>
       <c r="CF54" s="25" t="inlineStr"/>
       <c r="CG54" s="25" t="inlineStr"/>
-      <c r="CH54" s="26" t="inlineStr"/>
-      <c r="CI54" s="34" t="inlineStr"/>
+      <c r="CH54" s="25" t="inlineStr"/>
+      <c r="CI54" s="26" t="inlineStr"/>
       <c r="CJ54" s="34" t="inlineStr"/>
       <c r="CK54" s="34" t="inlineStr"/>
       <c r="CL54" s="34" t="inlineStr"/>
-      <c r="CM54" s="27" t="inlineStr"/>
-      <c r="CN54" s="28" t="inlineStr"/>
+      <c r="CM54" s="34" t="inlineStr"/>
+      <c r="CN54" s="27" t="inlineStr"/>
       <c r="CO54" s="28" t="inlineStr"/>
+      <c r="CP54" s="28" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -7098,31 +7164,31 @@
       <c r="W55" s="19" t="inlineStr"/>
       <c r="X55" s="19" t="inlineStr"/>
       <c r="Y55" s="19" t="inlineStr"/>
-      <c r="Z55" s="20" t="inlineStr"/>
-      <c r="AA55" s="21" t="inlineStr"/>
+      <c r="Z55" s="19" t="inlineStr"/>
+      <c r="AA55" s="20" t="inlineStr"/>
       <c r="AB55" s="21" t="inlineStr"/>
-      <c r="AC55" s="22" t="inlineStr"/>
+      <c r="AC55" s="21" t="inlineStr"/>
       <c r="AD55" s="22" t="inlineStr"/>
-      <c r="AE55" s="21" t="inlineStr"/>
-      <c r="AF55" s="23" t="inlineStr"/>
-      <c r="AG55" s="24" t="inlineStr"/>
+      <c r="AE55" s="22" t="inlineStr"/>
+      <c r="AF55" s="21" t="inlineStr"/>
+      <c r="AG55" s="23" t="inlineStr"/>
       <c r="AH55" s="24" t="inlineStr"/>
       <c r="AI55" s="24" t="inlineStr"/>
       <c r="AJ55" s="24" t="inlineStr"/>
-      <c r="AK55" s="25" t="inlineStr"/>
+      <c r="AK55" s="24" t="inlineStr"/>
       <c r="AL55" s="25" t="inlineStr"/>
       <c r="AM55" s="25" t="inlineStr"/>
-      <c r="AN55" s="26" t="inlineStr"/>
-      <c r="AO55" s="27" t="inlineStr"/>
-      <c r="AP55" s="28" t="inlineStr"/>
-      <c r="AQ55" s="29" t="inlineStr"/>
-      <c r="AR55" s="30" t="inlineStr"/>
-      <c r="AS55" s="31" t="inlineStr"/>
-      <c r="AT55" s="17" t="inlineStr"/>
+      <c r="AN55" s="25" t="inlineStr"/>
+      <c r="AO55" s="26" t="inlineStr"/>
+      <c r="AP55" s="27" t="inlineStr"/>
+      <c r="AQ55" s="28" t="inlineStr"/>
+      <c r="AR55" s="29" t="inlineStr"/>
+      <c r="AS55" s="30" t="inlineStr"/>
+      <c r="AT55" s="31" t="inlineStr"/>
       <c r="AU55" s="17" t="inlineStr"/>
-      <c r="AV55" s="32" t="inlineStr"/>
-      <c r="AW55" s="18" t="inlineStr"/>
-      <c r="AX55" s="19" t="inlineStr"/>
+      <c r="AV55" s="17" t="inlineStr"/>
+      <c r="AW55" s="32" t="inlineStr"/>
+      <c r="AX55" s="18" t="inlineStr"/>
       <c r="AY55" s="19" t="inlineStr"/>
       <c r="AZ55" s="19" t="inlineStr"/>
       <c r="BA55" s="19" t="inlineStr"/>
@@ -7131,13 +7197,13 @@
       <c r="BD55" s="19" t="inlineStr"/>
       <c r="BE55" s="19" t="inlineStr"/>
       <c r="BF55" s="19" t="inlineStr"/>
-      <c r="BG55" s="33" t="inlineStr"/>
-      <c r="BH55" s="19" t="inlineStr"/>
-      <c r="BI55" s="20" t="inlineStr"/>
-      <c r="BJ55" s="21" t="inlineStr"/>
+      <c r="BG55" s="19" t="inlineStr"/>
+      <c r="BH55" s="33" t="inlineStr"/>
+      <c r="BI55" s="19" t="inlineStr"/>
+      <c r="BJ55" s="20" t="inlineStr"/>
       <c r="BK55" s="21" t="inlineStr"/>
-      <c r="BL55" s="23" t="inlineStr"/>
-      <c r="BM55" s="25" t="inlineStr"/>
+      <c r="BL55" s="21" t="inlineStr"/>
+      <c r="BM55" s="23" t="inlineStr"/>
       <c r="BN55" s="25" t="inlineStr"/>
       <c r="BO55" s="25" t="inlineStr"/>
       <c r="BP55" s="25" t="inlineStr"/>
@@ -7158,14 +7224,15 @@
       <c r="CE55" s="25" t="inlineStr"/>
       <c r="CF55" s="25" t="inlineStr"/>
       <c r="CG55" s="25" t="inlineStr"/>
-      <c r="CH55" s="26" t="inlineStr"/>
-      <c r="CI55" s="34" t="inlineStr"/>
+      <c r="CH55" s="25" t="inlineStr"/>
+      <c r="CI55" s="26" t="inlineStr"/>
       <c r="CJ55" s="34" t="inlineStr"/>
       <c r="CK55" s="34" t="inlineStr"/>
       <c r="CL55" s="34" t="inlineStr"/>
-      <c r="CM55" s="27" t="inlineStr"/>
-      <c r="CN55" s="28" t="inlineStr"/>
+      <c r="CM55" s="34" t="inlineStr"/>
+      <c r="CN55" s="27" t="inlineStr"/>
       <c r="CO55" s="28" t="inlineStr"/>
+      <c r="CP55" s="28" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -7193,31 +7260,31 @@
       <c r="W56" s="19" t="inlineStr"/>
       <c r="X56" s="19" t="inlineStr"/>
       <c r="Y56" s="19" t="inlineStr"/>
-      <c r="Z56" s="20" t="inlineStr"/>
-      <c r="AA56" s="21" t="inlineStr"/>
+      <c r="Z56" s="19" t="inlineStr"/>
+      <c r="AA56" s="20" t="inlineStr"/>
       <c r="AB56" s="21" t="inlineStr"/>
-      <c r="AC56" s="22" t="inlineStr"/>
+      <c r="AC56" s="21" t="inlineStr"/>
       <c r="AD56" s="22" t="inlineStr"/>
-      <c r="AE56" s="21" t="inlineStr"/>
-      <c r="AF56" s="23" t="inlineStr"/>
-      <c r="AG56" s="24" t="inlineStr"/>
+      <c r="AE56" s="22" t="inlineStr"/>
+      <c r="AF56" s="21" t="inlineStr"/>
+      <c r="AG56" s="23" t="inlineStr"/>
       <c r="AH56" s="24" t="inlineStr"/>
       <c r="AI56" s="24" t="inlineStr"/>
       <c r="AJ56" s="24" t="inlineStr"/>
-      <c r="AK56" s="25" t="inlineStr"/>
+      <c r="AK56" s="24" t="inlineStr"/>
       <c r="AL56" s="25" t="inlineStr"/>
       <c r="AM56" s="25" t="inlineStr"/>
-      <c r="AN56" s="26" t="inlineStr"/>
-      <c r="AO56" s="27" t="inlineStr"/>
-      <c r="AP56" s="28" t="inlineStr"/>
-      <c r="AQ56" s="29" t="inlineStr"/>
-      <c r="AR56" s="30" t="inlineStr"/>
-      <c r="AS56" s="31" t="inlineStr"/>
-      <c r="AT56" s="17" t="inlineStr"/>
+      <c r="AN56" s="25" t="inlineStr"/>
+      <c r="AO56" s="26" t="inlineStr"/>
+      <c r="AP56" s="27" t="inlineStr"/>
+      <c r="AQ56" s="28" t="inlineStr"/>
+      <c r="AR56" s="29" t="inlineStr"/>
+      <c r="AS56" s="30" t="inlineStr"/>
+      <c r="AT56" s="31" t="inlineStr"/>
       <c r="AU56" s="17" t="inlineStr"/>
-      <c r="AV56" s="32" t="inlineStr"/>
-      <c r="AW56" s="18" t="inlineStr"/>
-      <c r="AX56" s="19" t="inlineStr"/>
+      <c r="AV56" s="17" t="inlineStr"/>
+      <c r="AW56" s="32" t="inlineStr"/>
+      <c r="AX56" s="18" t="inlineStr"/>
       <c r="AY56" s="19" t="inlineStr"/>
       <c r="AZ56" s="19" t="inlineStr"/>
       <c r="BA56" s="19" t="inlineStr"/>
@@ -7226,13 +7293,13 @@
       <c r="BD56" s="19" t="inlineStr"/>
       <c r="BE56" s="19" t="inlineStr"/>
       <c r="BF56" s="19" t="inlineStr"/>
-      <c r="BG56" s="33" t="inlineStr"/>
-      <c r="BH56" s="19" t="inlineStr"/>
-      <c r="BI56" s="20" t="inlineStr"/>
-      <c r="BJ56" s="21" t="inlineStr"/>
+      <c r="BG56" s="19" t="inlineStr"/>
+      <c r="BH56" s="33" t="inlineStr"/>
+      <c r="BI56" s="19" t="inlineStr"/>
+      <c r="BJ56" s="20" t="inlineStr"/>
       <c r="BK56" s="21" t="inlineStr"/>
-      <c r="BL56" s="23" t="inlineStr"/>
-      <c r="BM56" s="25" t="inlineStr"/>
+      <c r="BL56" s="21" t="inlineStr"/>
+      <c r="BM56" s="23" t="inlineStr"/>
       <c r="BN56" s="25" t="inlineStr"/>
       <c r="BO56" s="25" t="inlineStr"/>
       <c r="BP56" s="25" t="inlineStr"/>
@@ -7253,14 +7320,15 @@
       <c r="CE56" s="25" t="inlineStr"/>
       <c r="CF56" s="25" t="inlineStr"/>
       <c r="CG56" s="25" t="inlineStr"/>
-      <c r="CH56" s="26" t="inlineStr"/>
-      <c r="CI56" s="34" t="inlineStr"/>
+      <c r="CH56" s="25" t="inlineStr"/>
+      <c r="CI56" s="26" t="inlineStr"/>
       <c r="CJ56" s="34" t="inlineStr"/>
       <c r="CK56" s="34" t="inlineStr"/>
       <c r="CL56" s="34" t="inlineStr"/>
-      <c r="CM56" s="27" t="inlineStr"/>
-      <c r="CN56" s="28" t="inlineStr"/>
+      <c r="CM56" s="34" t="inlineStr"/>
+      <c r="CN56" s="27" t="inlineStr"/>
       <c r="CO56" s="28" t="inlineStr"/>
+      <c r="CP56" s="28" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -7288,31 +7356,31 @@
       <c r="W57" s="19" t="inlineStr"/>
       <c r="X57" s="19" t="inlineStr"/>
       <c r="Y57" s="19" t="inlineStr"/>
-      <c r="Z57" s="20" t="inlineStr"/>
-      <c r="AA57" s="21" t="inlineStr"/>
+      <c r="Z57" s="19" t="inlineStr"/>
+      <c r="AA57" s="20" t="inlineStr"/>
       <c r="AB57" s="21" t="inlineStr"/>
-      <c r="AC57" s="22" t="inlineStr"/>
+      <c r="AC57" s="21" t="inlineStr"/>
       <c r="AD57" s="22" t="inlineStr"/>
-      <c r="AE57" s="21" t="inlineStr"/>
-      <c r="AF57" s="23" t="inlineStr"/>
-      <c r="AG57" s="24" t="inlineStr"/>
+      <c r="AE57" s="22" t="inlineStr"/>
+      <c r="AF57" s="21" t="inlineStr"/>
+      <c r="AG57" s="23" t="inlineStr"/>
       <c r="AH57" s="24" t="inlineStr"/>
       <c r="AI57" s="24" t="inlineStr"/>
       <c r="AJ57" s="24" t="inlineStr"/>
-      <c r="AK57" s="25" t="inlineStr"/>
+      <c r="AK57" s="24" t="inlineStr"/>
       <c r="AL57" s="25" t="inlineStr"/>
       <c r="AM57" s="25" t="inlineStr"/>
-      <c r="AN57" s="26" t="inlineStr"/>
-      <c r="AO57" s="27" t="inlineStr"/>
-      <c r="AP57" s="28" t="inlineStr"/>
-      <c r="AQ57" s="29" t="inlineStr"/>
-      <c r="AR57" s="30" t="inlineStr"/>
-      <c r="AS57" s="31" t="inlineStr"/>
-      <c r="AT57" s="17" t="inlineStr"/>
+      <c r="AN57" s="25" t="inlineStr"/>
+      <c r="AO57" s="26" t="inlineStr"/>
+      <c r="AP57" s="27" t="inlineStr"/>
+      <c r="AQ57" s="28" t="inlineStr"/>
+      <c r="AR57" s="29" t="inlineStr"/>
+      <c r="AS57" s="30" t="inlineStr"/>
+      <c r="AT57" s="31" t="inlineStr"/>
       <c r="AU57" s="17" t="inlineStr"/>
-      <c r="AV57" s="32" t="inlineStr"/>
-      <c r="AW57" s="18" t="inlineStr"/>
-      <c r="AX57" s="19" t="inlineStr"/>
+      <c r="AV57" s="17" t="inlineStr"/>
+      <c r="AW57" s="32" t="inlineStr"/>
+      <c r="AX57" s="18" t="inlineStr"/>
       <c r="AY57" s="19" t="inlineStr"/>
       <c r="AZ57" s="19" t="inlineStr"/>
       <c r="BA57" s="19" t="inlineStr"/>
@@ -7321,13 +7389,13 @@
       <c r="BD57" s="19" t="inlineStr"/>
       <c r="BE57" s="19" t="inlineStr"/>
       <c r="BF57" s="19" t="inlineStr"/>
-      <c r="BG57" s="33" t="inlineStr"/>
-      <c r="BH57" s="19" t="inlineStr"/>
-      <c r="BI57" s="20" t="inlineStr"/>
-      <c r="BJ57" s="21" t="inlineStr"/>
+      <c r="BG57" s="19" t="inlineStr"/>
+      <c r="BH57" s="33" t="inlineStr"/>
+      <c r="BI57" s="19" t="inlineStr"/>
+      <c r="BJ57" s="20" t="inlineStr"/>
       <c r="BK57" s="21" t="inlineStr"/>
-      <c r="BL57" s="23" t="inlineStr"/>
-      <c r="BM57" s="25" t="inlineStr"/>
+      <c r="BL57" s="21" t="inlineStr"/>
+      <c r="BM57" s="23" t="inlineStr"/>
       <c r="BN57" s="25" t="inlineStr"/>
       <c r="BO57" s="25" t="inlineStr"/>
       <c r="BP57" s="25" t="inlineStr"/>
@@ -7348,14 +7416,15 @@
       <c r="CE57" s="25" t="inlineStr"/>
       <c r="CF57" s="25" t="inlineStr"/>
       <c r="CG57" s="25" t="inlineStr"/>
-      <c r="CH57" s="26" t="inlineStr"/>
-      <c r="CI57" s="34" t="inlineStr"/>
+      <c r="CH57" s="25" t="inlineStr"/>
+      <c r="CI57" s="26" t="inlineStr"/>
       <c r="CJ57" s="34" t="inlineStr"/>
       <c r="CK57" s="34" t="inlineStr"/>
       <c r="CL57" s="34" t="inlineStr"/>
-      <c r="CM57" s="27" t="inlineStr"/>
-      <c r="CN57" s="28" t="inlineStr"/>
+      <c r="CM57" s="34" t="inlineStr"/>
+      <c r="CN57" s="27" t="inlineStr"/>
       <c r="CO57" s="28" t="inlineStr"/>
+      <c r="CP57" s="28" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -7383,31 +7452,31 @@
       <c r="W58" s="19" t="inlineStr"/>
       <c r="X58" s="19" t="inlineStr"/>
       <c r="Y58" s="19" t="inlineStr"/>
-      <c r="Z58" s="20" t="inlineStr"/>
-      <c r="AA58" s="21" t="inlineStr"/>
+      <c r="Z58" s="19" t="inlineStr"/>
+      <c r="AA58" s="20" t="inlineStr"/>
       <c r="AB58" s="21" t="inlineStr"/>
-      <c r="AC58" s="22" t="inlineStr"/>
+      <c r="AC58" s="21" t="inlineStr"/>
       <c r="AD58" s="22" t="inlineStr"/>
-      <c r="AE58" s="21" t="inlineStr"/>
-      <c r="AF58" s="23" t="inlineStr"/>
-      <c r="AG58" s="24" t="inlineStr"/>
+      <c r="AE58" s="22" t="inlineStr"/>
+      <c r="AF58" s="21" t="inlineStr"/>
+      <c r="AG58" s="23" t="inlineStr"/>
       <c r="AH58" s="24" t="inlineStr"/>
       <c r="AI58" s="24" t="inlineStr"/>
       <c r="AJ58" s="24" t="inlineStr"/>
-      <c r="AK58" s="25" t="inlineStr"/>
+      <c r="AK58" s="24" t="inlineStr"/>
       <c r="AL58" s="25" t="inlineStr"/>
       <c r="AM58" s="25" t="inlineStr"/>
-      <c r="AN58" s="26" t="inlineStr"/>
-      <c r="AO58" s="27" t="inlineStr"/>
-      <c r="AP58" s="28" t="inlineStr"/>
-      <c r="AQ58" s="29" t="inlineStr"/>
-      <c r="AR58" s="30" t="inlineStr"/>
-      <c r="AS58" s="31" t="inlineStr"/>
-      <c r="AT58" s="17" t="inlineStr"/>
+      <c r="AN58" s="25" t="inlineStr"/>
+      <c r="AO58" s="26" t="inlineStr"/>
+      <c r="AP58" s="27" t="inlineStr"/>
+      <c r="AQ58" s="28" t="inlineStr"/>
+      <c r="AR58" s="29" t="inlineStr"/>
+      <c r="AS58" s="30" t="inlineStr"/>
+      <c r="AT58" s="31" t="inlineStr"/>
       <c r="AU58" s="17" t="inlineStr"/>
-      <c r="AV58" s="32" t="inlineStr"/>
-      <c r="AW58" s="18" t="inlineStr"/>
-      <c r="AX58" s="19" t="inlineStr"/>
+      <c r="AV58" s="17" t="inlineStr"/>
+      <c r="AW58" s="32" t="inlineStr"/>
+      <c r="AX58" s="18" t="inlineStr"/>
       <c r="AY58" s="19" t="inlineStr"/>
       <c r="AZ58" s="19" t="inlineStr"/>
       <c r="BA58" s="19" t="inlineStr"/>
@@ -7416,13 +7485,13 @@
       <c r="BD58" s="19" t="inlineStr"/>
       <c r="BE58" s="19" t="inlineStr"/>
       <c r="BF58" s="19" t="inlineStr"/>
-      <c r="BG58" s="33" t="inlineStr"/>
-      <c r="BH58" s="19" t="inlineStr"/>
-      <c r="BI58" s="20" t="inlineStr"/>
-      <c r="BJ58" s="21" t="inlineStr"/>
+      <c r="BG58" s="19" t="inlineStr"/>
+      <c r="BH58" s="33" t="inlineStr"/>
+      <c r="BI58" s="19" t="inlineStr"/>
+      <c r="BJ58" s="20" t="inlineStr"/>
       <c r="BK58" s="21" t="inlineStr"/>
-      <c r="BL58" s="23" t="inlineStr"/>
-      <c r="BM58" s="25" t="inlineStr"/>
+      <c r="BL58" s="21" t="inlineStr"/>
+      <c r="BM58" s="23" t="inlineStr"/>
       <c r="BN58" s="25" t="inlineStr"/>
       <c r="BO58" s="25" t="inlineStr"/>
       <c r="BP58" s="25" t="inlineStr"/>
@@ -7443,14 +7512,15 @@
       <c r="CE58" s="25" t="inlineStr"/>
       <c r="CF58" s="25" t="inlineStr"/>
       <c r="CG58" s="25" t="inlineStr"/>
-      <c r="CH58" s="26" t="inlineStr"/>
-      <c r="CI58" s="34" t="inlineStr"/>
+      <c r="CH58" s="25" t="inlineStr"/>
+      <c r="CI58" s="26" t="inlineStr"/>
       <c r="CJ58" s="34" t="inlineStr"/>
       <c r="CK58" s="34" t="inlineStr"/>
       <c r="CL58" s="34" t="inlineStr"/>
-      <c r="CM58" s="27" t="inlineStr"/>
-      <c r="CN58" s="28" t="inlineStr"/>
+      <c r="CM58" s="34" t="inlineStr"/>
+      <c r="CN58" s="27" t="inlineStr"/>
       <c r="CO58" s="28" t="inlineStr"/>
+      <c r="CP58" s="28" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -7478,31 +7548,31 @@
       <c r="W59" s="19" t="inlineStr"/>
       <c r="X59" s="19" t="inlineStr"/>
       <c r="Y59" s="19" t="inlineStr"/>
-      <c r="Z59" s="20" t="inlineStr"/>
-      <c r="AA59" s="21" t="inlineStr"/>
+      <c r="Z59" s="19" t="inlineStr"/>
+      <c r="AA59" s="20" t="inlineStr"/>
       <c r="AB59" s="21" t="inlineStr"/>
-      <c r="AC59" s="22" t="inlineStr"/>
+      <c r="AC59" s="21" t="inlineStr"/>
       <c r="AD59" s="22" t="inlineStr"/>
-      <c r="AE59" s="21" t="inlineStr"/>
-      <c r="AF59" s="23" t="inlineStr"/>
-      <c r="AG59" s="24" t="inlineStr"/>
+      <c r="AE59" s="22" t="inlineStr"/>
+      <c r="AF59" s="21" t="inlineStr"/>
+      <c r="AG59" s="23" t="inlineStr"/>
       <c r="AH59" s="24" t="inlineStr"/>
       <c r="AI59" s="24" t="inlineStr"/>
       <c r="AJ59" s="24" t="inlineStr"/>
-      <c r="AK59" s="25" t="inlineStr"/>
+      <c r="AK59" s="24" t="inlineStr"/>
       <c r="AL59" s="25" t="inlineStr"/>
       <c r="AM59" s="25" t="inlineStr"/>
-      <c r="AN59" s="26" t="inlineStr"/>
-      <c r="AO59" s="27" t="inlineStr"/>
-      <c r="AP59" s="28" t="inlineStr"/>
-      <c r="AQ59" s="29" t="inlineStr"/>
-      <c r="AR59" s="30" t="inlineStr"/>
-      <c r="AS59" s="31" t="inlineStr"/>
-      <c r="AT59" s="17" t="inlineStr"/>
+      <c r="AN59" s="25" t="inlineStr"/>
+      <c r="AO59" s="26" t="inlineStr"/>
+      <c r="AP59" s="27" t="inlineStr"/>
+      <c r="AQ59" s="28" t="inlineStr"/>
+      <c r="AR59" s="29" t="inlineStr"/>
+      <c r="AS59" s="30" t="inlineStr"/>
+      <c r="AT59" s="31" t="inlineStr"/>
       <c r="AU59" s="17" t="inlineStr"/>
-      <c r="AV59" s="32" t="inlineStr"/>
-      <c r="AW59" s="18" t="inlineStr"/>
-      <c r="AX59" s="19" t="inlineStr"/>
+      <c r="AV59" s="17" t="inlineStr"/>
+      <c r="AW59" s="32" t="inlineStr"/>
+      <c r="AX59" s="18" t="inlineStr"/>
       <c r="AY59" s="19" t="inlineStr"/>
       <c r="AZ59" s="19" t="inlineStr"/>
       <c r="BA59" s="19" t="inlineStr"/>
@@ -7511,13 +7581,13 @@
       <c r="BD59" s="19" t="inlineStr"/>
       <c r="BE59" s="19" t="inlineStr"/>
       <c r="BF59" s="19" t="inlineStr"/>
-      <c r="BG59" s="33" t="inlineStr"/>
-      <c r="BH59" s="19" t="inlineStr"/>
-      <c r="BI59" s="20" t="inlineStr"/>
-      <c r="BJ59" s="21" t="inlineStr"/>
+      <c r="BG59" s="19" t="inlineStr"/>
+      <c r="BH59" s="33" t="inlineStr"/>
+      <c r="BI59" s="19" t="inlineStr"/>
+      <c r="BJ59" s="20" t="inlineStr"/>
       <c r="BK59" s="21" t="inlineStr"/>
-      <c r="BL59" s="23" t="inlineStr"/>
-      <c r="BM59" s="25" t="inlineStr"/>
+      <c r="BL59" s="21" t="inlineStr"/>
+      <c r="BM59" s="23" t="inlineStr"/>
       <c r="BN59" s="25" t="inlineStr"/>
       <c r="BO59" s="25" t="inlineStr"/>
       <c r="BP59" s="25" t="inlineStr"/>
@@ -7538,14 +7608,15 @@
       <c r="CE59" s="25" t="inlineStr"/>
       <c r="CF59" s="25" t="inlineStr"/>
       <c r="CG59" s="25" t="inlineStr"/>
-      <c r="CH59" s="26" t="inlineStr"/>
-      <c r="CI59" s="34" t="inlineStr"/>
+      <c r="CH59" s="25" t="inlineStr"/>
+      <c r="CI59" s="26" t="inlineStr"/>
       <c r="CJ59" s="34" t="inlineStr"/>
       <c r="CK59" s="34" t="inlineStr"/>
       <c r="CL59" s="34" t="inlineStr"/>
-      <c r="CM59" s="27" t="inlineStr"/>
-      <c r="CN59" s="28" t="inlineStr"/>
+      <c r="CM59" s="34" t="inlineStr"/>
+      <c r="CN59" s="27" t="inlineStr"/>
       <c r="CO59" s="28" t="inlineStr"/>
+      <c r="CP59" s="28" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -7573,31 +7644,31 @@
       <c r="W60" s="19" t="inlineStr"/>
       <c r="X60" s="19" t="inlineStr"/>
       <c r="Y60" s="19" t="inlineStr"/>
-      <c r="Z60" s="20" t="inlineStr"/>
-      <c r="AA60" s="21" t="inlineStr"/>
+      <c r="Z60" s="19" t="inlineStr"/>
+      <c r="AA60" s="20" t="inlineStr"/>
       <c r="AB60" s="21" t="inlineStr"/>
-      <c r="AC60" s="22" t="inlineStr"/>
+      <c r="AC60" s="21" t="inlineStr"/>
       <c r="AD60" s="22" t="inlineStr"/>
-      <c r="AE60" s="21" t="inlineStr"/>
-      <c r="AF60" s="23" t="inlineStr"/>
-      <c r="AG60" s="24" t="inlineStr"/>
+      <c r="AE60" s="22" t="inlineStr"/>
+      <c r="AF60" s="21" t="inlineStr"/>
+      <c r="AG60" s="23" t="inlineStr"/>
       <c r="AH60" s="24" t="inlineStr"/>
       <c r="AI60" s="24" t="inlineStr"/>
       <c r="AJ60" s="24" t="inlineStr"/>
-      <c r="AK60" s="25" t="inlineStr"/>
+      <c r="AK60" s="24" t="inlineStr"/>
       <c r="AL60" s="25" t="inlineStr"/>
       <c r="AM60" s="25" t="inlineStr"/>
-      <c r="AN60" s="26" t="inlineStr"/>
-      <c r="AO60" s="27" t="inlineStr"/>
-      <c r="AP60" s="28" t="inlineStr"/>
-      <c r="AQ60" s="29" t="inlineStr"/>
-      <c r="AR60" s="30" t="inlineStr"/>
-      <c r="AS60" s="31" t="inlineStr"/>
-      <c r="AT60" s="17" t="inlineStr"/>
+      <c r="AN60" s="25" t="inlineStr"/>
+      <c r="AO60" s="26" t="inlineStr"/>
+      <c r="AP60" s="27" t="inlineStr"/>
+      <c r="AQ60" s="28" t="inlineStr"/>
+      <c r="AR60" s="29" t="inlineStr"/>
+      <c r="AS60" s="30" t="inlineStr"/>
+      <c r="AT60" s="31" t="inlineStr"/>
       <c r="AU60" s="17" t="inlineStr"/>
-      <c r="AV60" s="32" t="inlineStr"/>
-      <c r="AW60" s="18" t="inlineStr"/>
-      <c r="AX60" s="19" t="inlineStr"/>
+      <c r="AV60" s="17" t="inlineStr"/>
+      <c r="AW60" s="32" t="inlineStr"/>
+      <c r="AX60" s="18" t="inlineStr"/>
       <c r="AY60" s="19" t="inlineStr"/>
       <c r="AZ60" s="19" t="inlineStr"/>
       <c r="BA60" s="19" t="inlineStr"/>
@@ -7606,13 +7677,13 @@
       <c r="BD60" s="19" t="inlineStr"/>
       <c r="BE60" s="19" t="inlineStr"/>
       <c r="BF60" s="19" t="inlineStr"/>
-      <c r="BG60" s="33" t="inlineStr"/>
-      <c r="BH60" s="19" t="inlineStr"/>
-      <c r="BI60" s="20" t="inlineStr"/>
-      <c r="BJ60" s="21" t="inlineStr"/>
+      <c r="BG60" s="19" t="inlineStr"/>
+      <c r="BH60" s="33" t="inlineStr"/>
+      <c r="BI60" s="19" t="inlineStr"/>
+      <c r="BJ60" s="20" t="inlineStr"/>
       <c r="BK60" s="21" t="inlineStr"/>
-      <c r="BL60" s="23" t="inlineStr"/>
-      <c r="BM60" s="25" t="inlineStr"/>
+      <c r="BL60" s="21" t="inlineStr"/>
+      <c r="BM60" s="23" t="inlineStr"/>
       <c r="BN60" s="25" t="inlineStr"/>
       <c r="BO60" s="25" t="inlineStr"/>
       <c r="BP60" s="25" t="inlineStr"/>
@@ -7633,14 +7704,15 @@
       <c r="CE60" s="25" t="inlineStr"/>
       <c r="CF60" s="25" t="inlineStr"/>
       <c r="CG60" s="25" t="inlineStr"/>
-      <c r="CH60" s="26" t="inlineStr"/>
-      <c r="CI60" s="34" t="inlineStr"/>
+      <c r="CH60" s="25" t="inlineStr"/>
+      <c r="CI60" s="26" t="inlineStr"/>
       <c r="CJ60" s="34" t="inlineStr"/>
       <c r="CK60" s="34" t="inlineStr"/>
       <c r="CL60" s="34" t="inlineStr"/>
-      <c r="CM60" s="27" t="inlineStr"/>
-      <c r="CN60" s="28" t="inlineStr"/>
+      <c r="CM60" s="34" t="inlineStr"/>
+      <c r="CN60" s="27" t="inlineStr"/>
       <c r="CO60" s="28" t="inlineStr"/>
+      <c r="CP60" s="28" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -7668,31 +7740,31 @@
       <c r="W61" s="19" t="inlineStr"/>
       <c r="X61" s="19" t="inlineStr"/>
       <c r="Y61" s="19" t="inlineStr"/>
-      <c r="Z61" s="20" t="inlineStr"/>
-      <c r="AA61" s="21" t="inlineStr"/>
+      <c r="Z61" s="19" t="inlineStr"/>
+      <c r="AA61" s="20" t="inlineStr"/>
       <c r="AB61" s="21" t="inlineStr"/>
-      <c r="AC61" s="22" t="inlineStr"/>
+      <c r="AC61" s="21" t="inlineStr"/>
       <c r="AD61" s="22" t="inlineStr"/>
-      <c r="AE61" s="21" t="inlineStr"/>
-      <c r="AF61" s="23" t="inlineStr"/>
-      <c r="AG61" s="24" t="inlineStr"/>
+      <c r="AE61" s="22" t="inlineStr"/>
+      <c r="AF61" s="21" t="inlineStr"/>
+      <c r="AG61" s="23" t="inlineStr"/>
       <c r="AH61" s="24" t="inlineStr"/>
       <c r="AI61" s="24" t="inlineStr"/>
       <c r="AJ61" s="24" t="inlineStr"/>
-      <c r="AK61" s="25" t="inlineStr"/>
+      <c r="AK61" s="24" t="inlineStr"/>
       <c r="AL61" s="25" t="inlineStr"/>
       <c r="AM61" s="25" t="inlineStr"/>
-      <c r="AN61" s="26" t="inlineStr"/>
-      <c r="AO61" s="27" t="inlineStr"/>
-      <c r="AP61" s="28" t="inlineStr"/>
-      <c r="AQ61" s="29" t="inlineStr"/>
-      <c r="AR61" s="30" t="inlineStr"/>
-      <c r="AS61" s="31" t="inlineStr"/>
-      <c r="AT61" s="17" t="inlineStr"/>
+      <c r="AN61" s="25" t="inlineStr"/>
+      <c r="AO61" s="26" t="inlineStr"/>
+      <c r="AP61" s="27" t="inlineStr"/>
+      <c r="AQ61" s="28" t="inlineStr"/>
+      <c r="AR61" s="29" t="inlineStr"/>
+      <c r="AS61" s="30" t="inlineStr"/>
+      <c r="AT61" s="31" t="inlineStr"/>
       <c r="AU61" s="17" t="inlineStr"/>
-      <c r="AV61" s="32" t="inlineStr"/>
-      <c r="AW61" s="18" t="inlineStr"/>
-      <c r="AX61" s="19" t="inlineStr"/>
+      <c r="AV61" s="17" t="inlineStr"/>
+      <c r="AW61" s="32" t="inlineStr"/>
+      <c r="AX61" s="18" t="inlineStr"/>
       <c r="AY61" s="19" t="inlineStr"/>
       <c r="AZ61" s="19" t="inlineStr"/>
       <c r="BA61" s="19" t="inlineStr"/>
@@ -7701,13 +7773,13 @@
       <c r="BD61" s="19" t="inlineStr"/>
       <c r="BE61" s="19" t="inlineStr"/>
       <c r="BF61" s="19" t="inlineStr"/>
-      <c r="BG61" s="33" t="inlineStr"/>
-      <c r="BH61" s="19" t="inlineStr"/>
-      <c r="BI61" s="20" t="inlineStr"/>
-      <c r="BJ61" s="21" t="inlineStr"/>
+      <c r="BG61" s="19" t="inlineStr"/>
+      <c r="BH61" s="33" t="inlineStr"/>
+      <c r="BI61" s="19" t="inlineStr"/>
+      <c r="BJ61" s="20" t="inlineStr"/>
       <c r="BK61" s="21" t="inlineStr"/>
-      <c r="BL61" s="23" t="inlineStr"/>
-      <c r="BM61" s="25" t="inlineStr"/>
+      <c r="BL61" s="21" t="inlineStr"/>
+      <c r="BM61" s="23" t="inlineStr"/>
       <c r="BN61" s="25" t="inlineStr"/>
       <c r="BO61" s="25" t="inlineStr"/>
       <c r="BP61" s="25" t="inlineStr"/>
@@ -7728,14 +7800,15 @@
       <c r="CE61" s="25" t="inlineStr"/>
       <c r="CF61" s="25" t="inlineStr"/>
       <c r="CG61" s="25" t="inlineStr"/>
-      <c r="CH61" s="26" t="inlineStr"/>
-      <c r="CI61" s="34" t="inlineStr"/>
+      <c r="CH61" s="25" t="inlineStr"/>
+      <c r="CI61" s="26" t="inlineStr"/>
       <c r="CJ61" s="34" t="inlineStr"/>
       <c r="CK61" s="34" t="inlineStr"/>
       <c r="CL61" s="34" t="inlineStr"/>
-      <c r="CM61" s="27" t="inlineStr"/>
-      <c r="CN61" s="28" t="inlineStr"/>
+      <c r="CM61" s="34" t="inlineStr"/>
+      <c r="CN61" s="27" t="inlineStr"/>
       <c r="CO61" s="28" t="inlineStr"/>
+      <c r="CP61" s="28" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -7763,31 +7836,31 @@
       <c r="W62" s="19" t="inlineStr"/>
       <c r="X62" s="19" t="inlineStr"/>
       <c r="Y62" s="19" t="inlineStr"/>
-      <c r="Z62" s="20" t="inlineStr"/>
-      <c r="AA62" s="21" t="inlineStr"/>
+      <c r="Z62" s="19" t="inlineStr"/>
+      <c r="AA62" s="20" t="inlineStr"/>
       <c r="AB62" s="21" t="inlineStr"/>
-      <c r="AC62" s="22" t="inlineStr"/>
+      <c r="AC62" s="21" t="inlineStr"/>
       <c r="AD62" s="22" t="inlineStr"/>
-      <c r="AE62" s="21" t="inlineStr"/>
-      <c r="AF62" s="23" t="inlineStr"/>
-      <c r="AG62" s="24" t="inlineStr"/>
+      <c r="AE62" s="22" t="inlineStr"/>
+      <c r="AF62" s="21" t="inlineStr"/>
+      <c r="AG62" s="23" t="inlineStr"/>
       <c r="AH62" s="24" t="inlineStr"/>
       <c r="AI62" s="24" t="inlineStr"/>
       <c r="AJ62" s="24" t="inlineStr"/>
-      <c r="AK62" s="25" t="inlineStr"/>
+      <c r="AK62" s="24" t="inlineStr"/>
       <c r="AL62" s="25" t="inlineStr"/>
       <c r="AM62" s="25" t="inlineStr"/>
-      <c r="AN62" s="26" t="inlineStr"/>
-      <c r="AO62" s="27" t="inlineStr"/>
-      <c r="AP62" s="28" t="inlineStr"/>
-      <c r="AQ62" s="29" t="inlineStr"/>
-      <c r="AR62" s="30" t="inlineStr"/>
-      <c r="AS62" s="31" t="inlineStr"/>
-      <c r="AT62" s="17" t="inlineStr"/>
+      <c r="AN62" s="25" t="inlineStr"/>
+      <c r="AO62" s="26" t="inlineStr"/>
+      <c r="AP62" s="27" t="inlineStr"/>
+      <c r="AQ62" s="28" t="inlineStr"/>
+      <c r="AR62" s="29" t="inlineStr"/>
+      <c r="AS62" s="30" t="inlineStr"/>
+      <c r="AT62" s="31" t="inlineStr"/>
       <c r="AU62" s="17" t="inlineStr"/>
-      <c r="AV62" s="32" t="inlineStr"/>
-      <c r="AW62" s="18" t="inlineStr"/>
-      <c r="AX62" s="19" t="inlineStr"/>
+      <c r="AV62" s="17" t="inlineStr"/>
+      <c r="AW62" s="32" t="inlineStr"/>
+      <c r="AX62" s="18" t="inlineStr"/>
       <c r="AY62" s="19" t="inlineStr"/>
       <c r="AZ62" s="19" t="inlineStr"/>
       <c r="BA62" s="19" t="inlineStr"/>
@@ -7796,13 +7869,13 @@
       <c r="BD62" s="19" t="inlineStr"/>
       <c r="BE62" s="19" t="inlineStr"/>
       <c r="BF62" s="19" t="inlineStr"/>
-      <c r="BG62" s="33" t="inlineStr"/>
-      <c r="BH62" s="19" t="inlineStr"/>
-      <c r="BI62" s="20" t="inlineStr"/>
-      <c r="BJ62" s="21" t="inlineStr"/>
+      <c r="BG62" s="19" t="inlineStr"/>
+      <c r="BH62" s="33" t="inlineStr"/>
+      <c r="BI62" s="19" t="inlineStr"/>
+      <c r="BJ62" s="20" t="inlineStr"/>
       <c r="BK62" s="21" t="inlineStr"/>
-      <c r="BL62" s="23" t="inlineStr"/>
-      <c r="BM62" s="25" t="inlineStr"/>
+      <c r="BL62" s="21" t="inlineStr"/>
+      <c r="BM62" s="23" t="inlineStr"/>
       <c r="BN62" s="25" t="inlineStr"/>
       <c r="BO62" s="25" t="inlineStr"/>
       <c r="BP62" s="25" t="inlineStr"/>
@@ -7823,14 +7896,15 @@
       <c r="CE62" s="25" t="inlineStr"/>
       <c r="CF62" s="25" t="inlineStr"/>
       <c r="CG62" s="25" t="inlineStr"/>
-      <c r="CH62" s="26" t="inlineStr"/>
-      <c r="CI62" s="34" t="inlineStr"/>
+      <c r="CH62" s="25" t="inlineStr"/>
+      <c r="CI62" s="26" t="inlineStr"/>
       <c r="CJ62" s="34" t="inlineStr"/>
       <c r="CK62" s="34" t="inlineStr"/>
       <c r="CL62" s="34" t="inlineStr"/>
-      <c r="CM62" s="27" t="inlineStr"/>
-      <c r="CN62" s="28" t="inlineStr"/>
+      <c r="CM62" s="34" t="inlineStr"/>
+      <c r="CN62" s="27" t="inlineStr"/>
       <c r="CO62" s="28" t="inlineStr"/>
+      <c r="CP62" s="28" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -7858,31 +7932,31 @@
       <c r="W63" s="19" t="inlineStr"/>
       <c r="X63" s="19" t="inlineStr"/>
       <c r="Y63" s="19" t="inlineStr"/>
-      <c r="Z63" s="20" t="inlineStr"/>
-      <c r="AA63" s="21" t="inlineStr"/>
+      <c r="Z63" s="19" t="inlineStr"/>
+      <c r="AA63" s="20" t="inlineStr"/>
       <c r="AB63" s="21" t="inlineStr"/>
-      <c r="AC63" s="22" t="inlineStr"/>
+      <c r="AC63" s="21" t="inlineStr"/>
       <c r="AD63" s="22" t="inlineStr"/>
-      <c r="AE63" s="21" t="inlineStr"/>
-      <c r="AF63" s="23" t="inlineStr"/>
-      <c r="AG63" s="24" t="inlineStr"/>
+      <c r="AE63" s="22" t="inlineStr"/>
+      <c r="AF63" s="21" t="inlineStr"/>
+      <c r="AG63" s="23" t="inlineStr"/>
       <c r="AH63" s="24" t="inlineStr"/>
       <c r="AI63" s="24" t="inlineStr"/>
       <c r="AJ63" s="24" t="inlineStr"/>
-      <c r="AK63" s="25" t="inlineStr"/>
+      <c r="AK63" s="24" t="inlineStr"/>
       <c r="AL63" s="25" t="inlineStr"/>
       <c r="AM63" s="25" t="inlineStr"/>
-      <c r="AN63" s="26" t="inlineStr"/>
-      <c r="AO63" s="27" t="inlineStr"/>
-      <c r="AP63" s="28" t="inlineStr"/>
-      <c r="AQ63" s="29" t="inlineStr"/>
-      <c r="AR63" s="30" t="inlineStr"/>
-      <c r="AS63" s="31" t="inlineStr"/>
-      <c r="AT63" s="17" t="inlineStr"/>
+      <c r="AN63" s="25" t="inlineStr"/>
+      <c r="AO63" s="26" t="inlineStr"/>
+      <c r="AP63" s="27" t="inlineStr"/>
+      <c r="AQ63" s="28" t="inlineStr"/>
+      <c r="AR63" s="29" t="inlineStr"/>
+      <c r="AS63" s="30" t="inlineStr"/>
+      <c r="AT63" s="31" t="inlineStr"/>
       <c r="AU63" s="17" t="inlineStr"/>
-      <c r="AV63" s="32" t="inlineStr"/>
-      <c r="AW63" s="18" t="inlineStr"/>
-      <c r="AX63" s="19" t="inlineStr"/>
+      <c r="AV63" s="17" t="inlineStr"/>
+      <c r="AW63" s="32" t="inlineStr"/>
+      <c r="AX63" s="18" t="inlineStr"/>
       <c r="AY63" s="19" t="inlineStr"/>
       <c r="AZ63" s="19" t="inlineStr"/>
       <c r="BA63" s="19" t="inlineStr"/>
@@ -7891,13 +7965,13 @@
       <c r="BD63" s="19" t="inlineStr"/>
       <c r="BE63" s="19" t="inlineStr"/>
       <c r="BF63" s="19" t="inlineStr"/>
-      <c r="BG63" s="33" t="inlineStr"/>
-      <c r="BH63" s="19" t="inlineStr"/>
-      <c r="BI63" s="20" t="inlineStr"/>
-      <c r="BJ63" s="21" t="inlineStr"/>
+      <c r="BG63" s="19" t="inlineStr"/>
+      <c r="BH63" s="33" t="inlineStr"/>
+      <c r="BI63" s="19" t="inlineStr"/>
+      <c r="BJ63" s="20" t="inlineStr"/>
       <c r="BK63" s="21" t="inlineStr"/>
-      <c r="BL63" s="23" t="inlineStr"/>
-      <c r="BM63" s="25" t="inlineStr"/>
+      <c r="BL63" s="21" t="inlineStr"/>
+      <c r="BM63" s="23" t="inlineStr"/>
       <c r="BN63" s="25" t="inlineStr"/>
       <c r="BO63" s="25" t="inlineStr"/>
       <c r="BP63" s="25" t="inlineStr"/>
@@ -7918,14 +7992,15 @@
       <c r="CE63" s="25" t="inlineStr"/>
       <c r="CF63" s="25" t="inlineStr"/>
       <c r="CG63" s="25" t="inlineStr"/>
-      <c r="CH63" s="26" t="inlineStr"/>
-      <c r="CI63" s="34" t="inlineStr"/>
+      <c r="CH63" s="25" t="inlineStr"/>
+      <c r="CI63" s="26" t="inlineStr"/>
       <c r="CJ63" s="34" t="inlineStr"/>
       <c r="CK63" s="34" t="inlineStr"/>
       <c r="CL63" s="34" t="inlineStr"/>
-      <c r="CM63" s="27" t="inlineStr"/>
-      <c r="CN63" s="28" t="inlineStr"/>
+      <c r="CM63" s="34" t="inlineStr"/>
+      <c r="CN63" s="27" t="inlineStr"/>
       <c r="CO63" s="28" t="inlineStr"/>
+      <c r="CP63" s="28" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -7953,31 +8028,31 @@
       <c r="W64" s="19" t="inlineStr"/>
       <c r="X64" s="19" t="inlineStr"/>
       <c r="Y64" s="19" t="inlineStr"/>
-      <c r="Z64" s="20" t="inlineStr"/>
-      <c r="AA64" s="21" t="inlineStr"/>
+      <c r="Z64" s="19" t="inlineStr"/>
+      <c r="AA64" s="20" t="inlineStr"/>
       <c r="AB64" s="21" t="inlineStr"/>
-      <c r="AC64" s="22" t="inlineStr"/>
+      <c r="AC64" s="21" t="inlineStr"/>
       <c r="AD64" s="22" t="inlineStr"/>
-      <c r="AE64" s="21" t="inlineStr"/>
-      <c r="AF64" s="23" t="inlineStr"/>
-      <c r="AG64" s="24" t="inlineStr"/>
+      <c r="AE64" s="22" t="inlineStr"/>
+      <c r="AF64" s="21" t="inlineStr"/>
+      <c r="AG64" s="23" t="inlineStr"/>
       <c r="AH64" s="24" t="inlineStr"/>
       <c r="AI64" s="24" t="inlineStr"/>
       <c r="AJ64" s="24" t="inlineStr"/>
-      <c r="AK64" s="25" t="inlineStr"/>
+      <c r="AK64" s="24" t="inlineStr"/>
       <c r="AL64" s="25" t="inlineStr"/>
       <c r="AM64" s="25" t="inlineStr"/>
-      <c r="AN64" s="26" t="inlineStr"/>
-      <c r="AO64" s="27" t="inlineStr"/>
-      <c r="AP64" s="28" t="inlineStr"/>
-      <c r="AQ64" s="29" t="inlineStr"/>
-      <c r="AR64" s="30" t="inlineStr"/>
-      <c r="AS64" s="31" t="inlineStr"/>
-      <c r="AT64" s="17" t="inlineStr"/>
+      <c r="AN64" s="25" t="inlineStr"/>
+      <c r="AO64" s="26" t="inlineStr"/>
+      <c r="AP64" s="27" t="inlineStr"/>
+      <c r="AQ64" s="28" t="inlineStr"/>
+      <c r="AR64" s="29" t="inlineStr"/>
+      <c r="AS64" s="30" t="inlineStr"/>
+      <c r="AT64" s="31" t="inlineStr"/>
       <c r="AU64" s="17" t="inlineStr"/>
-      <c r="AV64" s="32" t="inlineStr"/>
-      <c r="AW64" s="18" t="inlineStr"/>
-      <c r="AX64" s="19" t="inlineStr"/>
+      <c r="AV64" s="17" t="inlineStr"/>
+      <c r="AW64" s="32" t="inlineStr"/>
+      <c r="AX64" s="18" t="inlineStr"/>
       <c r="AY64" s="19" t="inlineStr"/>
       <c r="AZ64" s="19" t="inlineStr"/>
       <c r="BA64" s="19" t="inlineStr"/>
@@ -7986,13 +8061,13 @@
       <c r="BD64" s="19" t="inlineStr"/>
       <c r="BE64" s="19" t="inlineStr"/>
       <c r="BF64" s="19" t="inlineStr"/>
-      <c r="BG64" s="33" t="inlineStr"/>
-      <c r="BH64" s="19" t="inlineStr"/>
-      <c r="BI64" s="20" t="inlineStr"/>
-      <c r="BJ64" s="21" t="inlineStr"/>
+      <c r="BG64" s="19" t="inlineStr"/>
+      <c r="BH64" s="33" t="inlineStr"/>
+      <c r="BI64" s="19" t="inlineStr"/>
+      <c r="BJ64" s="20" t="inlineStr"/>
       <c r="BK64" s="21" t="inlineStr"/>
-      <c r="BL64" s="23" t="inlineStr"/>
-      <c r="BM64" s="25" t="inlineStr"/>
+      <c r="BL64" s="21" t="inlineStr"/>
+      <c r="BM64" s="23" t="inlineStr"/>
       <c r="BN64" s="25" t="inlineStr"/>
       <c r="BO64" s="25" t="inlineStr"/>
       <c r="BP64" s="25" t="inlineStr"/>
@@ -8013,14 +8088,15 @@
       <c r="CE64" s="25" t="inlineStr"/>
       <c r="CF64" s="25" t="inlineStr"/>
       <c r="CG64" s="25" t="inlineStr"/>
-      <c r="CH64" s="26" t="inlineStr"/>
-      <c r="CI64" s="34" t="inlineStr"/>
+      <c r="CH64" s="25" t="inlineStr"/>
+      <c r="CI64" s="26" t="inlineStr"/>
       <c r="CJ64" s="34" t="inlineStr"/>
       <c r="CK64" s="34" t="inlineStr"/>
       <c r="CL64" s="34" t="inlineStr"/>
-      <c r="CM64" s="27" t="inlineStr"/>
-      <c r="CN64" s="28" t="inlineStr"/>
+      <c r="CM64" s="34" t="inlineStr"/>
+      <c r="CN64" s="27" t="inlineStr"/>
       <c r="CO64" s="28" t="inlineStr"/>
+      <c r="CP64" s="28" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -8048,31 +8124,31 @@
       <c r="W65" s="19" t="inlineStr"/>
       <c r="X65" s="19" t="inlineStr"/>
       <c r="Y65" s="19" t="inlineStr"/>
-      <c r="Z65" s="20" t="inlineStr"/>
-      <c r="AA65" s="21" t="inlineStr"/>
+      <c r="Z65" s="19" t="inlineStr"/>
+      <c r="AA65" s="20" t="inlineStr"/>
       <c r="AB65" s="21" t="inlineStr"/>
-      <c r="AC65" s="22" t="inlineStr"/>
+      <c r="AC65" s="21" t="inlineStr"/>
       <c r="AD65" s="22" t="inlineStr"/>
-      <c r="AE65" s="21" t="inlineStr"/>
-      <c r="AF65" s="23" t="inlineStr"/>
-      <c r="AG65" s="24" t="inlineStr"/>
+      <c r="AE65" s="22" t="inlineStr"/>
+      <c r="AF65" s="21" t="inlineStr"/>
+      <c r="AG65" s="23" t="inlineStr"/>
       <c r="AH65" s="24" t="inlineStr"/>
       <c r="AI65" s="24" t="inlineStr"/>
       <c r="AJ65" s="24" t="inlineStr"/>
-      <c r="AK65" s="25" t="inlineStr"/>
+      <c r="AK65" s="24" t="inlineStr"/>
       <c r="AL65" s="25" t="inlineStr"/>
       <c r="AM65" s="25" t="inlineStr"/>
-      <c r="AN65" s="26" t="inlineStr"/>
-      <c r="AO65" s="27" t="inlineStr"/>
-      <c r="AP65" s="28" t="inlineStr"/>
-      <c r="AQ65" s="29" t="inlineStr"/>
-      <c r="AR65" s="30" t="inlineStr"/>
-      <c r="AS65" s="31" t="inlineStr"/>
-      <c r="AT65" s="17" t="inlineStr"/>
+      <c r="AN65" s="25" t="inlineStr"/>
+      <c r="AO65" s="26" t="inlineStr"/>
+      <c r="AP65" s="27" t="inlineStr"/>
+      <c r="AQ65" s="28" t="inlineStr"/>
+      <c r="AR65" s="29" t="inlineStr"/>
+      <c r="AS65" s="30" t="inlineStr"/>
+      <c r="AT65" s="31" t="inlineStr"/>
       <c r="AU65" s="17" t="inlineStr"/>
-      <c r="AV65" s="32" t="inlineStr"/>
-      <c r="AW65" s="18" t="inlineStr"/>
-      <c r="AX65" s="19" t="inlineStr"/>
+      <c r="AV65" s="17" t="inlineStr"/>
+      <c r="AW65" s="32" t="inlineStr"/>
+      <c r="AX65" s="18" t="inlineStr"/>
       <c r="AY65" s="19" t="inlineStr"/>
       <c r="AZ65" s="19" t="inlineStr"/>
       <c r="BA65" s="19" t="inlineStr"/>
@@ -8081,13 +8157,13 @@
       <c r="BD65" s="19" t="inlineStr"/>
       <c r="BE65" s="19" t="inlineStr"/>
       <c r="BF65" s="19" t="inlineStr"/>
-      <c r="BG65" s="33" t="inlineStr"/>
-      <c r="BH65" s="19" t="inlineStr"/>
-      <c r="BI65" s="20" t="inlineStr"/>
-      <c r="BJ65" s="21" t="inlineStr"/>
+      <c r="BG65" s="19" t="inlineStr"/>
+      <c r="BH65" s="33" t="inlineStr"/>
+      <c r="BI65" s="19" t="inlineStr"/>
+      <c r="BJ65" s="20" t="inlineStr"/>
       <c r="BK65" s="21" t="inlineStr"/>
-      <c r="BL65" s="23" t="inlineStr"/>
-      <c r="BM65" s="25" t="inlineStr"/>
+      <c r="BL65" s="21" t="inlineStr"/>
+      <c r="BM65" s="23" t="inlineStr"/>
       <c r="BN65" s="25" t="inlineStr"/>
       <c r="BO65" s="25" t="inlineStr"/>
       <c r="BP65" s="25" t="inlineStr"/>
@@ -8108,14 +8184,15 @@
       <c r="CE65" s="25" t="inlineStr"/>
       <c r="CF65" s="25" t="inlineStr"/>
       <c r="CG65" s="25" t="inlineStr"/>
-      <c r="CH65" s="26" t="inlineStr"/>
-      <c r="CI65" s="34" t="inlineStr"/>
+      <c r="CH65" s="25" t="inlineStr"/>
+      <c r="CI65" s="26" t="inlineStr"/>
       <c r="CJ65" s="34" t="inlineStr"/>
       <c r="CK65" s="34" t="inlineStr"/>
       <c r="CL65" s="34" t="inlineStr"/>
-      <c r="CM65" s="27" t="inlineStr"/>
-      <c r="CN65" s="28" t="inlineStr"/>
+      <c r="CM65" s="34" t="inlineStr"/>
+      <c r="CN65" s="27" t="inlineStr"/>
       <c r="CO65" s="28" t="inlineStr"/>
+      <c r="CP65" s="28" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -8143,31 +8220,31 @@
       <c r="W66" s="19" t="inlineStr"/>
       <c r="X66" s="19" t="inlineStr"/>
       <c r="Y66" s="19" t="inlineStr"/>
-      <c r="Z66" s="20" t="inlineStr"/>
-      <c r="AA66" s="21" t="inlineStr"/>
+      <c r="Z66" s="19" t="inlineStr"/>
+      <c r="AA66" s="20" t="inlineStr"/>
       <c r="AB66" s="21" t="inlineStr"/>
-      <c r="AC66" s="22" t="inlineStr"/>
+      <c r="AC66" s="21" t="inlineStr"/>
       <c r="AD66" s="22" t="inlineStr"/>
-      <c r="AE66" s="21" t="inlineStr"/>
-      <c r="AF66" s="23" t="inlineStr"/>
-      <c r="AG66" s="24" t="inlineStr"/>
+      <c r="AE66" s="22" t="inlineStr"/>
+      <c r="AF66" s="21" t="inlineStr"/>
+      <c r="AG66" s="23" t="inlineStr"/>
       <c r="AH66" s="24" t="inlineStr"/>
       <c r="AI66" s="24" t="inlineStr"/>
       <c r="AJ66" s="24" t="inlineStr"/>
-      <c r="AK66" s="25" t="inlineStr"/>
+      <c r="AK66" s="24" t="inlineStr"/>
       <c r="AL66" s="25" t="inlineStr"/>
       <c r="AM66" s="25" t="inlineStr"/>
-      <c r="AN66" s="26" t="inlineStr"/>
-      <c r="AO66" s="27" t="inlineStr"/>
-      <c r="AP66" s="28" t="inlineStr"/>
-      <c r="AQ66" s="29" t="inlineStr"/>
-      <c r="AR66" s="30" t="inlineStr"/>
-      <c r="AS66" s="31" t="inlineStr"/>
-      <c r="AT66" s="17" t="inlineStr"/>
+      <c r="AN66" s="25" t="inlineStr"/>
+      <c r="AO66" s="26" t="inlineStr"/>
+      <c r="AP66" s="27" t="inlineStr"/>
+      <c r="AQ66" s="28" t="inlineStr"/>
+      <c r="AR66" s="29" t="inlineStr"/>
+      <c r="AS66" s="30" t="inlineStr"/>
+      <c r="AT66" s="31" t="inlineStr"/>
       <c r="AU66" s="17" t="inlineStr"/>
-      <c r="AV66" s="32" t="inlineStr"/>
-      <c r="AW66" s="18" t="inlineStr"/>
-      <c r="AX66" s="19" t="inlineStr"/>
+      <c r="AV66" s="17" t="inlineStr"/>
+      <c r="AW66" s="32" t="inlineStr"/>
+      <c r="AX66" s="18" t="inlineStr"/>
       <c r="AY66" s="19" t="inlineStr"/>
       <c r="AZ66" s="19" t="inlineStr"/>
       <c r="BA66" s="19" t="inlineStr"/>
@@ -8176,13 +8253,13 @@
       <c r="BD66" s="19" t="inlineStr"/>
       <c r="BE66" s="19" t="inlineStr"/>
       <c r="BF66" s="19" t="inlineStr"/>
-      <c r="BG66" s="33" t="inlineStr"/>
-      <c r="BH66" s="19" t="inlineStr"/>
-      <c r="BI66" s="20" t="inlineStr"/>
-      <c r="BJ66" s="21" t="inlineStr"/>
+      <c r="BG66" s="19" t="inlineStr"/>
+      <c r="BH66" s="33" t="inlineStr"/>
+      <c r="BI66" s="19" t="inlineStr"/>
+      <c r="BJ66" s="20" t="inlineStr"/>
       <c r="BK66" s="21" t="inlineStr"/>
-      <c r="BL66" s="23" t="inlineStr"/>
-      <c r="BM66" s="25" t="inlineStr"/>
+      <c r="BL66" s="21" t="inlineStr"/>
+      <c r="BM66" s="23" t="inlineStr"/>
       <c r="BN66" s="25" t="inlineStr"/>
       <c r="BO66" s="25" t="inlineStr"/>
       <c r="BP66" s="25" t="inlineStr"/>
@@ -8203,14 +8280,15 @@
       <c r="CE66" s="25" t="inlineStr"/>
       <c r="CF66" s="25" t="inlineStr"/>
       <c r="CG66" s="25" t="inlineStr"/>
-      <c r="CH66" s="26" t="inlineStr"/>
-      <c r="CI66" s="34" t="inlineStr"/>
+      <c r="CH66" s="25" t="inlineStr"/>
+      <c r="CI66" s="26" t="inlineStr"/>
       <c r="CJ66" s="34" t="inlineStr"/>
       <c r="CK66" s="34" t="inlineStr"/>
       <c r="CL66" s="34" t="inlineStr"/>
-      <c r="CM66" s="27" t="inlineStr"/>
-      <c r="CN66" s="28" t="inlineStr"/>
+      <c r="CM66" s="34" t="inlineStr"/>
+      <c r="CN66" s="27" t="inlineStr"/>
       <c r="CO66" s="28" t="inlineStr"/>
+      <c r="CP66" s="28" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -8238,31 +8316,31 @@
       <c r="W67" s="19" t="inlineStr"/>
       <c r="X67" s="19" t="inlineStr"/>
       <c r="Y67" s="19" t="inlineStr"/>
-      <c r="Z67" s="20" t="inlineStr"/>
-      <c r="AA67" s="21" t="inlineStr"/>
+      <c r="Z67" s="19" t="inlineStr"/>
+      <c r="AA67" s="20" t="inlineStr"/>
       <c r="AB67" s="21" t="inlineStr"/>
-      <c r="AC67" s="22" t="inlineStr"/>
+      <c r="AC67" s="21" t="inlineStr"/>
       <c r="AD67" s="22" t="inlineStr"/>
-      <c r="AE67" s="21" t="inlineStr"/>
-      <c r="AF67" s="23" t="inlineStr"/>
-      <c r="AG67" s="24" t="inlineStr"/>
+      <c r="AE67" s="22" t="inlineStr"/>
+      <c r="AF67" s="21" t="inlineStr"/>
+      <c r="AG67" s="23" t="inlineStr"/>
       <c r="AH67" s="24" t="inlineStr"/>
       <c r="AI67" s="24" t="inlineStr"/>
       <c r="AJ67" s="24" t="inlineStr"/>
-      <c r="AK67" s="25" t="inlineStr"/>
+      <c r="AK67" s="24" t="inlineStr"/>
       <c r="AL67" s="25" t="inlineStr"/>
       <c r="AM67" s="25" t="inlineStr"/>
-      <c r="AN67" s="26" t="inlineStr"/>
-      <c r="AO67" s="27" t="inlineStr"/>
-      <c r="AP67" s="28" t="inlineStr"/>
-      <c r="AQ67" s="29" t="inlineStr"/>
-      <c r="AR67" s="30" t="inlineStr"/>
-      <c r="AS67" s="31" t="inlineStr"/>
-      <c r="AT67" s="17" t="inlineStr"/>
+      <c r="AN67" s="25" t="inlineStr"/>
+      <c r="AO67" s="26" t="inlineStr"/>
+      <c r="AP67" s="27" t="inlineStr"/>
+      <c r="AQ67" s="28" t="inlineStr"/>
+      <c r="AR67" s="29" t="inlineStr"/>
+      <c r="AS67" s="30" t="inlineStr"/>
+      <c r="AT67" s="31" t="inlineStr"/>
       <c r="AU67" s="17" t="inlineStr"/>
-      <c r="AV67" s="32" t="inlineStr"/>
-      <c r="AW67" s="18" t="inlineStr"/>
-      <c r="AX67" s="19" t="inlineStr"/>
+      <c r="AV67" s="17" t="inlineStr"/>
+      <c r="AW67" s="32" t="inlineStr"/>
+      <c r="AX67" s="18" t="inlineStr"/>
       <c r="AY67" s="19" t="inlineStr"/>
       <c r="AZ67" s="19" t="inlineStr"/>
       <c r="BA67" s="19" t="inlineStr"/>
@@ -8271,13 +8349,13 @@
       <c r="BD67" s="19" t="inlineStr"/>
       <c r="BE67" s="19" t="inlineStr"/>
       <c r="BF67" s="19" t="inlineStr"/>
-      <c r="BG67" s="33" t="inlineStr"/>
-      <c r="BH67" s="19" t="inlineStr"/>
-      <c r="BI67" s="20" t="inlineStr"/>
-      <c r="BJ67" s="21" t="inlineStr"/>
+      <c r="BG67" s="19" t="inlineStr"/>
+      <c r="BH67" s="33" t="inlineStr"/>
+      <c r="BI67" s="19" t="inlineStr"/>
+      <c r="BJ67" s="20" t="inlineStr"/>
       <c r="BK67" s="21" t="inlineStr"/>
-      <c r="BL67" s="23" t="inlineStr"/>
-      <c r="BM67" s="25" t="inlineStr"/>
+      <c r="BL67" s="21" t="inlineStr"/>
+      <c r="BM67" s="23" t="inlineStr"/>
       <c r="BN67" s="25" t="inlineStr"/>
       <c r="BO67" s="25" t="inlineStr"/>
       <c r="BP67" s="25" t="inlineStr"/>
@@ -8298,14 +8376,15 @@
       <c r="CE67" s="25" t="inlineStr"/>
       <c r="CF67" s="25" t="inlineStr"/>
       <c r="CG67" s="25" t="inlineStr"/>
-      <c r="CH67" s="26" t="inlineStr"/>
-      <c r="CI67" s="34" t="inlineStr"/>
+      <c r="CH67" s="25" t="inlineStr"/>
+      <c r="CI67" s="26" t="inlineStr"/>
       <c r="CJ67" s="34" t="inlineStr"/>
       <c r="CK67" s="34" t="inlineStr"/>
       <c r="CL67" s="34" t="inlineStr"/>
-      <c r="CM67" s="27" t="inlineStr"/>
-      <c r="CN67" s="28" t="inlineStr"/>
+      <c r="CM67" s="34" t="inlineStr"/>
+      <c r="CN67" s="27" t="inlineStr"/>
       <c r="CO67" s="28" t="inlineStr"/>
+      <c r="CP67" s="28" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -8333,31 +8412,31 @@
       <c r="W68" s="19" t="inlineStr"/>
       <c r="X68" s="19" t="inlineStr"/>
       <c r="Y68" s="19" t="inlineStr"/>
-      <c r="Z68" s="20" t="inlineStr"/>
-      <c r="AA68" s="21" t="inlineStr"/>
+      <c r="Z68" s="19" t="inlineStr"/>
+      <c r="AA68" s="20" t="inlineStr"/>
       <c r="AB68" s="21" t="inlineStr"/>
-      <c r="AC68" s="22" t="inlineStr"/>
+      <c r="AC68" s="21" t="inlineStr"/>
       <c r="AD68" s="22" t="inlineStr"/>
-      <c r="AE68" s="21" t="inlineStr"/>
-      <c r="AF68" s="23" t="inlineStr"/>
-      <c r="AG68" s="24" t="inlineStr"/>
+      <c r="AE68" s="22" t="inlineStr"/>
+      <c r="AF68" s="21" t="inlineStr"/>
+      <c r="AG68" s="23" t="inlineStr"/>
       <c r="AH68" s="24" t="inlineStr"/>
       <c r="AI68" s="24" t="inlineStr"/>
       <c r="AJ68" s="24" t="inlineStr"/>
-      <c r="AK68" s="25" t="inlineStr"/>
+      <c r="AK68" s="24" t="inlineStr"/>
       <c r="AL68" s="25" t="inlineStr"/>
       <c r="AM68" s="25" t="inlineStr"/>
-      <c r="AN68" s="26" t="inlineStr"/>
-      <c r="AO68" s="27" t="inlineStr"/>
-      <c r="AP68" s="28" t="inlineStr"/>
-      <c r="AQ68" s="29" t="inlineStr"/>
-      <c r="AR68" s="30" t="inlineStr"/>
-      <c r="AS68" s="31" t="inlineStr"/>
-      <c r="AT68" s="17" t="inlineStr"/>
+      <c r="AN68" s="25" t="inlineStr"/>
+      <c r="AO68" s="26" t="inlineStr"/>
+      <c r="AP68" s="27" t="inlineStr"/>
+      <c r="AQ68" s="28" t="inlineStr"/>
+      <c r="AR68" s="29" t="inlineStr"/>
+      <c r="AS68" s="30" t="inlineStr"/>
+      <c r="AT68" s="31" t="inlineStr"/>
       <c r="AU68" s="17" t="inlineStr"/>
-      <c r="AV68" s="32" t="inlineStr"/>
-      <c r="AW68" s="18" t="inlineStr"/>
-      <c r="AX68" s="19" t="inlineStr"/>
+      <c r="AV68" s="17" t="inlineStr"/>
+      <c r="AW68" s="32" t="inlineStr"/>
+      <c r="AX68" s="18" t="inlineStr"/>
       <c r="AY68" s="19" t="inlineStr"/>
       <c r="AZ68" s="19" t="inlineStr"/>
       <c r="BA68" s="19" t="inlineStr"/>
@@ -8366,13 +8445,13 @@
       <c r="BD68" s="19" t="inlineStr"/>
       <c r="BE68" s="19" t="inlineStr"/>
       <c r="BF68" s="19" t="inlineStr"/>
-      <c r="BG68" s="33" t="inlineStr"/>
-      <c r="BH68" s="19" t="inlineStr"/>
-      <c r="BI68" s="20" t="inlineStr"/>
-      <c r="BJ68" s="21" t="inlineStr"/>
+      <c r="BG68" s="19" t="inlineStr"/>
+      <c r="BH68" s="33" t="inlineStr"/>
+      <c r="BI68" s="19" t="inlineStr"/>
+      <c r="BJ68" s="20" t="inlineStr"/>
       <c r="BK68" s="21" t="inlineStr"/>
-      <c r="BL68" s="23" t="inlineStr"/>
-      <c r="BM68" s="25" t="inlineStr"/>
+      <c r="BL68" s="21" t="inlineStr"/>
+      <c r="BM68" s="23" t="inlineStr"/>
       <c r="BN68" s="25" t="inlineStr"/>
       <c r="BO68" s="25" t="inlineStr"/>
       <c r="BP68" s="25" t="inlineStr"/>
@@ -8393,14 +8472,15 @@
       <c r="CE68" s="25" t="inlineStr"/>
       <c r="CF68" s="25" t="inlineStr"/>
       <c r="CG68" s="25" t="inlineStr"/>
-      <c r="CH68" s="26" t="inlineStr"/>
-      <c r="CI68" s="34" t="inlineStr"/>
+      <c r="CH68" s="25" t="inlineStr"/>
+      <c r="CI68" s="26" t="inlineStr"/>
       <c r="CJ68" s="34" t="inlineStr"/>
       <c r="CK68" s="34" t="inlineStr"/>
       <c r="CL68" s="34" t="inlineStr"/>
-      <c r="CM68" s="27" t="inlineStr"/>
-      <c r="CN68" s="28" t="inlineStr"/>
+      <c r="CM68" s="34" t="inlineStr"/>
+      <c r="CN68" s="27" t="inlineStr"/>
       <c r="CO68" s="28" t="inlineStr"/>
+      <c r="CP68" s="28" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -8428,31 +8508,31 @@
       <c r="W69" s="19" t="inlineStr"/>
       <c r="X69" s="19" t="inlineStr"/>
       <c r="Y69" s="19" t="inlineStr"/>
-      <c r="Z69" s="20" t="inlineStr"/>
-      <c r="AA69" s="21" t="inlineStr"/>
+      <c r="Z69" s="19" t="inlineStr"/>
+      <c r="AA69" s="20" t="inlineStr"/>
       <c r="AB69" s="21" t="inlineStr"/>
-      <c r="AC69" s="22" t="inlineStr"/>
+      <c r="AC69" s="21" t="inlineStr"/>
       <c r="AD69" s="22" t="inlineStr"/>
-      <c r="AE69" s="21" t="inlineStr"/>
-      <c r="AF69" s="23" t="inlineStr"/>
-      <c r="AG69" s="24" t="inlineStr"/>
+      <c r="AE69" s="22" t="inlineStr"/>
+      <c r="AF69" s="21" t="inlineStr"/>
+      <c r="AG69" s="23" t="inlineStr"/>
       <c r="AH69" s="24" t="inlineStr"/>
       <c r="AI69" s="24" t="inlineStr"/>
       <c r="AJ69" s="24" t="inlineStr"/>
-      <c r="AK69" s="25" t="inlineStr"/>
+      <c r="AK69" s="24" t="inlineStr"/>
       <c r="AL69" s="25" t="inlineStr"/>
       <c r="AM69" s="25" t="inlineStr"/>
-      <c r="AN69" s="26" t="inlineStr"/>
-      <c r="AO69" s="27" t="inlineStr"/>
-      <c r="AP69" s="28" t="inlineStr"/>
-      <c r="AQ69" s="29" t="inlineStr"/>
-      <c r="AR69" s="30" t="inlineStr"/>
-      <c r="AS69" s="31" t="inlineStr"/>
-      <c r="AT69" s="17" t="inlineStr"/>
+      <c r="AN69" s="25" t="inlineStr"/>
+      <c r="AO69" s="26" t="inlineStr"/>
+      <c r="AP69" s="27" t="inlineStr"/>
+      <c r="AQ69" s="28" t="inlineStr"/>
+      <c r="AR69" s="29" t="inlineStr"/>
+      <c r="AS69" s="30" t="inlineStr"/>
+      <c r="AT69" s="31" t="inlineStr"/>
       <c r="AU69" s="17" t="inlineStr"/>
-      <c r="AV69" s="32" t="inlineStr"/>
-      <c r="AW69" s="18" t="inlineStr"/>
-      <c r="AX69" s="19" t="inlineStr"/>
+      <c r="AV69" s="17" t="inlineStr"/>
+      <c r="AW69" s="32" t="inlineStr"/>
+      <c r="AX69" s="18" t="inlineStr"/>
       <c r="AY69" s="19" t="inlineStr"/>
       <c r="AZ69" s="19" t="inlineStr"/>
       <c r="BA69" s="19" t="inlineStr"/>
@@ -8461,13 +8541,13 @@
       <c r="BD69" s="19" t="inlineStr"/>
       <c r="BE69" s="19" t="inlineStr"/>
       <c r="BF69" s="19" t="inlineStr"/>
-      <c r="BG69" s="33" t="inlineStr"/>
-      <c r="BH69" s="19" t="inlineStr"/>
-      <c r="BI69" s="20" t="inlineStr"/>
-      <c r="BJ69" s="21" t="inlineStr"/>
+      <c r="BG69" s="19" t="inlineStr"/>
+      <c r="BH69" s="33" t="inlineStr"/>
+      <c r="BI69" s="19" t="inlineStr"/>
+      <c r="BJ69" s="20" t="inlineStr"/>
       <c r="BK69" s="21" t="inlineStr"/>
-      <c r="BL69" s="23" t="inlineStr"/>
-      <c r="BM69" s="25" t="inlineStr"/>
+      <c r="BL69" s="21" t="inlineStr"/>
+      <c r="BM69" s="23" t="inlineStr"/>
       <c r="BN69" s="25" t="inlineStr"/>
       <c r="BO69" s="25" t="inlineStr"/>
       <c r="BP69" s="25" t="inlineStr"/>
@@ -8488,14 +8568,15 @@
       <c r="CE69" s="25" t="inlineStr"/>
       <c r="CF69" s="25" t="inlineStr"/>
       <c r="CG69" s="25" t="inlineStr"/>
-      <c r="CH69" s="26" t="inlineStr"/>
-      <c r="CI69" s="34" t="inlineStr"/>
+      <c r="CH69" s="25" t="inlineStr"/>
+      <c r="CI69" s="26" t="inlineStr"/>
       <c r="CJ69" s="34" t="inlineStr"/>
       <c r="CK69" s="34" t="inlineStr"/>
       <c r="CL69" s="34" t="inlineStr"/>
-      <c r="CM69" s="27" t="inlineStr"/>
-      <c r="CN69" s="28" t="inlineStr"/>
+      <c r="CM69" s="34" t="inlineStr"/>
+      <c r="CN69" s="27" t="inlineStr"/>
       <c r="CO69" s="28" t="inlineStr"/>
+      <c r="CP69" s="28" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -8523,31 +8604,31 @@
       <c r="W70" s="19" t="inlineStr"/>
       <c r="X70" s="19" t="inlineStr"/>
       <c r="Y70" s="19" t="inlineStr"/>
-      <c r="Z70" s="20" t="inlineStr"/>
-      <c r="AA70" s="21" t="inlineStr"/>
+      <c r="Z70" s="19" t="inlineStr"/>
+      <c r="AA70" s="20" t="inlineStr"/>
       <c r="AB70" s="21" t="inlineStr"/>
-      <c r="AC70" s="22" t="inlineStr"/>
+      <c r="AC70" s="21" t="inlineStr"/>
       <c r="AD70" s="22" t="inlineStr"/>
-      <c r="AE70" s="21" t="inlineStr"/>
-      <c r="AF70" s="23" t="inlineStr"/>
-      <c r="AG70" s="24" t="inlineStr"/>
+      <c r="AE70" s="22" t="inlineStr"/>
+      <c r="AF70" s="21" t="inlineStr"/>
+      <c r="AG70" s="23" t="inlineStr"/>
       <c r="AH70" s="24" t="inlineStr"/>
       <c r="AI70" s="24" t="inlineStr"/>
       <c r="AJ70" s="24" t="inlineStr"/>
-      <c r="AK70" s="25" t="inlineStr"/>
+      <c r="AK70" s="24" t="inlineStr"/>
       <c r="AL70" s="25" t="inlineStr"/>
       <c r="AM70" s="25" t="inlineStr"/>
-      <c r="AN70" s="26" t="inlineStr"/>
-      <c r="AO70" s="27" t="inlineStr"/>
-      <c r="AP70" s="28" t="inlineStr"/>
-      <c r="AQ70" s="29" t="inlineStr"/>
-      <c r="AR70" s="30" t="inlineStr"/>
-      <c r="AS70" s="31" t="inlineStr"/>
-      <c r="AT70" s="17" t="inlineStr"/>
+      <c r="AN70" s="25" t="inlineStr"/>
+      <c r="AO70" s="26" t="inlineStr"/>
+      <c r="AP70" s="27" t="inlineStr"/>
+      <c r="AQ70" s="28" t="inlineStr"/>
+      <c r="AR70" s="29" t="inlineStr"/>
+      <c r="AS70" s="30" t="inlineStr"/>
+      <c r="AT70" s="31" t="inlineStr"/>
       <c r="AU70" s="17" t="inlineStr"/>
-      <c r="AV70" s="32" t="inlineStr"/>
-      <c r="AW70" s="18" t="inlineStr"/>
-      <c r="AX70" s="19" t="inlineStr"/>
+      <c r="AV70" s="17" t="inlineStr"/>
+      <c r="AW70" s="32" t="inlineStr"/>
+      <c r="AX70" s="18" t="inlineStr"/>
       <c r="AY70" s="19" t="inlineStr"/>
       <c r="AZ70" s="19" t="inlineStr"/>
       <c r="BA70" s="19" t="inlineStr"/>
@@ -8556,13 +8637,13 @@
       <c r="BD70" s="19" t="inlineStr"/>
       <c r="BE70" s="19" t="inlineStr"/>
       <c r="BF70" s="19" t="inlineStr"/>
-      <c r="BG70" s="33" t="inlineStr"/>
-      <c r="BH70" s="19" t="inlineStr"/>
-      <c r="BI70" s="20" t="inlineStr"/>
-      <c r="BJ70" s="21" t="inlineStr"/>
+      <c r="BG70" s="19" t="inlineStr"/>
+      <c r="BH70" s="33" t="inlineStr"/>
+      <c r="BI70" s="19" t="inlineStr"/>
+      <c r="BJ70" s="20" t="inlineStr"/>
       <c r="BK70" s="21" t="inlineStr"/>
-      <c r="BL70" s="23" t="inlineStr"/>
-      <c r="BM70" s="25" t="inlineStr"/>
+      <c r="BL70" s="21" t="inlineStr"/>
+      <c r="BM70" s="23" t="inlineStr"/>
       <c r="BN70" s="25" t="inlineStr"/>
       <c r="BO70" s="25" t="inlineStr"/>
       <c r="BP70" s="25" t="inlineStr"/>
@@ -8583,14 +8664,15 @@
       <c r="CE70" s="25" t="inlineStr"/>
       <c r="CF70" s="25" t="inlineStr"/>
       <c r="CG70" s="25" t="inlineStr"/>
-      <c r="CH70" s="26" t="inlineStr"/>
-      <c r="CI70" s="34" t="inlineStr"/>
+      <c r="CH70" s="25" t="inlineStr"/>
+      <c r="CI70" s="26" t="inlineStr"/>
       <c r="CJ70" s="34" t="inlineStr"/>
       <c r="CK70" s="34" t="inlineStr"/>
       <c r="CL70" s="34" t="inlineStr"/>
-      <c r="CM70" s="27" t="inlineStr"/>
-      <c r="CN70" s="28" t="inlineStr"/>
+      <c r="CM70" s="34" t="inlineStr"/>
+      <c r="CN70" s="27" t="inlineStr"/>
       <c r="CO70" s="28" t="inlineStr"/>
+      <c r="CP70" s="28" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -8618,31 +8700,31 @@
       <c r="W71" s="19" t="inlineStr"/>
       <c r="X71" s="19" t="inlineStr"/>
       <c r="Y71" s="19" t="inlineStr"/>
-      <c r="Z71" s="20" t="inlineStr"/>
-      <c r="AA71" s="21" t="inlineStr"/>
+      <c r="Z71" s="19" t="inlineStr"/>
+      <c r="AA71" s="20" t="inlineStr"/>
       <c r="AB71" s="21" t="inlineStr"/>
-      <c r="AC71" s="22" t="inlineStr"/>
+      <c r="AC71" s="21" t="inlineStr"/>
       <c r="AD71" s="22" t="inlineStr"/>
-      <c r="AE71" s="21" t="inlineStr"/>
-      <c r="AF71" s="23" t="inlineStr"/>
-      <c r="AG71" s="24" t="inlineStr"/>
+      <c r="AE71" s="22" t="inlineStr"/>
+      <c r="AF71" s="21" t="inlineStr"/>
+      <c r="AG71" s="23" t="inlineStr"/>
       <c r="AH71" s="24" t="inlineStr"/>
       <c r="AI71" s="24" t="inlineStr"/>
       <c r="AJ71" s="24" t="inlineStr"/>
-      <c r="AK71" s="25" t="inlineStr"/>
+      <c r="AK71" s="24" t="inlineStr"/>
       <c r="AL71" s="25" t="inlineStr"/>
       <c r="AM71" s="25" t="inlineStr"/>
-      <c r="AN71" s="26" t="inlineStr"/>
-      <c r="AO71" s="27" t="inlineStr"/>
-      <c r="AP71" s="28" t="inlineStr"/>
-      <c r="AQ71" s="29" t="inlineStr"/>
-      <c r="AR71" s="30" t="inlineStr"/>
-      <c r="AS71" s="31" t="inlineStr"/>
-      <c r="AT71" s="17" t="inlineStr"/>
+      <c r="AN71" s="25" t="inlineStr"/>
+      <c r="AO71" s="26" t="inlineStr"/>
+      <c r="AP71" s="27" t="inlineStr"/>
+      <c r="AQ71" s="28" t="inlineStr"/>
+      <c r="AR71" s="29" t="inlineStr"/>
+      <c r="AS71" s="30" t="inlineStr"/>
+      <c r="AT71" s="31" t="inlineStr"/>
       <c r="AU71" s="17" t="inlineStr"/>
-      <c r="AV71" s="32" t="inlineStr"/>
-      <c r="AW71" s="18" t="inlineStr"/>
-      <c r="AX71" s="19" t="inlineStr"/>
+      <c r="AV71" s="17" t="inlineStr"/>
+      <c r="AW71" s="32" t="inlineStr"/>
+      <c r="AX71" s="18" t="inlineStr"/>
       <c r="AY71" s="19" t="inlineStr"/>
       <c r="AZ71" s="19" t="inlineStr"/>
       <c r="BA71" s="19" t="inlineStr"/>
@@ -8651,13 +8733,13 @@
       <c r="BD71" s="19" t="inlineStr"/>
       <c r="BE71" s="19" t="inlineStr"/>
       <c r="BF71" s="19" t="inlineStr"/>
-      <c r="BG71" s="33" t="inlineStr"/>
-      <c r="BH71" s="19" t="inlineStr"/>
-      <c r="BI71" s="20" t="inlineStr"/>
-      <c r="BJ71" s="21" t="inlineStr"/>
+      <c r="BG71" s="19" t="inlineStr"/>
+      <c r="BH71" s="33" t="inlineStr"/>
+      <c r="BI71" s="19" t="inlineStr"/>
+      <c r="BJ71" s="20" t="inlineStr"/>
       <c r="BK71" s="21" t="inlineStr"/>
-      <c r="BL71" s="23" t="inlineStr"/>
-      <c r="BM71" s="25" t="inlineStr"/>
+      <c r="BL71" s="21" t="inlineStr"/>
+      <c r="BM71" s="23" t="inlineStr"/>
       <c r="BN71" s="25" t="inlineStr"/>
       <c r="BO71" s="25" t="inlineStr"/>
       <c r="BP71" s="25" t="inlineStr"/>
@@ -8678,14 +8760,15 @@
       <c r="CE71" s="25" t="inlineStr"/>
       <c r="CF71" s="25" t="inlineStr"/>
       <c r="CG71" s="25" t="inlineStr"/>
-      <c r="CH71" s="26" t="inlineStr"/>
-      <c r="CI71" s="34" t="inlineStr"/>
+      <c r="CH71" s="25" t="inlineStr"/>
+      <c r="CI71" s="26" t="inlineStr"/>
       <c r="CJ71" s="34" t="inlineStr"/>
       <c r="CK71" s="34" t="inlineStr"/>
       <c r="CL71" s="34" t="inlineStr"/>
-      <c r="CM71" s="27" t="inlineStr"/>
-      <c r="CN71" s="28" t="inlineStr"/>
+      <c r="CM71" s="34" t="inlineStr"/>
+      <c r="CN71" s="27" t="inlineStr"/>
       <c r="CO71" s="28" t="inlineStr"/>
+      <c r="CP71" s="28" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -8713,31 +8796,31 @@
       <c r="W72" s="19" t="inlineStr"/>
       <c r="X72" s="19" t="inlineStr"/>
       <c r="Y72" s="19" t="inlineStr"/>
-      <c r="Z72" s="20" t="inlineStr"/>
-      <c r="AA72" s="21" t="inlineStr"/>
+      <c r="Z72" s="19" t="inlineStr"/>
+      <c r="AA72" s="20" t="inlineStr"/>
       <c r="AB72" s="21" t="inlineStr"/>
-      <c r="AC72" s="22" t="inlineStr"/>
+      <c r="AC72" s="21" t="inlineStr"/>
       <c r="AD72" s="22" t="inlineStr"/>
-      <c r="AE72" s="21" t="inlineStr"/>
-      <c r="AF72" s="23" t="inlineStr"/>
-      <c r="AG72" s="24" t="inlineStr"/>
+      <c r="AE72" s="22" t="inlineStr"/>
+      <c r="AF72" s="21" t="inlineStr"/>
+      <c r="AG72" s="23" t="inlineStr"/>
       <c r="AH72" s="24" t="inlineStr"/>
       <c r="AI72" s="24" t="inlineStr"/>
       <c r="AJ72" s="24" t="inlineStr"/>
-      <c r="AK72" s="25" t="inlineStr"/>
+      <c r="AK72" s="24" t="inlineStr"/>
       <c r="AL72" s="25" t="inlineStr"/>
       <c r="AM72" s="25" t="inlineStr"/>
-      <c r="AN72" s="26" t="inlineStr"/>
-      <c r="AO72" s="27" t="inlineStr"/>
-      <c r="AP72" s="28" t="inlineStr"/>
-      <c r="AQ72" s="29" t="inlineStr"/>
-      <c r="AR72" s="30" t="inlineStr"/>
-      <c r="AS72" s="31" t="inlineStr"/>
-      <c r="AT72" s="17" t="inlineStr"/>
+      <c r="AN72" s="25" t="inlineStr"/>
+      <c r="AO72" s="26" t="inlineStr"/>
+      <c r="AP72" s="27" t="inlineStr"/>
+      <c r="AQ72" s="28" t="inlineStr"/>
+      <c r="AR72" s="29" t="inlineStr"/>
+      <c r="AS72" s="30" t="inlineStr"/>
+      <c r="AT72" s="31" t="inlineStr"/>
       <c r="AU72" s="17" t="inlineStr"/>
-      <c r="AV72" s="32" t="inlineStr"/>
-      <c r="AW72" s="18" t="inlineStr"/>
-      <c r="AX72" s="19" t="inlineStr"/>
+      <c r="AV72" s="17" t="inlineStr"/>
+      <c r="AW72" s="32" t="inlineStr"/>
+      <c r="AX72" s="18" t="inlineStr"/>
       <c r="AY72" s="19" t="inlineStr"/>
       <c r="AZ72" s="19" t="inlineStr"/>
       <c r="BA72" s="19" t="inlineStr"/>
@@ -8746,13 +8829,13 @@
       <c r="BD72" s="19" t="inlineStr"/>
       <c r="BE72" s="19" t="inlineStr"/>
       <c r="BF72" s="19" t="inlineStr"/>
-      <c r="BG72" s="33" t="inlineStr"/>
-      <c r="BH72" s="19" t="inlineStr"/>
-      <c r="BI72" s="20" t="inlineStr"/>
-      <c r="BJ72" s="21" t="inlineStr"/>
+      <c r="BG72" s="19" t="inlineStr"/>
+      <c r="BH72" s="33" t="inlineStr"/>
+      <c r="BI72" s="19" t="inlineStr"/>
+      <c r="BJ72" s="20" t="inlineStr"/>
       <c r="BK72" s="21" t="inlineStr"/>
-      <c r="BL72" s="23" t="inlineStr"/>
-      <c r="BM72" s="25" t="inlineStr"/>
+      <c r="BL72" s="21" t="inlineStr"/>
+      <c r="BM72" s="23" t="inlineStr"/>
       <c r="BN72" s="25" t="inlineStr"/>
       <c r="BO72" s="25" t="inlineStr"/>
       <c r="BP72" s="25" t="inlineStr"/>
@@ -8773,14 +8856,15 @@
       <c r="CE72" s="25" t="inlineStr"/>
       <c r="CF72" s="25" t="inlineStr"/>
       <c r="CG72" s="25" t="inlineStr"/>
-      <c r="CH72" s="26" t="inlineStr"/>
-      <c r="CI72" s="34" t="inlineStr"/>
+      <c r="CH72" s="25" t="inlineStr"/>
+      <c r="CI72" s="26" t="inlineStr"/>
       <c r="CJ72" s="34" t="inlineStr"/>
       <c r="CK72" s="34" t="inlineStr"/>
       <c r="CL72" s="34" t="inlineStr"/>
-      <c r="CM72" s="27" t="inlineStr"/>
-      <c r="CN72" s="28" t="inlineStr"/>
+      <c r="CM72" s="34" t="inlineStr"/>
+      <c r="CN72" s="27" t="inlineStr"/>
       <c r="CO72" s="28" t="inlineStr"/>
+      <c r="CP72" s="28" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -8808,31 +8892,31 @@
       <c r="W73" s="19" t="inlineStr"/>
       <c r="X73" s="19" t="inlineStr"/>
       <c r="Y73" s="19" t="inlineStr"/>
-      <c r="Z73" s="20" t="inlineStr"/>
-      <c r="AA73" s="21" t="inlineStr"/>
+      <c r="Z73" s="19" t="inlineStr"/>
+      <c r="AA73" s="20" t="inlineStr"/>
       <c r="AB73" s="21" t="inlineStr"/>
-      <c r="AC73" s="22" t="inlineStr"/>
+      <c r="AC73" s="21" t="inlineStr"/>
       <c r="AD73" s="22" t="inlineStr"/>
-      <c r="AE73" s="21" t="inlineStr"/>
-      <c r="AF73" s="23" t="inlineStr"/>
-      <c r="AG73" s="24" t="inlineStr"/>
+      <c r="AE73" s="22" t="inlineStr"/>
+      <c r="AF73" s="21" t="inlineStr"/>
+      <c r="AG73" s="23" t="inlineStr"/>
       <c r="AH73" s="24" t="inlineStr"/>
       <c r="AI73" s="24" t="inlineStr"/>
       <c r="AJ73" s="24" t="inlineStr"/>
-      <c r="AK73" s="25" t="inlineStr"/>
+      <c r="AK73" s="24" t="inlineStr"/>
       <c r="AL73" s="25" t="inlineStr"/>
       <c r="AM73" s="25" t="inlineStr"/>
-      <c r="AN73" s="26" t="inlineStr"/>
-      <c r="AO73" s="27" t="inlineStr"/>
-      <c r="AP73" s="28" t="inlineStr"/>
-      <c r="AQ73" s="29" t="inlineStr"/>
-      <c r="AR73" s="30" t="inlineStr"/>
-      <c r="AS73" s="31" t="inlineStr"/>
-      <c r="AT73" s="17" t="inlineStr"/>
+      <c r="AN73" s="25" t="inlineStr"/>
+      <c r="AO73" s="26" t="inlineStr"/>
+      <c r="AP73" s="27" t="inlineStr"/>
+      <c r="AQ73" s="28" t="inlineStr"/>
+      <c r="AR73" s="29" t="inlineStr"/>
+      <c r="AS73" s="30" t="inlineStr"/>
+      <c r="AT73" s="31" t="inlineStr"/>
       <c r="AU73" s="17" t="inlineStr"/>
-      <c r="AV73" s="32" t="inlineStr"/>
-      <c r="AW73" s="18" t="inlineStr"/>
-      <c r="AX73" s="19" t="inlineStr"/>
+      <c r="AV73" s="17" t="inlineStr"/>
+      <c r="AW73" s="32" t="inlineStr"/>
+      <c r="AX73" s="18" t="inlineStr"/>
       <c r="AY73" s="19" t="inlineStr"/>
       <c r="AZ73" s="19" t="inlineStr"/>
       <c r="BA73" s="19" t="inlineStr"/>
@@ -8841,13 +8925,13 @@
       <c r="BD73" s="19" t="inlineStr"/>
       <c r="BE73" s="19" t="inlineStr"/>
       <c r="BF73" s="19" t="inlineStr"/>
-      <c r="BG73" s="33" t="inlineStr"/>
-      <c r="BH73" s="19" t="inlineStr"/>
-      <c r="BI73" s="20" t="inlineStr"/>
-      <c r="BJ73" s="21" t="inlineStr"/>
+      <c r="BG73" s="19" t="inlineStr"/>
+      <c r="BH73" s="33" t="inlineStr"/>
+      <c r="BI73" s="19" t="inlineStr"/>
+      <c r="BJ73" s="20" t="inlineStr"/>
       <c r="BK73" s="21" t="inlineStr"/>
-      <c r="BL73" s="23" t="inlineStr"/>
-      <c r="BM73" s="25" t="inlineStr"/>
+      <c r="BL73" s="21" t="inlineStr"/>
+      <c r="BM73" s="23" t="inlineStr"/>
       <c r="BN73" s="25" t="inlineStr"/>
       <c r="BO73" s="25" t="inlineStr"/>
       <c r="BP73" s="25" t="inlineStr"/>
@@ -8868,14 +8952,15 @@
       <c r="CE73" s="25" t="inlineStr"/>
       <c r="CF73" s="25" t="inlineStr"/>
       <c r="CG73" s="25" t="inlineStr"/>
-      <c r="CH73" s="26" t="inlineStr"/>
-      <c r="CI73" s="34" t="inlineStr"/>
+      <c r="CH73" s="25" t="inlineStr"/>
+      <c r="CI73" s="26" t="inlineStr"/>
       <c r="CJ73" s="34" t="inlineStr"/>
       <c r="CK73" s="34" t="inlineStr"/>
       <c r="CL73" s="34" t="inlineStr"/>
-      <c r="CM73" s="27" t="inlineStr"/>
-      <c r="CN73" s="28" t="inlineStr"/>
+      <c r="CM73" s="34" t="inlineStr"/>
+      <c r="CN73" s="27" t="inlineStr"/>
       <c r="CO73" s="28" t="inlineStr"/>
+      <c r="CP73" s="28" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -8903,31 +8988,31 @@
       <c r="W74" s="19" t="inlineStr"/>
       <c r="X74" s="19" t="inlineStr"/>
       <c r="Y74" s="19" t="inlineStr"/>
-      <c r="Z74" s="20" t="inlineStr"/>
-      <c r="AA74" s="21" t="inlineStr"/>
+      <c r="Z74" s="19" t="inlineStr"/>
+      <c r="AA74" s="20" t="inlineStr"/>
       <c r="AB74" s="21" t="inlineStr"/>
-      <c r="AC74" s="22" t="inlineStr"/>
+      <c r="AC74" s="21" t="inlineStr"/>
       <c r="AD74" s="22" t="inlineStr"/>
-      <c r="AE74" s="21" t="inlineStr"/>
-      <c r="AF74" s="23" t="inlineStr"/>
-      <c r="AG74" s="24" t="inlineStr"/>
+      <c r="AE74" s="22" t="inlineStr"/>
+      <c r="AF74" s="21" t="inlineStr"/>
+      <c r="AG74" s="23" t="inlineStr"/>
       <c r="AH74" s="24" t="inlineStr"/>
       <c r="AI74" s="24" t="inlineStr"/>
       <c r="AJ74" s="24" t="inlineStr"/>
-      <c r="AK74" s="25" t="inlineStr"/>
+      <c r="AK74" s="24" t="inlineStr"/>
       <c r="AL74" s="25" t="inlineStr"/>
       <c r="AM74" s="25" t="inlineStr"/>
-      <c r="AN74" s="26" t="inlineStr"/>
-      <c r="AO74" s="27" t="inlineStr"/>
-      <c r="AP74" s="28" t="inlineStr"/>
-      <c r="AQ74" s="29" t="inlineStr"/>
-      <c r="AR74" s="30" t="inlineStr"/>
-      <c r="AS74" s="31" t="inlineStr"/>
-      <c r="AT74" s="17" t="inlineStr"/>
+      <c r="AN74" s="25" t="inlineStr"/>
+      <c r="AO74" s="26" t="inlineStr"/>
+      <c r="AP74" s="27" t="inlineStr"/>
+      <c r="AQ74" s="28" t="inlineStr"/>
+      <c r="AR74" s="29" t="inlineStr"/>
+      <c r="AS74" s="30" t="inlineStr"/>
+      <c r="AT74" s="31" t="inlineStr"/>
       <c r="AU74" s="17" t="inlineStr"/>
-      <c r="AV74" s="32" t="inlineStr"/>
-      <c r="AW74" s="18" t="inlineStr"/>
-      <c r="AX74" s="19" t="inlineStr"/>
+      <c r="AV74" s="17" t="inlineStr"/>
+      <c r="AW74" s="32" t="inlineStr"/>
+      <c r="AX74" s="18" t="inlineStr"/>
       <c r="AY74" s="19" t="inlineStr"/>
       <c r="AZ74" s="19" t="inlineStr"/>
       <c r="BA74" s="19" t="inlineStr"/>
@@ -8936,13 +9021,13 @@
       <c r="BD74" s="19" t="inlineStr"/>
       <c r="BE74" s="19" t="inlineStr"/>
       <c r="BF74" s="19" t="inlineStr"/>
-      <c r="BG74" s="33" t="inlineStr"/>
-      <c r="BH74" s="19" t="inlineStr"/>
-      <c r="BI74" s="20" t="inlineStr"/>
-      <c r="BJ74" s="21" t="inlineStr"/>
+      <c r="BG74" s="19" t="inlineStr"/>
+      <c r="BH74" s="33" t="inlineStr"/>
+      <c r="BI74" s="19" t="inlineStr"/>
+      <c r="BJ74" s="20" t="inlineStr"/>
       <c r="BK74" s="21" t="inlineStr"/>
-      <c r="BL74" s="23" t="inlineStr"/>
-      <c r="BM74" s="25" t="inlineStr"/>
+      <c r="BL74" s="21" t="inlineStr"/>
+      <c r="BM74" s="23" t="inlineStr"/>
       <c r="BN74" s="25" t="inlineStr"/>
       <c r="BO74" s="25" t="inlineStr"/>
       <c r="BP74" s="25" t="inlineStr"/>
@@ -8963,14 +9048,15 @@
       <c r="CE74" s="25" t="inlineStr"/>
       <c r="CF74" s="25" t="inlineStr"/>
       <c r="CG74" s="25" t="inlineStr"/>
-      <c r="CH74" s="26" t="inlineStr"/>
-      <c r="CI74" s="34" t="inlineStr"/>
+      <c r="CH74" s="25" t="inlineStr"/>
+      <c r="CI74" s="26" t="inlineStr"/>
       <c r="CJ74" s="34" t="inlineStr"/>
       <c r="CK74" s="34" t="inlineStr"/>
       <c r="CL74" s="34" t="inlineStr"/>
-      <c r="CM74" s="27" t="inlineStr"/>
-      <c r="CN74" s="28" t="inlineStr"/>
+      <c r="CM74" s="34" t="inlineStr"/>
+      <c r="CN74" s="27" t="inlineStr"/>
       <c r="CO74" s="28" t="inlineStr"/>
+      <c r="CP74" s="28" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -8998,31 +9084,31 @@
       <c r="W75" s="19" t="inlineStr"/>
       <c r="X75" s="19" t="inlineStr"/>
       <c r="Y75" s="19" t="inlineStr"/>
-      <c r="Z75" s="20" t="inlineStr"/>
-      <c r="AA75" s="21" t="inlineStr"/>
+      <c r="Z75" s="19" t="inlineStr"/>
+      <c r="AA75" s="20" t="inlineStr"/>
       <c r="AB75" s="21" t="inlineStr"/>
-      <c r="AC75" s="22" t="inlineStr"/>
+      <c r="AC75" s="21" t="inlineStr"/>
       <c r="AD75" s="22" t="inlineStr"/>
-      <c r="AE75" s="21" t="inlineStr"/>
-      <c r="AF75" s="23" t="inlineStr"/>
-      <c r="AG75" s="24" t="inlineStr"/>
+      <c r="AE75" s="22" t="inlineStr"/>
+      <c r="AF75" s="21" t="inlineStr"/>
+      <c r="AG75" s="23" t="inlineStr"/>
       <c r="AH75" s="24" t="inlineStr"/>
       <c r="AI75" s="24" t="inlineStr"/>
       <c r="AJ75" s="24" t="inlineStr"/>
-      <c r="AK75" s="25" t="inlineStr"/>
+      <c r="AK75" s="24" t="inlineStr"/>
       <c r="AL75" s="25" t="inlineStr"/>
       <c r="AM75" s="25" t="inlineStr"/>
-      <c r="AN75" s="26" t="inlineStr"/>
-      <c r="AO75" s="27" t="inlineStr"/>
-      <c r="AP75" s="28" t="inlineStr"/>
-      <c r="AQ75" s="29" t="inlineStr"/>
-      <c r="AR75" s="30" t="inlineStr"/>
-      <c r="AS75" s="31" t="inlineStr"/>
-      <c r="AT75" s="17" t="inlineStr"/>
+      <c r="AN75" s="25" t="inlineStr"/>
+      <c r="AO75" s="26" t="inlineStr"/>
+      <c r="AP75" s="27" t="inlineStr"/>
+      <c r="AQ75" s="28" t="inlineStr"/>
+      <c r="AR75" s="29" t="inlineStr"/>
+      <c r="AS75" s="30" t="inlineStr"/>
+      <c r="AT75" s="31" t="inlineStr"/>
       <c r="AU75" s="17" t="inlineStr"/>
-      <c r="AV75" s="32" t="inlineStr"/>
-      <c r="AW75" s="18" t="inlineStr"/>
-      <c r="AX75" s="19" t="inlineStr"/>
+      <c r="AV75" s="17" t="inlineStr"/>
+      <c r="AW75" s="32" t="inlineStr"/>
+      <c r="AX75" s="18" t="inlineStr"/>
       <c r="AY75" s="19" t="inlineStr"/>
       <c r="AZ75" s="19" t="inlineStr"/>
       <c r="BA75" s="19" t="inlineStr"/>
@@ -9031,13 +9117,13 @@
       <c r="BD75" s="19" t="inlineStr"/>
       <c r="BE75" s="19" t="inlineStr"/>
       <c r="BF75" s="19" t="inlineStr"/>
-      <c r="BG75" s="33" t="inlineStr"/>
-      <c r="BH75" s="19" t="inlineStr"/>
-      <c r="BI75" s="20" t="inlineStr"/>
-      <c r="BJ75" s="21" t="inlineStr"/>
+      <c r="BG75" s="19" t="inlineStr"/>
+      <c r="BH75" s="33" t="inlineStr"/>
+      <c r="BI75" s="19" t="inlineStr"/>
+      <c r="BJ75" s="20" t="inlineStr"/>
       <c r="BK75" s="21" t="inlineStr"/>
-      <c r="BL75" s="23" t="inlineStr"/>
-      <c r="BM75" s="25" t="inlineStr"/>
+      <c r="BL75" s="21" t="inlineStr"/>
+      <c r="BM75" s="23" t="inlineStr"/>
       <c r="BN75" s="25" t="inlineStr"/>
       <c r="BO75" s="25" t="inlineStr"/>
       <c r="BP75" s="25" t="inlineStr"/>
@@ -9058,14 +9144,15 @@
       <c r="CE75" s="25" t="inlineStr"/>
       <c r="CF75" s="25" t="inlineStr"/>
       <c r="CG75" s="25" t="inlineStr"/>
-      <c r="CH75" s="26" t="inlineStr"/>
-      <c r="CI75" s="34" t="inlineStr"/>
+      <c r="CH75" s="25" t="inlineStr"/>
+      <c r="CI75" s="26" t="inlineStr"/>
       <c r="CJ75" s="34" t="inlineStr"/>
       <c r="CK75" s="34" t="inlineStr"/>
       <c r="CL75" s="34" t="inlineStr"/>
-      <c r="CM75" s="27" t="inlineStr"/>
-      <c r="CN75" s="28" t="inlineStr"/>
+      <c r="CM75" s="34" t="inlineStr"/>
+      <c r="CN75" s="27" t="inlineStr"/>
       <c r="CO75" s="28" t="inlineStr"/>
+      <c r="CP75" s="28" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -9093,31 +9180,31 @@
       <c r="W76" s="19" t="inlineStr"/>
       <c r="X76" s="19" t="inlineStr"/>
       <c r="Y76" s="19" t="inlineStr"/>
-      <c r="Z76" s="20" t="inlineStr"/>
-      <c r="AA76" s="21" t="inlineStr"/>
+      <c r="Z76" s="19" t="inlineStr"/>
+      <c r="AA76" s="20" t="inlineStr"/>
       <c r="AB76" s="21" t="inlineStr"/>
-      <c r="AC76" s="22" t="inlineStr"/>
+      <c r="AC76" s="21" t="inlineStr"/>
       <c r="AD76" s="22" t="inlineStr"/>
-      <c r="AE76" s="21" t="inlineStr"/>
-      <c r="AF76" s="23" t="inlineStr"/>
-      <c r="AG76" s="24" t="inlineStr"/>
+      <c r="AE76" s="22" t="inlineStr"/>
+      <c r="AF76" s="21" t="inlineStr"/>
+      <c r="AG76" s="23" t="inlineStr"/>
       <c r="AH76" s="24" t="inlineStr"/>
       <c r="AI76" s="24" t="inlineStr"/>
       <c r="AJ76" s="24" t="inlineStr"/>
-      <c r="AK76" s="25" t="inlineStr"/>
+      <c r="AK76" s="24" t="inlineStr"/>
       <c r="AL76" s="25" t="inlineStr"/>
       <c r="AM76" s="25" t="inlineStr"/>
-      <c r="AN76" s="26" t="inlineStr"/>
-      <c r="AO76" s="27" t="inlineStr"/>
-      <c r="AP76" s="28" t="inlineStr"/>
-      <c r="AQ76" s="29" t="inlineStr"/>
-      <c r="AR76" s="30" t="inlineStr"/>
-      <c r="AS76" s="31" t="inlineStr"/>
-      <c r="AT76" s="17" t="inlineStr"/>
+      <c r="AN76" s="25" t="inlineStr"/>
+      <c r="AO76" s="26" t="inlineStr"/>
+      <c r="AP76" s="27" t="inlineStr"/>
+      <c r="AQ76" s="28" t="inlineStr"/>
+      <c r="AR76" s="29" t="inlineStr"/>
+      <c r="AS76" s="30" t="inlineStr"/>
+      <c r="AT76" s="31" t="inlineStr"/>
       <c r="AU76" s="17" t="inlineStr"/>
-      <c r="AV76" s="32" t="inlineStr"/>
-      <c r="AW76" s="18" t="inlineStr"/>
-      <c r="AX76" s="19" t="inlineStr"/>
+      <c r="AV76" s="17" t="inlineStr"/>
+      <c r="AW76" s="32" t="inlineStr"/>
+      <c r="AX76" s="18" t="inlineStr"/>
       <c r="AY76" s="19" t="inlineStr"/>
       <c r="AZ76" s="19" t="inlineStr"/>
       <c r="BA76" s="19" t="inlineStr"/>
@@ -9126,13 +9213,13 @@
       <c r="BD76" s="19" t="inlineStr"/>
       <c r="BE76" s="19" t="inlineStr"/>
       <c r="BF76" s="19" t="inlineStr"/>
-      <c r="BG76" s="33" t="inlineStr"/>
-      <c r="BH76" s="19" t="inlineStr"/>
-      <c r="BI76" s="20" t="inlineStr"/>
-      <c r="BJ76" s="21" t="inlineStr"/>
+      <c r="BG76" s="19" t="inlineStr"/>
+      <c r="BH76" s="33" t="inlineStr"/>
+      <c r="BI76" s="19" t="inlineStr"/>
+      <c r="BJ76" s="20" t="inlineStr"/>
       <c r="BK76" s="21" t="inlineStr"/>
-      <c r="BL76" s="23" t="inlineStr"/>
-      <c r="BM76" s="25" t="inlineStr"/>
+      <c r="BL76" s="21" t="inlineStr"/>
+      <c r="BM76" s="23" t="inlineStr"/>
       <c r="BN76" s="25" t="inlineStr"/>
       <c r="BO76" s="25" t="inlineStr"/>
       <c r="BP76" s="25" t="inlineStr"/>
@@ -9153,14 +9240,15 @@
       <c r="CE76" s="25" t="inlineStr"/>
       <c r="CF76" s="25" t="inlineStr"/>
       <c r="CG76" s="25" t="inlineStr"/>
-      <c r="CH76" s="26" t="inlineStr"/>
-      <c r="CI76" s="34" t="inlineStr"/>
+      <c r="CH76" s="25" t="inlineStr"/>
+      <c r="CI76" s="26" t="inlineStr"/>
       <c r="CJ76" s="34" t="inlineStr"/>
       <c r="CK76" s="34" t="inlineStr"/>
       <c r="CL76" s="34" t="inlineStr"/>
-      <c r="CM76" s="27" t="inlineStr"/>
-      <c r="CN76" s="28" t="inlineStr"/>
+      <c r="CM76" s="34" t="inlineStr"/>
+      <c r="CN76" s="27" t="inlineStr"/>
       <c r="CO76" s="28" t="inlineStr"/>
+      <c r="CP76" s="28" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -9188,31 +9276,31 @@
       <c r="W77" s="19" t="inlineStr"/>
       <c r="X77" s="19" t="inlineStr"/>
       <c r="Y77" s="19" t="inlineStr"/>
-      <c r="Z77" s="20" t="inlineStr"/>
-      <c r="AA77" s="21" t="inlineStr"/>
+      <c r="Z77" s="19" t="inlineStr"/>
+      <c r="AA77" s="20" t="inlineStr"/>
       <c r="AB77" s="21" t="inlineStr"/>
-      <c r="AC77" s="22" t="inlineStr"/>
+      <c r="AC77" s="21" t="inlineStr"/>
       <c r="AD77" s="22" t="inlineStr"/>
-      <c r="AE77" s="21" t="inlineStr"/>
-      <c r="AF77" s="23" t="inlineStr"/>
-      <c r="AG77" s="24" t="inlineStr"/>
+      <c r="AE77" s="22" t="inlineStr"/>
+      <c r="AF77" s="21" t="inlineStr"/>
+      <c r="AG77" s="23" t="inlineStr"/>
       <c r="AH77" s="24" t="inlineStr"/>
       <c r="AI77" s="24" t="inlineStr"/>
       <c r="AJ77" s="24" t="inlineStr"/>
-      <c r="AK77" s="25" t="inlineStr"/>
+      <c r="AK77" s="24" t="inlineStr"/>
       <c r="AL77" s="25" t="inlineStr"/>
       <c r="AM77" s="25" t="inlineStr"/>
-      <c r="AN77" s="26" t="inlineStr"/>
-      <c r="AO77" s="27" t="inlineStr"/>
-      <c r="AP77" s="28" t="inlineStr"/>
-      <c r="AQ77" s="29" t="inlineStr"/>
-      <c r="AR77" s="30" t="inlineStr"/>
-      <c r="AS77" s="31" t="inlineStr"/>
-      <c r="AT77" s="17" t="inlineStr"/>
+      <c r="AN77" s="25" t="inlineStr"/>
+      <c r="AO77" s="26" t="inlineStr"/>
+      <c r="AP77" s="27" t="inlineStr"/>
+      <c r="AQ77" s="28" t="inlineStr"/>
+      <c r="AR77" s="29" t="inlineStr"/>
+      <c r="AS77" s="30" t="inlineStr"/>
+      <c r="AT77" s="31" t="inlineStr"/>
       <c r="AU77" s="17" t="inlineStr"/>
-      <c r="AV77" s="32" t="inlineStr"/>
-      <c r="AW77" s="18" t="inlineStr"/>
-      <c r="AX77" s="19" t="inlineStr"/>
+      <c r="AV77" s="17" t="inlineStr"/>
+      <c r="AW77" s="32" t="inlineStr"/>
+      <c r="AX77" s="18" t="inlineStr"/>
       <c r="AY77" s="19" t="inlineStr"/>
       <c r="AZ77" s="19" t="inlineStr"/>
       <c r="BA77" s="19" t="inlineStr"/>
@@ -9221,13 +9309,13 @@
       <c r="BD77" s="19" t="inlineStr"/>
       <c r="BE77" s="19" t="inlineStr"/>
       <c r="BF77" s="19" t="inlineStr"/>
-      <c r="BG77" s="33" t="inlineStr"/>
-      <c r="BH77" s="19" t="inlineStr"/>
-      <c r="BI77" s="20" t="inlineStr"/>
-      <c r="BJ77" s="21" t="inlineStr"/>
+      <c r="BG77" s="19" t="inlineStr"/>
+      <c r="BH77" s="33" t="inlineStr"/>
+      <c r="BI77" s="19" t="inlineStr"/>
+      <c r="BJ77" s="20" t="inlineStr"/>
       <c r="BK77" s="21" t="inlineStr"/>
-      <c r="BL77" s="23" t="inlineStr"/>
-      <c r="BM77" s="25" t="inlineStr"/>
+      <c r="BL77" s="21" t="inlineStr"/>
+      <c r="BM77" s="23" t="inlineStr"/>
       <c r="BN77" s="25" t="inlineStr"/>
       <c r="BO77" s="25" t="inlineStr"/>
       <c r="BP77" s="25" t="inlineStr"/>
@@ -9248,14 +9336,15 @@
       <c r="CE77" s="25" t="inlineStr"/>
       <c r="CF77" s="25" t="inlineStr"/>
       <c r="CG77" s="25" t="inlineStr"/>
-      <c r="CH77" s="26" t="inlineStr"/>
-      <c r="CI77" s="34" t="inlineStr"/>
+      <c r="CH77" s="25" t="inlineStr"/>
+      <c r="CI77" s="26" t="inlineStr"/>
       <c r="CJ77" s="34" t="inlineStr"/>
       <c r="CK77" s="34" t="inlineStr"/>
       <c r="CL77" s="34" t="inlineStr"/>
-      <c r="CM77" s="27" t="inlineStr"/>
-      <c r="CN77" s="28" t="inlineStr"/>
+      <c r="CM77" s="34" t="inlineStr"/>
+      <c r="CN77" s="27" t="inlineStr"/>
       <c r="CO77" s="28" t="inlineStr"/>
+      <c r="CP77" s="28" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -9283,31 +9372,31 @@
       <c r="W78" s="19" t="inlineStr"/>
       <c r="X78" s="19" t="inlineStr"/>
       <c r="Y78" s="19" t="inlineStr"/>
-      <c r="Z78" s="20" t="inlineStr"/>
-      <c r="AA78" s="21" t="inlineStr"/>
+      <c r="Z78" s="19" t="inlineStr"/>
+      <c r="AA78" s="20" t="inlineStr"/>
       <c r="AB78" s="21" t="inlineStr"/>
-      <c r="AC78" s="22" t="inlineStr"/>
+      <c r="AC78" s="21" t="inlineStr"/>
       <c r="AD78" s="22" t="inlineStr"/>
-      <c r="AE78" s="21" t="inlineStr"/>
-      <c r="AF78" s="23" t="inlineStr"/>
-      <c r="AG78" s="24" t="inlineStr"/>
+      <c r="AE78" s="22" t="inlineStr"/>
+      <c r="AF78" s="21" t="inlineStr"/>
+      <c r="AG78" s="23" t="inlineStr"/>
       <c r="AH78" s="24" t="inlineStr"/>
       <c r="AI78" s="24" t="inlineStr"/>
       <c r="AJ78" s="24" t="inlineStr"/>
-      <c r="AK78" s="25" t="inlineStr"/>
+      <c r="AK78" s="24" t="inlineStr"/>
       <c r="AL78" s="25" t="inlineStr"/>
       <c r="AM78" s="25" t="inlineStr"/>
-      <c r="AN78" s="26" t="inlineStr"/>
-      <c r="AO78" s="27" t="inlineStr"/>
-      <c r="AP78" s="28" t="inlineStr"/>
-      <c r="AQ78" s="29" t="inlineStr"/>
-      <c r="AR78" s="30" t="inlineStr"/>
-      <c r="AS78" s="31" t="inlineStr"/>
-      <c r="AT78" s="17" t="inlineStr"/>
+      <c r="AN78" s="25" t="inlineStr"/>
+      <c r="AO78" s="26" t="inlineStr"/>
+      <c r="AP78" s="27" t="inlineStr"/>
+      <c r="AQ78" s="28" t="inlineStr"/>
+      <c r="AR78" s="29" t="inlineStr"/>
+      <c r="AS78" s="30" t="inlineStr"/>
+      <c r="AT78" s="31" t="inlineStr"/>
       <c r="AU78" s="17" t="inlineStr"/>
-      <c r="AV78" s="32" t="inlineStr"/>
-      <c r="AW78" s="18" t="inlineStr"/>
-      <c r="AX78" s="19" t="inlineStr"/>
+      <c r="AV78" s="17" t="inlineStr"/>
+      <c r="AW78" s="32" t="inlineStr"/>
+      <c r="AX78" s="18" t="inlineStr"/>
       <c r="AY78" s="19" t="inlineStr"/>
       <c r="AZ78" s="19" t="inlineStr"/>
       <c r="BA78" s="19" t="inlineStr"/>
@@ -9316,13 +9405,13 @@
       <c r="BD78" s="19" t="inlineStr"/>
       <c r="BE78" s="19" t="inlineStr"/>
       <c r="BF78" s="19" t="inlineStr"/>
-      <c r="BG78" s="33" t="inlineStr"/>
-      <c r="BH78" s="19" t="inlineStr"/>
-      <c r="BI78" s="20" t="inlineStr"/>
-      <c r="BJ78" s="21" t="inlineStr"/>
+      <c r="BG78" s="19" t="inlineStr"/>
+      <c r="BH78" s="33" t="inlineStr"/>
+      <c r="BI78" s="19" t="inlineStr"/>
+      <c r="BJ78" s="20" t="inlineStr"/>
       <c r="BK78" s="21" t="inlineStr"/>
-      <c r="BL78" s="23" t="inlineStr"/>
-      <c r="BM78" s="25" t="inlineStr"/>
+      <c r="BL78" s="21" t="inlineStr"/>
+      <c r="BM78" s="23" t="inlineStr"/>
       <c r="BN78" s="25" t="inlineStr"/>
       <c r="BO78" s="25" t="inlineStr"/>
       <c r="BP78" s="25" t="inlineStr"/>
@@ -9343,14 +9432,15 @@
       <c r="CE78" s="25" t="inlineStr"/>
       <c r="CF78" s="25" t="inlineStr"/>
       <c r="CG78" s="25" t="inlineStr"/>
-      <c r="CH78" s="26" t="inlineStr"/>
-      <c r="CI78" s="34" t="inlineStr"/>
+      <c r="CH78" s="25" t="inlineStr"/>
+      <c r="CI78" s="26" t="inlineStr"/>
       <c r="CJ78" s="34" t="inlineStr"/>
       <c r="CK78" s="34" t="inlineStr"/>
       <c r="CL78" s="34" t="inlineStr"/>
-      <c r="CM78" s="27" t="inlineStr"/>
-      <c r="CN78" s="28" t="inlineStr"/>
+      <c r="CM78" s="34" t="inlineStr"/>
+      <c r="CN78" s="27" t="inlineStr"/>
       <c r="CO78" s="28" t="inlineStr"/>
+      <c r="CP78" s="28" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -9378,31 +9468,31 @@
       <c r="W79" s="19" t="inlineStr"/>
       <c r="X79" s="19" t="inlineStr"/>
       <c r="Y79" s="19" t="inlineStr"/>
-      <c r="Z79" s="20" t="inlineStr"/>
-      <c r="AA79" s="21" t="inlineStr"/>
+      <c r="Z79" s="19" t="inlineStr"/>
+      <c r="AA79" s="20" t="inlineStr"/>
       <c r="AB79" s="21" t="inlineStr"/>
-      <c r="AC79" s="22" t="inlineStr"/>
+      <c r="AC79" s="21" t="inlineStr"/>
       <c r="AD79" s="22" t="inlineStr"/>
-      <c r="AE79" s="21" t="inlineStr"/>
-      <c r="AF79" s="23" t="inlineStr"/>
-      <c r="AG79" s="24" t="inlineStr"/>
+      <c r="AE79" s="22" t="inlineStr"/>
+      <c r="AF79" s="21" t="inlineStr"/>
+      <c r="AG79" s="23" t="inlineStr"/>
       <c r="AH79" s="24" t="inlineStr"/>
       <c r="AI79" s="24" t="inlineStr"/>
       <c r="AJ79" s="24" t="inlineStr"/>
-      <c r="AK79" s="25" t="inlineStr"/>
+      <c r="AK79" s="24" t="inlineStr"/>
       <c r="AL79" s="25" t="inlineStr"/>
       <c r="AM79" s="25" t="inlineStr"/>
-      <c r="AN79" s="26" t="inlineStr"/>
-      <c r="AO79" s="27" t="inlineStr"/>
-      <c r="AP79" s="28" t="inlineStr"/>
-      <c r="AQ79" s="29" t="inlineStr"/>
-      <c r="AR79" s="30" t="inlineStr"/>
-      <c r="AS79" s="31" t="inlineStr"/>
-      <c r="AT79" s="17" t="inlineStr"/>
+      <c r="AN79" s="25" t="inlineStr"/>
+      <c r="AO79" s="26" t="inlineStr"/>
+      <c r="AP79" s="27" t="inlineStr"/>
+      <c r="AQ79" s="28" t="inlineStr"/>
+      <c r="AR79" s="29" t="inlineStr"/>
+      <c r="AS79" s="30" t="inlineStr"/>
+      <c r="AT79" s="31" t="inlineStr"/>
       <c r="AU79" s="17" t="inlineStr"/>
-      <c r="AV79" s="32" t="inlineStr"/>
-      <c r="AW79" s="18" t="inlineStr"/>
-      <c r="AX79" s="19" t="inlineStr"/>
+      <c r="AV79" s="17" t="inlineStr"/>
+      <c r="AW79" s="32" t="inlineStr"/>
+      <c r="AX79" s="18" t="inlineStr"/>
       <c r="AY79" s="19" t="inlineStr"/>
       <c r="AZ79" s="19" t="inlineStr"/>
       <c r="BA79" s="19" t="inlineStr"/>
@@ -9411,13 +9501,13 @@
       <c r="BD79" s="19" t="inlineStr"/>
       <c r="BE79" s="19" t="inlineStr"/>
       <c r="BF79" s="19" t="inlineStr"/>
-      <c r="BG79" s="33" t="inlineStr"/>
-      <c r="BH79" s="19" t="inlineStr"/>
-      <c r="BI79" s="20" t="inlineStr"/>
-      <c r="BJ79" s="21" t="inlineStr"/>
+      <c r="BG79" s="19" t="inlineStr"/>
+      <c r="BH79" s="33" t="inlineStr"/>
+      <c r="BI79" s="19" t="inlineStr"/>
+      <c r="BJ79" s="20" t="inlineStr"/>
       <c r="BK79" s="21" t="inlineStr"/>
-      <c r="BL79" s="23" t="inlineStr"/>
-      <c r="BM79" s="25" t="inlineStr"/>
+      <c r="BL79" s="21" t="inlineStr"/>
+      <c r="BM79" s="23" t="inlineStr"/>
       <c r="BN79" s="25" t="inlineStr"/>
       <c r="BO79" s="25" t="inlineStr"/>
       <c r="BP79" s="25" t="inlineStr"/>
@@ -9438,14 +9528,15 @@
       <c r="CE79" s="25" t="inlineStr"/>
       <c r="CF79" s="25" t="inlineStr"/>
       <c r="CG79" s="25" t="inlineStr"/>
-      <c r="CH79" s="26" t="inlineStr"/>
-      <c r="CI79" s="34" t="inlineStr"/>
+      <c r="CH79" s="25" t="inlineStr"/>
+      <c r="CI79" s="26" t="inlineStr"/>
       <c r="CJ79" s="34" t="inlineStr"/>
       <c r="CK79" s="34" t="inlineStr"/>
       <c r="CL79" s="34" t="inlineStr"/>
-      <c r="CM79" s="27" t="inlineStr"/>
-      <c r="CN79" s="28" t="inlineStr"/>
+      <c r="CM79" s="34" t="inlineStr"/>
+      <c r="CN79" s="27" t="inlineStr"/>
       <c r="CO79" s="28" t="inlineStr"/>
+      <c r="CP79" s="28" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -9473,31 +9564,31 @@
       <c r="W80" s="19" t="inlineStr"/>
       <c r="X80" s="19" t="inlineStr"/>
       <c r="Y80" s="19" t="inlineStr"/>
-      <c r="Z80" s="20" t="inlineStr"/>
-      <c r="AA80" s="21" t="inlineStr"/>
+      <c r="Z80" s="19" t="inlineStr"/>
+      <c r="AA80" s="20" t="inlineStr"/>
       <c r="AB80" s="21" t="inlineStr"/>
-      <c r="AC80" s="22" t="inlineStr"/>
+      <c r="AC80" s="21" t="inlineStr"/>
       <c r="AD80" s="22" t="inlineStr"/>
-      <c r="AE80" s="21" t="inlineStr"/>
-      <c r="AF80" s="23" t="inlineStr"/>
-      <c r="AG80" s="24" t="inlineStr"/>
+      <c r="AE80" s="22" t="inlineStr"/>
+      <c r="AF80" s="21" t="inlineStr"/>
+      <c r="AG80" s="23" t="inlineStr"/>
       <c r="AH80" s="24" t="inlineStr"/>
       <c r="AI80" s="24" t="inlineStr"/>
       <c r="AJ80" s="24" t="inlineStr"/>
-      <c r="AK80" s="25" t="inlineStr"/>
+      <c r="AK80" s="24" t="inlineStr"/>
       <c r="AL80" s="25" t="inlineStr"/>
       <c r="AM80" s="25" t="inlineStr"/>
-      <c r="AN80" s="26" t="inlineStr"/>
-      <c r="AO80" s="27" t="inlineStr"/>
-      <c r="AP80" s="28" t="inlineStr"/>
-      <c r="AQ80" s="29" t="inlineStr"/>
-      <c r="AR80" s="30" t="inlineStr"/>
-      <c r="AS80" s="31" t="inlineStr"/>
-      <c r="AT80" s="17" t="inlineStr"/>
+      <c r="AN80" s="25" t="inlineStr"/>
+      <c r="AO80" s="26" t="inlineStr"/>
+      <c r="AP80" s="27" t="inlineStr"/>
+      <c r="AQ80" s="28" t="inlineStr"/>
+      <c r="AR80" s="29" t="inlineStr"/>
+      <c r="AS80" s="30" t="inlineStr"/>
+      <c r="AT80" s="31" t="inlineStr"/>
       <c r="AU80" s="17" t="inlineStr"/>
-      <c r="AV80" s="32" t="inlineStr"/>
-      <c r="AW80" s="18" t="inlineStr"/>
-      <c r="AX80" s="19" t="inlineStr"/>
+      <c r="AV80" s="17" t="inlineStr"/>
+      <c r="AW80" s="32" t="inlineStr"/>
+      <c r="AX80" s="18" t="inlineStr"/>
       <c r="AY80" s="19" t="inlineStr"/>
       <c r="AZ80" s="19" t="inlineStr"/>
       <c r="BA80" s="19" t="inlineStr"/>
@@ -9506,13 +9597,13 @@
       <c r="BD80" s="19" t="inlineStr"/>
       <c r="BE80" s="19" t="inlineStr"/>
       <c r="BF80" s="19" t="inlineStr"/>
-      <c r="BG80" s="33" t="inlineStr"/>
-      <c r="BH80" s="19" t="inlineStr"/>
-      <c r="BI80" s="20" t="inlineStr"/>
-      <c r="BJ80" s="21" t="inlineStr"/>
+      <c r="BG80" s="19" t="inlineStr"/>
+      <c r="BH80" s="33" t="inlineStr"/>
+      <c r="BI80" s="19" t="inlineStr"/>
+      <c r="BJ80" s="20" t="inlineStr"/>
       <c r="BK80" s="21" t="inlineStr"/>
-      <c r="BL80" s="23" t="inlineStr"/>
-      <c r="BM80" s="25" t="inlineStr"/>
+      <c r="BL80" s="21" t="inlineStr"/>
+      <c r="BM80" s="23" t="inlineStr"/>
       <c r="BN80" s="25" t="inlineStr"/>
       <c r="BO80" s="25" t="inlineStr"/>
       <c r="BP80" s="25" t="inlineStr"/>
@@ -9533,14 +9624,15 @@
       <c r="CE80" s="25" t="inlineStr"/>
       <c r="CF80" s="25" t="inlineStr"/>
       <c r="CG80" s="25" t="inlineStr"/>
-      <c r="CH80" s="26" t="inlineStr"/>
-      <c r="CI80" s="34" t="inlineStr"/>
+      <c r="CH80" s="25" t="inlineStr"/>
+      <c r="CI80" s="26" t="inlineStr"/>
       <c r="CJ80" s="34" t="inlineStr"/>
       <c r="CK80" s="34" t="inlineStr"/>
       <c r="CL80" s="34" t="inlineStr"/>
-      <c r="CM80" s="27" t="inlineStr"/>
-      <c r="CN80" s="28" t="inlineStr"/>
+      <c r="CM80" s="34" t="inlineStr"/>
+      <c r="CN80" s="27" t="inlineStr"/>
       <c r="CO80" s="28" t="inlineStr"/>
+      <c r="CP80" s="28" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -9568,31 +9660,31 @@
       <c r="W81" s="19" t="inlineStr"/>
       <c r="X81" s="19" t="inlineStr"/>
       <c r="Y81" s="19" t="inlineStr"/>
-      <c r="Z81" s="20" t="inlineStr"/>
-      <c r="AA81" s="21" t="inlineStr"/>
+      <c r="Z81" s="19" t="inlineStr"/>
+      <c r="AA81" s="20" t="inlineStr"/>
       <c r="AB81" s="21" t="inlineStr"/>
-      <c r="AC81" s="22" t="inlineStr"/>
+      <c r="AC81" s="21" t="inlineStr"/>
       <c r="AD81" s="22" t="inlineStr"/>
-      <c r="AE81" s="21" t="inlineStr"/>
-      <c r="AF81" s="23" t="inlineStr"/>
-      <c r="AG81" s="24" t="inlineStr"/>
+      <c r="AE81" s="22" t="inlineStr"/>
+      <c r="AF81" s="21" t="inlineStr"/>
+      <c r="AG81" s="23" t="inlineStr"/>
       <c r="AH81" s="24" t="inlineStr"/>
       <c r="AI81" s="24" t="inlineStr"/>
       <c r="AJ81" s="24" t="inlineStr"/>
-      <c r="AK81" s="25" t="inlineStr"/>
+      <c r="AK81" s="24" t="inlineStr"/>
       <c r="AL81" s="25" t="inlineStr"/>
       <c r="AM81" s="25" t="inlineStr"/>
-      <c r="AN81" s="26" t="inlineStr"/>
-      <c r="AO81" s="27" t="inlineStr"/>
-      <c r="AP81" s="28" t="inlineStr"/>
-      <c r="AQ81" s="29" t="inlineStr"/>
-      <c r="AR81" s="30" t="inlineStr"/>
-      <c r="AS81" s="31" t="inlineStr"/>
-      <c r="AT81" s="17" t="inlineStr"/>
+      <c r="AN81" s="25" t="inlineStr"/>
+      <c r="AO81" s="26" t="inlineStr"/>
+      <c r="AP81" s="27" t="inlineStr"/>
+      <c r="AQ81" s="28" t="inlineStr"/>
+      <c r="AR81" s="29" t="inlineStr"/>
+      <c r="AS81" s="30" t="inlineStr"/>
+      <c r="AT81" s="31" t="inlineStr"/>
       <c r="AU81" s="17" t="inlineStr"/>
-      <c r="AV81" s="32" t="inlineStr"/>
-      <c r="AW81" s="18" t="inlineStr"/>
-      <c r="AX81" s="19" t="inlineStr"/>
+      <c r="AV81" s="17" t="inlineStr"/>
+      <c r="AW81" s="32" t="inlineStr"/>
+      <c r="AX81" s="18" t="inlineStr"/>
       <c r="AY81" s="19" t="inlineStr"/>
       <c r="AZ81" s="19" t="inlineStr"/>
       <c r="BA81" s="19" t="inlineStr"/>
@@ -9601,13 +9693,13 @@
       <c r="BD81" s="19" t="inlineStr"/>
       <c r="BE81" s="19" t="inlineStr"/>
       <c r="BF81" s="19" t="inlineStr"/>
-      <c r="BG81" s="33" t="inlineStr"/>
-      <c r="BH81" s="19" t="inlineStr"/>
-      <c r="BI81" s="20" t="inlineStr"/>
-      <c r="BJ81" s="21" t="inlineStr"/>
+      <c r="BG81" s="19" t="inlineStr"/>
+      <c r="BH81" s="33" t="inlineStr"/>
+      <c r="BI81" s="19" t="inlineStr"/>
+      <c r="BJ81" s="20" t="inlineStr"/>
       <c r="BK81" s="21" t="inlineStr"/>
-      <c r="BL81" s="23" t="inlineStr"/>
-      <c r="BM81" s="25" t="inlineStr"/>
+      <c r="BL81" s="21" t="inlineStr"/>
+      <c r="BM81" s="23" t="inlineStr"/>
       <c r="BN81" s="25" t="inlineStr"/>
       <c r="BO81" s="25" t="inlineStr"/>
       <c r="BP81" s="25" t="inlineStr"/>
@@ -9628,14 +9720,15 @@
       <c r="CE81" s="25" t="inlineStr"/>
       <c r="CF81" s="25" t="inlineStr"/>
       <c r="CG81" s="25" t="inlineStr"/>
-      <c r="CH81" s="26" t="inlineStr"/>
-      <c r="CI81" s="34" t="inlineStr"/>
+      <c r="CH81" s="25" t="inlineStr"/>
+      <c r="CI81" s="26" t="inlineStr"/>
       <c r="CJ81" s="34" t="inlineStr"/>
       <c r="CK81" s="34" t="inlineStr"/>
       <c r="CL81" s="34" t="inlineStr"/>
-      <c r="CM81" s="27" t="inlineStr"/>
-      <c r="CN81" s="28" t="inlineStr"/>
+      <c r="CM81" s="34" t="inlineStr"/>
+      <c r="CN81" s="27" t="inlineStr"/>
       <c r="CO81" s="28" t="inlineStr"/>
+      <c r="CP81" s="28" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -9663,31 +9756,31 @@
       <c r="W82" s="19" t="inlineStr"/>
       <c r="X82" s="19" t="inlineStr"/>
       <c r="Y82" s="19" t="inlineStr"/>
-      <c r="Z82" s="20" t="inlineStr"/>
-      <c r="AA82" s="21" t="inlineStr"/>
+      <c r="Z82" s="19" t="inlineStr"/>
+      <c r="AA82" s="20" t="inlineStr"/>
       <c r="AB82" s="21" t="inlineStr"/>
-      <c r="AC82" s="22" t="inlineStr"/>
+      <c r="AC82" s="21" t="inlineStr"/>
       <c r="AD82" s="22" t="inlineStr"/>
-      <c r="AE82" s="21" t="inlineStr"/>
-      <c r="AF82" s="23" t="inlineStr"/>
-      <c r="AG82" s="24" t="inlineStr"/>
+      <c r="AE82" s="22" t="inlineStr"/>
+      <c r="AF82" s="21" t="inlineStr"/>
+      <c r="AG82" s="23" t="inlineStr"/>
       <c r="AH82" s="24" t="inlineStr"/>
       <c r="AI82" s="24" t="inlineStr"/>
       <c r="AJ82" s="24" t="inlineStr"/>
-      <c r="AK82" s="25" t="inlineStr"/>
+      <c r="AK82" s="24" t="inlineStr"/>
       <c r="AL82" s="25" t="inlineStr"/>
       <c r="AM82" s="25" t="inlineStr"/>
-      <c r="AN82" s="26" t="inlineStr"/>
-      <c r="AO82" s="27" t="inlineStr"/>
-      <c r="AP82" s="28" t="inlineStr"/>
-      <c r="AQ82" s="29" t="inlineStr"/>
-      <c r="AR82" s="30" t="inlineStr"/>
-      <c r="AS82" s="31" t="inlineStr"/>
-      <c r="AT82" s="17" t="inlineStr"/>
+      <c r="AN82" s="25" t="inlineStr"/>
+      <c r="AO82" s="26" t="inlineStr"/>
+      <c r="AP82" s="27" t="inlineStr"/>
+      <c r="AQ82" s="28" t="inlineStr"/>
+      <c r="AR82" s="29" t="inlineStr"/>
+      <c r="AS82" s="30" t="inlineStr"/>
+      <c r="AT82" s="31" t="inlineStr"/>
       <c r="AU82" s="17" t="inlineStr"/>
-      <c r="AV82" s="32" t="inlineStr"/>
-      <c r="AW82" s="18" t="inlineStr"/>
-      <c r="AX82" s="19" t="inlineStr"/>
+      <c r="AV82" s="17" t="inlineStr"/>
+      <c r="AW82" s="32" t="inlineStr"/>
+      <c r="AX82" s="18" t="inlineStr"/>
       <c r="AY82" s="19" t="inlineStr"/>
       <c r="AZ82" s="19" t="inlineStr"/>
       <c r="BA82" s="19" t="inlineStr"/>
@@ -9696,13 +9789,13 @@
       <c r="BD82" s="19" t="inlineStr"/>
       <c r="BE82" s="19" t="inlineStr"/>
       <c r="BF82" s="19" t="inlineStr"/>
-      <c r="BG82" s="33" t="inlineStr"/>
-      <c r="BH82" s="19" t="inlineStr"/>
-      <c r="BI82" s="20" t="inlineStr"/>
-      <c r="BJ82" s="21" t="inlineStr"/>
+      <c r="BG82" s="19" t="inlineStr"/>
+      <c r="BH82" s="33" t="inlineStr"/>
+      <c r="BI82" s="19" t="inlineStr"/>
+      <c r="BJ82" s="20" t="inlineStr"/>
       <c r="BK82" s="21" t="inlineStr"/>
-      <c r="BL82" s="23" t="inlineStr"/>
-      <c r="BM82" s="25" t="inlineStr"/>
+      <c r="BL82" s="21" t="inlineStr"/>
+      <c r="BM82" s="23" t="inlineStr"/>
       <c r="BN82" s="25" t="inlineStr"/>
       <c r="BO82" s="25" t="inlineStr"/>
       <c r="BP82" s="25" t="inlineStr"/>
@@ -9723,14 +9816,15 @@
       <c r="CE82" s="25" t="inlineStr"/>
       <c r="CF82" s="25" t="inlineStr"/>
       <c r="CG82" s="25" t="inlineStr"/>
-      <c r="CH82" s="26" t="inlineStr"/>
-      <c r="CI82" s="34" t="inlineStr"/>
+      <c r="CH82" s="25" t="inlineStr"/>
+      <c r="CI82" s="26" t="inlineStr"/>
       <c r="CJ82" s="34" t="inlineStr"/>
       <c r="CK82" s="34" t="inlineStr"/>
       <c r="CL82" s="34" t="inlineStr"/>
-      <c r="CM82" s="27" t="inlineStr"/>
-      <c r="CN82" s="28" t="inlineStr"/>
+      <c r="CM82" s="34" t="inlineStr"/>
+      <c r="CN82" s="27" t="inlineStr"/>
       <c r="CO82" s="28" t="inlineStr"/>
+      <c r="CP82" s="28" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -9758,31 +9852,31 @@
       <c r="W83" s="19" t="inlineStr"/>
       <c r="X83" s="19" t="inlineStr"/>
       <c r="Y83" s="19" t="inlineStr"/>
-      <c r="Z83" s="20" t="inlineStr"/>
-      <c r="AA83" s="21" t="inlineStr"/>
+      <c r="Z83" s="19" t="inlineStr"/>
+      <c r="AA83" s="20" t="inlineStr"/>
       <c r="AB83" s="21" t="inlineStr"/>
-      <c r="AC83" s="22" t="inlineStr"/>
+      <c r="AC83" s="21" t="inlineStr"/>
       <c r="AD83" s="22" t="inlineStr"/>
-      <c r="AE83" s="21" t="inlineStr"/>
-      <c r="AF83" s="23" t="inlineStr"/>
-      <c r="AG83" s="24" t="inlineStr"/>
+      <c r="AE83" s="22" t="inlineStr"/>
+      <c r="AF83" s="21" t="inlineStr"/>
+      <c r="AG83" s="23" t="inlineStr"/>
       <c r="AH83" s="24" t="inlineStr"/>
       <c r="AI83" s="24" t="inlineStr"/>
       <c r="AJ83" s="24" t="inlineStr"/>
-      <c r="AK83" s="25" t="inlineStr"/>
+      <c r="AK83" s="24" t="inlineStr"/>
       <c r="AL83" s="25" t="inlineStr"/>
       <c r="AM83" s="25" t="inlineStr"/>
-      <c r="AN83" s="26" t="inlineStr"/>
-      <c r="AO83" s="27" t="inlineStr"/>
-      <c r="AP83" s="28" t="inlineStr"/>
-      <c r="AQ83" s="29" t="inlineStr"/>
-      <c r="AR83" s="30" t="inlineStr"/>
-      <c r="AS83" s="31" t="inlineStr"/>
-      <c r="AT83" s="17" t="inlineStr"/>
+      <c r="AN83" s="25" t="inlineStr"/>
+      <c r="AO83" s="26" t="inlineStr"/>
+      <c r="AP83" s="27" t="inlineStr"/>
+      <c r="AQ83" s="28" t="inlineStr"/>
+      <c r="AR83" s="29" t="inlineStr"/>
+      <c r="AS83" s="30" t="inlineStr"/>
+      <c r="AT83" s="31" t="inlineStr"/>
       <c r="AU83" s="17" t="inlineStr"/>
-      <c r="AV83" s="32" t="inlineStr"/>
-      <c r="AW83" s="18" t="inlineStr"/>
-      <c r="AX83" s="19" t="inlineStr"/>
+      <c r="AV83" s="17" t="inlineStr"/>
+      <c r="AW83" s="32" t="inlineStr"/>
+      <c r="AX83" s="18" t="inlineStr"/>
       <c r="AY83" s="19" t="inlineStr"/>
       <c r="AZ83" s="19" t="inlineStr"/>
       <c r="BA83" s="19" t="inlineStr"/>
@@ -9791,13 +9885,13 @@
       <c r="BD83" s="19" t="inlineStr"/>
       <c r="BE83" s="19" t="inlineStr"/>
       <c r="BF83" s="19" t="inlineStr"/>
-      <c r="BG83" s="33" t="inlineStr"/>
-      <c r="BH83" s="19" t="inlineStr"/>
-      <c r="BI83" s="20" t="inlineStr"/>
-      <c r="BJ83" s="21" t="inlineStr"/>
+      <c r="BG83" s="19" t="inlineStr"/>
+      <c r="BH83" s="33" t="inlineStr"/>
+      <c r="BI83" s="19" t="inlineStr"/>
+      <c r="BJ83" s="20" t="inlineStr"/>
       <c r="BK83" s="21" t="inlineStr"/>
-      <c r="BL83" s="23" t="inlineStr"/>
-      <c r="BM83" s="25" t="inlineStr"/>
+      <c r="BL83" s="21" t="inlineStr"/>
+      <c r="BM83" s="23" t="inlineStr"/>
       <c r="BN83" s="25" t="inlineStr"/>
       <c r="BO83" s="25" t="inlineStr"/>
       <c r="BP83" s="25" t="inlineStr"/>
@@ -9818,14 +9912,15 @@
       <c r="CE83" s="25" t="inlineStr"/>
       <c r="CF83" s="25" t="inlineStr"/>
       <c r="CG83" s="25" t="inlineStr"/>
-      <c r="CH83" s="26" t="inlineStr"/>
-      <c r="CI83" s="34" t="inlineStr"/>
+      <c r="CH83" s="25" t="inlineStr"/>
+      <c r="CI83" s="26" t="inlineStr"/>
       <c r="CJ83" s="34" t="inlineStr"/>
       <c r="CK83" s="34" t="inlineStr"/>
       <c r="CL83" s="34" t="inlineStr"/>
-      <c r="CM83" s="27" t="inlineStr"/>
-      <c r="CN83" s="28" t="inlineStr"/>
+      <c r="CM83" s="34" t="inlineStr"/>
+      <c r="CN83" s="27" t="inlineStr"/>
       <c r="CO83" s="28" t="inlineStr"/>
+      <c r="CP83" s="28" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -9853,31 +9948,31 @@
       <c r="W84" s="19" t="inlineStr"/>
       <c r="X84" s="19" t="inlineStr"/>
       <c r="Y84" s="19" t="inlineStr"/>
-      <c r="Z84" s="20" t="inlineStr"/>
-      <c r="AA84" s="21" t="inlineStr"/>
+      <c r="Z84" s="19" t="inlineStr"/>
+      <c r="AA84" s="20" t="inlineStr"/>
       <c r="AB84" s="21" t="inlineStr"/>
-      <c r="AC84" s="22" t="inlineStr"/>
+      <c r="AC84" s="21" t="inlineStr"/>
       <c r="AD84" s="22" t="inlineStr"/>
-      <c r="AE84" s="21" t="inlineStr"/>
-      <c r="AF84" s="23" t="inlineStr"/>
-      <c r="AG84" s="24" t="inlineStr"/>
+      <c r="AE84" s="22" t="inlineStr"/>
+      <c r="AF84" s="21" t="inlineStr"/>
+      <c r="AG84" s="23" t="inlineStr"/>
       <c r="AH84" s="24" t="inlineStr"/>
       <c r="AI84" s="24" t="inlineStr"/>
       <c r="AJ84" s="24" t="inlineStr"/>
-      <c r="AK84" s="25" t="inlineStr"/>
+      <c r="AK84" s="24" t="inlineStr"/>
       <c r="AL84" s="25" t="inlineStr"/>
       <c r="AM84" s="25" t="inlineStr"/>
-      <c r="AN84" s="26" t="inlineStr"/>
-      <c r="AO84" s="27" t="inlineStr"/>
-      <c r="AP84" s="28" t="inlineStr"/>
-      <c r="AQ84" s="29" t="inlineStr"/>
-      <c r="AR84" s="30" t="inlineStr"/>
-      <c r="AS84" s="31" t="inlineStr"/>
-      <c r="AT84" s="17" t="inlineStr"/>
+      <c r="AN84" s="25" t="inlineStr"/>
+      <c r="AO84" s="26" t="inlineStr"/>
+      <c r="AP84" s="27" t="inlineStr"/>
+      <c r="AQ84" s="28" t="inlineStr"/>
+      <c r="AR84" s="29" t="inlineStr"/>
+      <c r="AS84" s="30" t="inlineStr"/>
+      <c r="AT84" s="31" t="inlineStr"/>
       <c r="AU84" s="17" t="inlineStr"/>
-      <c r="AV84" s="32" t="inlineStr"/>
-      <c r="AW84" s="18" t="inlineStr"/>
-      <c r="AX84" s="19" t="inlineStr"/>
+      <c r="AV84" s="17" t="inlineStr"/>
+      <c r="AW84" s="32" t="inlineStr"/>
+      <c r="AX84" s="18" t="inlineStr"/>
       <c r="AY84" s="19" t="inlineStr"/>
       <c r="AZ84" s="19" t="inlineStr"/>
       <c r="BA84" s="19" t="inlineStr"/>
@@ -9886,13 +9981,13 @@
       <c r="BD84" s="19" t="inlineStr"/>
       <c r="BE84" s="19" t="inlineStr"/>
       <c r="BF84" s="19" t="inlineStr"/>
-      <c r="BG84" s="33" t="inlineStr"/>
-      <c r="BH84" s="19" t="inlineStr"/>
-      <c r="BI84" s="20" t="inlineStr"/>
-      <c r="BJ84" s="21" t="inlineStr"/>
+      <c r="BG84" s="19" t="inlineStr"/>
+      <c r="BH84" s="33" t="inlineStr"/>
+      <c r="BI84" s="19" t="inlineStr"/>
+      <c r="BJ84" s="20" t="inlineStr"/>
       <c r="BK84" s="21" t="inlineStr"/>
-      <c r="BL84" s="23" t="inlineStr"/>
-      <c r="BM84" s="25" t="inlineStr"/>
+      <c r="BL84" s="21" t="inlineStr"/>
+      <c r="BM84" s="23" t="inlineStr"/>
       <c r="BN84" s="25" t="inlineStr"/>
       <c r="BO84" s="25" t="inlineStr"/>
       <c r="BP84" s="25" t="inlineStr"/>
@@ -9913,14 +10008,15 @@
       <c r="CE84" s="25" t="inlineStr"/>
       <c r="CF84" s="25" t="inlineStr"/>
       <c r="CG84" s="25" t="inlineStr"/>
-      <c r="CH84" s="26" t="inlineStr"/>
-      <c r="CI84" s="34" t="inlineStr"/>
+      <c r="CH84" s="25" t="inlineStr"/>
+      <c r="CI84" s="26" t="inlineStr"/>
       <c r="CJ84" s="34" t="inlineStr"/>
       <c r="CK84" s="34" t="inlineStr"/>
       <c r="CL84" s="34" t="inlineStr"/>
-      <c r="CM84" s="27" t="inlineStr"/>
-      <c r="CN84" s="28" t="inlineStr"/>
+      <c r="CM84" s="34" t="inlineStr"/>
+      <c r="CN84" s="27" t="inlineStr"/>
       <c r="CO84" s="28" t="inlineStr"/>
+      <c r="CP84" s="28" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -9948,31 +10044,31 @@
       <c r="W85" s="19" t="inlineStr"/>
       <c r="X85" s="19" t="inlineStr"/>
       <c r="Y85" s="19" t="inlineStr"/>
-      <c r="Z85" s="20" t="inlineStr"/>
-      <c r="AA85" s="21" t="inlineStr"/>
+      <c r="Z85" s="19" t="inlineStr"/>
+      <c r="AA85" s="20" t="inlineStr"/>
       <c r="AB85" s="21" t="inlineStr"/>
-      <c r="AC85" s="22" t="inlineStr"/>
+      <c r="AC85" s="21" t="inlineStr"/>
       <c r="AD85" s="22" t="inlineStr"/>
-      <c r="AE85" s="21" t="inlineStr"/>
-      <c r="AF85" s="23" t="inlineStr"/>
-      <c r="AG85" s="24" t="inlineStr"/>
+      <c r="AE85" s="22" t="inlineStr"/>
+      <c r="AF85" s="21" t="inlineStr"/>
+      <c r="AG85" s="23" t="inlineStr"/>
       <c r="AH85" s="24" t="inlineStr"/>
       <c r="AI85" s="24" t="inlineStr"/>
       <c r="AJ85" s="24" t="inlineStr"/>
-      <c r="AK85" s="25" t="inlineStr"/>
+      <c r="AK85" s="24" t="inlineStr"/>
       <c r="AL85" s="25" t="inlineStr"/>
       <c r="AM85" s="25" t="inlineStr"/>
-      <c r="AN85" s="26" t="inlineStr"/>
-      <c r="AO85" s="27" t="inlineStr"/>
-      <c r="AP85" s="28" t="inlineStr"/>
-      <c r="AQ85" s="29" t="inlineStr"/>
-      <c r="AR85" s="30" t="inlineStr"/>
-      <c r="AS85" s="31" t="inlineStr"/>
-      <c r="AT85" s="17" t="inlineStr"/>
+      <c r="AN85" s="25" t="inlineStr"/>
+      <c r="AO85" s="26" t="inlineStr"/>
+      <c r="AP85" s="27" t="inlineStr"/>
+      <c r="AQ85" s="28" t="inlineStr"/>
+      <c r="AR85" s="29" t="inlineStr"/>
+      <c r="AS85" s="30" t="inlineStr"/>
+      <c r="AT85" s="31" t="inlineStr"/>
       <c r="AU85" s="17" t="inlineStr"/>
-      <c r="AV85" s="32" t="inlineStr"/>
-      <c r="AW85" s="18" t="inlineStr"/>
-      <c r="AX85" s="19" t="inlineStr"/>
+      <c r="AV85" s="17" t="inlineStr"/>
+      <c r="AW85" s="32" t="inlineStr"/>
+      <c r="AX85" s="18" t="inlineStr"/>
       <c r="AY85" s="19" t="inlineStr"/>
       <c r="AZ85" s="19" t="inlineStr"/>
       <c r="BA85" s="19" t="inlineStr"/>
@@ -9981,13 +10077,13 @@
       <c r="BD85" s="19" t="inlineStr"/>
       <c r="BE85" s="19" t="inlineStr"/>
       <c r="BF85" s="19" t="inlineStr"/>
-      <c r="BG85" s="33" t="inlineStr"/>
-      <c r="BH85" s="19" t="inlineStr"/>
-      <c r="BI85" s="20" t="inlineStr"/>
-      <c r="BJ85" s="21" t="inlineStr"/>
+      <c r="BG85" s="19" t="inlineStr"/>
+      <c r="BH85" s="33" t="inlineStr"/>
+      <c r="BI85" s="19" t="inlineStr"/>
+      <c r="BJ85" s="20" t="inlineStr"/>
       <c r="BK85" s="21" t="inlineStr"/>
-      <c r="BL85" s="23" t="inlineStr"/>
-      <c r="BM85" s="25" t="inlineStr"/>
+      <c r="BL85" s="21" t="inlineStr"/>
+      <c r="BM85" s="23" t="inlineStr"/>
       <c r="BN85" s="25" t="inlineStr"/>
       <c r="BO85" s="25" t="inlineStr"/>
       <c r="BP85" s="25" t="inlineStr"/>
@@ -10008,14 +10104,15 @@
       <c r="CE85" s="25" t="inlineStr"/>
       <c r="CF85" s="25" t="inlineStr"/>
       <c r="CG85" s="25" t="inlineStr"/>
-      <c r="CH85" s="26" t="inlineStr"/>
-      <c r="CI85" s="34" t="inlineStr"/>
+      <c r="CH85" s="25" t="inlineStr"/>
+      <c r="CI85" s="26" t="inlineStr"/>
       <c r="CJ85" s="34" t="inlineStr"/>
       <c r="CK85" s="34" t="inlineStr"/>
       <c r="CL85" s="34" t="inlineStr"/>
-      <c r="CM85" s="27" t="inlineStr"/>
-      <c r="CN85" s="28" t="inlineStr"/>
+      <c r="CM85" s="34" t="inlineStr"/>
+      <c r="CN85" s="27" t="inlineStr"/>
       <c r="CO85" s="28" t="inlineStr"/>
+      <c r="CP85" s="28" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -10043,31 +10140,31 @@
       <c r="W86" s="19" t="inlineStr"/>
       <c r="X86" s="19" t="inlineStr"/>
       <c r="Y86" s="19" t="inlineStr"/>
-      <c r="Z86" s="20" t="inlineStr"/>
-      <c r="AA86" s="21" t="inlineStr"/>
+      <c r="Z86" s="19" t="inlineStr"/>
+      <c r="AA86" s="20" t="inlineStr"/>
       <c r="AB86" s="21" t="inlineStr"/>
-      <c r="AC86" s="22" t="inlineStr"/>
+      <c r="AC86" s="21" t="inlineStr"/>
       <c r="AD86" s="22" t="inlineStr"/>
-      <c r="AE86" s="21" t="inlineStr"/>
-      <c r="AF86" s="23" t="inlineStr"/>
-      <c r="AG86" s="24" t="inlineStr"/>
+      <c r="AE86" s="22" t="inlineStr"/>
+      <c r="AF86" s="21" t="inlineStr"/>
+      <c r="AG86" s="23" t="inlineStr"/>
       <c r="AH86" s="24" t="inlineStr"/>
       <c r="AI86" s="24" t="inlineStr"/>
       <c r="AJ86" s="24" t="inlineStr"/>
-      <c r="AK86" s="25" t="inlineStr"/>
+      <c r="AK86" s="24" t="inlineStr"/>
       <c r="AL86" s="25" t="inlineStr"/>
       <c r="AM86" s="25" t="inlineStr"/>
-      <c r="AN86" s="26" t="inlineStr"/>
-      <c r="AO86" s="27" t="inlineStr"/>
-      <c r="AP86" s="28" t="inlineStr"/>
-      <c r="AQ86" s="29" t="inlineStr"/>
-      <c r="AR86" s="30" t="inlineStr"/>
-      <c r="AS86" s="31" t="inlineStr"/>
-      <c r="AT86" s="17" t="inlineStr"/>
+      <c r="AN86" s="25" t="inlineStr"/>
+      <c r="AO86" s="26" t="inlineStr"/>
+      <c r="AP86" s="27" t="inlineStr"/>
+      <c r="AQ86" s="28" t="inlineStr"/>
+      <c r="AR86" s="29" t="inlineStr"/>
+      <c r="AS86" s="30" t="inlineStr"/>
+      <c r="AT86" s="31" t="inlineStr"/>
       <c r="AU86" s="17" t="inlineStr"/>
-      <c r="AV86" s="32" t="inlineStr"/>
-      <c r="AW86" s="18" t="inlineStr"/>
-      <c r="AX86" s="19" t="inlineStr"/>
+      <c r="AV86" s="17" t="inlineStr"/>
+      <c r="AW86" s="32" t="inlineStr"/>
+      <c r="AX86" s="18" t="inlineStr"/>
       <c r="AY86" s="19" t="inlineStr"/>
       <c r="AZ86" s="19" t="inlineStr"/>
       <c r="BA86" s="19" t="inlineStr"/>
@@ -10076,13 +10173,13 @@
       <c r="BD86" s="19" t="inlineStr"/>
       <c r="BE86" s="19" t="inlineStr"/>
       <c r="BF86" s="19" t="inlineStr"/>
-      <c r="BG86" s="33" t="inlineStr"/>
-      <c r="BH86" s="19" t="inlineStr"/>
-      <c r="BI86" s="20" t="inlineStr"/>
-      <c r="BJ86" s="21" t="inlineStr"/>
+      <c r="BG86" s="19" t="inlineStr"/>
+      <c r="BH86" s="33" t="inlineStr"/>
+      <c r="BI86" s="19" t="inlineStr"/>
+      <c r="BJ86" s="20" t="inlineStr"/>
       <c r="BK86" s="21" t="inlineStr"/>
-      <c r="BL86" s="23" t="inlineStr"/>
-      <c r="BM86" s="25" t="inlineStr"/>
+      <c r="BL86" s="21" t="inlineStr"/>
+      <c r="BM86" s="23" t="inlineStr"/>
       <c r="BN86" s="25" t="inlineStr"/>
       <c r="BO86" s="25" t="inlineStr"/>
       <c r="BP86" s="25" t="inlineStr"/>
@@ -10103,14 +10200,15 @@
       <c r="CE86" s="25" t="inlineStr"/>
       <c r="CF86" s="25" t="inlineStr"/>
       <c r="CG86" s="25" t="inlineStr"/>
-      <c r="CH86" s="26" t="inlineStr"/>
-      <c r="CI86" s="34" t="inlineStr"/>
+      <c r="CH86" s="25" t="inlineStr"/>
+      <c r="CI86" s="26" t="inlineStr"/>
       <c r="CJ86" s="34" t="inlineStr"/>
       <c r="CK86" s="34" t="inlineStr"/>
       <c r="CL86" s="34" t="inlineStr"/>
-      <c r="CM86" s="27" t="inlineStr"/>
-      <c r="CN86" s="28" t="inlineStr"/>
+      <c r="CM86" s="34" t="inlineStr"/>
+      <c r="CN86" s="27" t="inlineStr"/>
       <c r="CO86" s="28" t="inlineStr"/>
+      <c r="CP86" s="28" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -10138,31 +10236,31 @@
       <c r="W87" s="19" t="inlineStr"/>
       <c r="X87" s="19" t="inlineStr"/>
       <c r="Y87" s="19" t="inlineStr"/>
-      <c r="Z87" s="20" t="inlineStr"/>
-      <c r="AA87" s="21" t="inlineStr"/>
+      <c r="Z87" s="19" t="inlineStr"/>
+      <c r="AA87" s="20" t="inlineStr"/>
       <c r="AB87" s="21" t="inlineStr"/>
-      <c r="AC87" s="22" t="inlineStr"/>
+      <c r="AC87" s="21" t="inlineStr"/>
       <c r="AD87" s="22" t="inlineStr"/>
-      <c r="AE87" s="21" t="inlineStr"/>
-      <c r="AF87" s="23" t="inlineStr"/>
-      <c r="AG87" s="24" t="inlineStr"/>
+      <c r="AE87" s="22" t="inlineStr"/>
+      <c r="AF87" s="21" t="inlineStr"/>
+      <c r="AG87" s="23" t="inlineStr"/>
       <c r="AH87" s="24" t="inlineStr"/>
       <c r="AI87" s="24" t="inlineStr"/>
       <c r="AJ87" s="24" t="inlineStr"/>
-      <c r="AK87" s="25" t="inlineStr"/>
+      <c r="AK87" s="24" t="inlineStr"/>
       <c r="AL87" s="25" t="inlineStr"/>
       <c r="AM87" s="25" t="inlineStr"/>
-      <c r="AN87" s="26" t="inlineStr"/>
-      <c r="AO87" s="27" t="inlineStr"/>
-      <c r="AP87" s="28" t="inlineStr"/>
-      <c r="AQ87" s="29" t="inlineStr"/>
-      <c r="AR87" s="30" t="inlineStr"/>
-      <c r="AS87" s="31" t="inlineStr"/>
-      <c r="AT87" s="17" t="inlineStr"/>
+      <c r="AN87" s="25" t="inlineStr"/>
+      <c r="AO87" s="26" t="inlineStr"/>
+      <c r="AP87" s="27" t="inlineStr"/>
+      <c r="AQ87" s="28" t="inlineStr"/>
+      <c r="AR87" s="29" t="inlineStr"/>
+      <c r="AS87" s="30" t="inlineStr"/>
+      <c r="AT87" s="31" t="inlineStr"/>
       <c r="AU87" s="17" t="inlineStr"/>
-      <c r="AV87" s="32" t="inlineStr"/>
-      <c r="AW87" s="18" t="inlineStr"/>
-      <c r="AX87" s="19" t="inlineStr"/>
+      <c r="AV87" s="17" t="inlineStr"/>
+      <c r="AW87" s="32" t="inlineStr"/>
+      <c r="AX87" s="18" t="inlineStr"/>
       <c r="AY87" s="19" t="inlineStr"/>
       <c r="AZ87" s="19" t="inlineStr"/>
       <c r="BA87" s="19" t="inlineStr"/>
@@ -10171,13 +10269,13 @@
       <c r="BD87" s="19" t="inlineStr"/>
       <c r="BE87" s="19" t="inlineStr"/>
       <c r="BF87" s="19" t="inlineStr"/>
-      <c r="BG87" s="33" t="inlineStr"/>
-      <c r="BH87" s="19" t="inlineStr"/>
-      <c r="BI87" s="20" t="inlineStr"/>
-      <c r="BJ87" s="21" t="inlineStr"/>
+      <c r="BG87" s="19" t="inlineStr"/>
+      <c r="BH87" s="33" t="inlineStr"/>
+      <c r="BI87" s="19" t="inlineStr"/>
+      <c r="BJ87" s="20" t="inlineStr"/>
       <c r="BK87" s="21" t="inlineStr"/>
-      <c r="BL87" s="23" t="inlineStr"/>
-      <c r="BM87" s="25" t="inlineStr"/>
+      <c r="BL87" s="21" t="inlineStr"/>
+      <c r="BM87" s="23" t="inlineStr"/>
       <c r="BN87" s="25" t="inlineStr"/>
       <c r="BO87" s="25" t="inlineStr"/>
       <c r="BP87" s="25" t="inlineStr"/>
@@ -10198,14 +10296,15 @@
       <c r="CE87" s="25" t="inlineStr"/>
       <c r="CF87" s="25" t="inlineStr"/>
       <c r="CG87" s="25" t="inlineStr"/>
-      <c r="CH87" s="26" t="inlineStr"/>
-      <c r="CI87" s="34" t="inlineStr"/>
+      <c r="CH87" s="25" t="inlineStr"/>
+      <c r="CI87" s="26" t="inlineStr"/>
       <c r="CJ87" s="34" t="inlineStr"/>
       <c r="CK87" s="34" t="inlineStr"/>
       <c r="CL87" s="34" t="inlineStr"/>
-      <c r="CM87" s="27" t="inlineStr"/>
-      <c r="CN87" s="28" t="inlineStr"/>
+      <c r="CM87" s="34" t="inlineStr"/>
+      <c r="CN87" s="27" t="inlineStr"/>
       <c r="CO87" s="28" t="inlineStr"/>
+      <c r="CP87" s="28" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -10233,31 +10332,31 @@
       <c r="W88" s="19" t="inlineStr"/>
       <c r="X88" s="19" t="inlineStr"/>
       <c r="Y88" s="19" t="inlineStr"/>
-      <c r="Z88" s="20" t="inlineStr"/>
-      <c r="AA88" s="21" t="inlineStr"/>
+      <c r="Z88" s="19" t="inlineStr"/>
+      <c r="AA88" s="20" t="inlineStr"/>
       <c r="AB88" s="21" t="inlineStr"/>
-      <c r="AC88" s="22" t="inlineStr"/>
+      <c r="AC88" s="21" t="inlineStr"/>
       <c r="AD88" s="22" t="inlineStr"/>
-      <c r="AE88" s="21" t="inlineStr"/>
-      <c r="AF88" s="23" t="inlineStr"/>
-      <c r="AG88" s="24" t="inlineStr"/>
+      <c r="AE88" s="22" t="inlineStr"/>
+      <c r="AF88" s="21" t="inlineStr"/>
+      <c r="AG88" s="23" t="inlineStr"/>
       <c r="AH88" s="24" t="inlineStr"/>
       <c r="AI88" s="24" t="inlineStr"/>
       <c r="AJ88" s="24" t="inlineStr"/>
-      <c r="AK88" s="25" t="inlineStr"/>
+      <c r="AK88" s="24" t="inlineStr"/>
       <c r="AL88" s="25" t="inlineStr"/>
       <c r="AM88" s="25" t="inlineStr"/>
-      <c r="AN88" s="26" t="inlineStr"/>
-      <c r="AO88" s="27" t="inlineStr"/>
-      <c r="AP88" s="28" t="inlineStr"/>
-      <c r="AQ88" s="29" t="inlineStr"/>
-      <c r="AR88" s="30" t="inlineStr"/>
-      <c r="AS88" s="31" t="inlineStr"/>
-      <c r="AT88" s="17" t="inlineStr"/>
+      <c r="AN88" s="25" t="inlineStr"/>
+      <c r="AO88" s="26" t="inlineStr"/>
+      <c r="AP88" s="27" t="inlineStr"/>
+      <c r="AQ88" s="28" t="inlineStr"/>
+      <c r="AR88" s="29" t="inlineStr"/>
+      <c r="AS88" s="30" t="inlineStr"/>
+      <c r="AT88" s="31" t="inlineStr"/>
       <c r="AU88" s="17" t="inlineStr"/>
-      <c r="AV88" s="32" t="inlineStr"/>
-      <c r="AW88" s="18" t="inlineStr"/>
-      <c r="AX88" s="19" t="inlineStr"/>
+      <c r="AV88" s="17" t="inlineStr"/>
+      <c r="AW88" s="32" t="inlineStr"/>
+      <c r="AX88" s="18" t="inlineStr"/>
       <c r="AY88" s="19" t="inlineStr"/>
       <c r="AZ88" s="19" t="inlineStr"/>
       <c r="BA88" s="19" t="inlineStr"/>
@@ -10266,13 +10365,13 @@
       <c r="BD88" s="19" t="inlineStr"/>
       <c r="BE88" s="19" t="inlineStr"/>
       <c r="BF88" s="19" t="inlineStr"/>
-      <c r="BG88" s="33" t="inlineStr"/>
-      <c r="BH88" s="19" t="inlineStr"/>
-      <c r="BI88" s="20" t="inlineStr"/>
-      <c r="BJ88" s="21" t="inlineStr"/>
+      <c r="BG88" s="19" t="inlineStr"/>
+      <c r="BH88" s="33" t="inlineStr"/>
+      <c r="BI88" s="19" t="inlineStr"/>
+      <c r="BJ88" s="20" t="inlineStr"/>
       <c r="BK88" s="21" t="inlineStr"/>
-      <c r="BL88" s="23" t="inlineStr"/>
-      <c r="BM88" s="25" t="inlineStr"/>
+      <c r="BL88" s="21" t="inlineStr"/>
+      <c r="BM88" s="23" t="inlineStr"/>
       <c r="BN88" s="25" t="inlineStr"/>
       <c r="BO88" s="25" t="inlineStr"/>
       <c r="BP88" s="25" t="inlineStr"/>
@@ -10293,14 +10392,15 @@
       <c r="CE88" s="25" t="inlineStr"/>
       <c r="CF88" s="25" t="inlineStr"/>
       <c r="CG88" s="25" t="inlineStr"/>
-      <c r="CH88" s="26" t="inlineStr"/>
-      <c r="CI88" s="34" t="inlineStr"/>
+      <c r="CH88" s="25" t="inlineStr"/>
+      <c r="CI88" s="26" t="inlineStr"/>
       <c r="CJ88" s="34" t="inlineStr"/>
       <c r="CK88" s="34" t="inlineStr"/>
       <c r="CL88" s="34" t="inlineStr"/>
-      <c r="CM88" s="27" t="inlineStr"/>
-      <c r="CN88" s="28" t="inlineStr"/>
+      <c r="CM88" s="34" t="inlineStr"/>
+      <c r="CN88" s="27" t="inlineStr"/>
       <c r="CO88" s="28" t="inlineStr"/>
+      <c r="CP88" s="28" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -10328,31 +10428,31 @@
       <c r="W89" s="19" t="inlineStr"/>
       <c r="X89" s="19" t="inlineStr"/>
       <c r="Y89" s="19" t="inlineStr"/>
-      <c r="Z89" s="20" t="inlineStr"/>
-      <c r="AA89" s="21" t="inlineStr"/>
+      <c r="Z89" s="19" t="inlineStr"/>
+      <c r="AA89" s="20" t="inlineStr"/>
       <c r="AB89" s="21" t="inlineStr"/>
-      <c r="AC89" s="22" t="inlineStr"/>
+      <c r="AC89" s="21" t="inlineStr"/>
       <c r="AD89" s="22" t="inlineStr"/>
-      <c r="AE89" s="21" t="inlineStr"/>
-      <c r="AF89" s="23" t="inlineStr"/>
-      <c r="AG89" s="24" t="inlineStr"/>
+      <c r="AE89" s="22" t="inlineStr"/>
+      <c r="AF89" s="21" t="inlineStr"/>
+      <c r="AG89" s="23" t="inlineStr"/>
       <c r="AH89" s="24" t="inlineStr"/>
       <c r="AI89" s="24" t="inlineStr"/>
       <c r="AJ89" s="24" t="inlineStr"/>
-      <c r="AK89" s="25" t="inlineStr"/>
+      <c r="AK89" s="24" t="inlineStr"/>
       <c r="AL89" s="25" t="inlineStr"/>
       <c r="AM89" s="25" t="inlineStr"/>
-      <c r="AN89" s="26" t="inlineStr"/>
-      <c r="AO89" s="27" t="inlineStr"/>
-      <c r="AP89" s="28" t="inlineStr"/>
-      <c r="AQ89" s="29" t="inlineStr"/>
-      <c r="AR89" s="30" t="inlineStr"/>
-      <c r="AS89" s="31" t="inlineStr"/>
-      <c r="AT89" s="17" t="inlineStr"/>
+      <c r="AN89" s="25" t="inlineStr"/>
+      <c r="AO89" s="26" t="inlineStr"/>
+      <c r="AP89" s="27" t="inlineStr"/>
+      <c r="AQ89" s="28" t="inlineStr"/>
+      <c r="AR89" s="29" t="inlineStr"/>
+      <c r="AS89" s="30" t="inlineStr"/>
+      <c r="AT89" s="31" t="inlineStr"/>
       <c r="AU89" s="17" t="inlineStr"/>
-      <c r="AV89" s="32" t="inlineStr"/>
-      <c r="AW89" s="18" t="inlineStr"/>
-      <c r="AX89" s="19" t="inlineStr"/>
+      <c r="AV89" s="17" t="inlineStr"/>
+      <c r="AW89" s="32" t="inlineStr"/>
+      <c r="AX89" s="18" t="inlineStr"/>
       <c r="AY89" s="19" t="inlineStr"/>
       <c r="AZ89" s="19" t="inlineStr"/>
       <c r="BA89" s="19" t="inlineStr"/>
@@ -10361,13 +10461,13 @@
       <c r="BD89" s="19" t="inlineStr"/>
       <c r="BE89" s="19" t="inlineStr"/>
       <c r="BF89" s="19" t="inlineStr"/>
-      <c r="BG89" s="33" t="inlineStr"/>
-      <c r="BH89" s="19" t="inlineStr"/>
-      <c r="BI89" s="20" t="inlineStr"/>
-      <c r="BJ89" s="21" t="inlineStr"/>
+      <c r="BG89" s="19" t="inlineStr"/>
+      <c r="BH89" s="33" t="inlineStr"/>
+      <c r="BI89" s="19" t="inlineStr"/>
+      <c r="BJ89" s="20" t="inlineStr"/>
       <c r="BK89" s="21" t="inlineStr"/>
-      <c r="BL89" s="23" t="inlineStr"/>
-      <c r="BM89" s="25" t="inlineStr"/>
+      <c r="BL89" s="21" t="inlineStr"/>
+      <c r="BM89" s="23" t="inlineStr"/>
       <c r="BN89" s="25" t="inlineStr"/>
       <c r="BO89" s="25" t="inlineStr"/>
       <c r="BP89" s="25" t="inlineStr"/>
@@ -10388,14 +10488,15 @@
       <c r="CE89" s="25" t="inlineStr"/>
       <c r="CF89" s="25" t="inlineStr"/>
       <c r="CG89" s="25" t="inlineStr"/>
-      <c r="CH89" s="26" t="inlineStr"/>
-      <c r="CI89" s="34" t="inlineStr"/>
+      <c r="CH89" s="25" t="inlineStr"/>
+      <c r="CI89" s="26" t="inlineStr"/>
       <c r="CJ89" s="34" t="inlineStr"/>
       <c r="CK89" s="34" t="inlineStr"/>
       <c r="CL89" s="34" t="inlineStr"/>
-      <c r="CM89" s="27" t="inlineStr"/>
-      <c r="CN89" s="28" t="inlineStr"/>
+      <c r="CM89" s="34" t="inlineStr"/>
+      <c r="CN89" s="27" t="inlineStr"/>
       <c r="CO89" s="28" t="inlineStr"/>
+      <c r="CP89" s="28" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -10423,31 +10524,31 @@
       <c r="W90" s="19" t="inlineStr"/>
       <c r="X90" s="19" t="inlineStr"/>
       <c r="Y90" s="19" t="inlineStr"/>
-      <c r="Z90" s="20" t="inlineStr"/>
-      <c r="AA90" s="21" t="inlineStr"/>
+      <c r="Z90" s="19" t="inlineStr"/>
+      <c r="AA90" s="20" t="inlineStr"/>
       <c r="AB90" s="21" t="inlineStr"/>
-      <c r="AC90" s="22" t="inlineStr"/>
+      <c r="AC90" s="21" t="inlineStr"/>
       <c r="AD90" s="22" t="inlineStr"/>
-      <c r="AE90" s="21" t="inlineStr"/>
-      <c r="AF90" s="23" t="inlineStr"/>
-      <c r="AG90" s="24" t="inlineStr"/>
+      <c r="AE90" s="22" t="inlineStr"/>
+      <c r="AF90" s="21" t="inlineStr"/>
+      <c r="AG90" s="23" t="inlineStr"/>
       <c r="AH90" s="24" t="inlineStr"/>
       <c r="AI90" s="24" t="inlineStr"/>
       <c r="AJ90" s="24" t="inlineStr"/>
-      <c r="AK90" s="25" t="inlineStr"/>
+      <c r="AK90" s="24" t="inlineStr"/>
       <c r="AL90" s="25" t="inlineStr"/>
       <c r="AM90" s="25" t="inlineStr"/>
-      <c r="AN90" s="26" t="inlineStr"/>
-      <c r="AO90" s="27" t="inlineStr"/>
-      <c r="AP90" s="28" t="inlineStr"/>
-      <c r="AQ90" s="29" t="inlineStr"/>
-      <c r="AR90" s="30" t="inlineStr"/>
-      <c r="AS90" s="31" t="inlineStr"/>
-      <c r="AT90" s="17" t="inlineStr"/>
+      <c r="AN90" s="25" t="inlineStr"/>
+      <c r="AO90" s="26" t="inlineStr"/>
+      <c r="AP90" s="27" t="inlineStr"/>
+      <c r="AQ90" s="28" t="inlineStr"/>
+      <c r="AR90" s="29" t="inlineStr"/>
+      <c r="AS90" s="30" t="inlineStr"/>
+      <c r="AT90" s="31" t="inlineStr"/>
       <c r="AU90" s="17" t="inlineStr"/>
-      <c r="AV90" s="32" t="inlineStr"/>
-      <c r="AW90" s="18" t="inlineStr"/>
-      <c r="AX90" s="19" t="inlineStr"/>
+      <c r="AV90" s="17" t="inlineStr"/>
+      <c r="AW90" s="32" t="inlineStr"/>
+      <c r="AX90" s="18" t="inlineStr"/>
       <c r="AY90" s="19" t="inlineStr"/>
       <c r="AZ90" s="19" t="inlineStr"/>
       <c r="BA90" s="19" t="inlineStr"/>
@@ -10456,13 +10557,13 @@
       <c r="BD90" s="19" t="inlineStr"/>
       <c r="BE90" s="19" t="inlineStr"/>
       <c r="BF90" s="19" t="inlineStr"/>
-      <c r="BG90" s="33" t="inlineStr"/>
-      <c r="BH90" s="19" t="inlineStr"/>
-      <c r="BI90" s="20" t="inlineStr"/>
-      <c r="BJ90" s="21" t="inlineStr"/>
+      <c r="BG90" s="19" t="inlineStr"/>
+      <c r="BH90" s="33" t="inlineStr"/>
+      <c r="BI90" s="19" t="inlineStr"/>
+      <c r="BJ90" s="20" t="inlineStr"/>
       <c r="BK90" s="21" t="inlineStr"/>
-      <c r="BL90" s="23" t="inlineStr"/>
-      <c r="BM90" s="25" t="inlineStr"/>
+      <c r="BL90" s="21" t="inlineStr"/>
+      <c r="BM90" s="23" t="inlineStr"/>
       <c r="BN90" s="25" t="inlineStr"/>
       <c r="BO90" s="25" t="inlineStr"/>
       <c r="BP90" s="25" t="inlineStr"/>
@@ -10483,14 +10584,15 @@
       <c r="CE90" s="25" t="inlineStr"/>
       <c r="CF90" s="25" t="inlineStr"/>
       <c r="CG90" s="25" t="inlineStr"/>
-      <c r="CH90" s="26" t="inlineStr"/>
-      <c r="CI90" s="34" t="inlineStr"/>
+      <c r="CH90" s="25" t="inlineStr"/>
+      <c r="CI90" s="26" t="inlineStr"/>
       <c r="CJ90" s="34" t="inlineStr"/>
       <c r="CK90" s="34" t="inlineStr"/>
       <c r="CL90" s="34" t="inlineStr"/>
-      <c r="CM90" s="27" t="inlineStr"/>
-      <c r="CN90" s="28" t="inlineStr"/>
+      <c r="CM90" s="34" t="inlineStr"/>
+      <c r="CN90" s="27" t="inlineStr"/>
       <c r="CO90" s="28" t="inlineStr"/>
+      <c r="CP90" s="28" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -10518,31 +10620,31 @@
       <c r="W91" s="19" t="inlineStr"/>
       <c r="X91" s="19" t="inlineStr"/>
       <c r="Y91" s="19" t="inlineStr"/>
-      <c r="Z91" s="20" t="inlineStr"/>
-      <c r="AA91" s="21" t="inlineStr"/>
+      <c r="Z91" s="19" t="inlineStr"/>
+      <c r="AA91" s="20" t="inlineStr"/>
       <c r="AB91" s="21" t="inlineStr"/>
-      <c r="AC91" s="22" t="inlineStr"/>
+      <c r="AC91" s="21" t="inlineStr"/>
       <c r="AD91" s="22" t="inlineStr"/>
-      <c r="AE91" s="21" t="inlineStr"/>
-      <c r="AF91" s="23" t="inlineStr"/>
-      <c r="AG91" s="24" t="inlineStr"/>
+      <c r="AE91" s="22" t="inlineStr"/>
+      <c r="AF91" s="21" t="inlineStr"/>
+      <c r="AG91" s="23" t="inlineStr"/>
       <c r="AH91" s="24" t="inlineStr"/>
       <c r="AI91" s="24" t="inlineStr"/>
       <c r="AJ91" s="24" t="inlineStr"/>
-      <c r="AK91" s="25" t="inlineStr"/>
+      <c r="AK91" s="24" t="inlineStr"/>
       <c r="AL91" s="25" t="inlineStr"/>
       <c r="AM91" s="25" t="inlineStr"/>
-      <c r="AN91" s="26" t="inlineStr"/>
-      <c r="AO91" s="27" t="inlineStr"/>
-      <c r="AP91" s="28" t="inlineStr"/>
-      <c r="AQ91" s="29" t="inlineStr"/>
-      <c r="AR91" s="30" t="inlineStr"/>
-      <c r="AS91" s="31" t="inlineStr"/>
-      <c r="AT91" s="17" t="inlineStr"/>
+      <c r="AN91" s="25" t="inlineStr"/>
+      <c r="AO91" s="26" t="inlineStr"/>
+      <c r="AP91" s="27" t="inlineStr"/>
+      <c r="AQ91" s="28" t="inlineStr"/>
+      <c r="AR91" s="29" t="inlineStr"/>
+      <c r="AS91" s="30" t="inlineStr"/>
+      <c r="AT91" s="31" t="inlineStr"/>
       <c r="AU91" s="17" t="inlineStr"/>
-      <c r="AV91" s="32" t="inlineStr"/>
-      <c r="AW91" s="18" t="inlineStr"/>
-      <c r="AX91" s="19" t="inlineStr"/>
+      <c r="AV91" s="17" t="inlineStr"/>
+      <c r="AW91" s="32" t="inlineStr"/>
+      <c r="AX91" s="18" t="inlineStr"/>
       <c r="AY91" s="19" t="inlineStr"/>
       <c r="AZ91" s="19" t="inlineStr"/>
       <c r="BA91" s="19" t="inlineStr"/>
@@ -10551,13 +10653,13 @@
       <c r="BD91" s="19" t="inlineStr"/>
       <c r="BE91" s="19" t="inlineStr"/>
       <c r="BF91" s="19" t="inlineStr"/>
-      <c r="BG91" s="33" t="inlineStr"/>
-      <c r="BH91" s="19" t="inlineStr"/>
-      <c r="BI91" s="20" t="inlineStr"/>
-      <c r="BJ91" s="21" t="inlineStr"/>
+      <c r="BG91" s="19" t="inlineStr"/>
+      <c r="BH91" s="33" t="inlineStr"/>
+      <c r="BI91" s="19" t="inlineStr"/>
+      <c r="BJ91" s="20" t="inlineStr"/>
       <c r="BK91" s="21" t="inlineStr"/>
-      <c r="BL91" s="23" t="inlineStr"/>
-      <c r="BM91" s="25" t="inlineStr"/>
+      <c r="BL91" s="21" t="inlineStr"/>
+      <c r="BM91" s="23" t="inlineStr"/>
       <c r="BN91" s="25" t="inlineStr"/>
       <c r="BO91" s="25" t="inlineStr"/>
       <c r="BP91" s="25" t="inlineStr"/>
@@ -10578,14 +10680,15 @@
       <c r="CE91" s="25" t="inlineStr"/>
       <c r="CF91" s="25" t="inlineStr"/>
       <c r="CG91" s="25" t="inlineStr"/>
-      <c r="CH91" s="26" t="inlineStr"/>
-      <c r="CI91" s="34" t="inlineStr"/>
+      <c r="CH91" s="25" t="inlineStr"/>
+      <c r="CI91" s="26" t="inlineStr"/>
       <c r="CJ91" s="34" t="inlineStr"/>
       <c r="CK91" s="34" t="inlineStr"/>
       <c r="CL91" s="34" t="inlineStr"/>
-      <c r="CM91" s="27" t="inlineStr"/>
-      <c r="CN91" s="28" t="inlineStr"/>
+      <c r="CM91" s="34" t="inlineStr"/>
+      <c r="CN91" s="27" t="inlineStr"/>
       <c r="CO91" s="28" t="inlineStr"/>
+      <c r="CP91" s="28" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -10613,31 +10716,31 @@
       <c r="W92" s="19" t="inlineStr"/>
       <c r="X92" s="19" t="inlineStr"/>
       <c r="Y92" s="19" t="inlineStr"/>
-      <c r="Z92" s="20" t="inlineStr"/>
-      <c r="AA92" s="21" t="inlineStr"/>
+      <c r="Z92" s="19" t="inlineStr"/>
+      <c r="AA92" s="20" t="inlineStr"/>
       <c r="AB92" s="21" t="inlineStr"/>
-      <c r="AC92" s="22" t="inlineStr"/>
+      <c r="AC92" s="21" t="inlineStr"/>
       <c r="AD92" s="22" t="inlineStr"/>
-      <c r="AE92" s="21" t="inlineStr"/>
-      <c r="AF92" s="23" t="inlineStr"/>
-      <c r="AG92" s="24" t="inlineStr"/>
+      <c r="AE92" s="22" t="inlineStr"/>
+      <c r="AF92" s="21" t="inlineStr"/>
+      <c r="AG92" s="23" t="inlineStr"/>
       <c r="AH92" s="24" t="inlineStr"/>
       <c r="AI92" s="24" t="inlineStr"/>
       <c r="AJ92" s="24" t="inlineStr"/>
-      <c r="AK92" s="25" t="inlineStr"/>
+      <c r="AK92" s="24" t="inlineStr"/>
       <c r="AL92" s="25" t="inlineStr"/>
       <c r="AM92" s="25" t="inlineStr"/>
-      <c r="AN92" s="26" t="inlineStr"/>
-      <c r="AO92" s="27" t="inlineStr"/>
-      <c r="AP92" s="28" t="inlineStr"/>
-      <c r="AQ92" s="29" t="inlineStr"/>
-      <c r="AR92" s="30" t="inlineStr"/>
-      <c r="AS92" s="31" t="inlineStr"/>
-      <c r="AT92" s="17" t="inlineStr"/>
+      <c r="AN92" s="25" t="inlineStr"/>
+      <c r="AO92" s="26" t="inlineStr"/>
+      <c r="AP92" s="27" t="inlineStr"/>
+      <c r="AQ92" s="28" t="inlineStr"/>
+      <c r="AR92" s="29" t="inlineStr"/>
+      <c r="AS92" s="30" t="inlineStr"/>
+      <c r="AT92" s="31" t="inlineStr"/>
       <c r="AU92" s="17" t="inlineStr"/>
-      <c r="AV92" s="32" t="inlineStr"/>
-      <c r="AW92" s="18" t="inlineStr"/>
-      <c r="AX92" s="19" t="inlineStr"/>
+      <c r="AV92" s="17" t="inlineStr"/>
+      <c r="AW92" s="32" t="inlineStr"/>
+      <c r="AX92" s="18" t="inlineStr"/>
       <c r="AY92" s="19" t="inlineStr"/>
       <c r="AZ92" s="19" t="inlineStr"/>
       <c r="BA92" s="19" t="inlineStr"/>
@@ -10646,13 +10749,13 @@
       <c r="BD92" s="19" t="inlineStr"/>
       <c r="BE92" s="19" t="inlineStr"/>
       <c r="BF92" s="19" t="inlineStr"/>
-      <c r="BG92" s="33" t="inlineStr"/>
-      <c r="BH92" s="19" t="inlineStr"/>
-      <c r="BI92" s="20" t="inlineStr"/>
-      <c r="BJ92" s="21" t="inlineStr"/>
+      <c r="BG92" s="19" t="inlineStr"/>
+      <c r="BH92" s="33" t="inlineStr"/>
+      <c r="BI92" s="19" t="inlineStr"/>
+      <c r="BJ92" s="20" t="inlineStr"/>
       <c r="BK92" s="21" t="inlineStr"/>
-      <c r="BL92" s="23" t="inlineStr"/>
-      <c r="BM92" s="25" t="inlineStr"/>
+      <c r="BL92" s="21" t="inlineStr"/>
+      <c r="BM92" s="23" t="inlineStr"/>
       <c r="BN92" s="25" t="inlineStr"/>
       <c r="BO92" s="25" t="inlineStr"/>
       <c r="BP92" s="25" t="inlineStr"/>
@@ -10673,14 +10776,15 @@
       <c r="CE92" s="25" t="inlineStr"/>
       <c r="CF92" s="25" t="inlineStr"/>
       <c r="CG92" s="25" t="inlineStr"/>
-      <c r="CH92" s="26" t="inlineStr"/>
-      <c r="CI92" s="34" t="inlineStr"/>
+      <c r="CH92" s="25" t="inlineStr"/>
+      <c r="CI92" s="26" t="inlineStr"/>
       <c r="CJ92" s="34" t="inlineStr"/>
       <c r="CK92" s="34" t="inlineStr"/>
       <c r="CL92" s="34" t="inlineStr"/>
-      <c r="CM92" s="27" t="inlineStr"/>
-      <c r="CN92" s="28" t="inlineStr"/>
+      <c r="CM92" s="34" t="inlineStr"/>
+      <c r="CN92" s="27" t="inlineStr"/>
       <c r="CO92" s="28" t="inlineStr"/>
+      <c r="CP92" s="28" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -10708,31 +10812,31 @@
       <c r="W93" s="19" t="inlineStr"/>
       <c r="X93" s="19" t="inlineStr"/>
       <c r="Y93" s="19" t="inlineStr"/>
-      <c r="Z93" s="20" t="inlineStr"/>
-      <c r="AA93" s="21" t="inlineStr"/>
+      <c r="Z93" s="19" t="inlineStr"/>
+      <c r="AA93" s="20" t="inlineStr"/>
       <c r="AB93" s="21" t="inlineStr"/>
-      <c r="AC93" s="22" t="inlineStr"/>
+      <c r="AC93" s="21" t="inlineStr"/>
       <c r="AD93" s="22" t="inlineStr"/>
-      <c r="AE93" s="21" t="inlineStr"/>
-      <c r="AF93" s="23" t="inlineStr"/>
-      <c r="AG93" s="24" t="inlineStr"/>
+      <c r="AE93" s="22" t="inlineStr"/>
+      <c r="AF93" s="21" t="inlineStr"/>
+      <c r="AG93" s="23" t="inlineStr"/>
       <c r="AH93" s="24" t="inlineStr"/>
       <c r="AI93" s="24" t="inlineStr"/>
       <c r="AJ93" s="24" t="inlineStr"/>
-      <c r="AK93" s="25" t="inlineStr"/>
+      <c r="AK93" s="24" t="inlineStr"/>
       <c r="AL93" s="25" t="inlineStr"/>
       <c r="AM93" s="25" t="inlineStr"/>
-      <c r="AN93" s="26" t="inlineStr"/>
-      <c r="AO93" s="27" t="inlineStr"/>
-      <c r="AP93" s="28" t="inlineStr"/>
-      <c r="AQ93" s="29" t="inlineStr"/>
-      <c r="AR93" s="30" t="inlineStr"/>
-      <c r="AS93" s="31" t="inlineStr"/>
-      <c r="AT93" s="17" t="inlineStr"/>
+      <c r="AN93" s="25" t="inlineStr"/>
+      <c r="AO93" s="26" t="inlineStr"/>
+      <c r="AP93" s="27" t="inlineStr"/>
+      <c r="AQ93" s="28" t="inlineStr"/>
+      <c r="AR93" s="29" t="inlineStr"/>
+      <c r="AS93" s="30" t="inlineStr"/>
+      <c r="AT93" s="31" t="inlineStr"/>
       <c r="AU93" s="17" t="inlineStr"/>
-      <c r="AV93" s="32" t="inlineStr"/>
-      <c r="AW93" s="18" t="inlineStr"/>
-      <c r="AX93" s="19" t="inlineStr"/>
+      <c r="AV93" s="17" t="inlineStr"/>
+      <c r="AW93" s="32" t="inlineStr"/>
+      <c r="AX93" s="18" t="inlineStr"/>
       <c r="AY93" s="19" t="inlineStr"/>
       <c r="AZ93" s="19" t="inlineStr"/>
       <c r="BA93" s="19" t="inlineStr"/>
@@ -10741,13 +10845,13 @@
       <c r="BD93" s="19" t="inlineStr"/>
       <c r="BE93" s="19" t="inlineStr"/>
       <c r="BF93" s="19" t="inlineStr"/>
-      <c r="BG93" s="33" t="inlineStr"/>
-      <c r="BH93" s="19" t="inlineStr"/>
-      <c r="BI93" s="20" t="inlineStr"/>
-      <c r="BJ93" s="21" t="inlineStr"/>
+      <c r="BG93" s="19" t="inlineStr"/>
+      <c r="BH93" s="33" t="inlineStr"/>
+      <c r="BI93" s="19" t="inlineStr"/>
+      <c r="BJ93" s="20" t="inlineStr"/>
       <c r="BK93" s="21" t="inlineStr"/>
-      <c r="BL93" s="23" t="inlineStr"/>
-      <c r="BM93" s="25" t="inlineStr"/>
+      <c r="BL93" s="21" t="inlineStr"/>
+      <c r="BM93" s="23" t="inlineStr"/>
       <c r="BN93" s="25" t="inlineStr"/>
       <c r="BO93" s="25" t="inlineStr"/>
       <c r="BP93" s="25" t="inlineStr"/>
@@ -10768,14 +10872,15 @@
       <c r="CE93" s="25" t="inlineStr"/>
       <c r="CF93" s="25" t="inlineStr"/>
       <c r="CG93" s="25" t="inlineStr"/>
-      <c r="CH93" s="26" t="inlineStr"/>
-      <c r="CI93" s="34" t="inlineStr"/>
+      <c r="CH93" s="25" t="inlineStr"/>
+      <c r="CI93" s="26" t="inlineStr"/>
       <c r="CJ93" s="34" t="inlineStr"/>
       <c r="CK93" s="34" t="inlineStr"/>
       <c r="CL93" s="34" t="inlineStr"/>
-      <c r="CM93" s="27" t="inlineStr"/>
-      <c r="CN93" s="28" t="inlineStr"/>
+      <c r="CM93" s="34" t="inlineStr"/>
+      <c r="CN93" s="27" t="inlineStr"/>
       <c r="CO93" s="28" t="inlineStr"/>
+      <c r="CP93" s="28" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -10803,31 +10908,31 @@
       <c r="W94" s="19" t="inlineStr"/>
       <c r="X94" s="19" t="inlineStr"/>
       <c r="Y94" s="19" t="inlineStr"/>
-      <c r="Z94" s="20" t="inlineStr"/>
-      <c r="AA94" s="21" t="inlineStr"/>
+      <c r="Z94" s="19" t="inlineStr"/>
+      <c r="AA94" s="20" t="inlineStr"/>
       <c r="AB94" s="21" t="inlineStr"/>
-      <c r="AC94" s="22" t="inlineStr"/>
+      <c r="AC94" s="21" t="inlineStr"/>
       <c r="AD94" s="22" t="inlineStr"/>
-      <c r="AE94" s="21" t="inlineStr"/>
-      <c r="AF94" s="23" t="inlineStr"/>
-      <c r="AG94" s="24" t="inlineStr"/>
+      <c r="AE94" s="22" t="inlineStr"/>
+      <c r="AF94" s="21" t="inlineStr"/>
+      <c r="AG94" s="23" t="inlineStr"/>
       <c r="AH94" s="24" t="inlineStr"/>
       <c r="AI94" s="24" t="inlineStr"/>
       <c r="AJ94" s="24" t="inlineStr"/>
-      <c r="AK94" s="25" t="inlineStr"/>
+      <c r="AK94" s="24" t="inlineStr"/>
       <c r="AL94" s="25" t="inlineStr"/>
       <c r="AM94" s="25" t="inlineStr"/>
-      <c r="AN94" s="26" t="inlineStr"/>
-      <c r="AO94" s="27" t="inlineStr"/>
-      <c r="AP94" s="28" t="inlineStr"/>
-      <c r="AQ94" s="29" t="inlineStr"/>
-      <c r="AR94" s="30" t="inlineStr"/>
-      <c r="AS94" s="31" t="inlineStr"/>
-      <c r="AT94" s="17" t="inlineStr"/>
+      <c r="AN94" s="25" t="inlineStr"/>
+      <c r="AO94" s="26" t="inlineStr"/>
+      <c r="AP94" s="27" t="inlineStr"/>
+      <c r="AQ94" s="28" t="inlineStr"/>
+      <c r="AR94" s="29" t="inlineStr"/>
+      <c r="AS94" s="30" t="inlineStr"/>
+      <c r="AT94" s="31" t="inlineStr"/>
       <c r="AU94" s="17" t="inlineStr"/>
-      <c r="AV94" s="32" t="inlineStr"/>
-      <c r="AW94" s="18" t="inlineStr"/>
-      <c r="AX94" s="19" t="inlineStr"/>
+      <c r="AV94" s="17" t="inlineStr"/>
+      <c r="AW94" s="32" t="inlineStr"/>
+      <c r="AX94" s="18" t="inlineStr"/>
       <c r="AY94" s="19" t="inlineStr"/>
       <c r="AZ94" s="19" t="inlineStr"/>
       <c r="BA94" s="19" t="inlineStr"/>
@@ -10836,13 +10941,13 @@
       <c r="BD94" s="19" t="inlineStr"/>
       <c r="BE94" s="19" t="inlineStr"/>
       <c r="BF94" s="19" t="inlineStr"/>
-      <c r="BG94" s="33" t="inlineStr"/>
-      <c r="BH94" s="19" t="inlineStr"/>
-      <c r="BI94" s="20" t="inlineStr"/>
-      <c r="BJ94" s="21" t="inlineStr"/>
+      <c r="BG94" s="19" t="inlineStr"/>
+      <c r="BH94" s="33" t="inlineStr"/>
+      <c r="BI94" s="19" t="inlineStr"/>
+      <c r="BJ94" s="20" t="inlineStr"/>
       <c r="BK94" s="21" t="inlineStr"/>
-      <c r="BL94" s="23" t="inlineStr"/>
-      <c r="BM94" s="25" t="inlineStr"/>
+      <c r="BL94" s="21" t="inlineStr"/>
+      <c r="BM94" s="23" t="inlineStr"/>
       <c r="BN94" s="25" t="inlineStr"/>
       <c r="BO94" s="25" t="inlineStr"/>
       <c r="BP94" s="25" t="inlineStr"/>
@@ -10863,14 +10968,15 @@
       <c r="CE94" s="25" t="inlineStr"/>
       <c r="CF94" s="25" t="inlineStr"/>
       <c r="CG94" s="25" t="inlineStr"/>
-      <c r="CH94" s="26" t="inlineStr"/>
-      <c r="CI94" s="34" t="inlineStr"/>
+      <c r="CH94" s="25" t="inlineStr"/>
+      <c r="CI94" s="26" t="inlineStr"/>
       <c r="CJ94" s="34" t="inlineStr"/>
       <c r="CK94" s="34" t="inlineStr"/>
       <c r="CL94" s="34" t="inlineStr"/>
-      <c r="CM94" s="27" t="inlineStr"/>
-      <c r="CN94" s="28" t="inlineStr"/>
+      <c r="CM94" s="34" t="inlineStr"/>
+      <c r="CN94" s="27" t="inlineStr"/>
       <c r="CO94" s="28" t="inlineStr"/>
+      <c r="CP94" s="28" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -10898,31 +11004,31 @@
       <c r="W95" s="19" t="inlineStr"/>
       <c r="X95" s="19" t="inlineStr"/>
       <c r="Y95" s="19" t="inlineStr"/>
-      <c r="Z95" s="20" t="inlineStr"/>
-      <c r="AA95" s="21" t="inlineStr"/>
+      <c r="Z95" s="19" t="inlineStr"/>
+      <c r="AA95" s="20" t="inlineStr"/>
       <c r="AB95" s="21" t="inlineStr"/>
-      <c r="AC95" s="22" t="inlineStr"/>
+      <c r="AC95" s="21" t="inlineStr"/>
       <c r="AD95" s="22" t="inlineStr"/>
-      <c r="AE95" s="21" t="inlineStr"/>
-      <c r="AF95" s="23" t="inlineStr"/>
-      <c r="AG95" s="24" t="inlineStr"/>
+      <c r="AE95" s="22" t="inlineStr"/>
+      <c r="AF95" s="21" t="inlineStr"/>
+      <c r="AG95" s="23" t="inlineStr"/>
       <c r="AH95" s="24" t="inlineStr"/>
       <c r="AI95" s="24" t="inlineStr"/>
       <c r="AJ95" s="24" t="inlineStr"/>
-      <c r="AK95" s="25" t="inlineStr"/>
+      <c r="AK95" s="24" t="inlineStr"/>
       <c r="AL95" s="25" t="inlineStr"/>
       <c r="AM95" s="25" t="inlineStr"/>
-      <c r="AN95" s="26" t="inlineStr"/>
-      <c r="AO95" s="27" t="inlineStr"/>
-      <c r="AP95" s="28" t="inlineStr"/>
-      <c r="AQ95" s="29" t="inlineStr"/>
-      <c r="AR95" s="30" t="inlineStr"/>
-      <c r="AS95" s="31" t="inlineStr"/>
-      <c r="AT95" s="17" t="inlineStr"/>
+      <c r="AN95" s="25" t="inlineStr"/>
+      <c r="AO95" s="26" t="inlineStr"/>
+      <c r="AP95" s="27" t="inlineStr"/>
+      <c r="AQ95" s="28" t="inlineStr"/>
+      <c r="AR95" s="29" t="inlineStr"/>
+      <c r="AS95" s="30" t="inlineStr"/>
+      <c r="AT95" s="31" t="inlineStr"/>
       <c r="AU95" s="17" t="inlineStr"/>
-      <c r="AV95" s="32" t="inlineStr"/>
-      <c r="AW95" s="18" t="inlineStr"/>
-      <c r="AX95" s="19" t="inlineStr"/>
+      <c r="AV95" s="17" t="inlineStr"/>
+      <c r="AW95" s="32" t="inlineStr"/>
+      <c r="AX95" s="18" t="inlineStr"/>
       <c r="AY95" s="19" t="inlineStr"/>
       <c r="AZ95" s="19" t="inlineStr"/>
       <c r="BA95" s="19" t="inlineStr"/>
@@ -10931,13 +11037,13 @@
       <c r="BD95" s="19" t="inlineStr"/>
       <c r="BE95" s="19" t="inlineStr"/>
       <c r="BF95" s="19" t="inlineStr"/>
-      <c r="BG95" s="33" t="inlineStr"/>
-      <c r="BH95" s="19" t="inlineStr"/>
-      <c r="BI95" s="20" t="inlineStr"/>
-      <c r="BJ95" s="21" t="inlineStr"/>
+      <c r="BG95" s="19" t="inlineStr"/>
+      <c r="BH95" s="33" t="inlineStr"/>
+      <c r="BI95" s="19" t="inlineStr"/>
+      <c r="BJ95" s="20" t="inlineStr"/>
       <c r="BK95" s="21" t="inlineStr"/>
-      <c r="BL95" s="23" t="inlineStr"/>
-      <c r="BM95" s="25" t="inlineStr"/>
+      <c r="BL95" s="21" t="inlineStr"/>
+      <c r="BM95" s="23" t="inlineStr"/>
       <c r="BN95" s="25" t="inlineStr"/>
       <c r="BO95" s="25" t="inlineStr"/>
       <c r="BP95" s="25" t="inlineStr"/>
@@ -10958,14 +11064,15 @@
       <c r="CE95" s="25" t="inlineStr"/>
       <c r="CF95" s="25" t="inlineStr"/>
       <c r="CG95" s="25" t="inlineStr"/>
-      <c r="CH95" s="26" t="inlineStr"/>
-      <c r="CI95" s="34" t="inlineStr"/>
+      <c r="CH95" s="25" t="inlineStr"/>
+      <c r="CI95" s="26" t="inlineStr"/>
       <c r="CJ95" s="34" t="inlineStr"/>
       <c r="CK95" s="34" t="inlineStr"/>
       <c r="CL95" s="34" t="inlineStr"/>
-      <c r="CM95" s="27" t="inlineStr"/>
-      <c r="CN95" s="28" t="inlineStr"/>
+      <c r="CM95" s="34" t="inlineStr"/>
+      <c r="CN95" s="27" t="inlineStr"/>
       <c r="CO95" s="28" t="inlineStr"/>
+      <c r="CP95" s="28" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -10993,31 +11100,31 @@
       <c r="W96" s="19" t="inlineStr"/>
       <c r="X96" s="19" t="inlineStr"/>
       <c r="Y96" s="19" t="inlineStr"/>
-      <c r="Z96" s="20" t="inlineStr"/>
-      <c r="AA96" s="21" t="inlineStr"/>
+      <c r="Z96" s="19" t="inlineStr"/>
+      <c r="AA96" s="20" t="inlineStr"/>
       <c r="AB96" s="21" t="inlineStr"/>
-      <c r="AC96" s="22" t="inlineStr"/>
+      <c r="AC96" s="21" t="inlineStr"/>
       <c r="AD96" s="22" t="inlineStr"/>
-      <c r="AE96" s="21" t="inlineStr"/>
-      <c r="AF96" s="23" t="inlineStr"/>
-      <c r="AG96" s="24" t="inlineStr"/>
+      <c r="AE96" s="22" t="inlineStr"/>
+      <c r="AF96" s="21" t="inlineStr"/>
+      <c r="AG96" s="23" t="inlineStr"/>
       <c r="AH96" s="24" t="inlineStr"/>
       <c r="AI96" s="24" t="inlineStr"/>
       <c r="AJ96" s="24" t="inlineStr"/>
-      <c r="AK96" s="25" t="inlineStr"/>
+      <c r="AK96" s="24" t="inlineStr"/>
       <c r="AL96" s="25" t="inlineStr"/>
       <c r="AM96" s="25" t="inlineStr"/>
-      <c r="AN96" s="26" t="inlineStr"/>
-      <c r="AO96" s="27" t="inlineStr"/>
-      <c r="AP96" s="28" t="inlineStr"/>
-      <c r="AQ96" s="29" t="inlineStr"/>
-      <c r="AR96" s="30" t="inlineStr"/>
-      <c r="AS96" s="31" t="inlineStr"/>
-      <c r="AT96" s="17" t="inlineStr"/>
+      <c r="AN96" s="25" t="inlineStr"/>
+      <c r="AO96" s="26" t="inlineStr"/>
+      <c r="AP96" s="27" t="inlineStr"/>
+      <c r="AQ96" s="28" t="inlineStr"/>
+      <c r="AR96" s="29" t="inlineStr"/>
+      <c r="AS96" s="30" t="inlineStr"/>
+      <c r="AT96" s="31" t="inlineStr"/>
       <c r="AU96" s="17" t="inlineStr"/>
-      <c r="AV96" s="32" t="inlineStr"/>
-      <c r="AW96" s="18" t="inlineStr"/>
-      <c r="AX96" s="19" t="inlineStr"/>
+      <c r="AV96" s="17" t="inlineStr"/>
+      <c r="AW96" s="32" t="inlineStr"/>
+      <c r="AX96" s="18" t="inlineStr"/>
       <c r="AY96" s="19" t="inlineStr"/>
       <c r="AZ96" s="19" t="inlineStr"/>
       <c r="BA96" s="19" t="inlineStr"/>
@@ -11026,13 +11133,13 @@
       <c r="BD96" s="19" t="inlineStr"/>
       <c r="BE96" s="19" t="inlineStr"/>
       <c r="BF96" s="19" t="inlineStr"/>
-      <c r="BG96" s="33" t="inlineStr"/>
-      <c r="BH96" s="19" t="inlineStr"/>
-      <c r="BI96" s="20" t="inlineStr"/>
-      <c r="BJ96" s="21" t="inlineStr"/>
+      <c r="BG96" s="19" t="inlineStr"/>
+      <c r="BH96" s="33" t="inlineStr"/>
+      <c r="BI96" s="19" t="inlineStr"/>
+      <c r="BJ96" s="20" t="inlineStr"/>
       <c r="BK96" s="21" t="inlineStr"/>
-      <c r="BL96" s="23" t="inlineStr"/>
-      <c r="BM96" s="25" t="inlineStr"/>
+      <c r="BL96" s="21" t="inlineStr"/>
+      <c r="BM96" s="23" t="inlineStr"/>
       <c r="BN96" s="25" t="inlineStr"/>
       <c r="BO96" s="25" t="inlineStr"/>
       <c r="BP96" s="25" t="inlineStr"/>
@@ -11053,14 +11160,15 @@
       <c r="CE96" s="25" t="inlineStr"/>
       <c r="CF96" s="25" t="inlineStr"/>
       <c r="CG96" s="25" t="inlineStr"/>
-      <c r="CH96" s="26" t="inlineStr"/>
-      <c r="CI96" s="34" t="inlineStr"/>
+      <c r="CH96" s="25" t="inlineStr"/>
+      <c r="CI96" s="26" t="inlineStr"/>
       <c r="CJ96" s="34" t="inlineStr"/>
       <c r="CK96" s="34" t="inlineStr"/>
       <c r="CL96" s="34" t="inlineStr"/>
-      <c r="CM96" s="27" t="inlineStr"/>
-      <c r="CN96" s="28" t="inlineStr"/>
+      <c r="CM96" s="34" t="inlineStr"/>
+      <c r="CN96" s="27" t="inlineStr"/>
       <c r="CO96" s="28" t="inlineStr"/>
+      <c r="CP96" s="28" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -11088,31 +11196,31 @@
       <c r="W97" s="19" t="inlineStr"/>
       <c r="X97" s="19" t="inlineStr"/>
       <c r="Y97" s="19" t="inlineStr"/>
-      <c r="Z97" s="20" t="inlineStr"/>
-      <c r="AA97" s="21" t="inlineStr"/>
+      <c r="Z97" s="19" t="inlineStr"/>
+      <c r="AA97" s="20" t="inlineStr"/>
       <c r="AB97" s="21" t="inlineStr"/>
-      <c r="AC97" s="22" t="inlineStr"/>
+      <c r="AC97" s="21" t="inlineStr"/>
       <c r="AD97" s="22" t="inlineStr"/>
-      <c r="AE97" s="21" t="inlineStr"/>
-      <c r="AF97" s="23" t="inlineStr"/>
-      <c r="AG97" s="24" t="inlineStr"/>
+      <c r="AE97" s="22" t="inlineStr"/>
+      <c r="AF97" s="21" t="inlineStr"/>
+      <c r="AG97" s="23" t="inlineStr"/>
       <c r="AH97" s="24" t="inlineStr"/>
       <c r="AI97" s="24" t="inlineStr"/>
       <c r="AJ97" s="24" t="inlineStr"/>
-      <c r="AK97" s="25" t="inlineStr"/>
+      <c r="AK97" s="24" t="inlineStr"/>
       <c r="AL97" s="25" t="inlineStr"/>
       <c r="AM97" s="25" t="inlineStr"/>
-      <c r="AN97" s="26" t="inlineStr"/>
-      <c r="AO97" s="27" t="inlineStr"/>
-      <c r="AP97" s="28" t="inlineStr"/>
-      <c r="AQ97" s="29" t="inlineStr"/>
-      <c r="AR97" s="30" t="inlineStr"/>
-      <c r="AS97" s="31" t="inlineStr"/>
-      <c r="AT97" s="17" t="inlineStr"/>
+      <c r="AN97" s="25" t="inlineStr"/>
+      <c r="AO97" s="26" t="inlineStr"/>
+      <c r="AP97" s="27" t="inlineStr"/>
+      <c r="AQ97" s="28" t="inlineStr"/>
+      <c r="AR97" s="29" t="inlineStr"/>
+      <c r="AS97" s="30" t="inlineStr"/>
+      <c r="AT97" s="31" t="inlineStr"/>
       <c r="AU97" s="17" t="inlineStr"/>
-      <c r="AV97" s="32" t="inlineStr"/>
-      <c r="AW97" s="18" t="inlineStr"/>
-      <c r="AX97" s="19" t="inlineStr"/>
+      <c r="AV97" s="17" t="inlineStr"/>
+      <c r="AW97" s="32" t="inlineStr"/>
+      <c r="AX97" s="18" t="inlineStr"/>
       <c r="AY97" s="19" t="inlineStr"/>
       <c r="AZ97" s="19" t="inlineStr"/>
       <c r="BA97" s="19" t="inlineStr"/>
@@ -11121,13 +11229,13 @@
       <c r="BD97" s="19" t="inlineStr"/>
       <c r="BE97" s="19" t="inlineStr"/>
       <c r="BF97" s="19" t="inlineStr"/>
-      <c r="BG97" s="33" t="inlineStr"/>
-      <c r="BH97" s="19" t="inlineStr"/>
-      <c r="BI97" s="20" t="inlineStr"/>
-      <c r="BJ97" s="21" t="inlineStr"/>
+      <c r="BG97" s="19" t="inlineStr"/>
+      <c r="BH97" s="33" t="inlineStr"/>
+      <c r="BI97" s="19" t="inlineStr"/>
+      <c r="BJ97" s="20" t="inlineStr"/>
       <c r="BK97" s="21" t="inlineStr"/>
-      <c r="BL97" s="23" t="inlineStr"/>
-      <c r="BM97" s="25" t="inlineStr"/>
+      <c r="BL97" s="21" t="inlineStr"/>
+      <c r="BM97" s="23" t="inlineStr"/>
       <c r="BN97" s="25" t="inlineStr"/>
       <c r="BO97" s="25" t="inlineStr"/>
       <c r="BP97" s="25" t="inlineStr"/>
@@ -11148,14 +11256,15 @@
       <c r="CE97" s="25" t="inlineStr"/>
       <c r="CF97" s="25" t="inlineStr"/>
       <c r="CG97" s="25" t="inlineStr"/>
-      <c r="CH97" s="26" t="inlineStr"/>
-      <c r="CI97" s="34" t="inlineStr"/>
+      <c r="CH97" s="25" t="inlineStr"/>
+      <c r="CI97" s="26" t="inlineStr"/>
       <c r="CJ97" s="34" t="inlineStr"/>
       <c r="CK97" s="34" t="inlineStr"/>
       <c r="CL97" s="34" t="inlineStr"/>
-      <c r="CM97" s="27" t="inlineStr"/>
-      <c r="CN97" s="28" t="inlineStr"/>
+      <c r="CM97" s="34" t="inlineStr"/>
+      <c r="CN97" s="27" t="inlineStr"/>
       <c r="CO97" s="28" t="inlineStr"/>
+      <c r="CP97" s="28" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -11183,31 +11292,31 @@
       <c r="W98" s="19" t="inlineStr"/>
       <c r="X98" s="19" t="inlineStr"/>
       <c r="Y98" s="19" t="inlineStr"/>
-      <c r="Z98" s="20" t="inlineStr"/>
-      <c r="AA98" s="21" t="inlineStr"/>
+      <c r="Z98" s="19" t="inlineStr"/>
+      <c r="AA98" s="20" t="inlineStr"/>
       <c r="AB98" s="21" t="inlineStr"/>
-      <c r="AC98" s="22" t="inlineStr"/>
+      <c r="AC98" s="21" t="inlineStr"/>
       <c r="AD98" s="22" t="inlineStr"/>
-      <c r="AE98" s="21" t="inlineStr"/>
-      <c r="AF98" s="23" t="inlineStr"/>
-      <c r="AG98" s="24" t="inlineStr"/>
+      <c r="AE98" s="22" t="inlineStr"/>
+      <c r="AF98" s="21" t="inlineStr"/>
+      <c r="AG98" s="23" t="inlineStr"/>
       <c r="AH98" s="24" t="inlineStr"/>
       <c r="AI98" s="24" t="inlineStr"/>
       <c r="AJ98" s="24" t="inlineStr"/>
-      <c r="AK98" s="25" t="inlineStr"/>
+      <c r="AK98" s="24" t="inlineStr"/>
       <c r="AL98" s="25" t="inlineStr"/>
       <c r="AM98" s="25" t="inlineStr"/>
-      <c r="AN98" s="26" t="inlineStr"/>
-      <c r="AO98" s="27" t="inlineStr"/>
-      <c r="AP98" s="28" t="inlineStr"/>
-      <c r="AQ98" s="29" t="inlineStr"/>
-      <c r="AR98" s="30" t="inlineStr"/>
-      <c r="AS98" s="31" t="inlineStr"/>
-      <c r="AT98" s="17" t="inlineStr"/>
+      <c r="AN98" s="25" t="inlineStr"/>
+      <c r="AO98" s="26" t="inlineStr"/>
+      <c r="AP98" s="27" t="inlineStr"/>
+      <c r="AQ98" s="28" t="inlineStr"/>
+      <c r="AR98" s="29" t="inlineStr"/>
+      <c r="AS98" s="30" t="inlineStr"/>
+      <c r="AT98" s="31" t="inlineStr"/>
       <c r="AU98" s="17" t="inlineStr"/>
-      <c r="AV98" s="32" t="inlineStr"/>
-      <c r="AW98" s="18" t="inlineStr"/>
-      <c r="AX98" s="19" t="inlineStr"/>
+      <c r="AV98" s="17" t="inlineStr"/>
+      <c r="AW98" s="32" t="inlineStr"/>
+      <c r="AX98" s="18" t="inlineStr"/>
       <c r="AY98" s="19" t="inlineStr"/>
       <c r="AZ98" s="19" t="inlineStr"/>
       <c r="BA98" s="19" t="inlineStr"/>
@@ -11216,13 +11325,13 @@
       <c r="BD98" s="19" t="inlineStr"/>
       <c r="BE98" s="19" t="inlineStr"/>
       <c r="BF98" s="19" t="inlineStr"/>
-      <c r="BG98" s="33" t="inlineStr"/>
-      <c r="BH98" s="19" t="inlineStr"/>
-      <c r="BI98" s="20" t="inlineStr"/>
-      <c r="BJ98" s="21" t="inlineStr"/>
+      <c r="BG98" s="19" t="inlineStr"/>
+      <c r="BH98" s="33" t="inlineStr"/>
+      <c r="BI98" s="19" t="inlineStr"/>
+      <c r="BJ98" s="20" t="inlineStr"/>
       <c r="BK98" s="21" t="inlineStr"/>
-      <c r="BL98" s="23" t="inlineStr"/>
-      <c r="BM98" s="25" t="inlineStr"/>
+      <c r="BL98" s="21" t="inlineStr"/>
+      <c r="BM98" s="23" t="inlineStr"/>
       <c r="BN98" s="25" t="inlineStr"/>
       <c r="BO98" s="25" t="inlineStr"/>
       <c r="BP98" s="25" t="inlineStr"/>
@@ -11243,14 +11352,15 @@
       <c r="CE98" s="25" t="inlineStr"/>
       <c r="CF98" s="25" t="inlineStr"/>
       <c r="CG98" s="25" t="inlineStr"/>
-      <c r="CH98" s="26" t="inlineStr"/>
-      <c r="CI98" s="34" t="inlineStr"/>
+      <c r="CH98" s="25" t="inlineStr"/>
+      <c r="CI98" s="26" t="inlineStr"/>
       <c r="CJ98" s="34" t="inlineStr"/>
       <c r="CK98" s="34" t="inlineStr"/>
       <c r="CL98" s="34" t="inlineStr"/>
-      <c r="CM98" s="27" t="inlineStr"/>
-      <c r="CN98" s="28" t="inlineStr"/>
+      <c r="CM98" s="34" t="inlineStr"/>
+      <c r="CN98" s="27" t="inlineStr"/>
       <c r="CO98" s="28" t="inlineStr"/>
+      <c r="CP98" s="28" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -11278,31 +11388,31 @@
       <c r="W99" s="19" t="inlineStr"/>
       <c r="X99" s="19" t="inlineStr"/>
       <c r="Y99" s="19" t="inlineStr"/>
-      <c r="Z99" s="20" t="inlineStr"/>
-      <c r="AA99" s="21" t="inlineStr"/>
+      <c r="Z99" s="19" t="inlineStr"/>
+      <c r="AA99" s="20" t="inlineStr"/>
       <c r="AB99" s="21" t="inlineStr"/>
-      <c r="AC99" s="22" t="inlineStr"/>
+      <c r="AC99" s="21" t="inlineStr"/>
       <c r="AD99" s="22" t="inlineStr"/>
-      <c r="AE99" s="21" t="inlineStr"/>
-      <c r="AF99" s="23" t="inlineStr"/>
-      <c r="AG99" s="24" t="inlineStr"/>
+      <c r="AE99" s="22" t="inlineStr"/>
+      <c r="AF99" s="21" t="inlineStr"/>
+      <c r="AG99" s="23" t="inlineStr"/>
       <c r="AH99" s="24" t="inlineStr"/>
       <c r="AI99" s="24" t="inlineStr"/>
       <c r="AJ99" s="24" t="inlineStr"/>
-      <c r="AK99" s="25" t="inlineStr"/>
+      <c r="AK99" s="24" t="inlineStr"/>
       <c r="AL99" s="25" t="inlineStr"/>
       <c r="AM99" s="25" t="inlineStr"/>
-      <c r="AN99" s="26" t="inlineStr"/>
-      <c r="AO99" s="27" t="inlineStr"/>
-      <c r="AP99" s="28" t="inlineStr"/>
-      <c r="AQ99" s="29" t="inlineStr"/>
-      <c r="AR99" s="30" t="inlineStr"/>
-      <c r="AS99" s="31" t="inlineStr"/>
-      <c r="AT99" s="17" t="inlineStr"/>
+      <c r="AN99" s="25" t="inlineStr"/>
+      <c r="AO99" s="26" t="inlineStr"/>
+      <c r="AP99" s="27" t="inlineStr"/>
+      <c r="AQ99" s="28" t="inlineStr"/>
+      <c r="AR99" s="29" t="inlineStr"/>
+      <c r="AS99" s="30" t="inlineStr"/>
+      <c r="AT99" s="31" t="inlineStr"/>
       <c r="AU99" s="17" t="inlineStr"/>
-      <c r="AV99" s="32" t="inlineStr"/>
-      <c r="AW99" s="18" t="inlineStr"/>
-      <c r="AX99" s="19" t="inlineStr"/>
+      <c r="AV99" s="17" t="inlineStr"/>
+      <c r="AW99" s="32" t="inlineStr"/>
+      <c r="AX99" s="18" t="inlineStr"/>
       <c r="AY99" s="19" t="inlineStr"/>
       <c r="AZ99" s="19" t="inlineStr"/>
       <c r="BA99" s="19" t="inlineStr"/>
@@ -11311,13 +11421,13 @@
       <c r="BD99" s="19" t="inlineStr"/>
       <c r="BE99" s="19" t="inlineStr"/>
       <c r="BF99" s="19" t="inlineStr"/>
-      <c r="BG99" s="33" t="inlineStr"/>
-      <c r="BH99" s="19" t="inlineStr"/>
-      <c r="BI99" s="20" t="inlineStr"/>
-      <c r="BJ99" s="21" t="inlineStr"/>
+      <c r="BG99" s="19" t="inlineStr"/>
+      <c r="BH99" s="33" t="inlineStr"/>
+      <c r="BI99" s="19" t="inlineStr"/>
+      <c r="BJ99" s="20" t="inlineStr"/>
       <c r="BK99" s="21" t="inlineStr"/>
-      <c r="BL99" s="23" t="inlineStr"/>
-      <c r="BM99" s="25" t="inlineStr"/>
+      <c r="BL99" s="21" t="inlineStr"/>
+      <c r="BM99" s="23" t="inlineStr"/>
       <c r="BN99" s="25" t="inlineStr"/>
       <c r="BO99" s="25" t="inlineStr"/>
       <c r="BP99" s="25" t="inlineStr"/>
@@ -11338,28 +11448,29 @@
       <c r="CE99" s="25" t="inlineStr"/>
       <c r="CF99" s="25" t="inlineStr"/>
       <c r="CG99" s="25" t="inlineStr"/>
-      <c r="CH99" s="26" t="inlineStr"/>
-      <c r="CI99" s="34" t="inlineStr"/>
+      <c r="CH99" s="25" t="inlineStr"/>
+      <c r="CI99" s="26" t="inlineStr"/>
       <c r="CJ99" s="34" t="inlineStr"/>
       <c r="CK99" s="34" t="inlineStr"/>
       <c r="CL99" s="34" t="inlineStr"/>
-      <c r="CM99" s="27" t="inlineStr"/>
-      <c r="CN99" s="28" t="inlineStr"/>
+      <c r="CM99" s="34" t="inlineStr"/>
+      <c r="CN99" s="27" t="inlineStr"/>
       <c r="CO99" s="28" t="inlineStr"/>
+      <c r="CP99" s="28" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="AC2:AC100 AD2:AD100 AK2:AK100 AL2:AL100 AM2:AM100 AS2:AS100 AV2:AV100 BG2:BG100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BY2:BY100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100 CD2:CD100 CE2:CE100 CF2:CF100 CG2:CG100 CI2:CI100 CJ2:CJ100 CK2:CK100 CL2:CL100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="AD2:AD100 AE2:AE100 AL2:AL100 AM2:AM100 AN2:AN100 AT2:AT100 AW2:AW100 BH2:BH100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BY2:BY100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100 CD2:CD100 CE2:CE100 CF2:CF100 CG2:CG100 CH2:CH100 CJ2:CJ100 CK2:CK100 CL2:CL100 CM2:CM100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 Y2:Y100 AZ2:AZ100 CN2:CN100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="H2:H100 Z2:Z100 BA2:BA100 CO2:CO100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
       <formula1>"public,non-public,restricted public"</formula1>
     </dataValidation>
     <dataValidation sqref="G2:G100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot; or &quot;non-public&quot; " type="list">
       <formula1>"public,non-public"</formula1>
     </dataValidation>
-    <dataValidation sqref="AB2:AB100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
+    <dataValidation sqref="AC2:AC100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>
     </dataValidation>
     <dataValidation sqref="A2:A100" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Entry" error="This value must be string with no spaces and a max of 128 chars" type="custom">

--- a/dist/DIP_Excel_Template.xlsx
+++ b/dist/DIP_Excel_Template.xlsx
@@ -254,7 +254,7 @@
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <t>unique identifier:
-Similar to a serial number associated with your laptop, the identifier is a unique and specific combination of characters that identify the resource. The combination must start with the DHS component code, is limited to 128 characters, and be in the following format: code-xxx-x
+Similar to a serial number associated with your laptop, the identifier is a unique and specific combination of characters that identify the resource. The combination must start with the DHS component code, is limited to 128 characters, and be in the following format: code-xxx-x. Cannot contain spaces or special characters including !$&amp;'()*+,;= per W3 RFC3987 and dnf-iri-safe rules.
 Example:
 mgmt-test-2
 fema-1234-D

--- a/dist/DIP_Excel_Template.xlsx
+++ b/dist/DIP_Excel_Template.xlsx
@@ -264,7 +264,7 @@
     <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <t>title:
-The official name (title) given to the resource, limited to 255 characters. Acronyms should be used sparingly and only when explained in the description.
+The official name (title) given to the resource, limited to 255 characters and cannot be an empty string (at least 10 characters). Acronyms should be used sparingly and only when explained in the description.
 Example:
 DHS Data Inventory Introduction
 &lt;dcterms:title&gt;</t>
@@ -273,7 +273,7 @@
     <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <t>description:
-A summary of the resource, limited to 4,000 characters.
+A summary of the resource, limited to 4,000 characters. Cannot be an empty string and must be at least 28 characters.
 Example:
 A mission and overview of the Data Inventory Program (DIP) containing instructions, references, terminology, and explanations designed  for users to understand and be able to use the features it contains.
 &lt;dcterms:description&gt;</t>
